--- a/resultado_notificacao.xlsx
+++ b/resultado_notificacao.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno.manzatto\Desktop\Phyton\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE67612-2E9E-4995-8248-9EFDFE942439}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD28ECAF-D8E3-4EE9-88EE-CFB9F739F201}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6060" xr2:uid="{49FAAD74-2E73-4D71-9BB1-839EA0047892}"/>
   </bookViews>
@@ -26,45 +26,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="89">
-  <si>
-    <t>CNPJ</t>
-  </si>
-  <si>
-    <t>Razão Social</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Data da notificação</t>
-  </si>
-  <si>
-    <t>Data para conclusão</t>
-  </si>
-  <si>
-    <t>Período</t>
-  </si>
-  <si>
-    <t>Número Notificação</t>
-  </si>
-  <si>
-    <t>Código</t>
-  </si>
-  <si>
-    <t>Valor Solicitado</t>
-  </si>
-  <si>
-    <t>Situação</t>
-  </si>
-  <si>
-    <t>Mês de repasse</t>
-  </si>
-  <si>
-    <t>Origem</t>
-  </si>
-  <si>
-    <t>Obs</t>
-  </si>
   <si>
     <t>LARCO COMERCIAL</t>
   </si>
@@ -292,6 +253,45 @@
   </si>
   <si>
     <t>IPIRANGA PRODUTOS DE PETROLEO SA - 6937</t>
+  </si>
+  <si>
+    <t>raz_social</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>cnpj</t>
+  </si>
+  <si>
+    <t>data_notificacao</t>
+  </si>
+  <si>
+    <t>data_conclusao</t>
+  </si>
+  <si>
+    <t>periodo</t>
+  </si>
+  <si>
+    <t>numero_notificacao</t>
+  </si>
+  <si>
+    <t>codigo</t>
+  </si>
+  <si>
+    <t>valor_solicitado</t>
+  </si>
+  <si>
+    <t>situacao</t>
+  </si>
+  <si>
+    <t>mês_repasse</t>
+  </si>
+  <si>
+    <t>origem</t>
+  </si>
+  <si>
+    <t>obs</t>
   </si>
 </sst>
 </file>
@@ -1368,7 +1368,7 @@
   <dimension ref="A1:AE1009"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1378,45 +1378,45 @@
     <col min="9" max="9" width="12.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="52.5" thickBot="1">
+    <row r="1" spans="1:31" ht="39.5" thickBot="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>77</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>8</v>
+        <v>84</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
@@ -1442,10 +1442,10 @@
         <v>2805889002072</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D2" s="8">
         <v>45769</v>
@@ -1466,13 +1466,13 @@
         <v>338661.66</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="K2" s="12">
         <v>45809</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="M2" s="13"/>
       <c r="N2" s="14"/>
@@ -1499,10 +1499,10 @@
         <v>2805889003125</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D3" s="8">
         <v>45769</v>
@@ -1523,13 +1523,13 @@
         <v>29807.05</v>
       </c>
       <c r="J3" s="16" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="K3" s="16" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="L3" s="16" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="M3" s="21"/>
       <c r="N3" s="14"/>
@@ -1556,10 +1556,10 @@
         <v>34274233026241</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D4" s="8">
         <v>45769</v>
@@ -1580,13 +1580,13 @@
         <v>988.67</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="K4" s="12">
         <v>45778</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="M4" s="13"/>
       <c r="N4" s="14"/>
@@ -1613,10 +1613,10 @@
         <v>1557353001555</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D5" s="8">
         <v>45770</v>
@@ -1637,13 +1637,13 @@
         <v>6495.14</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="K5" s="25">
         <v>45778</v>
       </c>
       <c r="L5" s="16" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="M5" s="21"/>
       <c r="N5" s="14"/>
@@ -1670,10 +1670,10 @@
         <v>3987364001843</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D6" s="8">
         <v>45770</v>
@@ -1682,7 +1682,7 @@
         <v>45793</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G6" s="6">
         <v>25</v>
@@ -1694,13 +1694,13 @@
         <v>31140.799999999999</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="K6" s="12">
         <v>45809</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="M6" s="13"/>
       <c r="N6" s="14"/>
@@ -1727,10 +1727,10 @@
         <v>4169215001759</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D7" s="8">
         <v>45770</v>
@@ -1739,7 +1739,7 @@
         <v>45793</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="G7" s="16">
         <v>26</v>
@@ -1751,13 +1751,13 @@
         <v>16850.5</v>
       </c>
       <c r="J7" s="16" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="K7" s="25">
         <v>45809</v>
       </c>
       <c r="L7" s="16" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="M7" s="21"/>
       <c r="N7" s="14"/>
@@ -1784,10 +1784,10 @@
         <v>7857168001309</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D8" s="8">
         <v>45770</v>
@@ -1808,13 +1808,13 @@
         <v>720.75</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="K8" s="12">
         <v>45717</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="M8" s="13"/>
       <c r="N8" s="14"/>
@@ -1841,10 +1841,10 @@
         <v>8768527000849</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D9" s="8">
         <v>45770</v>
@@ -1865,13 +1865,13 @@
         <v>7997.33</v>
       </c>
       <c r="J9" s="16" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="K9" s="25">
         <v>45717</v>
       </c>
       <c r="L9" s="16" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="M9" s="21"/>
       <c r="N9" s="14"/>
@@ -1898,10 +1898,10 @@
         <v>14546191000104</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D10" s="8">
         <v>45770</v>
@@ -1910,7 +1910,7 @@
         <v>45793</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="G10" s="6">
         <v>29</v>
@@ -1922,13 +1922,13 @@
         <v>1885.57</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="K10" s="12">
         <v>45809</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="M10" s="13"/>
       <c r="N10" s="14"/>
@@ -1955,10 +1955,10 @@
         <v>31864869000450</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D11" s="8">
         <v>45770</v>
@@ -1967,25 +1967,25 @@
         <v>45793</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I11" s="24">
         <v>2888.04</v>
       </c>
       <c r="J11" s="16" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="K11" s="25">
         <v>45809</v>
       </c>
       <c r="L11" s="16" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="M11" s="21"/>
       <c r="N11" s="14"/>
@@ -2012,10 +2012,10 @@
         <v>33337122004386</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D12" s="8">
         <v>45770</v>
@@ -2036,13 +2036,13 @@
         <v>796.61</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="K12" s="12">
         <v>45778</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="M12" s="13"/>
       <c r="N12" s="14"/>
@@ -2069,10 +2069,10 @@
         <v>33337122005358</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D13" s="8">
         <v>45770</v>
@@ -2093,13 +2093,13 @@
         <v>550.94000000000005</v>
       </c>
       <c r="J13" s="16" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="K13" s="25">
         <v>45809</v>
       </c>
       <c r="L13" s="16" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="M13" s="21"/>
       <c r="N13" s="14"/>
@@ -2126,10 +2126,10 @@
         <v>33453598024065</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D14" s="8">
         <v>45770</v>
@@ -2150,13 +2150,13 @@
         <v>10365.76</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="K14" s="12">
         <v>45809</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="M14" s="13"/>
       <c r="N14" s="14"/>
@@ -2183,10 +2183,10 @@
         <v>48700586000204</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D15" s="8">
         <v>45770</v>
@@ -2207,13 +2207,13 @@
         <v>12590.24</v>
       </c>
       <c r="J15" s="16" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="K15" s="25">
         <v>45809</v>
       </c>
       <c r="L15" s="16" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="M15" s="21"/>
       <c r="N15" s="14"/>
@@ -2240,10 +2240,10 @@
         <v>466187000709</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D16" s="8">
         <v>45785</v>
@@ -2264,13 +2264,13 @@
         <v>1695.26</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="M16" s="13"/>
       <c r="N16" s="14"/>
@@ -2297,10 +2297,10 @@
         <v>1125282002755</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D17" s="8">
         <v>45785</v>
@@ -2321,13 +2321,13 @@
         <v>1478.86</v>
       </c>
       <c r="J17" s="16" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="K17" s="16" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="L17" s="16" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="M17" s="21"/>
       <c r="N17" s="14"/>
@@ -2354,10 +2354,10 @@
         <v>4169215001759</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D18" s="8">
         <v>45785</v>
@@ -2378,13 +2378,13 @@
         <v>3916.01</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="K18" s="12">
         <v>45809</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="M18" s="13"/>
       <c r="N18" s="14"/>
@@ -2411,10 +2411,10 @@
         <v>9250921001310</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D19" s="8">
         <v>45785</v>
@@ -2435,13 +2435,13 @@
         <v>3135.56</v>
       </c>
       <c r="J19" s="16" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="K19" s="25">
         <v>45809</v>
       </c>
       <c r="L19" s="16" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="M19" s="21"/>
       <c r="N19" s="14"/>
@@ -2468,10 +2468,10 @@
         <v>10911906000200</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D20" s="8">
         <v>45785</v>
@@ -2492,13 +2492,13 @@
         <v>29544.5</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="M20" s="13"/>
       <c r="N20" s="14"/>
@@ -2525,10 +2525,10 @@
         <v>33337122021396</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D21" s="8">
         <v>45785</v>
@@ -2549,13 +2549,13 @@
         <v>24499.759999999998</v>
       </c>
       <c r="J21" s="16" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="K21" s="25">
         <v>45809</v>
       </c>
       <c r="L21" s="16" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="M21" s="21"/>
       <c r="N21" s="14"/>
@@ -2582,10 +2582,10 @@
         <v>97471676000952</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="D22" s="8">
         <v>45785</v>
@@ -2606,13 +2606,13 @@
         <v>18178.13</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="M22" s="13"/>
       <c r="N22" s="14"/>
@@ -2639,10 +2639,10 @@
         <v>75678169000102</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D23" s="8">
         <v>45804</v>
@@ -2663,13 +2663,13 @@
         <v>106725</v>
       </c>
       <c r="J23" s="16" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="K23" s="16" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="L23" s="16" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="M23" s="21"/>
       <c r="N23" s="14"/>
@@ -2696,10 +2696,10 @@
         <v>64277247000302</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D24" s="8">
         <v>45804</v>
@@ -2720,13 +2720,13 @@
         <v>2800</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="M24" s="13"/>
       <c r="N24" s="14"/>
@@ -2753,10 +2753,10 @@
         <v>21443718000122</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D25" s="8">
         <v>45804</v>
@@ -2777,13 +2777,13 @@
         <v>191400.65</v>
       </c>
       <c r="J25" s="16" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="K25" s="25">
         <v>45809</v>
       </c>
       <c r="L25" s="16" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="M25" s="21"/>
       <c r="N25" s="14"/>
@@ -2810,10 +2810,10 @@
         <v>6088295000186</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D26" s="8">
         <v>45804</v>
@@ -2834,13 +2834,13 @@
         <v>72317.649999999994</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="K26" s="12">
         <v>45809</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="M26" s="13"/>
       <c r="N26" s="14"/>
@@ -2867,10 +2867,10 @@
         <v>579990000164</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C27" s="36" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D27" s="8">
         <v>45807</v>
@@ -2885,19 +2885,19 @@
         <v>52</v>
       </c>
       <c r="H27" s="37" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I27" s="38">
         <v>5600</v>
       </c>
       <c r="J27" s="16" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="K27" s="16" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="L27" s="16" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="M27" s="21"/>
       <c r="N27" s="14"/>
@@ -2924,10 +2924,10 @@
         <v>34274233030605</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="C28" s="39" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D28" s="8">
         <v>45806</v>
@@ -2936,7 +2936,7 @@
         <v>45816</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="G28" s="6">
         <v>53</v>
@@ -2948,16 +2948,16 @@
         <v>100800</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="M28" s="41" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="N28" s="14"/>
       <c r="O28" s="14"/>
@@ -2983,10 +2983,10 @@
         <v>6073055000108</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D29" s="8">
         <v>45806</v>
@@ -3007,13 +3007,13 @@
         <v>5600</v>
       </c>
       <c r="J29" s="16" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="K29" s="16" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="L29" s="16" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="M29" s="21"/>
       <c r="N29" s="14"/>
@@ -3040,10 +3040,10 @@
         <v>5470445000159</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D30" s="8">
         <v>45806</v>
@@ -3064,13 +3064,13 @@
         <v>9643.09</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="K30" s="12">
         <v>45839</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="M30" s="13"/>
       <c r="N30" s="14"/>
@@ -3097,10 +3097,10 @@
         <v>44257742000172</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D31" s="8">
         <v>45820</v>
@@ -3121,13 +3121,13 @@
         <v>30205.48</v>
       </c>
       <c r="J31" s="16" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="K31" s="25">
         <v>45809</v>
       </c>
       <c r="L31" s="16" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="M31" s="21"/>
       <c r="N31" s="14"/>
@@ -3154,10 +3154,10 @@
         <v>10911906000200</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D32" s="8">
         <v>45820</v>
@@ -3178,13 +3178,13 @@
         <v>23026.46</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="L32" s="6" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="M32" s="13"/>
       <c r="N32" s="14"/>
@@ -3211,10 +3211,10 @@
         <v>7857168001309</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D33" s="8">
         <v>45820</v>
@@ -3235,13 +3235,13 @@
         <v>1512.5</v>
       </c>
       <c r="J33" s="16" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="K33" s="16" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="L33" s="16" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="M33" s="21"/>
       <c r="N33" s="14"/>
@@ -3268,10 +3268,10 @@
         <v>2805889001696</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D34" s="8">
         <v>45820</v>
@@ -3292,13 +3292,13 @@
         <v>69559.02</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="K34" s="12">
         <v>45778</v>
       </c>
       <c r="L34" s="6" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="M34" s="13"/>
       <c r="N34" s="14"/>
@@ -3325,10 +3325,10 @@
         <v>1911853000148</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D35" s="8">
         <v>45820</v>
@@ -3349,13 +3349,13 @@
         <v>11307.12</v>
       </c>
       <c r="J35" s="16" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="K35" s="25">
         <v>45778</v>
       </c>
       <c r="L35" s="16" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="M35" s="21"/>
       <c r="N35" s="14"/>
@@ -3382,10 +3382,10 @@
         <v>97471676000952</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C36" s="34" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="D36" s="8">
         <v>45820</v>
@@ -3406,13 +3406,13 @@
         <v>42811.72</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="K36" s="6" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="M36" s="13"/>
       <c r="N36" s="14"/>
@@ -3439,10 +3439,10 @@
         <v>2368373000498</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D37" s="8">
         <v>45820</v>
@@ -3463,13 +3463,13 @@
         <v>12320</v>
       </c>
       <c r="J37" s="16" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="K37" s="16" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="L37" s="16" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="M37" s="21"/>
       <c r="N37" s="14"/>
@@ -3496,10 +3496,10 @@
         <v>2284585000659</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D38" s="8">
         <v>45820</v>
@@ -3520,16 +3520,16 @@
         <v>301564.86</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="L38" s="6" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="M38" s="41" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="N38" s="14"/>
       <c r="O38" s="14"/>
@@ -3555,10 +3555,10 @@
         <v>10204914000390</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D39" s="8">
         <v>45820</v>
@@ -3579,13 +3579,13 @@
         <v>13440</v>
       </c>
       <c r="J39" s="16" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="K39" s="16" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="L39" s="16" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="M39" s="21"/>
       <c r="N39" s="14"/>
@@ -3612,10 +3612,10 @@
         <v>44321374000346</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D40" s="8">
         <v>45845</v>
@@ -3624,25 +3624,25 @@
         <v>45855</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="G40" s="6">
         <v>65</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="I40" s="11">
         <v>208346.69</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="K40" s="6" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="L40" s="6" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="M40" s="13"/>
       <c r="N40" s="14"/>
@@ -3669,10 +3669,10 @@
         <v>44321374000508</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D41" s="8">
         <v>45845</v>
@@ -3687,19 +3687,19 @@
         <v>66</v>
       </c>
       <c r="H41" s="16" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="I41" s="24">
         <v>14396.64</v>
       </c>
       <c r="J41" s="16" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="K41" s="16" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="L41" s="16" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="M41" s="21"/>
       <c r="N41" s="14"/>
@@ -3726,10 +3726,10 @@
         <v>33337122011161</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D42" s="8">
         <v>45845</v>
@@ -3750,13 +3750,13 @@
         <v>2664.04</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="K42" s="6" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="L42" s="6" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="M42" s="13"/>
       <c r="N42" s="14"/>
@@ -3783,10 +3783,10 @@
         <v>5759383001333</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D43" s="8">
         <v>45847</v>
@@ -3807,13 +3807,13 @@
         <v>71123.009999999995</v>
       </c>
       <c r="J43" s="42" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="K43" s="16" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="L43" s="16" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="M43" s="21"/>
       <c r="N43" s="14"/>
@@ -3840,10 +3840,10 @@
         <v>64429400000442</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D44" s="8">
         <v>45847</v>
@@ -3864,13 +3864,13 @@
         <v>7840</v>
       </c>
       <c r="J44" s="44" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="K44" s="6" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="L44" s="6" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="M44" s="13"/>
       <c r="N44" s="14"/>
@@ -3897,10 +3897,10 @@
         <v>48868064000135</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D45" s="8">
         <v>45855</v>
@@ -3913,19 +3913,19 @@
       </c>
       <c r="G45" s="45"/>
       <c r="H45" s="16" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I45" s="24">
         <v>46390.15</v>
       </c>
       <c r="J45" s="16" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="K45" s="16" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="L45" s="16" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="M45" s="21"/>
       <c r="N45" s="14"/>
@@ -3952,10 +3952,10 @@
         <v>6980064009562</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C46" s="39" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D46" s="8">
         <v>45869</v>
@@ -3964,7 +3964,7 @@
         <v>45879</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="G46" s="6">
         <v>70</v>
@@ -3976,13 +3976,13 @@
         <v>114508</v>
       </c>
       <c r="J46" s="6" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="K46" s="6" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="L46" s="6" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="M46" s="13"/>
       <c r="N46" s="14"/>
@@ -4009,10 +4009,10 @@
         <v>19791896011056</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="C47" s="36" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D47" s="8">
         <v>45869</v>
@@ -4021,7 +4021,7 @@
         <v>45879</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="G47" s="16">
         <v>71</v>
@@ -4033,13 +4033,13 @@
         <v>11849</v>
       </c>
       <c r="J47" s="42" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="K47" s="16" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="L47" s="16" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="M47" s="21"/>
       <c r="N47" s="14"/>
@@ -4066,10 +4066,10 @@
         <v>97471676000952</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="C48" s="46" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="D48" s="8">
         <v>45888</v>
@@ -4090,13 +4090,13 @@
         <v>19352.810000000001</v>
       </c>
       <c r="J48" s="44" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="K48" s="6" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="L48" s="6" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="M48" s="13"/>
       <c r="N48" s="14"/>
@@ -4123,10 +4123,10 @@
         <v>97471676000367</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="C49" s="47" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="D49" s="8">
         <v>45888</v>
@@ -4147,13 +4147,13 @@
         <v>2744.42</v>
       </c>
       <c r="J49" s="44" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="K49" s="16" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="L49" s="16" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="M49" s="21"/>
       <c r="N49" s="14"/>
@@ -4180,10 +4180,10 @@
         <v>44248274000170</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="C50" s="46" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="D50" s="8">
         <v>45888</v>
@@ -4204,13 +4204,13 @@
         <v>2851.69</v>
       </c>
       <c r="J50" s="6" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="K50" s="6" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="L50" s="6" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="M50" s="13"/>
       <c r="N50" s="14"/>
@@ -4237,10 +4237,10 @@
         <v>37779606000349</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C51" s="47" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="D51" s="8">
         <v>45888</v>
@@ -4261,13 +4261,13 @@
         <v>2115.37</v>
       </c>
       <c r="J51" s="16" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="K51" s="16" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="L51" s="16" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="M51" s="21"/>
       <c r="N51" s="14"/>
@@ -4294,10 +4294,10 @@
         <v>34274233001257</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="C52" s="39" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D52" s="8">
         <v>45888</v>
@@ -4312,19 +4312,19 @@
         <v>76</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="I52" s="11">
         <v>16800</v>
       </c>
       <c r="J52" s="6" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="K52" s="6" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="L52" s="6" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="M52" s="13"/>
       <c r="N52" s="14"/>
@@ -4351,10 +4351,10 @@
         <v>1083568000186</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C53" s="47" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="D53" s="8">
         <v>45888</v>
@@ -4369,19 +4369,19 @@
         <v>77</v>
       </c>
       <c r="H53" s="16" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="I53" s="24">
         <v>99260</v>
       </c>
       <c r="J53" s="16" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="K53" s="16" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="L53" s="16" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="M53" s="21"/>
       <c r="N53" s="14"/>
@@ -4408,10 +4408,10 @@
         <v>33337122020233</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="C54" s="46" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="D54" s="8">
         <v>45888</v>
@@ -4432,13 +4432,13 @@
         <v>40600</v>
       </c>
       <c r="J54" s="6" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="K54" s="6" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="L54" s="6" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="M54" s="13"/>
       <c r="N54" s="14"/>

--- a/resultado_notificacao.xlsx
+++ b/resultado_notificacao.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno.manzatto\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC674475-B82A-4C42-9031-79BEDCDEA15F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B059441D-9FE2-4DA9-A698-5664D0B6E630}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6060" xr2:uid="{49FAAD74-2E73-4D71-9BB1-839EA0047892}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="100">
   <si>
     <t>LARCO COMERCIAL</t>
   </si>
@@ -1417,22 +1417,25 @@
   <dimension ref="A1:AE1009"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="39" thickBot="1">
+    <row r="1" spans="1:31" ht="26.25" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>72</v>
       </c>
@@ -1491,7 +1494,7 @@
       <c r="AD1" s="4"/>
       <c r="AE1" s="4"/>
     </row>
-    <row r="2" spans="1:31" ht="51.75" thickBot="1">
+    <row r="2" spans="1:31" ht="39" thickBot="1">
       <c r="A2" s="5">
         <v>2805889002072</v>
       </c>
@@ -1548,7 +1551,7 @@
       <c r="AD2" s="14"/>
       <c r="AE2" s="14"/>
     </row>
-    <row r="3" spans="1:31" ht="51.75" thickBot="1">
+    <row r="3" spans="1:31" ht="39" thickBot="1">
       <c r="A3" s="15">
         <v>2805889003125</v>
       </c>
@@ -1579,8 +1582,8 @@
       <c r="J3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="16" t="s">
-        <v>5</v>
+      <c r="K3" s="19">
+        <v>45931</v>
       </c>
       <c r="L3" s="16" t="s">
         <v>3</v>
@@ -1605,7 +1608,7 @@
       <c r="AD3" s="14"/>
       <c r="AE3" s="14"/>
     </row>
-    <row r="4" spans="1:31" ht="51.75" thickBot="1">
+    <row r="4" spans="1:31" ht="39" thickBot="1">
       <c r="A4" s="5">
         <v>34274233026241</v>
       </c>
@@ -2175,7 +2178,7 @@
       <c r="AD13" s="14"/>
       <c r="AE13" s="14"/>
     </row>
-    <row r="14" spans="1:31" ht="39" thickBot="1">
+    <row r="14" spans="1:31" ht="26.25" thickBot="1">
       <c r="A14" s="5">
         <v>33453598024065</v>
       </c>
@@ -2320,8 +2323,8 @@
       <c r="J16" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="K16" s="6" t="s">
-        <v>5</v>
+      <c r="K16" s="10">
+        <v>45931</v>
       </c>
       <c r="L16" s="6" t="s">
         <v>8</v>
@@ -2346,7 +2349,7 @@
       <c r="AD16" s="14"/>
       <c r="AE16" s="14"/>
     </row>
-    <row r="17" spans="1:31" ht="39" thickBot="1">
+    <row r="17" spans="1:31" ht="26.25" thickBot="1">
       <c r="A17" s="31">
         <v>1125282002755</v>
       </c>
@@ -2548,8 +2551,8 @@
       <c r="J20" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="K20" s="6" t="s">
-        <v>5</v>
+      <c r="K20" s="10">
+        <v>45870</v>
       </c>
       <c r="L20" s="6" t="s">
         <v>8</v>
@@ -2719,8 +2722,8 @@
       <c r="J23" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="K23" s="16" t="s">
-        <v>5</v>
+      <c r="K23" s="10">
+        <v>45870</v>
       </c>
       <c r="L23" s="16" t="s">
         <v>98</v>
@@ -3234,8 +3237,8 @@
       <c r="J32" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="K32" s="6" t="s">
-        <v>5</v>
+      <c r="K32" s="10">
+        <v>45870</v>
       </c>
       <c r="L32" s="6" t="s">
         <v>8</v>
@@ -3291,8 +3294,8 @@
       <c r="J33" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="K33" s="16" t="s">
-        <v>5</v>
+      <c r="K33" s="19">
+        <v>45870</v>
       </c>
       <c r="L33" s="16" t="s">
         <v>8</v>
@@ -3517,7 +3520,7 @@
         <v>12320</v>
       </c>
       <c r="J37" s="16" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="K37" s="16" t="s">
         <v>5</v>
@@ -3635,8 +3638,8 @@
       <c r="J39" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="K39" s="16" t="s">
-        <v>5</v>
+      <c r="K39" s="19">
+        <v>45870</v>
       </c>
       <c r="L39" s="16" t="s">
         <v>99</v>
@@ -3692,8 +3695,8 @@
       <c r="J40" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="K40" s="6" t="s">
-        <v>5</v>
+      <c r="K40" s="10">
+        <v>45901</v>
       </c>
       <c r="L40" s="6" t="s">
         <v>8</v>
@@ -36608,7 +36611,6 @@
       <c r="AE1009" s="14"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M80" xr:uid="{DF30C2FB-E5A1-4732-ABFA-821716961E61}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/resultado_notificacao.xlsx
+++ b/resultado_notificacao.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno.manzatto\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B059441D-9FE2-4DA9-A698-5664D0B6E630}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{404E1EF0-AFC6-48FB-91AE-BA8C929B3EC0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6060" xr2:uid="{49FAAD74-2E73-4D71-9BB1-839EA0047892}"/>
   </bookViews>
@@ -246,45 +246,6 @@
     <t>IPIRANGA PRODUTOS DE PETROLEO SA - 6937</t>
   </si>
   <si>
-    <t>CNPJ</t>
-  </si>
-  <si>
-    <t>Razão Social</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Data da notificação</t>
-  </si>
-  <si>
-    <t>Data para conclusão</t>
-  </si>
-  <si>
-    <t>Período</t>
-  </si>
-  <si>
-    <t>Número Notificação</t>
-  </si>
-  <si>
-    <t>Código</t>
-  </si>
-  <si>
-    <t>Valor Solicitado</t>
-  </si>
-  <si>
-    <t>Situação</t>
-  </si>
-  <si>
-    <t>Mês de repasse</t>
-  </si>
-  <si>
-    <t>Origem</t>
-  </si>
-  <si>
-    <t>Obs</t>
-  </si>
-  <si>
     <t>AVANT COMBUSTIVEIS LTDA</t>
   </si>
   <si>
@@ -328,6 +289,45 @@
   </si>
   <si>
     <t>NFE de saída indevida</t>
+  </si>
+  <si>
+    <t>cnpj</t>
+  </si>
+  <si>
+    <t>raz_social</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>data_notificacao</t>
+  </si>
+  <si>
+    <t>data_conclusao</t>
+  </si>
+  <si>
+    <t>periodo</t>
+  </si>
+  <si>
+    <t>numero_notificacao</t>
+  </si>
+  <si>
+    <t>codigo</t>
+  </si>
+  <si>
+    <t>valor_solicitado</t>
+  </si>
+  <si>
+    <t>situacao</t>
+  </si>
+  <si>
+    <t>mês_repasse</t>
+  </si>
+  <si>
+    <t>origem</t>
+  </si>
+  <si>
+    <t>obs</t>
   </si>
 </sst>
 </file>
@@ -1417,7 +1417,7 @@
   <dimension ref="A1:AE1009"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1437,43 +1437,43 @@
   <sheetData>
     <row r="1" spans="1:31" ht="26.25" thickBot="1">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
@@ -2726,7 +2726,7 @@
         <v>45870</v>
       </c>
       <c r="L23" s="16" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="M23" s="21"/>
       <c r="N23" s="14"/>
@@ -2840,7 +2840,7 @@
         <v>45809</v>
       </c>
       <c r="L25" s="16" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="M25" s="21"/>
       <c r="N25" s="14"/>
@@ -2897,7 +2897,7 @@
         <v>45809</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="M26" s="13"/>
       <c r="N26" s="14"/>
@@ -2954,7 +2954,7 @@
         <v>5</v>
       </c>
       <c r="L27" s="16" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="M27" s="21"/>
       <c r="N27" s="14"/>
@@ -3011,7 +3011,7 @@
         <v>5</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="M28" s="40" t="s">
         <v>42</v>
@@ -3070,7 +3070,7 @@
         <v>5</v>
       </c>
       <c r="L29" s="16" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="M29" s="21"/>
       <c r="N29" s="14"/>
@@ -3127,7 +3127,7 @@
         <v>45839</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="M30" s="13"/>
       <c r="N30" s="14"/>
@@ -3526,7 +3526,7 @@
         <v>5</v>
       </c>
       <c r="L37" s="16" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="M37" s="21"/>
       <c r="N37" s="14"/>
@@ -3583,7 +3583,7 @@
         <v>5</v>
       </c>
       <c r="L38" s="6" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="M38" s="40" t="s">
         <v>51</v>
@@ -3642,7 +3642,7 @@
         <v>45870</v>
       </c>
       <c r="L39" s="16" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="M39" s="21"/>
       <c r="N39" s="14"/>
@@ -3870,7 +3870,7 @@
         <v>5</v>
       </c>
       <c r="L43" s="16" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="M43" s="21"/>
       <c r="N43" s="14"/>
@@ -3927,7 +3927,7 @@
         <v>5</v>
       </c>
       <c r="L44" s="6" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="M44" s="13"/>
       <c r="N44" s="14"/>
@@ -4039,7 +4039,7 @@
         <v>5</v>
       </c>
       <c r="L46" s="6" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="M46" s="13"/>
       <c r="N46" s="14"/>
@@ -4096,7 +4096,7 @@
         <v>5</v>
       </c>
       <c r="L47" s="16" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="M47" s="21"/>
       <c r="N47" s="14"/>
@@ -4381,7 +4381,7 @@
         <v>5</v>
       </c>
       <c r="L52" s="6" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="M52" s="13"/>
       <c r="N52" s="14"/>
@@ -4438,7 +4438,7 @@
         <v>5</v>
       </c>
       <c r="L53" s="16" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="M53" s="21"/>
       <c r="N53" s="14"/>
@@ -4495,7 +4495,7 @@
         <v>5</v>
       </c>
       <c r="L54" s="6" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="M54" s="13"/>
       <c r="N54" s="14"/>
@@ -4522,7 +4522,7 @@
         <v>48580847000208</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="C55" s="17" t="s">
         <v>1</v>
@@ -4632,7 +4632,7 @@
         <v>36357116000120</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C57" s="54" t="s">
         <v>32</v>
@@ -4687,7 +4687,7 @@
         <v>1349764005038</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>1</v>
@@ -4742,7 +4742,7 @@
         <v>50543881000165</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="C59" s="17" t="s">
         <v>1</v>
@@ -4770,7 +4770,7 @@
       </c>
       <c r="K59" s="44"/>
       <c r="L59" s="16" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="M59" s="21"/>
       <c r="N59" s="14"/>
@@ -4797,7 +4797,7 @@
         <v>1349764001393</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C60" s="38" t="s">
         <v>38</v>
@@ -4827,7 +4827,7 @@
         <v>5</v>
       </c>
       <c r="L60" s="6" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="M60" s="13"/>
       <c r="N60" s="14"/>
@@ -4854,7 +4854,7 @@
         <v>55483564001196</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="C61" s="35" t="s">
         <v>38</v>
@@ -4884,7 +4884,7 @@
         <v>5</v>
       </c>
       <c r="L61" s="16" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="M61" s="21"/>
       <c r="N61" s="14"/>
@@ -4941,7 +4941,7 @@
         <v>5</v>
       </c>
       <c r="L62" s="6" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="M62" s="13"/>
       <c r="N62" s="14"/>
@@ -4968,7 +4968,7 @@
         <v>6983874000788</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="C63" s="54" t="s">
         <v>32</v>
@@ -5023,7 +5023,7 @@
         <v>4138529000984</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="C64" s="33" t="s">
         <v>32</v>
@@ -5133,7 +5133,7 @@
         <v>57450090000130</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C66" s="33" t="s">
         <v>32</v>
@@ -5188,7 +5188,7 @@
         <v>97471676000367</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="C67" s="54" t="s">
         <v>32</v>
@@ -5243,7 +5243,7 @@
         <v>97471676000952</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="C68" s="33" t="s">
         <v>32</v>
@@ -5326,7 +5326,7 @@
       </c>
       <c r="K69" s="44"/>
       <c r="L69" s="16" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="M69" s="21"/>
       <c r="N69" s="14"/>
@@ -5381,7 +5381,7 @@
       </c>
       <c r="K70" s="50"/>
       <c r="L70" s="6" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="M70" s="13"/>
       <c r="N70" s="14"/>
@@ -5408,7 +5408,7 @@
         <v>50543881000165</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="C71" s="17" t="s">
         <v>1</v>
@@ -5436,7 +5436,7 @@
       </c>
       <c r="K71" s="44"/>
       <c r="L71" s="16" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="M71" s="21"/>
       <c r="N71" s="14"/>
@@ -5491,7 +5491,7 @@
       </c>
       <c r="K72" s="50"/>
       <c r="L72" s="6" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="M72" s="13"/>
       <c r="N72" s="14"/>
@@ -5518,7 +5518,7 @@
         <v>6048777000102</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="C73" s="54" t="s">
         <v>32</v>
@@ -5546,7 +5546,7 @@
       </c>
       <c r="K73" s="44"/>
       <c r="L73" s="16" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="M73" s="21"/>
       <c r="N73" s="14"/>
@@ -5601,7 +5601,7 @@
       </c>
       <c r="K74" s="50"/>
       <c r="L74" s="6" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="M74" s="13"/>
       <c r="N74" s="14"/>
@@ -5711,7 +5711,7 @@
       </c>
       <c r="K76" s="50"/>
       <c r="L76" s="6" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="M76" s="13"/>
       <c r="N76" s="14"/>
@@ -5738,7 +5738,7 @@
         <v>6048777000102</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="C77" s="54" t="s">
         <v>32</v>
@@ -5766,7 +5766,7 @@
       </c>
       <c r="K77" s="44"/>
       <c r="L77" s="16" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="M77" s="21"/>
       <c r="N77" s="14"/>
@@ -5793,7 +5793,7 @@
         <v>29302641000182</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="C78" s="45" t="s">
         <v>64</v>
@@ -5821,7 +5821,7 @@
       </c>
       <c r="K78" s="50"/>
       <c r="L78" s="6" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="M78" s="13"/>
       <c r="N78" s="14"/>
@@ -5848,7 +5848,7 @@
         <v>61602199027746</v>
       </c>
       <c r="B79" s="16" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C79" s="46" t="s">
         <v>64</v>
@@ -5876,7 +5876,7 @@
       </c>
       <c r="K79" s="44"/>
       <c r="L79" s="16" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="M79" s="21"/>
       <c r="N79" s="14"/>
@@ -5931,7 +5931,7 @@
       </c>
       <c r="K80" s="50"/>
       <c r="L80" s="6" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="M80" s="13"/>
       <c r="N80" s="14"/>

--- a/resultado_notificacao.xlsx
+++ b/resultado_notificacao.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno.manzatto\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{404E1EF0-AFC6-48FB-91AE-BA8C929B3EC0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D09ABF1-2DBE-47D9-B6C4-A8823739BBAB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6060" xr2:uid="{49FAAD74-2E73-4D71-9BB1-839EA0047892}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$M$80</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -246,6 +243,51 @@
     <t>IPIRANGA PRODUTOS DE PETROLEO SA - 6937</t>
   </si>
   <si>
+    <t>raz_social</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>cnpj</t>
+  </si>
+  <si>
+    <t>data_notificacao</t>
+  </si>
+  <si>
+    <t>data_conclusao</t>
+  </si>
+  <si>
+    <t>periodo</t>
+  </si>
+  <si>
+    <t>numero_notificacao</t>
+  </si>
+  <si>
+    <t>codigo</t>
+  </si>
+  <si>
+    <t>valor_solicitado</t>
+  </si>
+  <si>
+    <t>situacao</t>
+  </si>
+  <si>
+    <t>mês_repasse</t>
+  </si>
+  <si>
+    <t>origem</t>
+  </si>
+  <si>
+    <t>obs</t>
+  </si>
+  <si>
+    <t>omissão de NFE de entrada</t>
+  </si>
+  <si>
+    <t>NFE de saída indevida</t>
+  </si>
+  <si>
     <t>AVANT COMBUSTIVEIS LTDA</t>
   </si>
   <si>
@@ -283,51 +325,6 @@
   </si>
   <si>
     <t>CIA ULTRAGAZ S/A</t>
-  </si>
-  <si>
-    <t>omissão de NFE de entrada</t>
-  </si>
-  <si>
-    <t>NFE de saída indevida</t>
-  </si>
-  <si>
-    <t>cnpj</t>
-  </si>
-  <si>
-    <t>raz_social</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>data_notificacao</t>
-  </si>
-  <si>
-    <t>data_conclusao</t>
-  </si>
-  <si>
-    <t>periodo</t>
-  </si>
-  <si>
-    <t>numero_notificacao</t>
-  </si>
-  <si>
-    <t>codigo</t>
-  </si>
-  <si>
-    <t>valor_solicitado</t>
-  </si>
-  <si>
-    <t>situacao</t>
-  </si>
-  <si>
-    <t>mês_repasse</t>
-  </si>
-  <si>
-    <t>origem</t>
-  </si>
-  <si>
-    <t>obs</t>
   </si>
 </sst>
 </file>
@@ -1417,63 +1414,55 @@
   <dimension ref="A1:AE1009"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:M1"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="26.25" thickBot="1">
+    <row r="1" spans="1:31" ht="39" thickBot="1">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
@@ -1494,7 +1483,7 @@
       <c r="AD1" s="4"/>
       <c r="AE1" s="4"/>
     </row>
-    <row r="2" spans="1:31" ht="39" thickBot="1">
+    <row r="2" spans="1:31" ht="51.75" thickBot="1">
       <c r="A2" s="5">
         <v>2805889002072</v>
       </c>
@@ -1551,7 +1540,7 @@
       <c r="AD2" s="14"/>
       <c r="AE2" s="14"/>
     </row>
-    <row r="3" spans="1:31" ht="39" thickBot="1">
+    <row r="3" spans="1:31" ht="51.75" thickBot="1">
       <c r="A3" s="15">
         <v>2805889003125</v>
       </c>
@@ -1608,7 +1597,7 @@
       <c r="AD3" s="14"/>
       <c r="AE3" s="14"/>
     </row>
-    <row r="4" spans="1:31" ht="39" thickBot="1">
+    <row r="4" spans="1:31" ht="51.75" thickBot="1">
       <c r="A4" s="5">
         <v>34274233026241</v>
       </c>
@@ -2178,7 +2167,7 @@
       <c r="AD13" s="14"/>
       <c r="AE13" s="14"/>
     </row>
-    <row r="14" spans="1:31" ht="26.25" thickBot="1">
+    <row r="14" spans="1:31" ht="39" thickBot="1">
       <c r="A14" s="5">
         <v>33453598024065</v>
       </c>
@@ -2349,7 +2338,7 @@
       <c r="AD16" s="14"/>
       <c r="AE16" s="14"/>
     </row>
-    <row r="17" spans="1:31" ht="26.25" thickBot="1">
+    <row r="17" spans="1:31" ht="39" thickBot="1">
       <c r="A17" s="31">
         <v>1125282002755</v>
       </c>
@@ -4522,7 +4511,7 @@
         <v>48580847000208</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="C55" s="17" t="s">
         <v>1</v>
@@ -4632,7 +4621,7 @@
         <v>36357116000120</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="C57" s="54" t="s">
         <v>32</v>
@@ -4687,7 +4676,7 @@
         <v>1349764005038</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>1</v>
@@ -4742,7 +4731,7 @@
         <v>50543881000165</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="C59" s="17" t="s">
         <v>1</v>
@@ -4797,7 +4786,7 @@
         <v>1349764001393</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="C60" s="38" t="s">
         <v>38</v>
@@ -4854,7 +4843,7 @@
         <v>55483564001196</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="C61" s="35" t="s">
         <v>38</v>
@@ -4968,7 +4957,7 @@
         <v>6983874000788</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="C63" s="54" t="s">
         <v>32</v>
@@ -5023,7 +5012,7 @@
         <v>4138529000984</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="C64" s="33" t="s">
         <v>32</v>
@@ -5133,7 +5122,7 @@
         <v>57450090000130</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="C66" s="33" t="s">
         <v>32</v>
@@ -5188,7 +5177,7 @@
         <v>97471676000367</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="C67" s="54" t="s">
         <v>32</v>
@@ -5243,7 +5232,7 @@
         <v>97471676000952</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="C68" s="33" t="s">
         <v>32</v>
@@ -5408,7 +5397,7 @@
         <v>50543881000165</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="C71" s="17" t="s">
         <v>1</v>
@@ -5458,7 +5447,7 @@
       <c r="AD71" s="14"/>
       <c r="AE71" s="14"/>
     </row>
-    <row r="72" spans="1:31" ht="39" thickBot="1">
+    <row r="72" spans="1:31" ht="51.75" thickBot="1">
       <c r="A72" s="5">
         <v>34274233001257</v>
       </c>
@@ -5518,7 +5507,7 @@
         <v>6048777000102</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="C73" s="54" t="s">
         <v>32</v>
@@ -5738,7 +5727,7 @@
         <v>6048777000102</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="C77" s="54" t="s">
         <v>32</v>
@@ -5793,7 +5782,7 @@
         <v>29302641000182</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="C78" s="45" t="s">
         <v>64</v>
@@ -5848,7 +5837,7 @@
         <v>61602199027746</v>
       </c>
       <c r="B79" s="16" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="C79" s="46" t="s">
         <v>64</v>

--- a/resultado_notificacao.xlsx
+++ b/resultado_notificacao.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno.manzatto\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6541C11-C860-42B8-B3E4-88181F147EEC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA95FFA-3846-4E33-B183-2FC761D8696D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6060" xr2:uid="{49FAAD74-2E73-4D71-9BB1-839EA0047892}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$M$80</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1415,7 +1418,7 @@
   <dimension ref="A1:AE1009"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3488,8 +3491,8 @@
       <c r="B37" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C37" s="16" t="s">
-        <v>1</v>
+      <c r="C37" s="30" t="s">
+        <v>35</v>
       </c>
       <c r="D37" s="8">
         <v>45820</v>
@@ -3832,8 +3835,8 @@
       <c r="B43" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C43" s="16" t="s">
-        <v>1</v>
+      <c r="C43" s="30" t="s">
+        <v>35</v>
       </c>
       <c r="D43" s="8">
         <v>45847</v>
@@ -4868,7 +4871,7 @@
         <v>22400</v>
       </c>
       <c r="J61" s="15" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="K61" s="15" t="s">
         <v>5</v>
@@ -4924,8 +4927,8 @@
       <c r="I62" s="47">
         <v>67200</v>
       </c>
-      <c r="J62" s="45" t="s">
-        <v>4</v>
+      <c r="J62" s="15" t="s">
+        <v>36</v>
       </c>
       <c r="K62" s="6" t="s">
         <v>5</v>
@@ -5312,7 +5315,7 @@
         <v>208880</v>
       </c>
       <c r="J69" s="15" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="K69" s="35"/>
       <c r="L69" s="15" t="s">
@@ -5476,8 +5479,8 @@
       <c r="I72" s="47">
         <v>28000</v>
       </c>
-      <c r="J72" s="45" t="s">
-        <v>4</v>
+      <c r="J72" s="15" t="s">
+        <v>36</v>
       </c>
       <c r="K72" s="40"/>
       <c r="L72" s="6" t="s">

--- a/resultado_notificacao.xlsx
+++ b/resultado_notificacao.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno.manzatto\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA95FFA-3846-4E33-B183-2FC761D8696D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2453C802-31F2-4268-BBF5-7484323C683E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6060" xr2:uid="{49FAAD74-2E73-4D71-9BB1-839EA0047892}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="93">
   <si>
     <t>LARCO COMERCIAL</t>
   </si>
@@ -1417,8 +1417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55370B4A-8FBA-4146-9AAA-D8FB8A58FF65}">
   <dimension ref="A1:AE1009"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3742,11 +3742,11 @@
       <c r="I41" s="50">
         <v>14396.64</v>
       </c>
-      <c r="J41" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="K41" s="15" t="s">
-        <v>5</v>
+      <c r="J41" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K41" s="18">
+        <v>45870</v>
       </c>
       <c r="L41" s="15" t="s">
         <v>8</v>

--- a/resultado_notificacao.xlsx
+++ b/resultado_notificacao.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno.manzatto\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2453C802-31F2-4268-BBF5-7484323C683E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1CE2B3-6F2B-4D9F-8234-E4D6478643FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6060" xr2:uid="{49FAAD74-2E73-4D71-9BB1-839EA0047892}"/>
   </bookViews>
@@ -1417,18 +1417,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55370B4A-8FBA-4146-9AAA-D8FB8A58FF65}">
   <dimension ref="A1:AE1009"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="60" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.08984375" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" customWidth="1"/>
+    <col min="4" max="5" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.1796875" style="60" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="39" thickBot="1">
+    <row r="1" spans="1:31" ht="39.5" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>67</v>
       </c>
@@ -1487,7 +1494,7 @@
       <c r="AD1" s="4"/>
       <c r="AE1" s="4"/>
     </row>
-    <row r="2" spans="1:31" ht="51.75" thickBot="1">
+    <row r="2" spans="1:31" ht="50.5" thickBot="1">
       <c r="A2" s="5">
         <v>2805889002072</v>
       </c>
@@ -1544,7 +1551,7 @@
       <c r="AD2" s="13"/>
       <c r="AE2" s="13"/>
     </row>
-    <row r="3" spans="1:31" ht="51.75" thickBot="1">
+    <row r="3" spans="1:31" ht="50.5" thickBot="1">
       <c r="A3" s="14">
         <v>2805889003125</v>
       </c>
@@ -1561,7 +1568,7 @@
         <v>45792</v>
       </c>
       <c r="F3" s="18">
-        <v>45505</v>
+        <v>45444</v>
       </c>
       <c r="G3" s="15">
         <v>19</v>
@@ -1601,7 +1608,7 @@
       <c r="AD3" s="13"/>
       <c r="AE3" s="13"/>
     </row>
-    <row r="4" spans="1:31" ht="51.75" thickBot="1">
+    <row r="4" spans="1:31" ht="50.5" thickBot="1">
       <c r="A4" s="5">
         <v>34274233026241</v>
       </c>
@@ -1658,7 +1665,7 @@
       <c r="AD4" s="13"/>
       <c r="AE4" s="13"/>
     </row>
-    <row r="5" spans="1:31" ht="90" thickBot="1">
+    <row r="5" spans="1:31" ht="38" thickBot="1">
       <c r="A5" s="14">
         <v>1557353001555</v>
       </c>
@@ -1715,7 +1722,7 @@
       <c r="AD5" s="13"/>
       <c r="AE5" s="13"/>
     </row>
-    <row r="6" spans="1:31" ht="77.25" thickBot="1">
+    <row r="6" spans="1:31" ht="38" thickBot="1">
       <c r="A6" s="5">
         <v>3987364001843</v>
       </c>
@@ -1772,7 +1779,7 @@
       <c r="AD6" s="13"/>
       <c r="AE6" s="13"/>
     </row>
-    <row r="7" spans="1:31" ht="51.75" thickBot="1">
+    <row r="7" spans="1:31" ht="38" thickBot="1">
       <c r="A7" s="14">
         <v>4169215001759</v>
       </c>
@@ -1829,7 +1836,7 @@
       <c r="AD7" s="13"/>
       <c r="AE7" s="13"/>
     </row>
-    <row r="8" spans="1:31" ht="90" thickBot="1">
+    <row r="8" spans="1:31" ht="38" thickBot="1">
       <c r="A8" s="5">
         <v>7857168001309</v>
       </c>
@@ -1886,7 +1893,7 @@
       <c r="AD8" s="13"/>
       <c r="AE8" s="13"/>
     </row>
-    <row r="9" spans="1:31" ht="51.75" thickBot="1">
+    <row r="9" spans="1:31" ht="38" thickBot="1">
       <c r="A9" s="14">
         <v>8768527000849</v>
       </c>
@@ -1943,7 +1950,7 @@
       <c r="AD9" s="13"/>
       <c r="AE9" s="13"/>
     </row>
-    <row r="10" spans="1:31" ht="77.25" thickBot="1">
+    <row r="10" spans="1:31" ht="38" thickBot="1">
       <c r="A10" s="5">
         <v>14546191000104</v>
       </c>
@@ -2000,7 +2007,7 @@
       <c r="AD10" s="13"/>
       <c r="AE10" s="13"/>
     </row>
-    <row r="11" spans="1:31" ht="77.25" thickBot="1">
+    <row r="11" spans="1:31" ht="38" thickBot="1">
       <c r="A11" s="14">
         <v>31864869000450</v>
       </c>
@@ -2057,7 +2064,7 @@
       <c r="AD11" s="13"/>
       <c r="AE11" s="13"/>
     </row>
-    <row r="12" spans="1:31" ht="77.25" thickBot="1">
+    <row r="12" spans="1:31" ht="50.5" thickBot="1">
       <c r="A12" s="5">
         <v>33337122004386</v>
       </c>
@@ -2114,7 +2121,7 @@
       <c r="AD12" s="13"/>
       <c r="AE12" s="13"/>
     </row>
-    <row r="13" spans="1:31" ht="77.25" thickBot="1">
+    <row r="13" spans="1:31" ht="38" thickBot="1">
       <c r="A13" s="14">
         <v>33337122005358</v>
       </c>
@@ -2171,7 +2178,7 @@
       <c r="AD13" s="13"/>
       <c r="AE13" s="13"/>
     </row>
-    <row r="14" spans="1:31" ht="39" thickBot="1">
+    <row r="14" spans="1:31" ht="38" thickBot="1">
       <c r="A14" s="5">
         <v>33453598024065</v>
       </c>
@@ -2228,7 +2235,7 @@
       <c r="AD14" s="13"/>
       <c r="AE14" s="13"/>
     </row>
-    <row r="15" spans="1:31" ht="77.25" thickBot="1">
+    <row r="15" spans="1:31" ht="38" thickBot="1">
       <c r="A15" s="14">
         <v>48700586000204</v>
       </c>
@@ -2285,7 +2292,7 @@
       <c r="AD15" s="13"/>
       <c r="AE15" s="13"/>
     </row>
-    <row r="16" spans="1:31" ht="90" thickBot="1">
+    <row r="16" spans="1:31" ht="50.5" thickBot="1">
       <c r="A16" s="5">
         <v>466187000709</v>
       </c>
@@ -2342,7 +2349,7 @@
       <c r="AD16" s="13"/>
       <c r="AE16" s="13"/>
     </row>
-    <row r="17" spans="1:31" ht="39" thickBot="1">
+    <row r="17" spans="1:31" ht="38" thickBot="1">
       <c r="A17" s="25">
         <v>1125282002755</v>
       </c>
@@ -2399,7 +2406,7 @@
       <c r="AD17" s="13"/>
       <c r="AE17" s="13"/>
     </row>
-    <row r="18" spans="1:31" ht="51.75" thickBot="1">
+    <row r="18" spans="1:31" ht="38" thickBot="1">
       <c r="A18" s="5">
         <v>4169215001759</v>
       </c>
@@ -2456,7 +2463,7 @@
       <c r="AD18" s="13"/>
       <c r="AE18" s="13"/>
     </row>
-    <row r="19" spans="1:31" ht="102.75" thickBot="1">
+    <row r="19" spans="1:31" ht="50.5" thickBot="1">
       <c r="A19" s="14">
         <v>9250921001310</v>
       </c>
@@ -2513,7 +2520,7 @@
       <c r="AD19" s="13"/>
       <c r="AE19" s="13"/>
     </row>
-    <row r="20" spans="1:31" ht="115.5" thickBot="1">
+    <row r="20" spans="1:31" ht="50.5" thickBot="1">
       <c r="A20" s="5">
         <v>10911906000200</v>
       </c>
@@ -2570,7 +2577,7 @@
       <c r="AD20" s="13"/>
       <c r="AE20" s="13"/>
     </row>
-    <row r="21" spans="1:31" ht="77.25" thickBot="1">
+    <row r="21" spans="1:31" ht="38" thickBot="1">
       <c r="A21" s="14">
         <v>33337122021396</v>
       </c>
@@ -2627,7 +2634,7 @@
       <c r="AD21" s="13"/>
       <c r="AE21" s="13"/>
     </row>
-    <row r="22" spans="1:31" ht="90" thickBot="1">
+    <row r="22" spans="1:31" ht="38" thickBot="1">
       <c r="A22" s="5">
         <v>97471676000952</v>
       </c>
@@ -2684,7 +2691,7 @@
       <c r="AD22" s="13"/>
       <c r="AE22" s="13"/>
     </row>
-    <row r="23" spans="1:31" ht="90" thickBot="1">
+    <row r="23" spans="1:31" ht="50.5" thickBot="1">
       <c r="A23" s="14">
         <v>75678169000102</v>
       </c>
@@ -2741,7 +2748,7 @@
       <c r="AD23" s="13"/>
       <c r="AE23" s="13"/>
     </row>
-    <row r="24" spans="1:31" ht="77.25" thickBot="1">
+    <row r="24" spans="1:31" ht="38" thickBot="1">
       <c r="A24" s="5">
         <v>64277247000302</v>
       </c>
@@ -2798,7 +2805,7 @@
       <c r="AD24" s="13"/>
       <c r="AE24" s="13"/>
     </row>
-    <row r="25" spans="1:31" ht="77.25" thickBot="1">
+    <row r="25" spans="1:31" ht="50.5" thickBot="1">
       <c r="A25" s="14">
         <v>21443718000122</v>
       </c>
@@ -2855,7 +2862,7 @@
       <c r="AD25" s="13"/>
       <c r="AE25" s="13"/>
     </row>
-    <row r="26" spans="1:31" ht="90" thickBot="1">
+    <row r="26" spans="1:31" ht="50.5" thickBot="1">
       <c r="A26" s="5">
         <v>6088295000186</v>
       </c>
@@ -2912,7 +2919,7 @@
       <c r="AD26" s="13"/>
       <c r="AE26" s="13"/>
     </row>
-    <row r="27" spans="1:31" ht="90" thickBot="1">
+    <row r="27" spans="1:31" ht="50.5" thickBot="1">
       <c r="A27" s="14">
         <v>579990000164</v>
       </c>
@@ -2969,7 +2976,7 @@
       <c r="AD27" s="13"/>
       <c r="AE27" s="13"/>
     </row>
-    <row r="28" spans="1:31" ht="102.75" thickBot="1">
+    <row r="28" spans="1:31" ht="100.5" thickBot="1">
       <c r="A28" s="5">
         <v>34274233030605</v>
       </c>
@@ -3028,7 +3035,7 @@
       <c r="AD28" s="13"/>
       <c r="AE28" s="13"/>
     </row>
-    <row r="29" spans="1:31" ht="77.25" thickBot="1">
+    <row r="29" spans="1:31" ht="38" thickBot="1">
       <c r="A29" s="14">
         <v>6073055000108</v>
       </c>
@@ -3085,7 +3092,7 @@
       <c r="AD29" s="13"/>
       <c r="AE29" s="13"/>
     </row>
-    <row r="30" spans="1:31" ht="90" thickBot="1">
+    <row r="30" spans="1:31" ht="38" thickBot="1">
       <c r="A30" s="5">
         <v>5470445000159</v>
       </c>
@@ -3142,7 +3149,7 @@
       <c r="AD30" s="13"/>
       <c r="AE30" s="13"/>
     </row>
-    <row r="31" spans="1:31" ht="51.75" thickBot="1">
+    <row r="31" spans="1:31" ht="38" thickBot="1">
       <c r="A31" s="14">
         <v>44257742000172</v>
       </c>
@@ -3199,7 +3206,7 @@
       <c r="AD31" s="13"/>
       <c r="AE31" s="13"/>
     </row>
-    <row r="32" spans="1:31" ht="115.5" thickBot="1">
+    <row r="32" spans="1:31" ht="50.5" thickBot="1">
       <c r="A32" s="5">
         <v>10911906000200</v>
       </c>
@@ -3256,7 +3263,7 @@
       <c r="AD32" s="13"/>
       <c r="AE32" s="13"/>
     </row>
-    <row r="33" spans="1:31" ht="90" thickBot="1">
+    <row r="33" spans="1:31" ht="38" thickBot="1">
       <c r="A33" s="14">
         <v>7857168001309</v>
       </c>
@@ -3313,7 +3320,7 @@
       <c r="AD33" s="13"/>
       <c r="AE33" s="13"/>
     </row>
-    <row r="34" spans="1:31" ht="90" thickBot="1">
+    <row r="34" spans="1:31" ht="38" thickBot="1">
       <c r="A34" s="5">
         <v>2805889001696</v>
       </c>
@@ -3370,7 +3377,7 @@
       <c r="AD34" s="13"/>
       <c r="AE34" s="13"/>
     </row>
-    <row r="35" spans="1:31" ht="77.25" thickBot="1">
+    <row r="35" spans="1:31" ht="38" thickBot="1">
       <c r="A35" s="14">
         <v>1911853000148</v>
       </c>
@@ -3427,7 +3434,7 @@
       <c r="AD35" s="13"/>
       <c r="AE35" s="13"/>
     </row>
-    <row r="36" spans="1:31" ht="90" thickBot="1">
+    <row r="36" spans="1:31" ht="38" thickBot="1">
       <c r="A36" s="5">
         <v>97471676000952</v>
       </c>
@@ -3484,7 +3491,7 @@
       <c r="AD36" s="13"/>
       <c r="AE36" s="13"/>
     </row>
-    <row r="37" spans="1:31" ht="90" thickBot="1">
+    <row r="37" spans="1:31" ht="50.5" thickBot="1">
       <c r="A37" s="14">
         <v>2368373000498</v>
       </c>
@@ -3541,7 +3548,7 @@
       <c r="AD37" s="13"/>
       <c r="AE37" s="13"/>
     </row>
-    <row r="38" spans="1:31" ht="102.75" thickBot="1">
+    <row r="38" spans="1:31" ht="63" thickBot="1">
       <c r="A38" s="5">
         <v>2284585000659</v>
       </c>
@@ -3600,7 +3607,7 @@
       <c r="AD38" s="13"/>
       <c r="AE38" s="13"/>
     </row>
-    <row r="39" spans="1:31" ht="102.75" thickBot="1">
+    <row r="39" spans="1:31" ht="50.5" thickBot="1">
       <c r="A39" s="14">
         <v>10204914000390</v>
       </c>
@@ -3657,7 +3664,7 @@
       <c r="AD39" s="13"/>
       <c r="AE39" s="13"/>
     </row>
-    <row r="40" spans="1:31" ht="90" thickBot="1">
+    <row r="40" spans="1:31" ht="38" thickBot="1">
       <c r="A40" s="5">
         <v>44321374000346</v>
       </c>
@@ -3714,7 +3721,7 @@
       <c r="AD40" s="13"/>
       <c r="AE40" s="13"/>
     </row>
-    <row r="41" spans="1:31" ht="90" thickBot="1">
+    <row r="41" spans="1:31" ht="38" thickBot="1">
       <c r="A41" s="14">
         <v>44321374000508</v>
       </c>
@@ -3771,7 +3778,7 @@
       <c r="AD41" s="13"/>
       <c r="AE41" s="13"/>
     </row>
-    <row r="42" spans="1:31" ht="77.25" thickBot="1">
+    <row r="42" spans="1:31" ht="38" thickBot="1">
       <c r="A42" s="5">
         <v>33337122011161</v>
       </c>
@@ -3828,7 +3835,7 @@
       <c r="AD42" s="13"/>
       <c r="AE42" s="13"/>
     </row>
-    <row r="43" spans="1:31" ht="90" thickBot="1">
+    <row r="43" spans="1:31" ht="50.5" thickBot="1">
       <c r="A43" s="14">
         <v>5759383001333</v>
       </c>
@@ -3885,7 +3892,7 @@
       <c r="AD43" s="13"/>
       <c r="AE43" s="13"/>
     </row>
-    <row r="44" spans="1:31" ht="102.75" thickBot="1">
+    <row r="44" spans="1:31" ht="50.5" thickBot="1">
       <c r="A44" s="5">
         <v>64429400000442</v>
       </c>
@@ -3942,7 +3949,7 @@
       <c r="AD44" s="13"/>
       <c r="AE44" s="13"/>
     </row>
-    <row r="45" spans="1:31" ht="77.25" thickBot="1">
+    <row r="45" spans="1:31" ht="38" thickBot="1">
       <c r="A45" s="14">
         <v>48868064000135</v>
       </c>
@@ -3997,7 +4004,7 @@
       <c r="AD45" s="13"/>
       <c r="AE45" s="13"/>
     </row>
-    <row r="46" spans="1:31" ht="102.75" thickBot="1">
+    <row r="46" spans="1:31" ht="63" thickBot="1">
       <c r="A46" s="5">
         <v>6980064009562</v>
       </c>
@@ -4054,7 +4061,7 @@
       <c r="AD46" s="13"/>
       <c r="AE46" s="13"/>
     </row>
-    <row r="47" spans="1:31" ht="64.5" thickBot="1">
+    <row r="47" spans="1:31" ht="38" thickBot="1">
       <c r="A47" s="14">
         <v>19791896011056</v>
       </c>
@@ -4111,7 +4118,7 @@
       <c r="AD47" s="13"/>
       <c r="AE47" s="13"/>
     </row>
-    <row r="48" spans="1:31" ht="90" thickBot="1">
+    <row r="48" spans="1:31" ht="38" thickBot="1">
       <c r="A48" s="5">
         <v>97471676000952</v>
       </c>
@@ -4168,7 +4175,7 @@
       <c r="AD48" s="13"/>
       <c r="AE48" s="13"/>
     </row>
-    <row r="49" spans="1:31" ht="90" thickBot="1">
+    <row r="49" spans="1:31" ht="38" thickBot="1">
       <c r="A49" s="14">
         <v>97471676000367</v>
       </c>
@@ -4225,15 +4232,15 @@
       <c r="AD49" s="13"/>
       <c r="AE49" s="13"/>
     </row>
-    <row r="50" spans="1:31" ht="64.5" thickBot="1">
+    <row r="50" spans="1:31" ht="38" thickBot="1">
       <c r="A50" s="5">
         <v>44248274000170</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C50" s="27" t="s">
-        <v>29</v>
+      <c r="C50" s="16" t="s">
+        <v>1</v>
       </c>
       <c r="D50" s="8">
         <v>45888</v>
@@ -4253,8 +4260,8 @@
       <c r="I50" s="55">
         <v>2851.69</v>
       </c>
-      <c r="J50" s="34" t="s">
-        <v>29</v>
+      <c r="J50" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="K50" s="6" t="s">
         <v>5</v>
@@ -4282,7 +4289,7 @@
       <c r="AD50" s="13"/>
       <c r="AE50" s="13"/>
     </row>
-    <row r="51" spans="1:31" ht="77.25" thickBot="1">
+    <row r="51" spans="1:31" ht="38" thickBot="1">
       <c r="A51" s="14">
         <v>37779606000349</v>
       </c>
@@ -4339,7 +4346,7 @@
       <c r="AD51" s="13"/>
       <c r="AE51" s="13"/>
     </row>
-    <row r="52" spans="1:31" ht="64.5" thickBot="1">
+    <row r="52" spans="1:31" ht="50.5" thickBot="1">
       <c r="A52" s="5">
         <v>34274233001257</v>
       </c>
@@ -4396,7 +4403,7 @@
       <c r="AD52" s="13"/>
       <c r="AE52" s="13"/>
     </row>
-    <row r="53" spans="1:31" ht="90" thickBot="1">
+    <row r="53" spans="1:31" ht="50.5" thickBot="1">
       <c r="A53" s="14">
         <v>1083568000186</v>
       </c>
@@ -4453,7 +4460,7 @@
       <c r="AD53" s="13"/>
       <c r="AE53" s="13"/>
     </row>
-    <row r="54" spans="1:31" ht="90" thickBot="1">
+    <row r="54" spans="1:31" ht="50.5" thickBot="1">
       <c r="A54" s="5">
         <v>33337122020233</v>
       </c>
@@ -4510,7 +4517,7 @@
       <c r="AD54" s="13"/>
       <c r="AE54" s="13"/>
     </row>
-    <row r="55" spans="1:31" ht="51.75" thickBot="1">
+    <row r="55" spans="1:31" ht="38" thickBot="1">
       <c r="A55" s="14">
         <v>48580847000208</v>
       </c>
@@ -4565,7 +4572,7 @@
       <c r="AD55" s="13"/>
       <c r="AE55" s="13"/>
     </row>
-    <row r="56" spans="1:31" ht="77.25" thickBot="1">
+    <row r="56" spans="1:31" ht="38" thickBot="1">
       <c r="A56" s="5">
         <v>37779606000349</v>
       </c>
@@ -4620,7 +4627,7 @@
       <c r="AD56" s="13"/>
       <c r="AE56" s="13"/>
     </row>
-    <row r="57" spans="1:31" ht="90" thickBot="1">
+    <row r="57" spans="1:31" ht="38" thickBot="1">
       <c r="A57" s="14">
         <v>36357116000120</v>
       </c>
@@ -4675,7 +4682,7 @@
       <c r="AD57" s="13"/>
       <c r="AE57" s="13"/>
     </row>
-    <row r="58" spans="1:31" ht="90" thickBot="1">
+    <row r="58" spans="1:31" ht="38" thickBot="1">
       <c r="A58" s="5">
         <v>1349764005038</v>
       </c>
@@ -4730,7 +4737,7 @@
       <c r="AD58" s="13"/>
       <c r="AE58" s="13"/>
     </row>
-    <row r="59" spans="1:31" ht="64.5" thickBot="1">
+    <row r="59" spans="1:31" ht="50.5" thickBot="1">
       <c r="A59" s="14">
         <v>50543881000165</v>
       </c>
@@ -4785,7 +4792,7 @@
       <c r="AD59" s="13"/>
       <c r="AE59" s="13"/>
     </row>
-    <row r="60" spans="1:31" ht="115.5" thickBot="1">
+    <row r="60" spans="1:31" ht="50.5" thickBot="1">
       <c r="A60" s="5">
         <v>1349764001393</v>
       </c>
@@ -4842,7 +4849,7 @@
       <c r="AD60" s="13"/>
       <c r="AE60" s="13"/>
     </row>
-    <row r="61" spans="1:31" ht="51.75" thickBot="1">
+    <row r="61" spans="1:31" ht="38" thickBot="1">
       <c r="A61" s="14">
         <v>55483564001196</v>
       </c>
@@ -4899,7 +4906,7 @@
       <c r="AD61" s="13"/>
       <c r="AE61" s="13"/>
     </row>
-    <row r="62" spans="1:31" ht="39" thickBot="1">
+    <row r="62" spans="1:31" ht="38" thickBot="1">
       <c r="A62" s="5">
         <v>34274233030605</v>
       </c>
@@ -4956,7 +4963,7 @@
       <c r="AD62" s="13"/>
       <c r="AE62" s="13"/>
     </row>
-    <row r="63" spans="1:31" ht="51.75" thickBot="1">
+    <row r="63" spans="1:31" ht="38" thickBot="1">
       <c r="A63" s="14">
         <v>6983874000788</v>
       </c>
@@ -5011,7 +5018,7 @@
       <c r="AD63" s="13"/>
       <c r="AE63" s="13"/>
     </row>
-    <row r="64" spans="1:31" ht="141" thickBot="1">
+    <row r="64" spans="1:31" ht="50.5" thickBot="1">
       <c r="A64" s="5">
         <v>4138529000984</v>
       </c>
@@ -5066,7 +5073,7 @@
       <c r="AD64" s="13"/>
       <c r="AE64" s="13"/>
     </row>
-    <row r="65" spans="1:31" ht="77.25" thickBot="1">
+    <row r="65" spans="1:31" ht="38" thickBot="1">
       <c r="A65" s="14">
         <v>33337122004386</v>
       </c>
@@ -5121,7 +5128,7 @@
       <c r="AD65" s="13"/>
       <c r="AE65" s="13"/>
     </row>
-    <row r="66" spans="1:31" ht="115.5" thickBot="1">
+    <row r="66" spans="1:31" ht="50.5" thickBot="1">
       <c r="A66" s="5">
         <v>57450090000130</v>
       </c>
@@ -5176,7 +5183,7 @@
       <c r="AD66" s="13"/>
       <c r="AE66" s="13"/>
     </row>
-    <row r="67" spans="1:31" ht="90" thickBot="1">
+    <row r="67" spans="1:31" ht="38" thickBot="1">
       <c r="A67" s="14">
         <v>97471676000367</v>
       </c>
@@ -5231,7 +5238,7 @@
       <c r="AD67" s="13"/>
       <c r="AE67" s="13"/>
     </row>
-    <row r="68" spans="1:31" ht="90" thickBot="1">
+    <row r="68" spans="1:31" ht="38" thickBot="1">
       <c r="A68" s="5">
         <v>97471676000952</v>
       </c>
@@ -5286,7 +5293,7 @@
       <c r="AD68" s="13"/>
       <c r="AE68" s="13"/>
     </row>
-    <row r="69" spans="1:31" ht="39" thickBot="1">
+    <row r="69" spans="1:31" ht="38" thickBot="1">
       <c r="A69" s="14">
         <v>34274233030605</v>
       </c>
@@ -5341,7 +5348,7 @@
       <c r="AD69" s="13"/>
       <c r="AE69" s="13"/>
     </row>
-    <row r="70" spans="1:31" ht="90" thickBot="1">
+    <row r="70" spans="1:31" ht="38" thickBot="1">
       <c r="A70" s="5">
         <v>5470445000159</v>
       </c>
@@ -5396,7 +5403,7 @@
       <c r="AD70" s="13"/>
       <c r="AE70" s="13"/>
     </row>
-    <row r="71" spans="1:31" ht="64.5" thickBot="1">
+    <row r="71" spans="1:31" ht="50.5" thickBot="1">
       <c r="A71" s="14">
         <v>50543881000165</v>
       </c>
@@ -5451,7 +5458,7 @@
       <c r="AD71" s="13"/>
       <c r="AE71" s="13"/>
     </row>
-    <row r="72" spans="1:31" ht="51.75" thickBot="1">
+    <row r="72" spans="1:31" ht="50.5" thickBot="1">
       <c r="A72" s="5">
         <v>34274233001257</v>
       </c>
@@ -5506,7 +5513,7 @@
       <c r="AD72" s="13"/>
       <c r="AE72" s="13"/>
     </row>
-    <row r="73" spans="1:31" ht="128.25" thickBot="1">
+    <row r="73" spans="1:31" ht="50.5" thickBot="1">
       <c r="A73" s="14">
         <v>6048777000102</v>
       </c>
@@ -5561,7 +5568,7 @@
       <c r="AD73" s="13"/>
       <c r="AE73" s="13"/>
     </row>
-    <row r="74" spans="1:31" ht="90" thickBot="1">
+    <row r="74" spans="1:31" ht="50.5" thickBot="1">
       <c r="A74" s="5">
         <v>2805889003710</v>
       </c>
@@ -5616,7 +5623,7 @@
       <c r="AD74" s="13"/>
       <c r="AE74" s="13"/>
     </row>
-    <row r="75" spans="1:31" ht="102.75" thickBot="1">
+    <row r="75" spans="1:31" ht="50.5" thickBot="1">
       <c r="A75" s="14">
         <v>10204914000128</v>
       </c>
@@ -5671,7 +5678,7 @@
       <c r="AD75" s="13"/>
       <c r="AE75" s="13"/>
     </row>
-    <row r="76" spans="1:31" ht="102.75" thickBot="1">
+    <row r="76" spans="1:31" ht="50.5" thickBot="1">
       <c r="A76" s="5">
         <v>10204914000128</v>
       </c>
@@ -5726,7 +5733,7 @@
       <c r="AD76" s="13"/>
       <c r="AE76" s="13"/>
     </row>
-    <row r="77" spans="1:31" ht="128.25" thickBot="1">
+    <row r="77" spans="1:31" ht="50.5" thickBot="1">
       <c r="A77" s="14">
         <v>6048777000102</v>
       </c>
@@ -5781,7 +5788,7 @@
       <c r="AD77" s="13"/>
       <c r="AE77" s="13"/>
     </row>
-    <row r="78" spans="1:31" ht="39" thickBot="1">
+    <row r="78" spans="1:31" ht="38" thickBot="1">
       <c r="A78" s="5">
         <v>29302641000182</v>
       </c>
@@ -5836,7 +5843,7 @@
       <c r="AD78" s="13"/>
       <c r="AE78" s="13"/>
     </row>
-    <row r="79" spans="1:31" ht="39" thickBot="1">
+    <row r="79" spans="1:31" ht="38" thickBot="1">
       <c r="A79" s="14">
         <v>61602199027746</v>
       </c>
@@ -5891,7 +5898,7 @@
       <c r="AD79" s="13"/>
       <c r="AE79" s="13"/>
     </row>
-    <row r="80" spans="1:31" ht="77.25" thickBot="1">
+    <row r="80" spans="1:31" ht="38" thickBot="1">
       <c r="A80" s="5">
         <v>33337122007130</v>
       </c>
@@ -5946,7 +5953,7 @@
       <c r="AD80" s="13"/>
       <c r="AE80" s="13"/>
     </row>
-    <row r="81" spans="1:31" ht="15.75" thickBot="1">
+    <row r="81" spans="1:31" ht="15" thickBot="1">
       <c r="A81" s="38"/>
       <c r="B81" s="35"/>
       <c r="C81" s="35"/>
@@ -5979,7 +5986,7 @@
       <c r="AD81" s="13"/>
       <c r="AE81" s="13"/>
     </row>
-    <row r="82" spans="1:31" ht="15.75" thickBot="1">
+    <row r="82" spans="1:31" ht="15" thickBot="1">
       <c r="A82" s="39"/>
       <c r="B82" s="40"/>
       <c r="C82" s="40"/>
@@ -6012,7 +6019,7 @@
       <c r="AD82" s="13"/>
       <c r="AE82" s="13"/>
     </row>
-    <row r="83" spans="1:31" ht="15.75" thickBot="1">
+    <row r="83" spans="1:31" ht="15" thickBot="1">
       <c r="A83" s="38"/>
       <c r="B83" s="35"/>
       <c r="C83" s="35"/>
@@ -6045,7 +6052,7 @@
       <c r="AD83" s="13"/>
       <c r="AE83" s="13"/>
     </row>
-    <row r="84" spans="1:31" ht="15.75" thickBot="1">
+    <row r="84" spans="1:31" ht="15" thickBot="1">
       <c r="A84" s="39"/>
       <c r="B84" s="40"/>
       <c r="C84" s="40"/>
@@ -6078,7 +6085,7 @@
       <c r="AD84" s="13"/>
       <c r="AE84" s="13"/>
     </row>
-    <row r="85" spans="1:31" ht="15.75" thickBot="1">
+    <row r="85" spans="1:31" ht="15" thickBot="1">
       <c r="A85" s="38"/>
       <c r="B85" s="35"/>
       <c r="C85" s="35"/>
@@ -6111,7 +6118,7 @@
       <c r="AD85" s="13"/>
       <c r="AE85" s="13"/>
     </row>
-    <row r="86" spans="1:31" ht="15.75" thickBot="1">
+    <row r="86" spans="1:31" ht="15" thickBot="1">
       <c r="A86" s="39"/>
       <c r="B86" s="40"/>
       <c r="C86" s="40"/>
@@ -6144,7 +6151,7 @@
       <c r="AD86" s="13"/>
       <c r="AE86" s="13"/>
     </row>
-    <row r="87" spans="1:31" ht="15.75" thickBot="1">
+    <row r="87" spans="1:31" ht="15" thickBot="1">
       <c r="A87" s="38"/>
       <c r="B87" s="35"/>
       <c r="C87" s="35"/>
@@ -6177,7 +6184,7 @@
       <c r="AD87" s="13"/>
       <c r="AE87" s="13"/>
     </row>
-    <row r="88" spans="1:31" ht="15.75" thickBot="1">
+    <row r="88" spans="1:31" ht="15" thickBot="1">
       <c r="A88" s="39"/>
       <c r="B88" s="40"/>
       <c r="C88" s="40"/>
@@ -6210,7 +6217,7 @@
       <c r="AD88" s="13"/>
       <c r="AE88" s="13"/>
     </row>
-    <row r="89" spans="1:31" ht="15.75" thickBot="1">
+    <row r="89" spans="1:31" ht="15" thickBot="1">
       <c r="A89" s="38"/>
       <c r="B89" s="35"/>
       <c r="C89" s="35"/>
@@ -6243,7 +6250,7 @@
       <c r="AD89" s="13"/>
       <c r="AE89" s="13"/>
     </row>
-    <row r="90" spans="1:31" ht="15.75" thickBot="1">
+    <row r="90" spans="1:31" ht="15" thickBot="1">
       <c r="A90" s="39"/>
       <c r="B90" s="40"/>
       <c r="C90" s="40"/>
@@ -6276,7 +6283,7 @@
       <c r="AD90" s="13"/>
       <c r="AE90" s="13"/>
     </row>
-    <row r="91" spans="1:31" ht="15.75" thickBot="1">
+    <row r="91" spans="1:31" ht="15" thickBot="1">
       <c r="A91" s="38"/>
       <c r="B91" s="35"/>
       <c r="C91" s="35"/>
@@ -6309,7 +6316,7 @@
       <c r="AD91" s="13"/>
       <c r="AE91" s="13"/>
     </row>
-    <row r="92" spans="1:31" ht="15.75" thickBot="1">
+    <row r="92" spans="1:31" ht="15" thickBot="1">
       <c r="A92" s="39"/>
       <c r="B92" s="40"/>
       <c r="C92" s="40"/>
@@ -6342,7 +6349,7 @@
       <c r="AD92" s="13"/>
       <c r="AE92" s="13"/>
     </row>
-    <row r="93" spans="1:31" ht="15.75" thickBot="1">
+    <row r="93" spans="1:31" ht="15" thickBot="1">
       <c r="A93" s="38"/>
       <c r="B93" s="35"/>
       <c r="C93" s="35"/>
@@ -6375,7 +6382,7 @@
       <c r="AD93" s="13"/>
       <c r="AE93" s="13"/>
     </row>
-    <row r="94" spans="1:31" ht="15.75" thickBot="1">
+    <row r="94" spans="1:31" ht="15" thickBot="1">
       <c r="A94" s="39"/>
       <c r="B94" s="40"/>
       <c r="C94" s="40"/>
@@ -6408,7 +6415,7 @@
       <c r="AD94" s="13"/>
       <c r="AE94" s="13"/>
     </row>
-    <row r="95" spans="1:31" ht="15.75" thickBot="1">
+    <row r="95" spans="1:31" ht="15" thickBot="1">
       <c r="A95" s="38"/>
       <c r="B95" s="35"/>
       <c r="C95" s="35"/>
@@ -6441,7 +6448,7 @@
       <c r="AD95" s="13"/>
       <c r="AE95" s="13"/>
     </row>
-    <row r="96" spans="1:31" ht="15.75" thickBot="1">
+    <row r="96" spans="1:31" ht="15" thickBot="1">
       <c r="A96" s="39"/>
       <c r="B96" s="40"/>
       <c r="C96" s="40"/>
@@ -6474,7 +6481,7 @@
       <c r="AD96" s="13"/>
       <c r="AE96" s="13"/>
     </row>
-    <row r="97" spans="1:31" ht="15.75" thickBot="1">
+    <row r="97" spans="1:31" ht="15" thickBot="1">
       <c r="A97" s="38"/>
       <c r="B97" s="35"/>
       <c r="C97" s="35"/>
@@ -6507,7 +6514,7 @@
       <c r="AD97" s="13"/>
       <c r="AE97" s="13"/>
     </row>
-    <row r="98" spans="1:31" ht="15.75" thickBot="1">
+    <row r="98" spans="1:31" ht="15" thickBot="1">
       <c r="A98" s="39"/>
       <c r="B98" s="40"/>
       <c r="C98" s="40"/>
@@ -6540,7 +6547,7 @@
       <c r="AD98" s="13"/>
       <c r="AE98" s="13"/>
     </row>
-    <row r="99" spans="1:31" ht="15.75" thickBot="1">
+    <row r="99" spans="1:31" ht="15" thickBot="1">
       <c r="A99" s="38"/>
       <c r="B99" s="35"/>
       <c r="C99" s="35"/>
@@ -6573,7 +6580,7 @@
       <c r="AD99" s="13"/>
       <c r="AE99" s="13"/>
     </row>
-    <row r="100" spans="1:31" ht="15.75" thickBot="1">
+    <row r="100" spans="1:31" ht="15" thickBot="1">
       <c r="A100" s="39"/>
       <c r="B100" s="40"/>
       <c r="C100" s="40"/>
@@ -6606,7 +6613,7 @@
       <c r="AD100" s="13"/>
       <c r="AE100" s="13"/>
     </row>
-    <row r="101" spans="1:31" ht="15.75" thickBot="1">
+    <row r="101" spans="1:31" ht="15" thickBot="1">
       <c r="A101" s="38"/>
       <c r="B101" s="35"/>
       <c r="C101" s="35"/>
@@ -6639,7 +6646,7 @@
       <c r="AD101" s="13"/>
       <c r="AE101" s="13"/>
     </row>
-    <row r="102" spans="1:31" ht="15.75" thickBot="1">
+    <row r="102" spans="1:31" ht="15" thickBot="1">
       <c r="A102" s="39"/>
       <c r="B102" s="40"/>
       <c r="C102" s="40"/>
@@ -6672,7 +6679,7 @@
       <c r="AD102" s="13"/>
       <c r="AE102" s="13"/>
     </row>
-    <row r="103" spans="1:31" ht="15.75" thickBot="1">
+    <row r="103" spans="1:31" ht="15" thickBot="1">
       <c r="A103" s="38"/>
       <c r="B103" s="35"/>
       <c r="C103" s="35"/>
@@ -6705,7 +6712,7 @@
       <c r="AD103" s="13"/>
       <c r="AE103" s="13"/>
     </row>
-    <row r="104" spans="1:31" ht="15.75" thickBot="1">
+    <row r="104" spans="1:31" ht="15" thickBot="1">
       <c r="A104" s="39"/>
       <c r="B104" s="40"/>
       <c r="C104" s="40"/>
@@ -6738,7 +6745,7 @@
       <c r="AD104" s="13"/>
       <c r="AE104" s="13"/>
     </row>
-    <row r="105" spans="1:31" ht="15.75" thickBot="1">
+    <row r="105" spans="1:31" ht="15" thickBot="1">
       <c r="A105" s="38"/>
       <c r="B105" s="35"/>
       <c r="C105" s="35"/>
@@ -6771,7 +6778,7 @@
       <c r="AD105" s="13"/>
       <c r="AE105" s="13"/>
     </row>
-    <row r="106" spans="1:31" ht="15.75" thickBot="1">
+    <row r="106" spans="1:31" ht="15" thickBot="1">
       <c r="A106" s="39"/>
       <c r="B106" s="40"/>
       <c r="C106" s="40"/>
@@ -6804,7 +6811,7 @@
       <c r="AD106" s="13"/>
       <c r="AE106" s="13"/>
     </row>
-    <row r="107" spans="1:31" ht="15.75" thickBot="1">
+    <row r="107" spans="1:31" ht="15" thickBot="1">
       <c r="A107" s="38"/>
       <c r="B107" s="35"/>
       <c r="C107" s="35"/>
@@ -6837,7 +6844,7 @@
       <c r="AD107" s="13"/>
       <c r="AE107" s="13"/>
     </row>
-    <row r="108" spans="1:31" ht="15.75" thickBot="1">
+    <row r="108" spans="1:31" ht="15" thickBot="1">
       <c r="A108" s="39"/>
       <c r="B108" s="40"/>
       <c r="C108" s="40"/>
@@ -6870,7 +6877,7 @@
       <c r="AD108" s="13"/>
       <c r="AE108" s="13"/>
     </row>
-    <row r="109" spans="1:31" ht="15.75" thickBot="1">
+    <row r="109" spans="1:31" ht="15" thickBot="1">
       <c r="A109" s="38"/>
       <c r="B109" s="35"/>
       <c r="C109" s="35"/>
@@ -6903,7 +6910,7 @@
       <c r="AD109" s="13"/>
       <c r="AE109" s="13"/>
     </row>
-    <row r="110" spans="1:31" ht="15.75" thickBot="1">
+    <row r="110" spans="1:31" ht="15" thickBot="1">
       <c r="A110" s="39"/>
       <c r="B110" s="40"/>
       <c r="C110" s="40"/>
@@ -6936,7 +6943,7 @@
       <c r="AD110" s="13"/>
       <c r="AE110" s="13"/>
     </row>
-    <row r="111" spans="1:31" ht="15.75" thickBot="1">
+    <row r="111" spans="1:31" ht="15" thickBot="1">
       <c r="A111" s="38"/>
       <c r="B111" s="35"/>
       <c r="C111" s="35"/>
@@ -6969,7 +6976,7 @@
       <c r="AD111" s="13"/>
       <c r="AE111" s="13"/>
     </row>
-    <row r="112" spans="1:31" ht="15.75" thickBot="1">
+    <row r="112" spans="1:31" ht="15" thickBot="1">
       <c r="A112" s="39"/>
       <c r="B112" s="40"/>
       <c r="C112" s="40"/>
@@ -7002,7 +7009,7 @@
       <c r="AD112" s="13"/>
       <c r="AE112" s="13"/>
     </row>
-    <row r="113" spans="1:31" ht="15.75" thickBot="1">
+    <row r="113" spans="1:31" ht="15" thickBot="1">
       <c r="A113" s="38"/>
       <c r="B113" s="35"/>
       <c r="C113" s="35"/>
@@ -7035,7 +7042,7 @@
       <c r="AD113" s="13"/>
       <c r="AE113" s="13"/>
     </row>
-    <row r="114" spans="1:31" ht="15.75" thickBot="1">
+    <row r="114" spans="1:31" ht="15" thickBot="1">
       <c r="A114" s="39"/>
       <c r="B114" s="40"/>
       <c r="C114" s="40"/>
@@ -7068,7 +7075,7 @@
       <c r="AD114" s="13"/>
       <c r="AE114" s="13"/>
     </row>
-    <row r="115" spans="1:31" ht="15.75" thickBot="1">
+    <row r="115" spans="1:31" ht="15" thickBot="1">
       <c r="A115" s="38"/>
       <c r="B115" s="35"/>
       <c r="C115" s="35"/>
@@ -7101,7 +7108,7 @@
       <c r="AD115" s="13"/>
       <c r="AE115" s="13"/>
     </row>
-    <row r="116" spans="1:31" ht="15.75" thickBot="1">
+    <row r="116" spans="1:31" ht="15" thickBot="1">
       <c r="A116" s="39"/>
       <c r="B116" s="40"/>
       <c r="C116" s="40"/>
@@ -7134,7 +7141,7 @@
       <c r="AD116" s="13"/>
       <c r="AE116" s="13"/>
     </row>
-    <row r="117" spans="1:31" ht="15.75" thickBot="1">
+    <row r="117" spans="1:31" ht="15" thickBot="1">
       <c r="A117" s="38"/>
       <c r="B117" s="35"/>
       <c r="C117" s="35"/>
@@ -7167,7 +7174,7 @@
       <c r="AD117" s="13"/>
       <c r="AE117" s="13"/>
     </row>
-    <row r="118" spans="1:31" ht="15.75" thickBot="1">
+    <row r="118" spans="1:31" ht="15" thickBot="1">
       <c r="A118" s="39"/>
       <c r="B118" s="40"/>
       <c r="C118" s="40"/>
@@ -7200,7 +7207,7 @@
       <c r="AD118" s="13"/>
       <c r="AE118" s="13"/>
     </row>
-    <row r="119" spans="1:31" ht="15.75" thickBot="1">
+    <row r="119" spans="1:31" ht="15" thickBot="1">
       <c r="A119" s="38"/>
       <c r="B119" s="35"/>
       <c r="C119" s="35"/>
@@ -7233,7 +7240,7 @@
       <c r="AD119" s="13"/>
       <c r="AE119" s="13"/>
     </row>
-    <row r="120" spans="1:31" ht="15.75" thickBot="1">
+    <row r="120" spans="1:31" ht="15" thickBot="1">
       <c r="A120" s="39"/>
       <c r="B120" s="40"/>
       <c r="C120" s="40"/>
@@ -7266,7 +7273,7 @@
       <c r="AD120" s="13"/>
       <c r="AE120" s="13"/>
     </row>
-    <row r="121" spans="1:31" ht="15.75" thickBot="1">
+    <row r="121" spans="1:31" ht="15" thickBot="1">
       <c r="A121" s="38"/>
       <c r="B121" s="35"/>
       <c r="C121" s="35"/>
@@ -7299,7 +7306,7 @@
       <c r="AD121" s="13"/>
       <c r="AE121" s="13"/>
     </row>
-    <row r="122" spans="1:31" ht="15.75" thickBot="1">
+    <row r="122" spans="1:31" ht="15" thickBot="1">
       <c r="A122" s="39"/>
       <c r="B122" s="40"/>
       <c r="C122" s="40"/>
@@ -7332,7 +7339,7 @@
       <c r="AD122" s="13"/>
       <c r="AE122" s="13"/>
     </row>
-    <row r="123" spans="1:31" ht="15.75" thickBot="1">
+    <row r="123" spans="1:31" ht="15" thickBot="1">
       <c r="A123" s="38"/>
       <c r="B123" s="35"/>
       <c r="C123" s="35"/>
@@ -7365,7 +7372,7 @@
       <c r="AD123" s="13"/>
       <c r="AE123" s="13"/>
     </row>
-    <row r="124" spans="1:31" ht="15.75" thickBot="1">
+    <row r="124" spans="1:31" ht="15" thickBot="1">
       <c r="A124" s="39"/>
       <c r="B124" s="40"/>
       <c r="C124" s="40"/>
@@ -7398,7 +7405,7 @@
       <c r="AD124" s="13"/>
       <c r="AE124" s="13"/>
     </row>
-    <row r="125" spans="1:31" ht="15.75" thickBot="1">
+    <row r="125" spans="1:31" ht="15" thickBot="1">
       <c r="A125" s="38"/>
       <c r="B125" s="35"/>
       <c r="C125" s="35"/>
@@ -7431,7 +7438,7 @@
       <c r="AD125" s="13"/>
       <c r="AE125" s="13"/>
     </row>
-    <row r="126" spans="1:31" ht="15.75" thickBot="1">
+    <row r="126" spans="1:31" ht="15" thickBot="1">
       <c r="A126" s="39"/>
       <c r="B126" s="40"/>
       <c r="C126" s="40"/>
@@ -7464,7 +7471,7 @@
       <c r="AD126" s="13"/>
       <c r="AE126" s="13"/>
     </row>
-    <row r="127" spans="1:31" ht="15.75" thickBot="1">
+    <row r="127" spans="1:31" ht="15" thickBot="1">
       <c r="A127" s="38"/>
       <c r="B127" s="35"/>
       <c r="C127" s="35"/>
@@ -7497,7 +7504,7 @@
       <c r="AD127" s="13"/>
       <c r="AE127" s="13"/>
     </row>
-    <row r="128" spans="1:31" ht="15.75" thickBot="1">
+    <row r="128" spans="1:31" ht="15" thickBot="1">
       <c r="A128" s="39"/>
       <c r="B128" s="40"/>
       <c r="C128" s="40"/>
@@ -7530,7 +7537,7 @@
       <c r="AD128" s="13"/>
       <c r="AE128" s="13"/>
     </row>
-    <row r="129" spans="1:31" ht="15.75" thickBot="1">
+    <row r="129" spans="1:31" ht="15" thickBot="1">
       <c r="A129" s="38"/>
       <c r="B129" s="35"/>
       <c r="C129" s="35"/>
@@ -7563,7 +7570,7 @@
       <c r="AD129" s="13"/>
       <c r="AE129" s="13"/>
     </row>
-    <row r="130" spans="1:31" ht="15.75" thickBot="1">
+    <row r="130" spans="1:31" ht="15" thickBot="1">
       <c r="A130" s="39"/>
       <c r="B130" s="40"/>
       <c r="C130" s="40"/>
@@ -7596,7 +7603,7 @@
       <c r="AD130" s="13"/>
       <c r="AE130" s="13"/>
     </row>
-    <row r="131" spans="1:31" ht="15.75" thickBot="1">
+    <row r="131" spans="1:31" ht="15" thickBot="1">
       <c r="A131" s="38"/>
       <c r="B131" s="35"/>
       <c r="C131" s="35"/>
@@ -7629,7 +7636,7 @@
       <c r="AD131" s="13"/>
       <c r="AE131" s="13"/>
     </row>
-    <row r="132" spans="1:31" ht="15.75" thickBot="1">
+    <row r="132" spans="1:31" ht="15" thickBot="1">
       <c r="A132" s="39"/>
       <c r="B132" s="40"/>
       <c r="C132" s="40"/>
@@ -7662,7 +7669,7 @@
       <c r="AD132" s="13"/>
       <c r="AE132" s="13"/>
     </row>
-    <row r="133" spans="1:31" ht="15.75" thickBot="1">
+    <row r="133" spans="1:31" ht="15" thickBot="1">
       <c r="A133" s="38"/>
       <c r="B133" s="35"/>
       <c r="C133" s="35"/>
@@ -7695,7 +7702,7 @@
       <c r="AD133" s="13"/>
       <c r="AE133" s="13"/>
     </row>
-    <row r="134" spans="1:31" ht="15.75" thickBot="1">
+    <row r="134" spans="1:31" ht="15" thickBot="1">
       <c r="A134" s="39"/>
       <c r="B134" s="40"/>
       <c r="C134" s="40"/>
@@ -7728,7 +7735,7 @@
       <c r="AD134" s="13"/>
       <c r="AE134" s="13"/>
     </row>
-    <row r="135" spans="1:31" ht="15.75" thickBot="1">
+    <row r="135" spans="1:31" ht="15" thickBot="1">
       <c r="A135" s="38"/>
       <c r="B135" s="35"/>
       <c r="C135" s="35"/>
@@ -7761,7 +7768,7 @@
       <c r="AD135" s="13"/>
       <c r="AE135" s="13"/>
     </row>
-    <row r="136" spans="1:31" ht="15.75" thickBot="1">
+    <row r="136" spans="1:31" ht="15" thickBot="1">
       <c r="A136" s="39"/>
       <c r="B136" s="40"/>
       <c r="C136" s="40"/>
@@ -7794,7 +7801,7 @@
       <c r="AD136" s="13"/>
       <c r="AE136" s="13"/>
     </row>
-    <row r="137" spans="1:31" ht="15.75" thickBot="1">
+    <row r="137" spans="1:31" ht="15" thickBot="1">
       <c r="A137" s="38"/>
       <c r="B137" s="35"/>
       <c r="C137" s="35"/>
@@ -7827,7 +7834,7 @@
       <c r="AD137" s="13"/>
       <c r="AE137" s="13"/>
     </row>
-    <row r="138" spans="1:31" ht="15.75" thickBot="1">
+    <row r="138" spans="1:31" ht="15" thickBot="1">
       <c r="A138" s="39"/>
       <c r="B138" s="40"/>
       <c r="C138" s="40"/>
@@ -7860,7 +7867,7 @@
       <c r="AD138" s="13"/>
       <c r="AE138" s="13"/>
     </row>
-    <row r="139" spans="1:31" ht="15.75" thickBot="1">
+    <row r="139" spans="1:31" ht="15" thickBot="1">
       <c r="A139" s="38"/>
       <c r="B139" s="35"/>
       <c r="C139" s="35"/>
@@ -7893,7 +7900,7 @@
       <c r="AD139" s="13"/>
       <c r="AE139" s="13"/>
     </row>
-    <row r="140" spans="1:31" ht="15.75" thickBot="1">
+    <row r="140" spans="1:31" ht="15" thickBot="1">
       <c r="A140" s="39"/>
       <c r="B140" s="40"/>
       <c r="C140" s="40"/>
@@ -7926,7 +7933,7 @@
       <c r="AD140" s="13"/>
       <c r="AE140" s="13"/>
     </row>
-    <row r="141" spans="1:31" ht="15.75" thickBot="1">
+    <row r="141" spans="1:31" ht="15" thickBot="1">
       <c r="A141" s="38"/>
       <c r="B141" s="35"/>
       <c r="C141" s="35"/>
@@ -7959,7 +7966,7 @@
       <c r="AD141" s="13"/>
       <c r="AE141" s="13"/>
     </row>
-    <row r="142" spans="1:31" ht="15.75" thickBot="1">
+    <row r="142" spans="1:31" ht="15" thickBot="1">
       <c r="A142" s="39"/>
       <c r="B142" s="40"/>
       <c r="C142" s="40"/>
@@ -7992,7 +7999,7 @@
       <c r="AD142" s="13"/>
       <c r="AE142" s="13"/>
     </row>
-    <row r="143" spans="1:31" ht="15.75" thickBot="1">
+    <row r="143" spans="1:31" ht="15" thickBot="1">
       <c r="A143" s="38"/>
       <c r="B143" s="35"/>
       <c r="C143" s="35"/>
@@ -8025,7 +8032,7 @@
       <c r="AD143" s="13"/>
       <c r="AE143" s="13"/>
     </row>
-    <row r="144" spans="1:31" ht="15.75" thickBot="1">
+    <row r="144" spans="1:31" ht="15" thickBot="1">
       <c r="A144" s="39"/>
       <c r="B144" s="40"/>
       <c r="C144" s="40"/>
@@ -8058,7 +8065,7 @@
       <c r="AD144" s="13"/>
       <c r="AE144" s="13"/>
     </row>
-    <row r="145" spans="1:31" ht="15.75" thickBot="1">
+    <row r="145" spans="1:31" ht="15" thickBot="1">
       <c r="A145" s="38"/>
       <c r="B145" s="35"/>
       <c r="C145" s="35"/>
@@ -8091,7 +8098,7 @@
       <c r="AD145" s="13"/>
       <c r="AE145" s="13"/>
     </row>
-    <row r="146" spans="1:31" ht="15.75" thickBot="1">
+    <row r="146" spans="1:31" ht="15" thickBot="1">
       <c r="A146" s="39"/>
       <c r="B146" s="40"/>
       <c r="C146" s="40"/>
@@ -8124,7 +8131,7 @@
       <c r="AD146" s="13"/>
       <c r="AE146" s="13"/>
     </row>
-    <row r="147" spans="1:31" ht="15.75" thickBot="1">
+    <row r="147" spans="1:31" ht="15" thickBot="1">
       <c r="A147" s="38"/>
       <c r="B147" s="35"/>
       <c r="C147" s="35"/>
@@ -8157,7 +8164,7 @@
       <c r="AD147" s="13"/>
       <c r="AE147" s="13"/>
     </row>
-    <row r="148" spans="1:31" ht="15.75" thickBot="1">
+    <row r="148" spans="1:31" ht="15" thickBot="1">
       <c r="A148" s="39"/>
       <c r="B148" s="40"/>
       <c r="C148" s="40"/>
@@ -8190,7 +8197,7 @@
       <c r="AD148" s="13"/>
       <c r="AE148" s="13"/>
     </row>
-    <row r="149" spans="1:31" ht="15.75" thickBot="1">
+    <row r="149" spans="1:31" ht="15" thickBot="1">
       <c r="A149" s="38"/>
       <c r="B149" s="35"/>
       <c r="C149" s="35"/>
@@ -8223,7 +8230,7 @@
       <c r="AD149" s="13"/>
       <c r="AE149" s="13"/>
     </row>
-    <row r="150" spans="1:31" ht="15.75" thickBot="1">
+    <row r="150" spans="1:31" ht="15" thickBot="1">
       <c r="A150" s="39"/>
       <c r="B150" s="40"/>
       <c r="C150" s="40"/>
@@ -8256,7 +8263,7 @@
       <c r="AD150" s="13"/>
       <c r="AE150" s="13"/>
     </row>
-    <row r="151" spans="1:31" ht="15.75" thickBot="1">
+    <row r="151" spans="1:31" ht="15" thickBot="1">
       <c r="A151" s="38"/>
       <c r="B151" s="35"/>
       <c r="C151" s="35"/>
@@ -8289,7 +8296,7 @@
       <c r="AD151" s="13"/>
       <c r="AE151" s="13"/>
     </row>
-    <row r="152" spans="1:31" ht="15.75" thickBot="1">
+    <row r="152" spans="1:31" ht="15" thickBot="1">
       <c r="A152" s="39"/>
       <c r="B152" s="40"/>
       <c r="C152" s="40"/>
@@ -8322,7 +8329,7 @@
       <c r="AD152" s="13"/>
       <c r="AE152" s="13"/>
     </row>
-    <row r="153" spans="1:31" ht="15.75" thickBot="1">
+    <row r="153" spans="1:31" ht="15" thickBot="1">
       <c r="A153" s="38"/>
       <c r="B153" s="35"/>
       <c r="C153" s="35"/>
@@ -8355,7 +8362,7 @@
       <c r="AD153" s="13"/>
       <c r="AE153" s="13"/>
     </row>
-    <row r="154" spans="1:31" ht="15.75" thickBot="1">
+    <row r="154" spans="1:31" ht="15" thickBot="1">
       <c r="A154" s="39"/>
       <c r="B154" s="40"/>
       <c r="C154" s="40"/>
@@ -8388,7 +8395,7 @@
       <c r="AD154" s="13"/>
       <c r="AE154" s="13"/>
     </row>
-    <row r="155" spans="1:31" ht="15.75" thickBot="1">
+    <row r="155" spans="1:31" ht="15" thickBot="1">
       <c r="A155" s="38"/>
       <c r="B155" s="35"/>
       <c r="C155" s="35"/>
@@ -8421,7 +8428,7 @@
       <c r="AD155" s="13"/>
       <c r="AE155" s="13"/>
     </row>
-    <row r="156" spans="1:31" ht="15.75" thickBot="1">
+    <row r="156" spans="1:31" ht="15" thickBot="1">
       <c r="A156" s="39"/>
       <c r="B156" s="40"/>
       <c r="C156" s="40"/>
@@ -8454,7 +8461,7 @@
       <c r="AD156" s="13"/>
       <c r="AE156" s="13"/>
     </row>
-    <row r="157" spans="1:31" ht="15.75" thickBot="1">
+    <row r="157" spans="1:31" ht="15" thickBot="1">
       <c r="A157" s="38"/>
       <c r="B157" s="35"/>
       <c r="C157" s="35"/>
@@ -8487,7 +8494,7 @@
       <c r="AD157" s="13"/>
       <c r="AE157" s="13"/>
     </row>
-    <row r="158" spans="1:31" ht="15.75" thickBot="1">
+    <row r="158" spans="1:31" ht="15" thickBot="1">
       <c r="A158" s="39"/>
       <c r="B158" s="40"/>
       <c r="C158" s="40"/>
@@ -8520,7 +8527,7 @@
       <c r="AD158" s="13"/>
       <c r="AE158" s="13"/>
     </row>
-    <row r="159" spans="1:31" ht="15.75" thickBot="1">
+    <row r="159" spans="1:31" ht="15" thickBot="1">
       <c r="A159" s="38"/>
       <c r="B159" s="35"/>
       <c r="C159" s="35"/>
@@ -8553,7 +8560,7 @@
       <c r="AD159" s="13"/>
       <c r="AE159" s="13"/>
     </row>
-    <row r="160" spans="1:31" ht="15.75" thickBot="1">
+    <row r="160" spans="1:31" ht="15" thickBot="1">
       <c r="A160" s="39"/>
       <c r="B160" s="40"/>
       <c r="C160" s="40"/>
@@ -8586,7 +8593,7 @@
       <c r="AD160" s="13"/>
       <c r="AE160" s="13"/>
     </row>
-    <row r="161" spans="1:31" ht="15.75" thickBot="1">
+    <row r="161" spans="1:31" ht="15" thickBot="1">
       <c r="A161" s="38"/>
       <c r="B161" s="35"/>
       <c r="C161" s="35"/>
@@ -8619,7 +8626,7 @@
       <c r="AD161" s="13"/>
       <c r="AE161" s="13"/>
     </row>
-    <row r="162" spans="1:31" ht="15.75" thickBot="1">
+    <row r="162" spans="1:31" ht="15" thickBot="1">
       <c r="A162" s="39"/>
       <c r="B162" s="40"/>
       <c r="C162" s="40"/>
@@ -8652,7 +8659,7 @@
       <c r="AD162" s="13"/>
       <c r="AE162" s="13"/>
     </row>
-    <row r="163" spans="1:31" ht="15.75" thickBot="1">
+    <row r="163" spans="1:31" ht="15" thickBot="1">
       <c r="A163" s="38"/>
       <c r="B163" s="35"/>
       <c r="C163" s="35"/>
@@ -8685,7 +8692,7 @@
       <c r="AD163" s="13"/>
       <c r="AE163" s="13"/>
     </row>
-    <row r="164" spans="1:31" ht="15.75" thickBot="1">
+    <row r="164" spans="1:31" ht="15" thickBot="1">
       <c r="A164" s="39"/>
       <c r="B164" s="40"/>
       <c r="C164" s="40"/>
@@ -8718,7 +8725,7 @@
       <c r="AD164" s="13"/>
       <c r="AE164" s="13"/>
     </row>
-    <row r="165" spans="1:31" ht="15.75" thickBot="1">
+    <row r="165" spans="1:31" ht="15" thickBot="1">
       <c r="A165" s="38"/>
       <c r="B165" s="35"/>
       <c r="C165" s="35"/>
@@ -8751,7 +8758,7 @@
       <c r="AD165" s="13"/>
       <c r="AE165" s="13"/>
     </row>
-    <row r="166" spans="1:31" ht="15.75" thickBot="1">
+    <row r="166" spans="1:31" ht="15" thickBot="1">
       <c r="A166" s="39"/>
       <c r="B166" s="40"/>
       <c r="C166" s="40"/>
@@ -8784,7 +8791,7 @@
       <c r="AD166" s="13"/>
       <c r="AE166" s="13"/>
     </row>
-    <row r="167" spans="1:31" ht="15.75" thickBot="1">
+    <row r="167" spans="1:31" ht="15" thickBot="1">
       <c r="A167" s="38"/>
       <c r="B167" s="35"/>
       <c r="C167" s="35"/>
@@ -8817,7 +8824,7 @@
       <c r="AD167" s="13"/>
       <c r="AE167" s="13"/>
     </row>
-    <row r="168" spans="1:31" ht="15.75" thickBot="1">
+    <row r="168" spans="1:31" ht="15" thickBot="1">
       <c r="A168" s="39"/>
       <c r="B168" s="40"/>
       <c r="C168" s="40"/>
@@ -8850,7 +8857,7 @@
       <c r="AD168" s="13"/>
       <c r="AE168" s="13"/>
     </row>
-    <row r="169" spans="1:31" ht="15.75" thickBot="1">
+    <row r="169" spans="1:31" ht="15" thickBot="1">
       <c r="A169" s="38"/>
       <c r="B169" s="35"/>
       <c r="C169" s="35"/>
@@ -8883,7 +8890,7 @@
       <c r="AD169" s="13"/>
       <c r="AE169" s="13"/>
     </row>
-    <row r="170" spans="1:31" ht="15.75" thickBot="1">
+    <row r="170" spans="1:31" ht="15" thickBot="1">
       <c r="A170" s="39"/>
       <c r="B170" s="40"/>
       <c r="C170" s="40"/>
@@ -8916,7 +8923,7 @@
       <c r="AD170" s="13"/>
       <c r="AE170" s="13"/>
     </row>
-    <row r="171" spans="1:31" ht="15.75" thickBot="1">
+    <row r="171" spans="1:31" ht="15" thickBot="1">
       <c r="A171" s="38"/>
       <c r="B171" s="35"/>
       <c r="C171" s="35"/>
@@ -8949,7 +8956,7 @@
       <c r="AD171" s="13"/>
       <c r="AE171" s="13"/>
     </row>
-    <row r="172" spans="1:31" ht="15.75" thickBot="1">
+    <row r="172" spans="1:31" ht="15" thickBot="1">
       <c r="A172" s="39"/>
       <c r="B172" s="40"/>
       <c r="C172" s="40"/>
@@ -8982,7 +8989,7 @@
       <c r="AD172" s="13"/>
       <c r="AE172" s="13"/>
     </row>
-    <row r="173" spans="1:31" ht="15.75" thickBot="1">
+    <row r="173" spans="1:31" ht="15" thickBot="1">
       <c r="A173" s="38"/>
       <c r="B173" s="35"/>
       <c r="C173" s="35"/>
@@ -9015,7 +9022,7 @@
       <c r="AD173" s="13"/>
       <c r="AE173" s="13"/>
     </row>
-    <row r="174" spans="1:31" ht="15.75" thickBot="1">
+    <row r="174" spans="1:31" ht="15" thickBot="1">
       <c r="A174" s="39"/>
       <c r="B174" s="40"/>
       <c r="C174" s="40"/>
@@ -9048,7 +9055,7 @@
       <c r="AD174" s="13"/>
       <c r="AE174" s="13"/>
     </row>
-    <row r="175" spans="1:31" ht="15.75" thickBot="1">
+    <row r="175" spans="1:31" ht="15" thickBot="1">
       <c r="A175" s="38"/>
       <c r="B175" s="35"/>
       <c r="C175" s="35"/>
@@ -9081,7 +9088,7 @@
       <c r="AD175" s="13"/>
       <c r="AE175" s="13"/>
     </row>
-    <row r="176" spans="1:31" ht="15.75" thickBot="1">
+    <row r="176" spans="1:31" ht="15" thickBot="1">
       <c r="A176" s="39"/>
       <c r="B176" s="40"/>
       <c r="C176" s="40"/>
@@ -9114,7 +9121,7 @@
       <c r="AD176" s="13"/>
       <c r="AE176" s="13"/>
     </row>
-    <row r="177" spans="1:31" ht="15.75" thickBot="1">
+    <row r="177" spans="1:31" ht="15" thickBot="1">
       <c r="A177" s="38"/>
       <c r="B177" s="35"/>
       <c r="C177" s="35"/>
@@ -9147,7 +9154,7 @@
       <c r="AD177" s="13"/>
       <c r="AE177" s="13"/>
     </row>
-    <row r="178" spans="1:31" ht="15.75" thickBot="1">
+    <row r="178" spans="1:31" ht="15" thickBot="1">
       <c r="A178" s="39"/>
       <c r="B178" s="40"/>
       <c r="C178" s="40"/>
@@ -9180,7 +9187,7 @@
       <c r="AD178" s="13"/>
       <c r="AE178" s="13"/>
     </row>
-    <row r="179" spans="1:31" ht="15.75" thickBot="1">
+    <row r="179" spans="1:31" ht="15" thickBot="1">
       <c r="A179" s="38"/>
       <c r="B179" s="35"/>
       <c r="C179" s="35"/>
@@ -9213,7 +9220,7 @@
       <c r="AD179" s="13"/>
       <c r="AE179" s="13"/>
     </row>
-    <row r="180" spans="1:31" ht="15.75" thickBot="1">
+    <row r="180" spans="1:31" ht="15" thickBot="1">
       <c r="A180" s="39"/>
       <c r="B180" s="40"/>
       <c r="C180" s="40"/>
@@ -9246,7 +9253,7 @@
       <c r="AD180" s="13"/>
       <c r="AE180" s="13"/>
     </row>
-    <row r="181" spans="1:31" ht="15.75" thickBot="1">
+    <row r="181" spans="1:31" ht="15" thickBot="1">
       <c r="A181" s="38"/>
       <c r="B181" s="35"/>
       <c r="C181" s="35"/>
@@ -9279,7 +9286,7 @@
       <c r="AD181" s="13"/>
       <c r="AE181" s="13"/>
     </row>
-    <row r="182" spans="1:31" ht="15.75" thickBot="1">
+    <row r="182" spans="1:31" ht="15" thickBot="1">
       <c r="A182" s="39"/>
       <c r="B182" s="40"/>
       <c r="C182" s="40"/>
@@ -9312,7 +9319,7 @@
       <c r="AD182" s="13"/>
       <c r="AE182" s="13"/>
     </row>
-    <row r="183" spans="1:31" ht="15.75" thickBot="1">
+    <row r="183" spans="1:31" ht="15" thickBot="1">
       <c r="A183" s="38"/>
       <c r="B183" s="35"/>
       <c r="C183" s="35"/>
@@ -9345,7 +9352,7 @@
       <c r="AD183" s="13"/>
       <c r="AE183" s="13"/>
     </row>
-    <row r="184" spans="1:31" ht="15.75" thickBot="1">
+    <row r="184" spans="1:31" ht="15" thickBot="1">
       <c r="A184" s="39"/>
       <c r="B184" s="40"/>
       <c r="C184" s="40"/>
@@ -9378,7 +9385,7 @@
       <c r="AD184" s="13"/>
       <c r="AE184" s="13"/>
     </row>
-    <row r="185" spans="1:31" ht="15.75" thickBot="1">
+    <row r="185" spans="1:31" ht="15" thickBot="1">
       <c r="A185" s="38"/>
       <c r="B185" s="35"/>
       <c r="C185" s="35"/>
@@ -9411,7 +9418,7 @@
       <c r="AD185" s="13"/>
       <c r="AE185" s="13"/>
     </row>
-    <row r="186" spans="1:31" ht="15.75" thickBot="1">
+    <row r="186" spans="1:31" ht="15" thickBot="1">
       <c r="A186" s="39"/>
       <c r="B186" s="40"/>
       <c r="C186" s="40"/>
@@ -9444,7 +9451,7 @@
       <c r="AD186" s="13"/>
       <c r="AE186" s="13"/>
     </row>
-    <row r="187" spans="1:31" ht="15.75" thickBot="1">
+    <row r="187" spans="1:31" ht="15" thickBot="1">
       <c r="A187" s="38"/>
       <c r="B187" s="35"/>
       <c r="C187" s="35"/>
@@ -9477,7 +9484,7 @@
       <c r="AD187" s="13"/>
       <c r="AE187" s="13"/>
     </row>
-    <row r="188" spans="1:31" ht="15.75" thickBot="1">
+    <row r="188" spans="1:31" ht="15" thickBot="1">
       <c r="A188" s="39"/>
       <c r="B188" s="40"/>
       <c r="C188" s="40"/>
@@ -9510,7 +9517,7 @@
       <c r="AD188" s="13"/>
       <c r="AE188" s="13"/>
     </row>
-    <row r="189" spans="1:31" ht="15.75" thickBot="1">
+    <row r="189" spans="1:31" ht="15" thickBot="1">
       <c r="A189" s="38"/>
       <c r="B189" s="35"/>
       <c r="C189" s="35"/>
@@ -9543,7 +9550,7 @@
       <c r="AD189" s="13"/>
       <c r="AE189" s="13"/>
     </row>
-    <row r="190" spans="1:31" ht="15.75" thickBot="1">
+    <row r="190" spans="1:31" ht="15" thickBot="1">
       <c r="A190" s="39"/>
       <c r="B190" s="40"/>
       <c r="C190" s="40"/>
@@ -9576,7 +9583,7 @@
       <c r="AD190" s="13"/>
       <c r="AE190" s="13"/>
     </row>
-    <row r="191" spans="1:31" ht="15.75" thickBot="1">
+    <row r="191" spans="1:31" ht="15" thickBot="1">
       <c r="A191" s="38"/>
       <c r="B191" s="35"/>
       <c r="C191" s="35"/>
@@ -9609,7 +9616,7 @@
       <c r="AD191" s="13"/>
       <c r="AE191" s="13"/>
     </row>
-    <row r="192" spans="1:31" ht="15.75" thickBot="1">
+    <row r="192" spans="1:31" ht="15" thickBot="1">
       <c r="A192" s="39"/>
       <c r="B192" s="40"/>
       <c r="C192" s="40"/>
@@ -9642,7 +9649,7 @@
       <c r="AD192" s="13"/>
       <c r="AE192" s="13"/>
     </row>
-    <row r="193" spans="1:31" ht="15.75" thickBot="1">
+    <row r="193" spans="1:31" ht="15" thickBot="1">
       <c r="A193" s="38"/>
       <c r="B193" s="35"/>
       <c r="C193" s="35"/>
@@ -9675,7 +9682,7 @@
       <c r="AD193" s="13"/>
       <c r="AE193" s="13"/>
     </row>
-    <row r="194" spans="1:31" ht="15.75" thickBot="1">
+    <row r="194" spans="1:31" ht="15" thickBot="1">
       <c r="A194" s="39"/>
       <c r="B194" s="40"/>
       <c r="C194" s="40"/>
@@ -9708,7 +9715,7 @@
       <c r="AD194" s="13"/>
       <c r="AE194" s="13"/>
     </row>
-    <row r="195" spans="1:31" ht="15.75" thickBot="1">
+    <row r="195" spans="1:31" ht="15" thickBot="1">
       <c r="A195" s="38"/>
       <c r="B195" s="35"/>
       <c r="C195" s="35"/>
@@ -9741,7 +9748,7 @@
       <c r="AD195" s="13"/>
       <c r="AE195" s="13"/>
     </row>
-    <row r="196" spans="1:31" ht="15.75" thickBot="1">
+    <row r="196" spans="1:31" ht="15" thickBot="1">
       <c r="A196" s="39"/>
       <c r="B196" s="40"/>
       <c r="C196" s="40"/>
@@ -9774,7 +9781,7 @@
       <c r="AD196" s="13"/>
       <c r="AE196" s="13"/>
     </row>
-    <row r="197" spans="1:31" ht="15.75" thickBot="1">
+    <row r="197" spans="1:31" ht="15" thickBot="1">
       <c r="A197" s="38"/>
       <c r="B197" s="35"/>
       <c r="C197" s="35"/>
@@ -9807,7 +9814,7 @@
       <c r="AD197" s="13"/>
       <c r="AE197" s="13"/>
     </row>
-    <row r="198" spans="1:31" ht="15.75" thickBot="1">
+    <row r="198" spans="1:31" ht="15" thickBot="1">
       <c r="A198" s="39"/>
       <c r="B198" s="40"/>
       <c r="C198" s="40"/>
@@ -9840,7 +9847,7 @@
       <c r="AD198" s="13"/>
       <c r="AE198" s="13"/>
     </row>
-    <row r="199" spans="1:31" ht="15.75" thickBot="1">
+    <row r="199" spans="1:31" ht="15" thickBot="1">
       <c r="A199" s="38"/>
       <c r="B199" s="35"/>
       <c r="C199" s="35"/>
@@ -9873,7 +9880,7 @@
       <c r="AD199" s="13"/>
       <c r="AE199" s="13"/>
     </row>
-    <row r="200" spans="1:31" ht="15.75" thickBot="1">
+    <row r="200" spans="1:31" ht="15" thickBot="1">
       <c r="A200" s="39"/>
       <c r="B200" s="40"/>
       <c r="C200" s="40"/>
@@ -9906,7 +9913,7 @@
       <c r="AD200" s="13"/>
       <c r="AE200" s="13"/>
     </row>
-    <row r="201" spans="1:31" ht="15.75" thickBot="1">
+    <row r="201" spans="1:31" ht="15" thickBot="1">
       <c r="A201" s="38"/>
       <c r="B201" s="35"/>
       <c r="C201" s="35"/>
@@ -9939,7 +9946,7 @@
       <c r="AD201" s="13"/>
       <c r="AE201" s="13"/>
     </row>
-    <row r="202" spans="1:31" ht="15.75" thickBot="1">
+    <row r="202" spans="1:31" ht="15" thickBot="1">
       <c r="A202" s="39"/>
       <c r="B202" s="40"/>
       <c r="C202" s="40"/>
@@ -9972,7 +9979,7 @@
       <c r="AD202" s="13"/>
       <c r="AE202" s="13"/>
     </row>
-    <row r="203" spans="1:31" ht="15.75" thickBot="1">
+    <row r="203" spans="1:31" ht="15" thickBot="1">
       <c r="A203" s="38"/>
       <c r="B203" s="35"/>
       <c r="C203" s="35"/>
@@ -10005,7 +10012,7 @@
       <c r="AD203" s="13"/>
       <c r="AE203" s="13"/>
     </row>
-    <row r="204" spans="1:31" ht="15.75" thickBot="1">
+    <row r="204" spans="1:31" ht="15" thickBot="1">
       <c r="A204" s="39"/>
       <c r="B204" s="40"/>
       <c r="C204" s="40"/>
@@ -10038,7 +10045,7 @@
       <c r="AD204" s="13"/>
       <c r="AE204" s="13"/>
     </row>
-    <row r="205" spans="1:31" ht="15.75" thickBot="1">
+    <row r="205" spans="1:31" ht="15" thickBot="1">
       <c r="A205" s="38"/>
       <c r="B205" s="35"/>
       <c r="C205" s="35"/>
@@ -10071,7 +10078,7 @@
       <c r="AD205" s="13"/>
       <c r="AE205" s="13"/>
     </row>
-    <row r="206" spans="1:31" ht="15.75" thickBot="1">
+    <row r="206" spans="1:31" ht="15" thickBot="1">
       <c r="A206" s="39"/>
       <c r="B206" s="40"/>
       <c r="C206" s="40"/>
@@ -10104,7 +10111,7 @@
       <c r="AD206" s="13"/>
       <c r="AE206" s="13"/>
     </row>
-    <row r="207" spans="1:31" ht="15.75" thickBot="1">
+    <row r="207" spans="1:31" ht="15" thickBot="1">
       <c r="A207" s="38"/>
       <c r="B207" s="35"/>
       <c r="C207" s="35"/>
@@ -10137,7 +10144,7 @@
       <c r="AD207" s="13"/>
       <c r="AE207" s="13"/>
     </row>
-    <row r="208" spans="1:31" ht="15.75" thickBot="1">
+    <row r="208" spans="1:31" ht="15" thickBot="1">
       <c r="A208" s="39"/>
       <c r="B208" s="40"/>
       <c r="C208" s="40"/>
@@ -10170,7 +10177,7 @@
       <c r="AD208" s="13"/>
       <c r="AE208" s="13"/>
     </row>
-    <row r="209" spans="1:31" ht="15.75" thickBot="1">
+    <row r="209" spans="1:31" ht="15" thickBot="1">
       <c r="A209" s="38"/>
       <c r="B209" s="35"/>
       <c r="C209" s="35"/>
@@ -10203,7 +10210,7 @@
       <c r="AD209" s="13"/>
       <c r="AE209" s="13"/>
     </row>
-    <row r="210" spans="1:31" ht="15.75" thickBot="1">
+    <row r="210" spans="1:31" ht="15" thickBot="1">
       <c r="A210" s="39"/>
       <c r="B210" s="40"/>
       <c r="C210" s="40"/>
@@ -10236,7 +10243,7 @@
       <c r="AD210" s="13"/>
       <c r="AE210" s="13"/>
     </row>
-    <row r="211" spans="1:31" ht="15.75" thickBot="1">
+    <row r="211" spans="1:31" ht="15" thickBot="1">
       <c r="A211" s="38"/>
       <c r="B211" s="35"/>
       <c r="C211" s="35"/>
@@ -10269,7 +10276,7 @@
       <c r="AD211" s="13"/>
       <c r="AE211" s="13"/>
     </row>
-    <row r="212" spans="1:31" ht="15.75" thickBot="1">
+    <row r="212" spans="1:31" ht="15" thickBot="1">
       <c r="A212" s="39"/>
       <c r="B212" s="40"/>
       <c r="C212" s="40"/>
@@ -10302,7 +10309,7 @@
       <c r="AD212" s="13"/>
       <c r="AE212" s="13"/>
     </row>
-    <row r="213" spans="1:31" ht="15.75" thickBot="1">
+    <row r="213" spans="1:31" ht="15" thickBot="1">
       <c r="A213" s="38"/>
       <c r="B213" s="35"/>
       <c r="C213" s="35"/>
@@ -10335,7 +10342,7 @@
       <c r="AD213" s="13"/>
       <c r="AE213" s="13"/>
     </row>
-    <row r="214" spans="1:31" ht="15.75" thickBot="1">
+    <row r="214" spans="1:31" ht="15" thickBot="1">
       <c r="A214" s="39"/>
       <c r="B214" s="40"/>
       <c r="C214" s="40"/>
@@ -10368,7 +10375,7 @@
       <c r="AD214" s="13"/>
       <c r="AE214" s="13"/>
     </row>
-    <row r="215" spans="1:31" ht="15.75" thickBot="1">
+    <row r="215" spans="1:31" ht="15" thickBot="1">
       <c r="A215" s="38"/>
       <c r="B215" s="35"/>
       <c r="C215" s="35"/>
@@ -10401,7 +10408,7 @@
       <c r="AD215" s="13"/>
       <c r="AE215" s="13"/>
     </row>
-    <row r="216" spans="1:31" ht="15.75" thickBot="1">
+    <row r="216" spans="1:31" ht="15" thickBot="1">
       <c r="A216" s="39"/>
       <c r="B216" s="40"/>
       <c r="C216" s="40"/>
@@ -10434,7 +10441,7 @@
       <c r="AD216" s="13"/>
       <c r="AE216" s="13"/>
     </row>
-    <row r="217" spans="1:31" ht="15.75" thickBot="1">
+    <row r="217" spans="1:31" ht="15" thickBot="1">
       <c r="A217" s="38"/>
       <c r="B217" s="35"/>
       <c r="C217" s="35"/>
@@ -10467,7 +10474,7 @@
       <c r="AD217" s="13"/>
       <c r="AE217" s="13"/>
     </row>
-    <row r="218" spans="1:31" ht="15.75" thickBot="1">
+    <row r="218" spans="1:31" ht="15" thickBot="1">
       <c r="A218" s="39"/>
       <c r="B218" s="40"/>
       <c r="C218" s="40"/>
@@ -10500,7 +10507,7 @@
       <c r="AD218" s="13"/>
       <c r="AE218" s="13"/>
     </row>
-    <row r="219" spans="1:31" ht="15.75" thickBot="1">
+    <row r="219" spans="1:31" ht="15" thickBot="1">
       <c r="A219" s="38"/>
       <c r="B219" s="35"/>
       <c r="C219" s="35"/>
@@ -10533,7 +10540,7 @@
       <c r="AD219" s="13"/>
       <c r="AE219" s="13"/>
     </row>
-    <row r="220" spans="1:31" ht="15.75" thickBot="1">
+    <row r="220" spans="1:31" ht="15" thickBot="1">
       <c r="A220" s="39"/>
       <c r="B220" s="40"/>
       <c r="C220" s="40"/>
@@ -10566,7 +10573,7 @@
       <c r="AD220" s="13"/>
       <c r="AE220" s="13"/>
     </row>
-    <row r="221" spans="1:31" ht="15.75" thickBot="1">
+    <row r="221" spans="1:31" ht="15" thickBot="1">
       <c r="A221" s="38"/>
       <c r="B221" s="35"/>
       <c r="C221" s="35"/>
@@ -10599,7 +10606,7 @@
       <c r="AD221" s="13"/>
       <c r="AE221" s="13"/>
     </row>
-    <row r="222" spans="1:31" ht="15.75" thickBot="1">
+    <row r="222" spans="1:31" ht="15" thickBot="1">
       <c r="A222" s="39"/>
       <c r="B222" s="40"/>
       <c r="C222" s="40"/>
@@ -10632,7 +10639,7 @@
       <c r="AD222" s="13"/>
       <c r="AE222" s="13"/>
     </row>
-    <row r="223" spans="1:31" ht="15.75" thickBot="1">
+    <row r="223" spans="1:31" ht="15" thickBot="1">
       <c r="A223" s="38"/>
       <c r="B223" s="35"/>
       <c r="C223" s="35"/>
@@ -10665,7 +10672,7 @@
       <c r="AD223" s="13"/>
       <c r="AE223" s="13"/>
     </row>
-    <row r="224" spans="1:31" ht="15.75" thickBot="1">
+    <row r="224" spans="1:31" ht="15" thickBot="1">
       <c r="A224" s="39"/>
       <c r="B224" s="40"/>
       <c r="C224" s="40"/>
@@ -10698,7 +10705,7 @@
       <c r="AD224" s="13"/>
       <c r="AE224" s="13"/>
     </row>
-    <row r="225" spans="1:31" ht="15.75" thickBot="1">
+    <row r="225" spans="1:31" ht="15" thickBot="1">
       <c r="A225" s="38"/>
       <c r="B225" s="35"/>
       <c r="C225" s="35"/>
@@ -10731,7 +10738,7 @@
       <c r="AD225" s="13"/>
       <c r="AE225" s="13"/>
     </row>
-    <row r="226" spans="1:31" ht="15.75" thickBot="1">
+    <row r="226" spans="1:31" ht="15" thickBot="1">
       <c r="A226" s="39"/>
       <c r="B226" s="40"/>
       <c r="C226" s="40"/>
@@ -10764,7 +10771,7 @@
       <c r="AD226" s="13"/>
       <c r="AE226" s="13"/>
     </row>
-    <row r="227" spans="1:31" ht="15.75" thickBot="1">
+    <row r="227" spans="1:31" ht="15" thickBot="1">
       <c r="A227" s="38"/>
       <c r="B227" s="35"/>
       <c r="C227" s="35"/>
@@ -10797,7 +10804,7 @@
       <c r="AD227" s="13"/>
       <c r="AE227" s="13"/>
     </row>
-    <row r="228" spans="1:31" ht="15.75" thickBot="1">
+    <row r="228" spans="1:31" ht="15" thickBot="1">
       <c r="A228" s="39"/>
       <c r="B228" s="40"/>
       <c r="C228" s="40"/>
@@ -10830,7 +10837,7 @@
       <c r="AD228" s="13"/>
       <c r="AE228" s="13"/>
     </row>
-    <row r="229" spans="1:31" ht="15.75" thickBot="1">
+    <row r="229" spans="1:31" ht="15" thickBot="1">
       <c r="A229" s="38"/>
       <c r="B229" s="35"/>
       <c r="C229" s="35"/>
@@ -10863,7 +10870,7 @@
       <c r="AD229" s="13"/>
       <c r="AE229" s="13"/>
     </row>
-    <row r="230" spans="1:31" ht="15.75" thickBot="1">
+    <row r="230" spans="1:31" ht="15" thickBot="1">
       <c r="A230" s="39"/>
       <c r="B230" s="40"/>
       <c r="C230" s="40"/>
@@ -10896,7 +10903,7 @@
       <c r="AD230" s="13"/>
       <c r="AE230" s="13"/>
     </row>
-    <row r="231" spans="1:31" ht="15.75" thickBot="1">
+    <row r="231" spans="1:31" ht="15" thickBot="1">
       <c r="A231" s="38"/>
       <c r="B231" s="35"/>
       <c r="C231" s="35"/>
@@ -10929,7 +10936,7 @@
       <c r="AD231" s="13"/>
       <c r="AE231" s="13"/>
     </row>
-    <row r="232" spans="1:31" ht="15.75" thickBot="1">
+    <row r="232" spans="1:31" ht="15" thickBot="1">
       <c r="A232" s="39"/>
       <c r="B232" s="40"/>
       <c r="C232" s="40"/>
@@ -10962,7 +10969,7 @@
       <c r="AD232" s="13"/>
       <c r="AE232" s="13"/>
     </row>
-    <row r="233" spans="1:31" ht="15.75" thickBot="1">
+    <row r="233" spans="1:31" ht="15" thickBot="1">
       <c r="A233" s="38"/>
       <c r="B233" s="35"/>
       <c r="C233" s="35"/>
@@ -10995,7 +11002,7 @@
       <c r="AD233" s="13"/>
       <c r="AE233" s="13"/>
     </row>
-    <row r="234" spans="1:31" ht="15.75" thickBot="1">
+    <row r="234" spans="1:31" ht="15" thickBot="1">
       <c r="A234" s="39"/>
       <c r="B234" s="40"/>
       <c r="C234" s="40"/>
@@ -11028,7 +11035,7 @@
       <c r="AD234" s="13"/>
       <c r="AE234" s="13"/>
     </row>
-    <row r="235" spans="1:31" ht="15.75" thickBot="1">
+    <row r="235" spans="1:31" ht="15" thickBot="1">
       <c r="A235" s="38"/>
       <c r="B235" s="35"/>
       <c r="C235" s="35"/>
@@ -11061,7 +11068,7 @@
       <c r="AD235" s="13"/>
       <c r="AE235" s="13"/>
     </row>
-    <row r="236" spans="1:31" ht="15.75" thickBot="1">
+    <row r="236" spans="1:31" ht="15" thickBot="1">
       <c r="A236" s="39"/>
       <c r="B236" s="40"/>
       <c r="C236" s="40"/>
@@ -11094,7 +11101,7 @@
       <c r="AD236" s="13"/>
       <c r="AE236" s="13"/>
     </row>
-    <row r="237" spans="1:31" ht="15.75" thickBot="1">
+    <row r="237" spans="1:31" ht="15" thickBot="1">
       <c r="A237" s="38"/>
       <c r="B237" s="35"/>
       <c r="C237" s="35"/>
@@ -11127,7 +11134,7 @@
       <c r="AD237" s="13"/>
       <c r="AE237" s="13"/>
     </row>
-    <row r="238" spans="1:31" ht="15.75" thickBot="1">
+    <row r="238" spans="1:31" ht="15" thickBot="1">
       <c r="A238" s="39"/>
       <c r="B238" s="40"/>
       <c r="C238" s="40"/>
@@ -11160,7 +11167,7 @@
       <c r="AD238" s="13"/>
       <c r="AE238" s="13"/>
     </row>
-    <row r="239" spans="1:31" ht="15.75" thickBot="1">
+    <row r="239" spans="1:31" ht="15" thickBot="1">
       <c r="A239" s="38"/>
       <c r="B239" s="35"/>
       <c r="C239" s="35"/>
@@ -11193,7 +11200,7 @@
       <c r="AD239" s="13"/>
       <c r="AE239" s="13"/>
     </row>
-    <row r="240" spans="1:31" ht="15.75" thickBot="1">
+    <row r="240" spans="1:31" ht="15" thickBot="1">
       <c r="A240" s="39"/>
       <c r="B240" s="40"/>
       <c r="C240" s="40"/>
@@ -11226,7 +11233,7 @@
       <c r="AD240" s="13"/>
       <c r="AE240" s="13"/>
     </row>
-    <row r="241" spans="1:31" ht="15.75" thickBot="1">
+    <row r="241" spans="1:31" ht="15" thickBot="1">
       <c r="A241" s="38"/>
       <c r="B241" s="35"/>
       <c r="C241" s="35"/>
@@ -11259,7 +11266,7 @@
       <c r="AD241" s="13"/>
       <c r="AE241" s="13"/>
     </row>
-    <row r="242" spans="1:31" ht="15.75" thickBot="1">
+    <row r="242" spans="1:31" ht="15" thickBot="1">
       <c r="A242" s="39"/>
       <c r="B242" s="40"/>
       <c r="C242" s="40"/>
@@ -11292,7 +11299,7 @@
       <c r="AD242" s="13"/>
       <c r="AE242" s="13"/>
     </row>
-    <row r="243" spans="1:31" ht="15.75" thickBot="1">
+    <row r="243" spans="1:31" ht="15" thickBot="1">
       <c r="A243" s="38"/>
       <c r="B243" s="35"/>
       <c r="C243" s="35"/>
@@ -11325,7 +11332,7 @@
       <c r="AD243" s="13"/>
       <c r="AE243" s="13"/>
     </row>
-    <row r="244" spans="1:31" ht="15.75" thickBot="1">
+    <row r="244" spans="1:31" ht="15" thickBot="1">
       <c r="A244" s="39"/>
       <c r="B244" s="40"/>
       <c r="C244" s="40"/>
@@ -11358,7 +11365,7 @@
       <c r="AD244" s="13"/>
       <c r="AE244" s="13"/>
     </row>
-    <row r="245" spans="1:31" ht="15.75" thickBot="1">
+    <row r="245" spans="1:31" ht="15" thickBot="1">
       <c r="A245" s="38"/>
       <c r="B245" s="35"/>
       <c r="C245" s="35"/>
@@ -11391,7 +11398,7 @@
       <c r="AD245" s="13"/>
       <c r="AE245" s="13"/>
     </row>
-    <row r="246" spans="1:31" ht="15.75" thickBot="1">
+    <row r="246" spans="1:31" ht="15" thickBot="1">
       <c r="A246" s="39"/>
       <c r="B246" s="40"/>
       <c r="C246" s="40"/>
@@ -11424,7 +11431,7 @@
       <c r="AD246" s="13"/>
       <c r="AE246" s="13"/>
     </row>
-    <row r="247" spans="1:31" ht="15.75" thickBot="1">
+    <row r="247" spans="1:31" ht="15" thickBot="1">
       <c r="A247" s="38"/>
       <c r="B247" s="35"/>
       <c r="C247" s="35"/>
@@ -11457,7 +11464,7 @@
       <c r="AD247" s="13"/>
       <c r="AE247" s="13"/>
     </row>
-    <row r="248" spans="1:31" ht="15.75" thickBot="1">
+    <row r="248" spans="1:31" ht="15" thickBot="1">
       <c r="A248" s="39"/>
       <c r="B248" s="40"/>
       <c r="C248" s="40"/>
@@ -11490,7 +11497,7 @@
       <c r="AD248" s="13"/>
       <c r="AE248" s="13"/>
     </row>
-    <row r="249" spans="1:31" ht="15.75" thickBot="1">
+    <row r="249" spans="1:31" ht="15" thickBot="1">
       <c r="A249" s="38"/>
       <c r="B249" s="35"/>
       <c r="C249" s="35"/>
@@ -11523,7 +11530,7 @@
       <c r="AD249" s="13"/>
       <c r="AE249" s="13"/>
     </row>
-    <row r="250" spans="1:31" ht="15.75" thickBot="1">
+    <row r="250" spans="1:31" ht="15" thickBot="1">
       <c r="A250" s="39"/>
       <c r="B250" s="40"/>
       <c r="C250" s="40"/>
@@ -11556,7 +11563,7 @@
       <c r="AD250" s="13"/>
       <c r="AE250" s="13"/>
     </row>
-    <row r="251" spans="1:31" ht="15.75" thickBot="1">
+    <row r="251" spans="1:31" ht="15" thickBot="1">
       <c r="A251" s="38"/>
       <c r="B251" s="35"/>
       <c r="C251" s="35"/>
@@ -11589,7 +11596,7 @@
       <c r="AD251" s="13"/>
       <c r="AE251" s="13"/>
     </row>
-    <row r="252" spans="1:31" ht="15.75" thickBot="1">
+    <row r="252" spans="1:31" ht="15" thickBot="1">
       <c r="A252" s="39"/>
       <c r="B252" s="40"/>
       <c r="C252" s="40"/>
@@ -11622,7 +11629,7 @@
       <c r="AD252" s="13"/>
       <c r="AE252" s="13"/>
     </row>
-    <row r="253" spans="1:31" ht="15.75" thickBot="1">
+    <row r="253" spans="1:31" ht="15" thickBot="1">
       <c r="A253" s="38"/>
       <c r="B253" s="35"/>
       <c r="C253" s="35"/>
@@ -11655,7 +11662,7 @@
       <c r="AD253" s="13"/>
       <c r="AE253" s="13"/>
     </row>
-    <row r="254" spans="1:31" ht="15.75" thickBot="1">
+    <row r="254" spans="1:31" ht="15" thickBot="1">
       <c r="A254" s="39"/>
       <c r="B254" s="40"/>
       <c r="C254" s="40"/>
@@ -11688,7 +11695,7 @@
       <c r="AD254" s="13"/>
       <c r="AE254" s="13"/>
     </row>
-    <row r="255" spans="1:31" ht="15.75" thickBot="1">
+    <row r="255" spans="1:31" ht="15" thickBot="1">
       <c r="A255" s="38"/>
       <c r="B255" s="35"/>
       <c r="C255" s="35"/>
@@ -11721,7 +11728,7 @@
       <c r="AD255" s="13"/>
       <c r="AE255" s="13"/>
     </row>
-    <row r="256" spans="1:31" ht="15.75" thickBot="1">
+    <row r="256" spans="1:31" ht="15" thickBot="1">
       <c r="A256" s="39"/>
       <c r="B256" s="40"/>
       <c r="C256" s="40"/>
@@ -11754,7 +11761,7 @@
       <c r="AD256" s="13"/>
       <c r="AE256" s="13"/>
     </row>
-    <row r="257" spans="1:31" ht="15.75" thickBot="1">
+    <row r="257" spans="1:31" ht="15" thickBot="1">
       <c r="A257" s="38"/>
       <c r="B257" s="35"/>
       <c r="C257" s="35"/>
@@ -11787,7 +11794,7 @@
       <c r="AD257" s="13"/>
       <c r="AE257" s="13"/>
     </row>
-    <row r="258" spans="1:31" ht="15.75" thickBot="1">
+    <row r="258" spans="1:31" ht="15" thickBot="1">
       <c r="A258" s="39"/>
       <c r="B258" s="40"/>
       <c r="C258" s="40"/>
@@ -11820,7 +11827,7 @@
       <c r="AD258" s="13"/>
       <c r="AE258" s="13"/>
     </row>
-    <row r="259" spans="1:31" ht="15.75" thickBot="1">
+    <row r="259" spans="1:31" ht="15" thickBot="1">
       <c r="A259" s="38"/>
       <c r="B259" s="35"/>
       <c r="C259" s="35"/>
@@ -11853,7 +11860,7 @@
       <c r="AD259" s="13"/>
       <c r="AE259" s="13"/>
     </row>
-    <row r="260" spans="1:31" ht="15.75" thickBot="1">
+    <row r="260" spans="1:31" ht="15" thickBot="1">
       <c r="A260" s="39"/>
       <c r="B260" s="40"/>
       <c r="C260" s="40"/>
@@ -11886,7 +11893,7 @@
       <c r="AD260" s="13"/>
       <c r="AE260" s="13"/>
     </row>
-    <row r="261" spans="1:31" ht="15.75" thickBot="1">
+    <row r="261" spans="1:31" ht="15" thickBot="1">
       <c r="A261" s="38"/>
       <c r="B261" s="35"/>
       <c r="C261" s="35"/>
@@ -11919,7 +11926,7 @@
       <c r="AD261" s="13"/>
       <c r="AE261" s="13"/>
     </row>
-    <row r="262" spans="1:31" ht="15.75" thickBot="1">
+    <row r="262" spans="1:31" ht="15" thickBot="1">
       <c r="A262" s="39"/>
       <c r="B262" s="40"/>
       <c r="C262" s="40"/>
@@ -11952,7 +11959,7 @@
       <c r="AD262" s="13"/>
       <c r="AE262" s="13"/>
     </row>
-    <row r="263" spans="1:31" ht="15.75" thickBot="1">
+    <row r="263" spans="1:31" ht="15" thickBot="1">
       <c r="A263" s="38"/>
       <c r="B263" s="35"/>
       <c r="C263" s="35"/>
@@ -11985,7 +11992,7 @@
       <c r="AD263" s="13"/>
       <c r="AE263" s="13"/>
     </row>
-    <row r="264" spans="1:31" ht="15.75" thickBot="1">
+    <row r="264" spans="1:31" ht="15" thickBot="1">
       <c r="A264" s="39"/>
       <c r="B264" s="40"/>
       <c r="C264" s="40"/>
@@ -12018,7 +12025,7 @@
       <c r="AD264" s="13"/>
       <c r="AE264" s="13"/>
     </row>
-    <row r="265" spans="1:31" ht="15.75" thickBot="1">
+    <row r="265" spans="1:31" ht="15" thickBot="1">
       <c r="A265" s="38"/>
       <c r="B265" s="35"/>
       <c r="C265" s="35"/>
@@ -12051,7 +12058,7 @@
       <c r="AD265" s="13"/>
       <c r="AE265" s="13"/>
     </row>
-    <row r="266" spans="1:31" ht="15.75" thickBot="1">
+    <row r="266" spans="1:31" ht="15" thickBot="1">
       <c r="A266" s="39"/>
       <c r="B266" s="40"/>
       <c r="C266" s="40"/>
@@ -12084,7 +12091,7 @@
       <c r="AD266" s="13"/>
       <c r="AE266" s="13"/>
     </row>
-    <row r="267" spans="1:31" ht="15.75" thickBot="1">
+    <row r="267" spans="1:31" ht="15" thickBot="1">
       <c r="A267" s="38"/>
       <c r="B267" s="35"/>
       <c r="C267" s="35"/>
@@ -12117,7 +12124,7 @@
       <c r="AD267" s="13"/>
       <c r="AE267" s="13"/>
     </row>
-    <row r="268" spans="1:31" ht="15.75" thickBot="1">
+    <row r="268" spans="1:31" ht="15" thickBot="1">
       <c r="A268" s="39"/>
       <c r="B268" s="40"/>
       <c r="C268" s="40"/>
@@ -12150,7 +12157,7 @@
       <c r="AD268" s="13"/>
       <c r="AE268" s="13"/>
     </row>
-    <row r="269" spans="1:31" ht="15.75" thickBot="1">
+    <row r="269" spans="1:31" ht="15" thickBot="1">
       <c r="A269" s="38"/>
       <c r="B269" s="35"/>
       <c r="C269" s="35"/>
@@ -12183,7 +12190,7 @@
       <c r="AD269" s="13"/>
       <c r="AE269" s="13"/>
     </row>
-    <row r="270" spans="1:31" ht="15.75" thickBot="1">
+    <row r="270" spans="1:31" ht="15" thickBot="1">
       <c r="A270" s="39"/>
       <c r="B270" s="40"/>
       <c r="C270" s="40"/>
@@ -12216,7 +12223,7 @@
       <c r="AD270" s="13"/>
       <c r="AE270" s="13"/>
     </row>
-    <row r="271" spans="1:31" ht="15.75" thickBot="1">
+    <row r="271" spans="1:31" ht="15" thickBot="1">
       <c r="A271" s="38"/>
       <c r="B271" s="35"/>
       <c r="C271" s="35"/>
@@ -12249,7 +12256,7 @@
       <c r="AD271" s="13"/>
       <c r="AE271" s="13"/>
     </row>
-    <row r="272" spans="1:31" ht="15.75" thickBot="1">
+    <row r="272" spans="1:31" ht="15" thickBot="1">
       <c r="A272" s="39"/>
       <c r="B272" s="40"/>
       <c r="C272" s="40"/>
@@ -12282,7 +12289,7 @@
       <c r="AD272" s="13"/>
       <c r="AE272" s="13"/>
     </row>
-    <row r="273" spans="1:31" ht="15.75" thickBot="1">
+    <row r="273" spans="1:31" ht="15" thickBot="1">
       <c r="A273" s="38"/>
       <c r="B273" s="35"/>
       <c r="C273" s="35"/>
@@ -12315,7 +12322,7 @@
       <c r="AD273" s="13"/>
       <c r="AE273" s="13"/>
     </row>
-    <row r="274" spans="1:31" ht="15.75" thickBot="1">
+    <row r="274" spans="1:31" ht="15" thickBot="1">
       <c r="A274" s="39"/>
       <c r="B274" s="40"/>
       <c r="C274" s="40"/>
@@ -12348,7 +12355,7 @@
       <c r="AD274" s="13"/>
       <c r="AE274" s="13"/>
     </row>
-    <row r="275" spans="1:31" ht="15.75" thickBot="1">
+    <row r="275" spans="1:31" ht="15" thickBot="1">
       <c r="A275" s="38"/>
       <c r="B275" s="35"/>
       <c r="C275" s="35"/>
@@ -12381,7 +12388,7 @@
       <c r="AD275" s="13"/>
       <c r="AE275" s="13"/>
     </row>
-    <row r="276" spans="1:31" ht="15.75" thickBot="1">
+    <row r="276" spans="1:31" ht="15" thickBot="1">
       <c r="A276" s="39"/>
       <c r="B276" s="40"/>
       <c r="C276" s="40"/>
@@ -12414,7 +12421,7 @@
       <c r="AD276" s="13"/>
       <c r="AE276" s="13"/>
     </row>
-    <row r="277" spans="1:31" ht="15.75" thickBot="1">
+    <row r="277" spans="1:31" ht="15" thickBot="1">
       <c r="A277" s="38"/>
       <c r="B277" s="35"/>
       <c r="C277" s="35"/>
@@ -12447,7 +12454,7 @@
       <c r="AD277" s="13"/>
       <c r="AE277" s="13"/>
     </row>
-    <row r="278" spans="1:31" ht="15.75" thickBot="1">
+    <row r="278" spans="1:31" ht="15" thickBot="1">
       <c r="A278" s="39"/>
       <c r="B278" s="40"/>
       <c r="C278" s="40"/>
@@ -12480,7 +12487,7 @@
       <c r="AD278" s="13"/>
       <c r="AE278" s="13"/>
     </row>
-    <row r="279" spans="1:31" ht="15.75" thickBot="1">
+    <row r="279" spans="1:31" ht="15" thickBot="1">
       <c r="A279" s="38"/>
       <c r="B279" s="35"/>
       <c r="C279" s="35"/>
@@ -12513,7 +12520,7 @@
       <c r="AD279" s="13"/>
       <c r="AE279" s="13"/>
     </row>
-    <row r="280" spans="1:31" ht="15.75" thickBot="1">
+    <row r="280" spans="1:31" ht="15" thickBot="1">
       <c r="A280" s="39"/>
       <c r="B280" s="40"/>
       <c r="C280" s="40"/>
@@ -12546,7 +12553,7 @@
       <c r="AD280" s="13"/>
       <c r="AE280" s="13"/>
     </row>
-    <row r="281" spans="1:31" ht="15.75" thickBot="1">
+    <row r="281" spans="1:31" ht="15" thickBot="1">
       <c r="A281" s="38"/>
       <c r="B281" s="35"/>
       <c r="C281" s="35"/>
@@ -12579,7 +12586,7 @@
       <c r="AD281" s="13"/>
       <c r="AE281" s="13"/>
     </row>
-    <row r="282" spans="1:31" ht="15.75" thickBot="1">
+    <row r="282" spans="1:31" ht="15" thickBot="1">
       <c r="A282" s="39"/>
       <c r="B282" s="40"/>
       <c r="C282" s="40"/>
@@ -12612,7 +12619,7 @@
       <c r="AD282" s="13"/>
       <c r="AE282" s="13"/>
     </row>
-    <row r="283" spans="1:31" ht="15.75" thickBot="1">
+    <row r="283" spans="1:31" ht="15" thickBot="1">
       <c r="A283" s="38"/>
       <c r="B283" s="35"/>
       <c r="C283" s="35"/>
@@ -12645,7 +12652,7 @@
       <c r="AD283" s="13"/>
       <c r="AE283" s="13"/>
     </row>
-    <row r="284" spans="1:31" ht="15.75" thickBot="1">
+    <row r="284" spans="1:31" ht="15" thickBot="1">
       <c r="A284" s="39"/>
       <c r="B284" s="40"/>
       <c r="C284" s="40"/>
@@ -12678,7 +12685,7 @@
       <c r="AD284" s="13"/>
       <c r="AE284" s="13"/>
     </row>
-    <row r="285" spans="1:31" ht="15.75" thickBot="1">
+    <row r="285" spans="1:31" ht="15" thickBot="1">
       <c r="A285" s="38"/>
       <c r="B285" s="35"/>
       <c r="C285" s="35"/>
@@ -12711,7 +12718,7 @@
       <c r="AD285" s="13"/>
       <c r="AE285" s="13"/>
     </row>
-    <row r="286" spans="1:31" ht="15.75" thickBot="1">
+    <row r="286" spans="1:31" ht="15" thickBot="1">
       <c r="A286" s="39"/>
       <c r="B286" s="40"/>
       <c r="C286" s="40"/>
@@ -12744,7 +12751,7 @@
       <c r="AD286" s="13"/>
       <c r="AE286" s="13"/>
     </row>
-    <row r="287" spans="1:31" ht="15.75" thickBot="1">
+    <row r="287" spans="1:31" ht="15" thickBot="1">
       <c r="A287" s="38"/>
       <c r="B287" s="35"/>
       <c r="C287" s="35"/>
@@ -12777,7 +12784,7 @@
       <c r="AD287" s="13"/>
       <c r="AE287" s="13"/>
     </row>
-    <row r="288" spans="1:31" ht="15.75" thickBot="1">
+    <row r="288" spans="1:31" ht="15" thickBot="1">
       <c r="A288" s="39"/>
       <c r="B288" s="40"/>
       <c r="C288" s="40"/>
@@ -12810,7 +12817,7 @@
       <c r="AD288" s="13"/>
       <c r="AE288" s="13"/>
     </row>
-    <row r="289" spans="1:31" ht="15.75" thickBot="1">
+    <row r="289" spans="1:31" ht="15" thickBot="1">
       <c r="A289" s="38"/>
       <c r="B289" s="35"/>
       <c r="C289" s="35"/>
@@ -12843,7 +12850,7 @@
       <c r="AD289" s="13"/>
       <c r="AE289" s="13"/>
     </row>
-    <row r="290" spans="1:31" ht="15.75" thickBot="1">
+    <row r="290" spans="1:31" ht="15" thickBot="1">
       <c r="A290" s="39"/>
       <c r="B290" s="40"/>
       <c r="C290" s="40"/>
@@ -12876,7 +12883,7 @@
       <c r="AD290" s="13"/>
       <c r="AE290" s="13"/>
     </row>
-    <row r="291" spans="1:31" ht="15.75" thickBot="1">
+    <row r="291" spans="1:31" ht="15" thickBot="1">
       <c r="A291" s="38"/>
       <c r="B291" s="35"/>
       <c r="C291" s="35"/>
@@ -12909,7 +12916,7 @@
       <c r="AD291" s="13"/>
       <c r="AE291" s="13"/>
     </row>
-    <row r="292" spans="1:31" ht="15.75" thickBot="1">
+    <row r="292" spans="1:31" ht="15" thickBot="1">
       <c r="A292" s="39"/>
       <c r="B292" s="40"/>
       <c r="C292" s="40"/>
@@ -12942,7 +12949,7 @@
       <c r="AD292" s="13"/>
       <c r="AE292" s="13"/>
     </row>
-    <row r="293" spans="1:31" ht="15.75" thickBot="1">
+    <row r="293" spans="1:31" ht="15" thickBot="1">
       <c r="A293" s="38"/>
       <c r="B293" s="35"/>
       <c r="C293" s="35"/>
@@ -12975,7 +12982,7 @@
       <c r="AD293" s="13"/>
       <c r="AE293" s="13"/>
     </row>
-    <row r="294" spans="1:31" ht="15.75" thickBot="1">
+    <row r="294" spans="1:31" ht="15" thickBot="1">
       <c r="A294" s="39"/>
       <c r="B294" s="40"/>
       <c r="C294" s="40"/>
@@ -13008,7 +13015,7 @@
       <c r="AD294" s="13"/>
       <c r="AE294" s="13"/>
     </row>
-    <row r="295" spans="1:31" ht="15.75" thickBot="1">
+    <row r="295" spans="1:31" ht="15" thickBot="1">
       <c r="A295" s="38"/>
       <c r="B295" s="35"/>
       <c r="C295" s="35"/>
@@ -13041,7 +13048,7 @@
       <c r="AD295" s="13"/>
       <c r="AE295" s="13"/>
     </row>
-    <row r="296" spans="1:31" ht="15.75" thickBot="1">
+    <row r="296" spans="1:31" ht="15" thickBot="1">
       <c r="A296" s="39"/>
       <c r="B296" s="40"/>
       <c r="C296" s="40"/>
@@ -13074,7 +13081,7 @@
       <c r="AD296" s="13"/>
       <c r="AE296" s="13"/>
     </row>
-    <row r="297" spans="1:31" ht="15.75" thickBot="1">
+    <row r="297" spans="1:31" ht="15" thickBot="1">
       <c r="A297" s="38"/>
       <c r="B297" s="35"/>
       <c r="C297" s="35"/>
@@ -13107,7 +13114,7 @@
       <c r="AD297" s="13"/>
       <c r="AE297" s="13"/>
     </row>
-    <row r="298" spans="1:31" ht="15.75" thickBot="1">
+    <row r="298" spans="1:31" ht="15" thickBot="1">
       <c r="A298" s="39"/>
       <c r="B298" s="40"/>
       <c r="C298" s="40"/>
@@ -13140,7 +13147,7 @@
       <c r="AD298" s="13"/>
       <c r="AE298" s="13"/>
     </row>
-    <row r="299" spans="1:31" ht="15.75" thickBot="1">
+    <row r="299" spans="1:31" ht="15" thickBot="1">
       <c r="A299" s="38"/>
       <c r="B299" s="35"/>
       <c r="C299" s="35"/>
@@ -13173,7 +13180,7 @@
       <c r="AD299" s="13"/>
       <c r="AE299" s="13"/>
     </row>
-    <row r="300" spans="1:31" ht="15.75" thickBot="1">
+    <row r="300" spans="1:31" ht="15" thickBot="1">
       <c r="A300" s="39"/>
       <c r="B300" s="40"/>
       <c r="C300" s="40"/>
@@ -13206,7 +13213,7 @@
       <c r="AD300" s="13"/>
       <c r="AE300" s="13"/>
     </row>
-    <row r="301" spans="1:31" ht="15.75" thickBot="1">
+    <row r="301" spans="1:31" ht="15" thickBot="1">
       <c r="A301" s="38"/>
       <c r="B301" s="35"/>
       <c r="C301" s="35"/>
@@ -13239,7 +13246,7 @@
       <c r="AD301" s="13"/>
       <c r="AE301" s="13"/>
     </row>
-    <row r="302" spans="1:31" ht="15.75" thickBot="1">
+    <row r="302" spans="1:31" ht="15" thickBot="1">
       <c r="A302" s="39"/>
       <c r="B302" s="40"/>
       <c r="C302" s="40"/>
@@ -13272,7 +13279,7 @@
       <c r="AD302" s="13"/>
       <c r="AE302" s="13"/>
     </row>
-    <row r="303" spans="1:31" ht="15.75" thickBot="1">
+    <row r="303" spans="1:31" ht="15" thickBot="1">
       <c r="A303" s="38"/>
       <c r="B303" s="35"/>
       <c r="C303" s="35"/>
@@ -13305,7 +13312,7 @@
       <c r="AD303" s="13"/>
       <c r="AE303" s="13"/>
     </row>
-    <row r="304" spans="1:31" ht="15.75" thickBot="1">
+    <row r="304" spans="1:31" ht="15" thickBot="1">
       <c r="A304" s="39"/>
       <c r="B304" s="40"/>
       <c r="C304" s="40"/>
@@ -13338,7 +13345,7 @@
       <c r="AD304" s="13"/>
       <c r="AE304" s="13"/>
     </row>
-    <row r="305" spans="1:31" ht="15.75" thickBot="1">
+    <row r="305" spans="1:31" ht="15" thickBot="1">
       <c r="A305" s="38"/>
       <c r="B305" s="35"/>
       <c r="C305" s="35"/>
@@ -13371,7 +13378,7 @@
       <c r="AD305" s="13"/>
       <c r="AE305" s="13"/>
     </row>
-    <row r="306" spans="1:31" ht="15.75" thickBot="1">
+    <row r="306" spans="1:31" ht="15" thickBot="1">
       <c r="A306" s="39"/>
       <c r="B306" s="40"/>
       <c r="C306" s="40"/>
@@ -13404,7 +13411,7 @@
       <c r="AD306" s="13"/>
       <c r="AE306" s="13"/>
     </row>
-    <row r="307" spans="1:31" ht="15.75" thickBot="1">
+    <row r="307" spans="1:31" ht="15" thickBot="1">
       <c r="A307" s="38"/>
       <c r="B307" s="35"/>
       <c r="C307" s="35"/>
@@ -13437,7 +13444,7 @@
       <c r="AD307" s="13"/>
       <c r="AE307" s="13"/>
     </row>
-    <row r="308" spans="1:31" ht="15.75" thickBot="1">
+    <row r="308" spans="1:31" ht="15" thickBot="1">
       <c r="A308" s="39"/>
       <c r="B308" s="40"/>
       <c r="C308" s="40"/>
@@ -13470,7 +13477,7 @@
       <c r="AD308" s="13"/>
       <c r="AE308" s="13"/>
     </row>
-    <row r="309" spans="1:31" ht="15.75" thickBot="1">
+    <row r="309" spans="1:31" ht="15" thickBot="1">
       <c r="A309" s="38"/>
       <c r="B309" s="35"/>
       <c r="C309" s="35"/>
@@ -13503,7 +13510,7 @@
       <c r="AD309" s="13"/>
       <c r="AE309" s="13"/>
     </row>
-    <row r="310" spans="1:31" ht="15.75" thickBot="1">
+    <row r="310" spans="1:31" ht="15" thickBot="1">
       <c r="A310" s="39"/>
       <c r="B310" s="40"/>
       <c r="C310" s="40"/>
@@ -13536,7 +13543,7 @@
       <c r="AD310" s="13"/>
       <c r="AE310" s="13"/>
     </row>
-    <row r="311" spans="1:31" ht="15.75" thickBot="1">
+    <row r="311" spans="1:31" ht="15" thickBot="1">
       <c r="A311" s="38"/>
       <c r="B311" s="35"/>
       <c r="C311" s="35"/>
@@ -13569,7 +13576,7 @@
       <c r="AD311" s="13"/>
       <c r="AE311" s="13"/>
     </row>
-    <row r="312" spans="1:31" ht="15.75" thickBot="1">
+    <row r="312" spans="1:31" ht="15" thickBot="1">
       <c r="A312" s="39"/>
       <c r="B312" s="40"/>
       <c r="C312" s="40"/>
@@ -13602,7 +13609,7 @@
       <c r="AD312" s="13"/>
       <c r="AE312" s="13"/>
     </row>
-    <row r="313" spans="1:31" ht="15.75" thickBot="1">
+    <row r="313" spans="1:31" ht="15" thickBot="1">
       <c r="A313" s="38"/>
       <c r="B313" s="35"/>
       <c r="C313" s="35"/>
@@ -13635,7 +13642,7 @@
       <c r="AD313" s="13"/>
       <c r="AE313" s="13"/>
     </row>
-    <row r="314" spans="1:31" ht="15.75" thickBot="1">
+    <row r="314" spans="1:31" ht="15" thickBot="1">
       <c r="A314" s="39"/>
       <c r="B314" s="40"/>
       <c r="C314" s="40"/>
@@ -13668,7 +13675,7 @@
       <c r="AD314" s="13"/>
       <c r="AE314" s="13"/>
     </row>
-    <row r="315" spans="1:31" ht="15.75" thickBot="1">
+    <row r="315" spans="1:31" ht="15" thickBot="1">
       <c r="A315" s="38"/>
       <c r="B315" s="35"/>
       <c r="C315" s="35"/>
@@ -13701,7 +13708,7 @@
       <c r="AD315" s="13"/>
       <c r="AE315" s="13"/>
     </row>
-    <row r="316" spans="1:31" ht="15.75" thickBot="1">
+    <row r="316" spans="1:31" ht="15" thickBot="1">
       <c r="A316" s="39"/>
       <c r="B316" s="40"/>
       <c r="C316" s="40"/>
@@ -13734,7 +13741,7 @@
       <c r="AD316" s="13"/>
       <c r="AE316" s="13"/>
     </row>
-    <row r="317" spans="1:31" ht="15.75" thickBot="1">
+    <row r="317" spans="1:31" ht="15" thickBot="1">
       <c r="A317" s="38"/>
       <c r="B317" s="35"/>
       <c r="C317" s="35"/>
@@ -13767,7 +13774,7 @@
       <c r="AD317" s="13"/>
       <c r="AE317" s="13"/>
     </row>
-    <row r="318" spans="1:31" ht="15.75" thickBot="1">
+    <row r="318" spans="1:31" ht="15" thickBot="1">
       <c r="A318" s="39"/>
       <c r="B318" s="40"/>
       <c r="C318" s="40"/>
@@ -13800,7 +13807,7 @@
       <c r="AD318" s="13"/>
       <c r="AE318" s="13"/>
     </row>
-    <row r="319" spans="1:31" ht="15.75" thickBot="1">
+    <row r="319" spans="1:31" ht="15" thickBot="1">
       <c r="A319" s="38"/>
       <c r="B319" s="35"/>
       <c r="C319" s="35"/>
@@ -13833,7 +13840,7 @@
       <c r="AD319" s="13"/>
       <c r="AE319" s="13"/>
     </row>
-    <row r="320" spans="1:31" ht="15.75" thickBot="1">
+    <row r="320" spans="1:31" ht="15" thickBot="1">
       <c r="A320" s="39"/>
       <c r="B320" s="40"/>
       <c r="C320" s="40"/>
@@ -13866,7 +13873,7 @@
       <c r="AD320" s="13"/>
       <c r="AE320" s="13"/>
     </row>
-    <row r="321" spans="1:31" ht="15.75" thickBot="1">
+    <row r="321" spans="1:31" ht="15" thickBot="1">
       <c r="A321" s="38"/>
       <c r="B321" s="35"/>
       <c r="C321" s="35"/>
@@ -13899,7 +13906,7 @@
       <c r="AD321" s="13"/>
       <c r="AE321" s="13"/>
     </row>
-    <row r="322" spans="1:31" ht="15.75" thickBot="1">
+    <row r="322" spans="1:31" ht="15" thickBot="1">
       <c r="A322" s="39"/>
       <c r="B322" s="40"/>
       <c r="C322" s="40"/>
@@ -13932,7 +13939,7 @@
       <c r="AD322" s="13"/>
       <c r="AE322" s="13"/>
     </row>
-    <row r="323" spans="1:31" ht="15.75" thickBot="1">
+    <row r="323" spans="1:31" ht="15" thickBot="1">
       <c r="A323" s="38"/>
       <c r="B323" s="35"/>
       <c r="C323" s="35"/>
@@ -13965,7 +13972,7 @@
       <c r="AD323" s="13"/>
       <c r="AE323" s="13"/>
     </row>
-    <row r="324" spans="1:31" ht="15.75" thickBot="1">
+    <row r="324" spans="1:31" ht="15" thickBot="1">
       <c r="A324" s="39"/>
       <c r="B324" s="40"/>
       <c r="C324" s="40"/>
@@ -13998,7 +14005,7 @@
       <c r="AD324" s="13"/>
       <c r="AE324" s="13"/>
     </row>
-    <row r="325" spans="1:31" ht="15.75" thickBot="1">
+    <row r="325" spans="1:31" ht="15" thickBot="1">
       <c r="A325" s="38"/>
       <c r="B325" s="35"/>
       <c r="C325" s="35"/>
@@ -14031,7 +14038,7 @@
       <c r="AD325" s="13"/>
       <c r="AE325" s="13"/>
     </row>
-    <row r="326" spans="1:31" ht="15.75" thickBot="1">
+    <row r="326" spans="1:31" ht="15" thickBot="1">
       <c r="A326" s="39"/>
       <c r="B326" s="40"/>
       <c r="C326" s="40"/>
@@ -14064,7 +14071,7 @@
       <c r="AD326" s="13"/>
       <c r="AE326" s="13"/>
     </row>
-    <row r="327" spans="1:31" ht="15.75" thickBot="1">
+    <row r="327" spans="1:31" ht="15" thickBot="1">
       <c r="A327" s="38"/>
       <c r="B327" s="35"/>
       <c r="C327" s="35"/>
@@ -14097,7 +14104,7 @@
       <c r="AD327" s="13"/>
       <c r="AE327" s="13"/>
     </row>
-    <row r="328" spans="1:31" ht="15.75" thickBot="1">
+    <row r="328" spans="1:31" ht="15" thickBot="1">
       <c r="A328" s="39"/>
       <c r="B328" s="40"/>
       <c r="C328" s="40"/>
@@ -14130,7 +14137,7 @@
       <c r="AD328" s="13"/>
       <c r="AE328" s="13"/>
     </row>
-    <row r="329" spans="1:31" ht="15.75" thickBot="1">
+    <row r="329" spans="1:31" ht="15" thickBot="1">
       <c r="A329" s="38"/>
       <c r="B329" s="35"/>
       <c r="C329" s="35"/>
@@ -14163,7 +14170,7 @@
       <c r="AD329" s="13"/>
       <c r="AE329" s="13"/>
     </row>
-    <row r="330" spans="1:31" ht="15.75" thickBot="1">
+    <row r="330" spans="1:31" ht="15" thickBot="1">
       <c r="A330" s="39"/>
       <c r="B330" s="40"/>
       <c r="C330" s="40"/>
@@ -14196,7 +14203,7 @@
       <c r="AD330" s="13"/>
       <c r="AE330" s="13"/>
     </row>
-    <row r="331" spans="1:31" ht="15.75" thickBot="1">
+    <row r="331" spans="1:31" ht="15" thickBot="1">
       <c r="A331" s="38"/>
       <c r="B331" s="35"/>
       <c r="C331" s="35"/>
@@ -14229,7 +14236,7 @@
       <c r="AD331" s="13"/>
       <c r="AE331" s="13"/>
     </row>
-    <row r="332" spans="1:31" ht="15.75" thickBot="1">
+    <row r="332" spans="1:31" ht="15" thickBot="1">
       <c r="A332" s="39"/>
       <c r="B332" s="40"/>
       <c r="C332" s="40"/>
@@ -14262,7 +14269,7 @@
       <c r="AD332" s="13"/>
       <c r="AE332" s="13"/>
     </row>
-    <row r="333" spans="1:31" ht="15.75" thickBot="1">
+    <row r="333" spans="1:31" ht="15" thickBot="1">
       <c r="A333" s="38"/>
       <c r="B333" s="35"/>
       <c r="C333" s="35"/>
@@ -14295,7 +14302,7 @@
       <c r="AD333" s="13"/>
       <c r="AE333" s="13"/>
     </row>
-    <row r="334" spans="1:31" ht="15.75" thickBot="1">
+    <row r="334" spans="1:31" ht="15" thickBot="1">
       <c r="A334" s="39"/>
       <c r="B334" s="40"/>
       <c r="C334" s="40"/>
@@ -14328,7 +14335,7 @@
       <c r="AD334" s="13"/>
       <c r="AE334" s="13"/>
     </row>
-    <row r="335" spans="1:31" ht="15.75" thickBot="1">
+    <row r="335" spans="1:31" ht="15" thickBot="1">
       <c r="A335" s="38"/>
       <c r="B335" s="35"/>
       <c r="C335" s="35"/>
@@ -14361,7 +14368,7 @@
       <c r="AD335" s="13"/>
       <c r="AE335" s="13"/>
     </row>
-    <row r="336" spans="1:31" ht="15.75" thickBot="1">
+    <row r="336" spans="1:31" ht="15" thickBot="1">
       <c r="A336" s="39"/>
       <c r="B336" s="40"/>
       <c r="C336" s="40"/>
@@ -14394,7 +14401,7 @@
       <c r="AD336" s="13"/>
       <c r="AE336" s="13"/>
     </row>
-    <row r="337" spans="1:31" ht="15.75" thickBot="1">
+    <row r="337" spans="1:31" ht="15" thickBot="1">
       <c r="A337" s="38"/>
       <c r="B337" s="35"/>
       <c r="C337" s="35"/>
@@ -14427,7 +14434,7 @@
       <c r="AD337" s="13"/>
       <c r="AE337" s="13"/>
     </row>
-    <row r="338" spans="1:31" ht="15.75" thickBot="1">
+    <row r="338" spans="1:31" ht="15" thickBot="1">
       <c r="A338" s="39"/>
       <c r="B338" s="40"/>
       <c r="C338" s="40"/>
@@ -14460,7 +14467,7 @@
       <c r="AD338" s="13"/>
       <c r="AE338" s="13"/>
     </row>
-    <row r="339" spans="1:31" ht="15.75" thickBot="1">
+    <row r="339" spans="1:31" ht="15" thickBot="1">
       <c r="A339" s="38"/>
       <c r="B339" s="35"/>
       <c r="C339" s="35"/>
@@ -14493,7 +14500,7 @@
       <c r="AD339" s="13"/>
       <c r="AE339" s="13"/>
     </row>
-    <row r="340" spans="1:31" ht="15.75" thickBot="1">
+    <row r="340" spans="1:31" ht="15" thickBot="1">
       <c r="A340" s="39"/>
       <c r="B340" s="40"/>
       <c r="C340" s="40"/>
@@ -14526,7 +14533,7 @@
       <c r="AD340" s="13"/>
       <c r="AE340" s="13"/>
     </row>
-    <row r="341" spans="1:31" ht="15.75" thickBot="1">
+    <row r="341" spans="1:31" ht="15" thickBot="1">
       <c r="A341" s="38"/>
       <c r="B341" s="35"/>
       <c r="C341" s="35"/>
@@ -14559,7 +14566,7 @@
       <c r="AD341" s="13"/>
       <c r="AE341" s="13"/>
     </row>
-    <row r="342" spans="1:31" ht="15.75" thickBot="1">
+    <row r="342" spans="1:31" ht="15" thickBot="1">
       <c r="A342" s="39"/>
       <c r="B342" s="40"/>
       <c r="C342" s="40"/>
@@ -14592,7 +14599,7 @@
       <c r="AD342" s="13"/>
       <c r="AE342" s="13"/>
     </row>
-    <row r="343" spans="1:31" ht="15.75" thickBot="1">
+    <row r="343" spans="1:31" ht="15" thickBot="1">
       <c r="A343" s="38"/>
       <c r="B343" s="35"/>
       <c r="C343" s="35"/>
@@ -14625,7 +14632,7 @@
       <c r="AD343" s="13"/>
       <c r="AE343" s="13"/>
     </row>
-    <row r="344" spans="1:31" ht="15.75" thickBot="1">
+    <row r="344" spans="1:31" ht="15" thickBot="1">
       <c r="A344" s="39"/>
       <c r="B344" s="40"/>
       <c r="C344" s="40"/>
@@ -14658,7 +14665,7 @@
       <c r="AD344" s="13"/>
       <c r="AE344" s="13"/>
     </row>
-    <row r="345" spans="1:31" ht="15.75" thickBot="1">
+    <row r="345" spans="1:31" ht="15" thickBot="1">
       <c r="A345" s="38"/>
       <c r="B345" s="35"/>
       <c r="C345" s="35"/>
@@ -14691,7 +14698,7 @@
       <c r="AD345" s="13"/>
       <c r="AE345" s="13"/>
     </row>
-    <row r="346" spans="1:31" ht="15.75" thickBot="1">
+    <row r="346" spans="1:31" ht="15" thickBot="1">
       <c r="A346" s="39"/>
       <c r="B346" s="40"/>
       <c r="C346" s="40"/>
@@ -14724,7 +14731,7 @@
       <c r="AD346" s="13"/>
       <c r="AE346" s="13"/>
     </row>
-    <row r="347" spans="1:31" ht="15.75" thickBot="1">
+    <row r="347" spans="1:31" ht="15" thickBot="1">
       <c r="A347" s="38"/>
       <c r="B347" s="35"/>
       <c r="C347" s="35"/>
@@ -14757,7 +14764,7 @@
       <c r="AD347" s="13"/>
       <c r="AE347" s="13"/>
     </row>
-    <row r="348" spans="1:31" ht="15.75" thickBot="1">
+    <row r="348" spans="1:31" ht="15" thickBot="1">
       <c r="A348" s="39"/>
       <c r="B348" s="40"/>
       <c r="C348" s="40"/>
@@ -14790,7 +14797,7 @@
       <c r="AD348" s="13"/>
       <c r="AE348" s="13"/>
     </row>
-    <row r="349" spans="1:31" ht="15.75" thickBot="1">
+    <row r="349" spans="1:31" ht="15" thickBot="1">
       <c r="A349" s="38"/>
       <c r="B349" s="35"/>
       <c r="C349" s="35"/>
@@ -14823,7 +14830,7 @@
       <c r="AD349" s="13"/>
       <c r="AE349" s="13"/>
     </row>
-    <row r="350" spans="1:31" ht="15.75" thickBot="1">
+    <row r="350" spans="1:31" ht="15" thickBot="1">
       <c r="A350" s="39"/>
       <c r="B350" s="40"/>
       <c r="C350" s="40"/>
@@ -14856,7 +14863,7 @@
       <c r="AD350" s="13"/>
       <c r="AE350" s="13"/>
     </row>
-    <row r="351" spans="1:31" ht="15.75" thickBot="1">
+    <row r="351" spans="1:31" ht="15" thickBot="1">
       <c r="A351" s="38"/>
       <c r="B351" s="35"/>
       <c r="C351" s="35"/>
@@ -14889,7 +14896,7 @@
       <c r="AD351" s="13"/>
       <c r="AE351" s="13"/>
     </row>
-    <row r="352" spans="1:31" ht="15.75" thickBot="1">
+    <row r="352" spans="1:31" ht="15" thickBot="1">
       <c r="A352" s="39"/>
       <c r="B352" s="40"/>
       <c r="C352" s="40"/>
@@ -14922,7 +14929,7 @@
       <c r="AD352" s="13"/>
       <c r="AE352" s="13"/>
     </row>
-    <row r="353" spans="1:31" ht="15.75" thickBot="1">
+    <row r="353" spans="1:31" ht="15" thickBot="1">
       <c r="A353" s="38"/>
       <c r="B353" s="35"/>
       <c r="C353" s="35"/>
@@ -14955,7 +14962,7 @@
       <c r="AD353" s="13"/>
       <c r="AE353" s="13"/>
     </row>
-    <row r="354" spans="1:31" ht="15.75" thickBot="1">
+    <row r="354" spans="1:31" ht="15" thickBot="1">
       <c r="A354" s="39"/>
       <c r="B354" s="40"/>
       <c r="C354" s="40"/>
@@ -14988,7 +14995,7 @@
       <c r="AD354" s="13"/>
       <c r="AE354" s="13"/>
     </row>
-    <row r="355" spans="1:31" ht="15.75" thickBot="1">
+    <row r="355" spans="1:31" ht="15" thickBot="1">
       <c r="A355" s="38"/>
       <c r="B355" s="35"/>
       <c r="C355" s="35"/>
@@ -15021,7 +15028,7 @@
       <c r="AD355" s="13"/>
       <c r="AE355" s="13"/>
     </row>
-    <row r="356" spans="1:31" ht="15.75" thickBot="1">
+    <row r="356" spans="1:31" ht="15" thickBot="1">
       <c r="A356" s="39"/>
       <c r="B356" s="40"/>
       <c r="C356" s="40"/>
@@ -15054,7 +15061,7 @@
       <c r="AD356" s="13"/>
       <c r="AE356" s="13"/>
     </row>
-    <row r="357" spans="1:31" ht="15.75" thickBot="1">
+    <row r="357" spans="1:31" ht="15" thickBot="1">
       <c r="A357" s="38"/>
       <c r="B357" s="35"/>
       <c r="C357" s="35"/>
@@ -15087,7 +15094,7 @@
       <c r="AD357" s="13"/>
       <c r="AE357" s="13"/>
     </row>
-    <row r="358" spans="1:31" ht="15.75" thickBot="1">
+    <row r="358" spans="1:31" ht="15" thickBot="1">
       <c r="A358" s="39"/>
       <c r="B358" s="40"/>
       <c r="C358" s="40"/>
@@ -15120,7 +15127,7 @@
       <c r="AD358" s="13"/>
       <c r="AE358" s="13"/>
     </row>
-    <row r="359" spans="1:31" ht="15.75" thickBot="1">
+    <row r="359" spans="1:31" ht="15" thickBot="1">
       <c r="A359" s="38"/>
       <c r="B359" s="35"/>
       <c r="C359" s="35"/>
@@ -15153,7 +15160,7 @@
       <c r="AD359" s="13"/>
       <c r="AE359" s="13"/>
     </row>
-    <row r="360" spans="1:31" ht="15.75" thickBot="1">
+    <row r="360" spans="1:31" ht="15" thickBot="1">
       <c r="A360" s="39"/>
       <c r="B360" s="40"/>
       <c r="C360" s="40"/>
@@ -15186,7 +15193,7 @@
       <c r="AD360" s="13"/>
       <c r="AE360" s="13"/>
     </row>
-    <row r="361" spans="1:31" ht="15.75" thickBot="1">
+    <row r="361" spans="1:31" ht="15" thickBot="1">
       <c r="A361" s="38"/>
       <c r="B361" s="35"/>
       <c r="C361" s="35"/>
@@ -15219,7 +15226,7 @@
       <c r="AD361" s="13"/>
       <c r="AE361" s="13"/>
     </row>
-    <row r="362" spans="1:31" ht="15.75" thickBot="1">
+    <row r="362" spans="1:31" ht="15" thickBot="1">
       <c r="A362" s="39"/>
       <c r="B362" s="40"/>
       <c r="C362" s="40"/>
@@ -15252,7 +15259,7 @@
       <c r="AD362" s="13"/>
       <c r="AE362" s="13"/>
     </row>
-    <row r="363" spans="1:31" ht="15.75" thickBot="1">
+    <row r="363" spans="1:31" ht="15" thickBot="1">
       <c r="A363" s="38"/>
       <c r="B363" s="35"/>
       <c r="C363" s="35"/>
@@ -15285,7 +15292,7 @@
       <c r="AD363" s="13"/>
       <c r="AE363" s="13"/>
     </row>
-    <row r="364" spans="1:31" ht="15.75" thickBot="1">
+    <row r="364" spans="1:31" ht="15" thickBot="1">
       <c r="A364" s="39"/>
       <c r="B364" s="40"/>
       <c r="C364" s="40"/>
@@ -15318,7 +15325,7 @@
       <c r="AD364" s="13"/>
       <c r="AE364" s="13"/>
     </row>
-    <row r="365" spans="1:31" ht="15.75" thickBot="1">
+    <row r="365" spans="1:31" ht="15" thickBot="1">
       <c r="A365" s="38"/>
       <c r="B365" s="35"/>
       <c r="C365" s="35"/>
@@ -15351,7 +15358,7 @@
       <c r="AD365" s="13"/>
       <c r="AE365" s="13"/>
     </row>
-    <row r="366" spans="1:31" ht="15.75" thickBot="1">
+    <row r="366" spans="1:31" ht="15" thickBot="1">
       <c r="A366" s="39"/>
       <c r="B366" s="40"/>
       <c r="C366" s="40"/>
@@ -15384,7 +15391,7 @@
       <c r="AD366" s="13"/>
       <c r="AE366" s="13"/>
     </row>
-    <row r="367" spans="1:31" ht="15.75" thickBot="1">
+    <row r="367" spans="1:31" ht="15" thickBot="1">
       <c r="A367" s="38"/>
       <c r="B367" s="35"/>
       <c r="C367" s="35"/>
@@ -15417,7 +15424,7 @@
       <c r="AD367" s="13"/>
       <c r="AE367" s="13"/>
     </row>
-    <row r="368" spans="1:31" ht="15.75" thickBot="1">
+    <row r="368" spans="1:31" ht="15" thickBot="1">
       <c r="A368" s="39"/>
       <c r="B368" s="40"/>
       <c r="C368" s="40"/>
@@ -15450,7 +15457,7 @@
       <c r="AD368" s="13"/>
       <c r="AE368" s="13"/>
     </row>
-    <row r="369" spans="1:31" ht="15.75" thickBot="1">
+    <row r="369" spans="1:31" ht="15" thickBot="1">
       <c r="A369" s="38"/>
       <c r="B369" s="35"/>
       <c r="C369" s="35"/>
@@ -15483,7 +15490,7 @@
       <c r="AD369" s="13"/>
       <c r="AE369" s="13"/>
     </row>
-    <row r="370" spans="1:31" ht="15.75" thickBot="1">
+    <row r="370" spans="1:31" ht="15" thickBot="1">
       <c r="A370" s="39"/>
       <c r="B370" s="40"/>
       <c r="C370" s="40"/>
@@ -15516,7 +15523,7 @@
       <c r="AD370" s="13"/>
       <c r="AE370" s="13"/>
     </row>
-    <row r="371" spans="1:31" ht="15.75" thickBot="1">
+    <row r="371" spans="1:31" ht="15" thickBot="1">
       <c r="A371" s="38"/>
       <c r="B371" s="35"/>
       <c r="C371" s="35"/>
@@ -15549,7 +15556,7 @@
       <c r="AD371" s="13"/>
       <c r="AE371" s="13"/>
     </row>
-    <row r="372" spans="1:31" ht="15.75" thickBot="1">
+    <row r="372" spans="1:31" ht="15" thickBot="1">
       <c r="A372" s="39"/>
       <c r="B372" s="40"/>
       <c r="C372" s="40"/>
@@ -15582,7 +15589,7 @@
       <c r="AD372" s="13"/>
       <c r="AE372" s="13"/>
     </row>
-    <row r="373" spans="1:31" ht="15.75" thickBot="1">
+    <row r="373" spans="1:31" ht="15" thickBot="1">
       <c r="A373" s="38"/>
       <c r="B373" s="35"/>
       <c r="C373" s="35"/>
@@ -15615,7 +15622,7 @@
       <c r="AD373" s="13"/>
       <c r="AE373" s="13"/>
     </row>
-    <row r="374" spans="1:31" ht="15.75" thickBot="1">
+    <row r="374" spans="1:31" ht="15" thickBot="1">
       <c r="A374" s="39"/>
       <c r="B374" s="40"/>
       <c r="C374" s="40"/>
@@ -15648,7 +15655,7 @@
       <c r="AD374" s="13"/>
       <c r="AE374" s="13"/>
     </row>
-    <row r="375" spans="1:31" ht="15.75" thickBot="1">
+    <row r="375" spans="1:31" ht="15" thickBot="1">
       <c r="A375" s="38"/>
       <c r="B375" s="35"/>
       <c r="C375" s="35"/>
@@ -15681,7 +15688,7 @@
       <c r="AD375" s="13"/>
       <c r="AE375" s="13"/>
     </row>
-    <row r="376" spans="1:31" ht="15.75" thickBot="1">
+    <row r="376" spans="1:31" ht="15" thickBot="1">
       <c r="A376" s="39"/>
       <c r="B376" s="40"/>
       <c r="C376" s="40"/>
@@ -15714,7 +15721,7 @@
       <c r="AD376" s="13"/>
       <c r="AE376" s="13"/>
     </row>
-    <row r="377" spans="1:31" ht="15.75" thickBot="1">
+    <row r="377" spans="1:31" ht="15" thickBot="1">
       <c r="A377" s="38"/>
       <c r="B377" s="35"/>
       <c r="C377" s="35"/>
@@ -15747,7 +15754,7 @@
       <c r="AD377" s="13"/>
       <c r="AE377" s="13"/>
     </row>
-    <row r="378" spans="1:31" ht="15.75" thickBot="1">
+    <row r="378" spans="1:31" ht="15" thickBot="1">
       <c r="A378" s="39"/>
       <c r="B378" s="40"/>
       <c r="C378" s="40"/>
@@ -15780,7 +15787,7 @@
       <c r="AD378" s="13"/>
       <c r="AE378" s="13"/>
     </row>
-    <row r="379" spans="1:31" ht="15.75" thickBot="1">
+    <row r="379" spans="1:31" ht="15" thickBot="1">
       <c r="A379" s="38"/>
       <c r="B379" s="35"/>
       <c r="C379" s="35"/>
@@ -15813,7 +15820,7 @@
       <c r="AD379" s="13"/>
       <c r="AE379" s="13"/>
     </row>
-    <row r="380" spans="1:31" ht="15.75" thickBot="1">
+    <row r="380" spans="1:31" ht="15" thickBot="1">
       <c r="A380" s="39"/>
       <c r="B380" s="40"/>
       <c r="C380" s="40"/>
@@ -15846,7 +15853,7 @@
       <c r="AD380" s="13"/>
       <c r="AE380" s="13"/>
     </row>
-    <row r="381" spans="1:31" ht="15.75" thickBot="1">
+    <row r="381" spans="1:31" ht="15" thickBot="1">
       <c r="A381" s="38"/>
       <c r="B381" s="35"/>
       <c r="C381" s="35"/>
@@ -15879,7 +15886,7 @@
       <c r="AD381" s="13"/>
       <c r="AE381" s="13"/>
     </row>
-    <row r="382" spans="1:31" ht="15.75" thickBot="1">
+    <row r="382" spans="1:31" ht="15" thickBot="1">
       <c r="A382" s="39"/>
       <c r="B382" s="40"/>
       <c r="C382" s="40"/>
@@ -15912,7 +15919,7 @@
       <c r="AD382" s="13"/>
       <c r="AE382" s="13"/>
     </row>
-    <row r="383" spans="1:31" ht="15.75" thickBot="1">
+    <row r="383" spans="1:31" ht="15" thickBot="1">
       <c r="A383" s="38"/>
       <c r="B383" s="35"/>
       <c r="C383" s="35"/>
@@ -15945,7 +15952,7 @@
       <c r="AD383" s="13"/>
       <c r="AE383" s="13"/>
     </row>
-    <row r="384" spans="1:31" ht="15.75" thickBot="1">
+    <row r="384" spans="1:31" ht="15" thickBot="1">
       <c r="A384" s="39"/>
       <c r="B384" s="40"/>
       <c r="C384" s="40"/>
@@ -15978,7 +15985,7 @@
       <c r="AD384" s="13"/>
       <c r="AE384" s="13"/>
     </row>
-    <row r="385" spans="1:31" ht="15.75" thickBot="1">
+    <row r="385" spans="1:31" ht="15" thickBot="1">
       <c r="A385" s="38"/>
       <c r="B385" s="35"/>
       <c r="C385" s="35"/>
@@ -16011,7 +16018,7 @@
       <c r="AD385" s="13"/>
       <c r="AE385" s="13"/>
     </row>
-    <row r="386" spans="1:31" ht="15.75" thickBot="1">
+    <row r="386" spans="1:31" ht="15" thickBot="1">
       <c r="A386" s="39"/>
       <c r="B386" s="40"/>
       <c r="C386" s="40"/>
@@ -16044,7 +16051,7 @@
       <c r="AD386" s="13"/>
       <c r="AE386" s="13"/>
     </row>
-    <row r="387" spans="1:31" ht="15.75" thickBot="1">
+    <row r="387" spans="1:31" ht="15" thickBot="1">
       <c r="A387" s="38"/>
       <c r="B387" s="35"/>
       <c r="C387" s="35"/>
@@ -16077,7 +16084,7 @@
       <c r="AD387" s="13"/>
       <c r="AE387" s="13"/>
     </row>
-    <row r="388" spans="1:31" ht="15.75" thickBot="1">
+    <row r="388" spans="1:31" ht="15" thickBot="1">
       <c r="A388" s="39"/>
       <c r="B388" s="40"/>
       <c r="C388" s="40"/>
@@ -16110,7 +16117,7 @@
       <c r="AD388" s="13"/>
       <c r="AE388" s="13"/>
     </row>
-    <row r="389" spans="1:31" ht="15.75" thickBot="1">
+    <row r="389" spans="1:31" ht="15" thickBot="1">
       <c r="A389" s="38"/>
       <c r="B389" s="35"/>
       <c r="C389" s="35"/>
@@ -16143,7 +16150,7 @@
       <c r="AD389" s="13"/>
       <c r="AE389" s="13"/>
     </row>
-    <row r="390" spans="1:31" ht="15.75" thickBot="1">
+    <row r="390" spans="1:31" ht="15" thickBot="1">
       <c r="A390" s="39"/>
       <c r="B390" s="40"/>
       <c r="C390" s="40"/>
@@ -16176,7 +16183,7 @@
       <c r="AD390" s="13"/>
       <c r="AE390" s="13"/>
     </row>
-    <row r="391" spans="1:31" ht="15.75" thickBot="1">
+    <row r="391" spans="1:31" ht="15" thickBot="1">
       <c r="A391" s="38"/>
       <c r="B391" s="35"/>
       <c r="C391" s="35"/>
@@ -16209,7 +16216,7 @@
       <c r="AD391" s="13"/>
       <c r="AE391" s="13"/>
     </row>
-    <row r="392" spans="1:31" ht="15.75" thickBot="1">
+    <row r="392" spans="1:31" ht="15" thickBot="1">
       <c r="A392" s="39"/>
       <c r="B392" s="40"/>
       <c r="C392" s="40"/>
@@ -16242,7 +16249,7 @@
       <c r="AD392" s="13"/>
       <c r="AE392" s="13"/>
     </row>
-    <row r="393" spans="1:31" ht="15.75" thickBot="1">
+    <row r="393" spans="1:31" ht="15" thickBot="1">
       <c r="A393" s="38"/>
       <c r="B393" s="35"/>
       <c r="C393" s="35"/>
@@ -16275,7 +16282,7 @@
       <c r="AD393" s="13"/>
       <c r="AE393" s="13"/>
     </row>
-    <row r="394" spans="1:31" ht="15.75" thickBot="1">
+    <row r="394" spans="1:31" ht="15" thickBot="1">
       <c r="A394" s="39"/>
       <c r="B394" s="40"/>
       <c r="C394" s="40"/>
@@ -16308,7 +16315,7 @@
       <c r="AD394" s="13"/>
       <c r="AE394" s="13"/>
     </row>
-    <row r="395" spans="1:31" ht="15.75" thickBot="1">
+    <row r="395" spans="1:31" ht="15" thickBot="1">
       <c r="A395" s="38"/>
       <c r="B395" s="35"/>
       <c r="C395" s="35"/>
@@ -16341,7 +16348,7 @@
       <c r="AD395" s="13"/>
       <c r="AE395" s="13"/>
     </row>
-    <row r="396" spans="1:31" ht="15.75" thickBot="1">
+    <row r="396" spans="1:31" ht="15" thickBot="1">
       <c r="A396" s="39"/>
       <c r="B396" s="40"/>
       <c r="C396" s="40"/>
@@ -16374,7 +16381,7 @@
       <c r="AD396" s="13"/>
       <c r="AE396" s="13"/>
     </row>
-    <row r="397" spans="1:31" ht="15.75" thickBot="1">
+    <row r="397" spans="1:31" ht="15" thickBot="1">
       <c r="A397" s="38"/>
       <c r="B397" s="35"/>
       <c r="C397" s="35"/>
@@ -16407,7 +16414,7 @@
       <c r="AD397" s="13"/>
       <c r="AE397" s="13"/>
     </row>
-    <row r="398" spans="1:31" ht="15.75" thickBot="1">
+    <row r="398" spans="1:31" ht="15" thickBot="1">
       <c r="A398" s="39"/>
       <c r="B398" s="40"/>
       <c r="C398" s="40"/>
@@ -16440,7 +16447,7 @@
       <c r="AD398" s="13"/>
       <c r="AE398" s="13"/>
     </row>
-    <row r="399" spans="1:31" ht="15.75" thickBot="1">
+    <row r="399" spans="1:31" ht="15" thickBot="1">
       <c r="A399" s="38"/>
       <c r="B399" s="35"/>
       <c r="C399" s="35"/>
@@ -16473,7 +16480,7 @@
       <c r="AD399" s="13"/>
       <c r="AE399" s="13"/>
     </row>
-    <row r="400" spans="1:31" ht="15.75" thickBot="1">
+    <row r="400" spans="1:31" ht="15" thickBot="1">
       <c r="A400" s="39"/>
       <c r="B400" s="40"/>
       <c r="C400" s="40"/>
@@ -16506,7 +16513,7 @@
       <c r="AD400" s="13"/>
       <c r="AE400" s="13"/>
     </row>
-    <row r="401" spans="1:31" ht="15.75" thickBot="1">
+    <row r="401" spans="1:31" ht="15" thickBot="1">
       <c r="A401" s="38"/>
       <c r="B401" s="35"/>
       <c r="C401" s="35"/>
@@ -16539,7 +16546,7 @@
       <c r="AD401" s="13"/>
       <c r="AE401" s="13"/>
     </row>
-    <row r="402" spans="1:31" ht="15.75" thickBot="1">
+    <row r="402" spans="1:31" ht="15" thickBot="1">
       <c r="A402" s="39"/>
       <c r="B402" s="40"/>
       <c r="C402" s="40"/>
@@ -16572,7 +16579,7 @@
       <c r="AD402" s="13"/>
       <c r="AE402" s="13"/>
     </row>
-    <row r="403" spans="1:31" ht="15.75" thickBot="1">
+    <row r="403" spans="1:31" ht="15" thickBot="1">
       <c r="A403" s="38"/>
       <c r="B403" s="35"/>
       <c r="C403" s="35"/>
@@ -16605,7 +16612,7 @@
       <c r="AD403" s="13"/>
       <c r="AE403" s="13"/>
     </row>
-    <row r="404" spans="1:31" ht="15.75" thickBot="1">
+    <row r="404" spans="1:31" ht="15" thickBot="1">
       <c r="A404" s="39"/>
       <c r="B404" s="40"/>
       <c r="C404" s="40"/>
@@ -16638,7 +16645,7 @@
       <c r="AD404" s="13"/>
       <c r="AE404" s="13"/>
     </row>
-    <row r="405" spans="1:31" ht="15.75" thickBot="1">
+    <row r="405" spans="1:31" ht="15" thickBot="1">
       <c r="A405" s="38"/>
       <c r="B405" s="35"/>
       <c r="C405" s="35"/>
@@ -16671,7 +16678,7 @@
       <c r="AD405" s="13"/>
       <c r="AE405" s="13"/>
     </row>
-    <row r="406" spans="1:31" ht="15.75" thickBot="1">
+    <row r="406" spans="1:31" ht="15" thickBot="1">
       <c r="A406" s="39"/>
       <c r="B406" s="40"/>
       <c r="C406" s="40"/>
@@ -16704,7 +16711,7 @@
       <c r="AD406" s="13"/>
       <c r="AE406" s="13"/>
     </row>
-    <row r="407" spans="1:31" ht="15.75" thickBot="1">
+    <row r="407" spans="1:31" ht="15" thickBot="1">
       <c r="A407" s="38"/>
       <c r="B407" s="35"/>
       <c r="C407" s="35"/>
@@ -16737,7 +16744,7 @@
       <c r="AD407" s="13"/>
       <c r="AE407" s="13"/>
     </row>
-    <row r="408" spans="1:31" ht="15.75" thickBot="1">
+    <row r="408" spans="1:31" ht="15" thickBot="1">
       <c r="A408" s="39"/>
       <c r="B408" s="40"/>
       <c r="C408" s="40"/>
@@ -16770,7 +16777,7 @@
       <c r="AD408" s="13"/>
       <c r="AE408" s="13"/>
     </row>
-    <row r="409" spans="1:31" ht="15.75" thickBot="1">
+    <row r="409" spans="1:31" ht="15" thickBot="1">
       <c r="A409" s="38"/>
       <c r="B409" s="35"/>
       <c r="C409" s="35"/>
@@ -16803,7 +16810,7 @@
       <c r="AD409" s="13"/>
       <c r="AE409" s="13"/>
     </row>
-    <row r="410" spans="1:31" ht="15.75" thickBot="1">
+    <row r="410" spans="1:31" ht="15" thickBot="1">
       <c r="A410" s="39"/>
       <c r="B410" s="40"/>
       <c r="C410" s="40"/>
@@ -16836,7 +16843,7 @@
       <c r="AD410" s="13"/>
       <c r="AE410" s="13"/>
     </row>
-    <row r="411" spans="1:31" ht="15.75" thickBot="1">
+    <row r="411" spans="1:31" ht="15" thickBot="1">
       <c r="A411" s="38"/>
       <c r="B411" s="35"/>
       <c r="C411" s="35"/>
@@ -16869,7 +16876,7 @@
       <c r="AD411" s="13"/>
       <c r="AE411" s="13"/>
     </row>
-    <row r="412" spans="1:31" ht="15.75" thickBot="1">
+    <row r="412" spans="1:31" ht="15" thickBot="1">
       <c r="A412" s="39"/>
       <c r="B412" s="40"/>
       <c r="C412" s="40"/>
@@ -16902,7 +16909,7 @@
       <c r="AD412" s="13"/>
       <c r="AE412" s="13"/>
     </row>
-    <row r="413" spans="1:31" ht="15.75" thickBot="1">
+    <row r="413" spans="1:31" ht="15" thickBot="1">
       <c r="A413" s="38"/>
       <c r="B413" s="35"/>
       <c r="C413" s="35"/>
@@ -16935,7 +16942,7 @@
       <c r="AD413" s="13"/>
       <c r="AE413" s="13"/>
     </row>
-    <row r="414" spans="1:31" ht="15.75" thickBot="1">
+    <row r="414" spans="1:31" ht="15" thickBot="1">
       <c r="A414" s="39"/>
       <c r="B414" s="40"/>
       <c r="C414" s="40"/>
@@ -16968,7 +16975,7 @@
       <c r="AD414" s="13"/>
       <c r="AE414" s="13"/>
     </row>
-    <row r="415" spans="1:31" ht="15.75" thickBot="1">
+    <row r="415" spans="1:31" ht="15" thickBot="1">
       <c r="A415" s="38"/>
       <c r="B415" s="35"/>
       <c r="C415" s="35"/>
@@ -17001,7 +17008,7 @@
       <c r="AD415" s="13"/>
       <c r="AE415" s="13"/>
     </row>
-    <row r="416" spans="1:31" ht="15.75" thickBot="1">
+    <row r="416" spans="1:31" ht="15" thickBot="1">
       <c r="A416" s="39"/>
       <c r="B416" s="40"/>
       <c r="C416" s="40"/>
@@ -17034,7 +17041,7 @@
       <c r="AD416" s="13"/>
       <c r="AE416" s="13"/>
     </row>
-    <row r="417" spans="1:31" ht="15.75" thickBot="1">
+    <row r="417" spans="1:31" ht="15" thickBot="1">
       <c r="A417" s="38"/>
       <c r="B417" s="35"/>
       <c r="C417" s="35"/>
@@ -17067,7 +17074,7 @@
       <c r="AD417" s="13"/>
       <c r="AE417" s="13"/>
     </row>
-    <row r="418" spans="1:31" ht="15.75" thickBot="1">
+    <row r="418" spans="1:31" ht="15" thickBot="1">
       <c r="A418" s="39"/>
       <c r="B418" s="40"/>
       <c r="C418" s="40"/>
@@ -17100,7 +17107,7 @@
       <c r="AD418" s="13"/>
       <c r="AE418" s="13"/>
     </row>
-    <row r="419" spans="1:31" ht="15.75" thickBot="1">
+    <row r="419" spans="1:31" ht="15" thickBot="1">
       <c r="A419" s="38"/>
       <c r="B419" s="35"/>
       <c r="C419" s="35"/>
@@ -17133,7 +17140,7 @@
       <c r="AD419" s="13"/>
       <c r="AE419" s="13"/>
     </row>
-    <row r="420" spans="1:31" ht="15.75" thickBot="1">
+    <row r="420" spans="1:31" ht="15" thickBot="1">
       <c r="A420" s="39"/>
       <c r="B420" s="40"/>
       <c r="C420" s="40"/>
@@ -17166,7 +17173,7 @@
       <c r="AD420" s="13"/>
       <c r="AE420" s="13"/>
     </row>
-    <row r="421" spans="1:31" ht="15.75" thickBot="1">
+    <row r="421" spans="1:31" ht="15" thickBot="1">
       <c r="A421" s="38"/>
       <c r="B421" s="35"/>
       <c r="C421" s="35"/>
@@ -17199,7 +17206,7 @@
       <c r="AD421" s="13"/>
       <c r="AE421" s="13"/>
     </row>
-    <row r="422" spans="1:31" ht="15.75" thickBot="1">
+    <row r="422" spans="1:31" ht="15" thickBot="1">
       <c r="A422" s="39"/>
       <c r="B422" s="40"/>
       <c r="C422" s="40"/>
@@ -17232,7 +17239,7 @@
       <c r="AD422" s="13"/>
       <c r="AE422" s="13"/>
     </row>
-    <row r="423" spans="1:31" ht="15.75" thickBot="1">
+    <row r="423" spans="1:31" ht="15" thickBot="1">
       <c r="A423" s="38"/>
       <c r="B423" s="35"/>
       <c r="C423" s="35"/>
@@ -17265,7 +17272,7 @@
       <c r="AD423" s="13"/>
       <c r="AE423" s="13"/>
     </row>
-    <row r="424" spans="1:31" ht="15.75" thickBot="1">
+    <row r="424" spans="1:31" ht="15" thickBot="1">
       <c r="A424" s="39"/>
       <c r="B424" s="40"/>
       <c r="C424" s="40"/>
@@ -17298,7 +17305,7 @@
       <c r="AD424" s="13"/>
       <c r="AE424" s="13"/>
     </row>
-    <row r="425" spans="1:31" ht="15.75" thickBot="1">
+    <row r="425" spans="1:31" ht="15" thickBot="1">
       <c r="A425" s="38"/>
       <c r="B425" s="35"/>
       <c r="C425" s="35"/>
@@ -17331,7 +17338,7 @@
       <c r="AD425" s="13"/>
       <c r="AE425" s="13"/>
     </row>
-    <row r="426" spans="1:31" ht="15.75" thickBot="1">
+    <row r="426" spans="1:31" ht="15" thickBot="1">
       <c r="A426" s="39"/>
       <c r="B426" s="40"/>
       <c r="C426" s="40"/>
@@ -17364,7 +17371,7 @@
       <c r="AD426" s="13"/>
       <c r="AE426" s="13"/>
     </row>
-    <row r="427" spans="1:31" ht="15.75" thickBot="1">
+    <row r="427" spans="1:31" ht="15" thickBot="1">
       <c r="A427" s="38"/>
       <c r="B427" s="35"/>
       <c r="C427" s="35"/>
@@ -17397,7 +17404,7 @@
       <c r="AD427" s="13"/>
       <c r="AE427" s="13"/>
     </row>
-    <row r="428" spans="1:31" ht="15.75" thickBot="1">
+    <row r="428" spans="1:31" ht="15" thickBot="1">
       <c r="A428" s="39"/>
       <c r="B428" s="40"/>
       <c r="C428" s="40"/>
@@ -17430,7 +17437,7 @@
       <c r="AD428" s="13"/>
       <c r="AE428" s="13"/>
     </row>
-    <row r="429" spans="1:31" ht="15.75" thickBot="1">
+    <row r="429" spans="1:31" ht="15" thickBot="1">
       <c r="A429" s="38"/>
       <c r="B429" s="35"/>
       <c r="C429" s="35"/>
@@ -17463,7 +17470,7 @@
       <c r="AD429" s="13"/>
       <c r="AE429" s="13"/>
     </row>
-    <row r="430" spans="1:31" ht="15.75" thickBot="1">
+    <row r="430" spans="1:31" ht="15" thickBot="1">
       <c r="A430" s="39"/>
       <c r="B430" s="40"/>
       <c r="C430" s="40"/>
@@ -17496,7 +17503,7 @@
       <c r="AD430" s="13"/>
       <c r="AE430" s="13"/>
     </row>
-    <row r="431" spans="1:31" ht="15.75" thickBot="1">
+    <row r="431" spans="1:31" ht="15" thickBot="1">
       <c r="A431" s="38"/>
       <c r="B431" s="35"/>
       <c r="C431" s="35"/>
@@ -17529,7 +17536,7 @@
       <c r="AD431" s="13"/>
       <c r="AE431" s="13"/>
     </row>
-    <row r="432" spans="1:31" ht="15.75" thickBot="1">
+    <row r="432" spans="1:31" ht="15" thickBot="1">
       <c r="A432" s="39"/>
       <c r="B432" s="40"/>
       <c r="C432" s="40"/>
@@ -17562,7 +17569,7 @@
       <c r="AD432" s="13"/>
       <c r="AE432" s="13"/>
     </row>
-    <row r="433" spans="1:31" ht="15.75" thickBot="1">
+    <row r="433" spans="1:31" ht="15" thickBot="1">
       <c r="A433" s="38"/>
       <c r="B433" s="35"/>
       <c r="C433" s="35"/>
@@ -17595,7 +17602,7 @@
       <c r="AD433" s="13"/>
       <c r="AE433" s="13"/>
     </row>
-    <row r="434" spans="1:31" ht="15.75" thickBot="1">
+    <row r="434" spans="1:31" ht="15" thickBot="1">
       <c r="A434" s="39"/>
       <c r="B434" s="40"/>
       <c r="C434" s="40"/>
@@ -17628,7 +17635,7 @@
       <c r="AD434" s="13"/>
       <c r="AE434" s="13"/>
     </row>
-    <row r="435" spans="1:31" ht="15.75" thickBot="1">
+    <row r="435" spans="1:31" ht="15" thickBot="1">
       <c r="A435" s="38"/>
       <c r="B435" s="35"/>
       <c r="C435" s="35"/>
@@ -17661,7 +17668,7 @@
       <c r="AD435" s="13"/>
       <c r="AE435" s="13"/>
     </row>
-    <row r="436" spans="1:31" ht="15.75" thickBot="1">
+    <row r="436" spans="1:31" ht="15" thickBot="1">
       <c r="A436" s="39"/>
       <c r="B436" s="40"/>
       <c r="C436" s="40"/>
@@ -17694,7 +17701,7 @@
       <c r="AD436" s="13"/>
       <c r="AE436" s="13"/>
     </row>
-    <row r="437" spans="1:31" ht="15.75" thickBot="1">
+    <row r="437" spans="1:31" ht="15" thickBot="1">
       <c r="A437" s="38"/>
       <c r="B437" s="35"/>
       <c r="C437" s="35"/>
@@ -17727,7 +17734,7 @@
       <c r="AD437" s="13"/>
       <c r="AE437" s="13"/>
     </row>
-    <row r="438" spans="1:31" ht="15.75" thickBot="1">
+    <row r="438" spans="1:31" ht="15" thickBot="1">
       <c r="A438" s="39"/>
       <c r="B438" s="40"/>
       <c r="C438" s="40"/>
@@ -17760,7 +17767,7 @@
       <c r="AD438" s="13"/>
       <c r="AE438" s="13"/>
     </row>
-    <row r="439" spans="1:31" ht="15.75" thickBot="1">
+    <row r="439" spans="1:31" ht="15" thickBot="1">
       <c r="A439" s="38"/>
       <c r="B439" s="35"/>
       <c r="C439" s="35"/>
@@ -17793,7 +17800,7 @@
       <c r="AD439" s="13"/>
       <c r="AE439" s="13"/>
     </row>
-    <row r="440" spans="1:31" ht="15.75" thickBot="1">
+    <row r="440" spans="1:31" ht="15" thickBot="1">
       <c r="A440" s="39"/>
       <c r="B440" s="40"/>
       <c r="C440" s="40"/>
@@ -17826,7 +17833,7 @@
       <c r="AD440" s="13"/>
       <c r="AE440" s="13"/>
     </row>
-    <row r="441" spans="1:31" ht="15.75" thickBot="1">
+    <row r="441" spans="1:31" ht="15" thickBot="1">
       <c r="A441" s="38"/>
       <c r="B441" s="35"/>
       <c r="C441" s="35"/>
@@ -17859,7 +17866,7 @@
       <c r="AD441" s="13"/>
       <c r="AE441" s="13"/>
     </row>
-    <row r="442" spans="1:31" ht="15.75" thickBot="1">
+    <row r="442" spans="1:31" ht="15" thickBot="1">
       <c r="A442" s="39"/>
       <c r="B442" s="40"/>
       <c r="C442" s="40"/>
@@ -17892,7 +17899,7 @@
       <c r="AD442" s="13"/>
       <c r="AE442" s="13"/>
     </row>
-    <row r="443" spans="1:31" ht="15.75" thickBot="1">
+    <row r="443" spans="1:31" ht="15" thickBot="1">
       <c r="A443" s="38"/>
       <c r="B443" s="35"/>
       <c r="C443" s="35"/>
@@ -17925,7 +17932,7 @@
       <c r="AD443" s="13"/>
       <c r="AE443" s="13"/>
     </row>
-    <row r="444" spans="1:31" ht="15.75" thickBot="1">
+    <row r="444" spans="1:31" ht="15" thickBot="1">
       <c r="A444" s="39"/>
       <c r="B444" s="40"/>
       <c r="C444" s="40"/>
@@ -17958,7 +17965,7 @@
       <c r="AD444" s="13"/>
       <c r="AE444" s="13"/>
     </row>
-    <row r="445" spans="1:31" ht="15.75" thickBot="1">
+    <row r="445" spans="1:31" ht="15" thickBot="1">
       <c r="A445" s="38"/>
       <c r="B445" s="35"/>
       <c r="C445" s="35"/>
@@ -17991,7 +17998,7 @@
       <c r="AD445" s="13"/>
       <c r="AE445" s="13"/>
     </row>
-    <row r="446" spans="1:31" ht="15.75" thickBot="1">
+    <row r="446" spans="1:31" ht="15" thickBot="1">
       <c r="A446" s="39"/>
       <c r="B446" s="40"/>
       <c r="C446" s="40"/>
@@ -18024,7 +18031,7 @@
       <c r="AD446" s="13"/>
       <c r="AE446" s="13"/>
     </row>
-    <row r="447" spans="1:31" ht="15.75" thickBot="1">
+    <row r="447" spans="1:31" ht="15" thickBot="1">
       <c r="A447" s="38"/>
       <c r="B447" s="35"/>
       <c r="C447" s="35"/>
@@ -18057,7 +18064,7 @@
       <c r="AD447" s="13"/>
       <c r="AE447" s="13"/>
     </row>
-    <row r="448" spans="1:31" ht="15.75" thickBot="1">
+    <row r="448" spans="1:31" ht="15" thickBot="1">
       <c r="A448" s="39"/>
       <c r="B448" s="40"/>
       <c r="C448" s="40"/>
@@ -18090,7 +18097,7 @@
       <c r="AD448" s="13"/>
       <c r="AE448" s="13"/>
     </row>
-    <row r="449" spans="1:31" ht="15.75" thickBot="1">
+    <row r="449" spans="1:31" ht="15" thickBot="1">
       <c r="A449" s="38"/>
       <c r="B449" s="35"/>
       <c r="C449" s="35"/>
@@ -18123,7 +18130,7 @@
       <c r="AD449" s="13"/>
       <c r="AE449" s="13"/>
     </row>
-    <row r="450" spans="1:31" ht="15.75" thickBot="1">
+    <row r="450" spans="1:31" ht="15" thickBot="1">
       <c r="A450" s="39"/>
       <c r="B450" s="40"/>
       <c r="C450" s="40"/>
@@ -18156,7 +18163,7 @@
       <c r="AD450" s="13"/>
       <c r="AE450" s="13"/>
     </row>
-    <row r="451" spans="1:31" ht="15.75" thickBot="1">
+    <row r="451" spans="1:31" ht="15" thickBot="1">
       <c r="A451" s="38"/>
       <c r="B451" s="35"/>
       <c r="C451" s="35"/>
@@ -18189,7 +18196,7 @@
       <c r="AD451" s="13"/>
       <c r="AE451" s="13"/>
     </row>
-    <row r="452" spans="1:31" ht="15.75" thickBot="1">
+    <row r="452" spans="1:31" ht="15" thickBot="1">
       <c r="A452" s="39"/>
       <c r="B452" s="40"/>
       <c r="C452" s="40"/>
@@ -18222,7 +18229,7 @@
       <c r="AD452" s="13"/>
       <c r="AE452" s="13"/>
     </row>
-    <row r="453" spans="1:31" ht="15.75" thickBot="1">
+    <row r="453" spans="1:31" ht="15" thickBot="1">
       <c r="A453" s="38"/>
       <c r="B453" s="35"/>
       <c r="C453" s="35"/>
@@ -18255,7 +18262,7 @@
       <c r="AD453" s="13"/>
       <c r="AE453" s="13"/>
     </row>
-    <row r="454" spans="1:31" ht="15.75" thickBot="1">
+    <row r="454" spans="1:31" ht="15" thickBot="1">
       <c r="A454" s="39"/>
       <c r="B454" s="40"/>
       <c r="C454" s="40"/>
@@ -18288,7 +18295,7 @@
       <c r="AD454" s="13"/>
       <c r="AE454" s="13"/>
     </row>
-    <row r="455" spans="1:31" ht="15.75" thickBot="1">
+    <row r="455" spans="1:31" ht="15" thickBot="1">
       <c r="A455" s="38"/>
       <c r="B455" s="35"/>
       <c r="C455" s="35"/>
@@ -18321,7 +18328,7 @@
       <c r="AD455" s="13"/>
       <c r="AE455" s="13"/>
     </row>
-    <row r="456" spans="1:31" ht="15.75" thickBot="1">
+    <row r="456" spans="1:31" ht="15" thickBot="1">
       <c r="A456" s="39"/>
       <c r="B456" s="40"/>
       <c r="C456" s="40"/>
@@ -18354,7 +18361,7 @@
       <c r="AD456" s="13"/>
       <c r="AE456" s="13"/>
     </row>
-    <row r="457" spans="1:31" ht="15.75" thickBot="1">
+    <row r="457" spans="1:31" ht="15" thickBot="1">
       <c r="A457" s="38"/>
       <c r="B457" s="35"/>
       <c r="C457" s="35"/>
@@ -18387,7 +18394,7 @@
       <c r="AD457" s="13"/>
       <c r="AE457" s="13"/>
     </row>
-    <row r="458" spans="1:31" ht="15.75" thickBot="1">
+    <row r="458" spans="1:31" ht="15" thickBot="1">
       <c r="A458" s="39"/>
       <c r="B458" s="40"/>
       <c r="C458" s="40"/>
@@ -18420,7 +18427,7 @@
       <c r="AD458" s="13"/>
       <c r="AE458" s="13"/>
     </row>
-    <row r="459" spans="1:31" ht="15.75" thickBot="1">
+    <row r="459" spans="1:31" ht="15" thickBot="1">
       <c r="A459" s="38"/>
       <c r="B459" s="35"/>
       <c r="C459" s="35"/>
@@ -18453,7 +18460,7 @@
       <c r="AD459" s="13"/>
       <c r="AE459" s="13"/>
     </row>
-    <row r="460" spans="1:31" ht="15.75" thickBot="1">
+    <row r="460" spans="1:31" ht="15" thickBot="1">
       <c r="A460" s="39"/>
       <c r="B460" s="40"/>
       <c r="C460" s="40"/>
@@ -18486,7 +18493,7 @@
       <c r="AD460" s="13"/>
       <c r="AE460" s="13"/>
     </row>
-    <row r="461" spans="1:31" ht="15.75" thickBot="1">
+    <row r="461" spans="1:31" ht="15" thickBot="1">
       <c r="A461" s="38"/>
       <c r="B461" s="35"/>
       <c r="C461" s="35"/>
@@ -18519,7 +18526,7 @@
       <c r="AD461" s="13"/>
       <c r="AE461" s="13"/>
     </row>
-    <row r="462" spans="1:31" ht="15.75" thickBot="1">
+    <row r="462" spans="1:31" ht="15" thickBot="1">
       <c r="A462" s="39"/>
       <c r="B462" s="40"/>
       <c r="C462" s="40"/>
@@ -18552,7 +18559,7 @@
       <c r="AD462" s="13"/>
       <c r="AE462" s="13"/>
     </row>
-    <row r="463" spans="1:31" ht="15.75" thickBot="1">
+    <row r="463" spans="1:31" ht="15" thickBot="1">
       <c r="A463" s="38"/>
       <c r="B463" s="35"/>
       <c r="C463" s="35"/>
@@ -18585,7 +18592,7 @@
       <c r="AD463" s="13"/>
       <c r="AE463" s="13"/>
     </row>
-    <row r="464" spans="1:31" ht="15.75" thickBot="1">
+    <row r="464" spans="1:31" ht="15" thickBot="1">
       <c r="A464" s="39"/>
       <c r="B464" s="40"/>
       <c r="C464" s="40"/>
@@ -18618,7 +18625,7 @@
       <c r="AD464" s="13"/>
       <c r="AE464" s="13"/>
     </row>
-    <row r="465" spans="1:31" ht="15.75" thickBot="1">
+    <row r="465" spans="1:31" ht="15" thickBot="1">
       <c r="A465" s="38"/>
       <c r="B465" s="35"/>
       <c r="C465" s="35"/>
@@ -18651,7 +18658,7 @@
       <c r="AD465" s="13"/>
       <c r="AE465" s="13"/>
     </row>
-    <row r="466" spans="1:31" ht="15.75" thickBot="1">
+    <row r="466" spans="1:31" ht="15" thickBot="1">
       <c r="A466" s="39"/>
       <c r="B466" s="40"/>
       <c r="C466" s="40"/>
@@ -18684,7 +18691,7 @@
       <c r="AD466" s="13"/>
       <c r="AE466" s="13"/>
     </row>
-    <row r="467" spans="1:31" ht="15.75" thickBot="1">
+    <row r="467" spans="1:31" ht="15" thickBot="1">
       <c r="A467" s="38"/>
       <c r="B467" s="35"/>
       <c r="C467" s="35"/>
@@ -18717,7 +18724,7 @@
       <c r="AD467" s="13"/>
       <c r="AE467" s="13"/>
     </row>
-    <row r="468" spans="1:31" ht="15.75" thickBot="1">
+    <row r="468" spans="1:31" ht="15" thickBot="1">
       <c r="A468" s="39"/>
       <c r="B468" s="40"/>
       <c r="C468" s="40"/>
@@ -18750,7 +18757,7 @@
       <c r="AD468" s="13"/>
       <c r="AE468" s="13"/>
     </row>
-    <row r="469" spans="1:31" ht="15.75" thickBot="1">
+    <row r="469" spans="1:31" ht="15" thickBot="1">
       <c r="A469" s="38"/>
       <c r="B469" s="35"/>
       <c r="C469" s="35"/>
@@ -18783,7 +18790,7 @@
       <c r="AD469" s="13"/>
       <c r="AE469" s="13"/>
     </row>
-    <row r="470" spans="1:31" ht="15.75" thickBot="1">
+    <row r="470" spans="1:31" ht="15" thickBot="1">
       <c r="A470" s="39"/>
       <c r="B470" s="40"/>
       <c r="C470" s="40"/>
@@ -18816,7 +18823,7 @@
       <c r="AD470" s="13"/>
       <c r="AE470" s="13"/>
     </row>
-    <row r="471" spans="1:31" ht="15.75" thickBot="1">
+    <row r="471" spans="1:31" ht="15" thickBot="1">
       <c r="A471" s="38"/>
       <c r="B471" s="35"/>
       <c r="C471" s="35"/>
@@ -18849,7 +18856,7 @@
       <c r="AD471" s="13"/>
       <c r="AE471" s="13"/>
     </row>
-    <row r="472" spans="1:31" ht="15.75" thickBot="1">
+    <row r="472" spans="1:31" ht="15" thickBot="1">
       <c r="A472" s="39"/>
       <c r="B472" s="40"/>
       <c r="C472" s="40"/>
@@ -18882,7 +18889,7 @@
       <c r="AD472" s="13"/>
       <c r="AE472" s="13"/>
     </row>
-    <row r="473" spans="1:31" ht="15.75" thickBot="1">
+    <row r="473" spans="1:31" ht="15" thickBot="1">
       <c r="A473" s="38"/>
       <c r="B473" s="35"/>
       <c r="C473" s="35"/>
@@ -18915,7 +18922,7 @@
       <c r="AD473" s="13"/>
       <c r="AE473" s="13"/>
     </row>
-    <row r="474" spans="1:31" ht="15.75" thickBot="1">
+    <row r="474" spans="1:31" ht="15" thickBot="1">
       <c r="A474" s="39"/>
       <c r="B474" s="40"/>
       <c r="C474" s="40"/>
@@ -18948,7 +18955,7 @@
       <c r="AD474" s="13"/>
       <c r="AE474" s="13"/>
     </row>
-    <row r="475" spans="1:31" ht="15.75" thickBot="1">
+    <row r="475" spans="1:31" ht="15" thickBot="1">
       <c r="A475" s="38"/>
       <c r="B475" s="35"/>
       <c r="C475" s="35"/>
@@ -18981,7 +18988,7 @@
       <c r="AD475" s="13"/>
       <c r="AE475" s="13"/>
     </row>
-    <row r="476" spans="1:31" ht="15.75" thickBot="1">
+    <row r="476" spans="1:31" ht="15" thickBot="1">
       <c r="A476" s="39"/>
       <c r="B476" s="40"/>
       <c r="C476" s="40"/>
@@ -19014,7 +19021,7 @@
       <c r="AD476" s="13"/>
       <c r="AE476" s="13"/>
     </row>
-    <row r="477" spans="1:31" ht="15.75" thickBot="1">
+    <row r="477" spans="1:31" ht="15" thickBot="1">
       <c r="A477" s="38"/>
       <c r="B477" s="35"/>
       <c r="C477" s="35"/>
@@ -19047,7 +19054,7 @@
       <c r="AD477" s="13"/>
       <c r="AE477" s="13"/>
     </row>
-    <row r="478" spans="1:31" ht="15.75" thickBot="1">
+    <row r="478" spans="1:31" ht="15" thickBot="1">
       <c r="A478" s="39"/>
       <c r="B478" s="40"/>
       <c r="C478" s="40"/>
@@ -19080,7 +19087,7 @@
       <c r="AD478" s="13"/>
       <c r="AE478" s="13"/>
     </row>
-    <row r="479" spans="1:31" ht="15.75" thickBot="1">
+    <row r="479" spans="1:31" ht="15" thickBot="1">
       <c r="A479" s="38"/>
       <c r="B479" s="35"/>
       <c r="C479" s="35"/>
@@ -19113,7 +19120,7 @@
       <c r="AD479" s="13"/>
       <c r="AE479" s="13"/>
     </row>
-    <row r="480" spans="1:31" ht="15.75" thickBot="1">
+    <row r="480" spans="1:31" ht="15" thickBot="1">
       <c r="A480" s="39"/>
       <c r="B480" s="40"/>
       <c r="C480" s="40"/>
@@ -19146,7 +19153,7 @@
       <c r="AD480" s="13"/>
       <c r="AE480" s="13"/>
     </row>
-    <row r="481" spans="1:31" ht="15.75" thickBot="1">
+    <row r="481" spans="1:31" ht="15" thickBot="1">
       <c r="A481" s="38"/>
       <c r="B481" s="35"/>
       <c r="C481" s="35"/>
@@ -19179,7 +19186,7 @@
       <c r="AD481" s="13"/>
       <c r="AE481" s="13"/>
     </row>
-    <row r="482" spans="1:31" ht="15.75" thickBot="1">
+    <row r="482" spans="1:31" ht="15" thickBot="1">
       <c r="A482" s="39"/>
       <c r="B482" s="40"/>
       <c r="C482" s="40"/>
@@ -19212,7 +19219,7 @@
       <c r="AD482" s="13"/>
       <c r="AE482" s="13"/>
     </row>
-    <row r="483" spans="1:31" ht="15.75" thickBot="1">
+    <row r="483" spans="1:31" ht="15" thickBot="1">
       <c r="A483" s="38"/>
       <c r="B483" s="35"/>
       <c r="C483" s="35"/>
@@ -19245,7 +19252,7 @@
       <c r="AD483" s="13"/>
       <c r="AE483" s="13"/>
     </row>
-    <row r="484" spans="1:31" ht="15.75" thickBot="1">
+    <row r="484" spans="1:31" ht="15" thickBot="1">
       <c r="A484" s="39"/>
       <c r="B484" s="40"/>
       <c r="C484" s="40"/>
@@ -19278,7 +19285,7 @@
       <c r="AD484" s="13"/>
       <c r="AE484" s="13"/>
     </row>
-    <row r="485" spans="1:31" ht="15.75" thickBot="1">
+    <row r="485" spans="1:31" ht="15" thickBot="1">
       <c r="A485" s="38"/>
       <c r="B485" s="35"/>
       <c r="C485" s="35"/>
@@ -19311,7 +19318,7 @@
       <c r="AD485" s="13"/>
       <c r="AE485" s="13"/>
     </row>
-    <row r="486" spans="1:31" ht="15.75" thickBot="1">
+    <row r="486" spans="1:31" ht="15" thickBot="1">
       <c r="A486" s="39"/>
       <c r="B486" s="40"/>
       <c r="C486" s="40"/>
@@ -19344,7 +19351,7 @@
       <c r="AD486" s="13"/>
       <c r="AE486" s="13"/>
     </row>
-    <row r="487" spans="1:31" ht="15.75" thickBot="1">
+    <row r="487" spans="1:31" ht="15" thickBot="1">
       <c r="A487" s="38"/>
       <c r="B487" s="35"/>
       <c r="C487" s="35"/>
@@ -19377,7 +19384,7 @@
       <c r="AD487" s="13"/>
       <c r="AE487" s="13"/>
     </row>
-    <row r="488" spans="1:31" ht="15.75" thickBot="1">
+    <row r="488" spans="1:31" ht="15" thickBot="1">
       <c r="A488" s="39"/>
       <c r="B488" s="40"/>
       <c r="C488" s="40"/>
@@ -19410,7 +19417,7 @@
       <c r="AD488" s="13"/>
       <c r="AE488" s="13"/>
     </row>
-    <row r="489" spans="1:31" ht="15.75" thickBot="1">
+    <row r="489" spans="1:31" ht="15" thickBot="1">
       <c r="A489" s="38"/>
       <c r="B489" s="35"/>
       <c r="C489" s="35"/>
@@ -19443,7 +19450,7 @@
       <c r="AD489" s="13"/>
       <c r="AE489" s="13"/>
     </row>
-    <row r="490" spans="1:31" ht="15.75" thickBot="1">
+    <row r="490" spans="1:31" ht="15" thickBot="1">
       <c r="A490" s="39"/>
       <c r="B490" s="40"/>
       <c r="C490" s="40"/>
@@ -19476,7 +19483,7 @@
       <c r="AD490" s="13"/>
       <c r="AE490" s="13"/>
     </row>
-    <row r="491" spans="1:31" ht="15.75" thickBot="1">
+    <row r="491" spans="1:31" ht="15" thickBot="1">
       <c r="A491" s="38"/>
       <c r="B491" s="35"/>
       <c r="C491" s="35"/>
@@ -19509,7 +19516,7 @@
       <c r="AD491" s="13"/>
       <c r="AE491" s="13"/>
     </row>
-    <row r="492" spans="1:31" ht="15.75" thickBot="1">
+    <row r="492" spans="1:31" ht="15" thickBot="1">
       <c r="A492" s="39"/>
       <c r="B492" s="40"/>
       <c r="C492" s="40"/>
@@ -19542,7 +19549,7 @@
       <c r="AD492" s="13"/>
       <c r="AE492" s="13"/>
     </row>
-    <row r="493" spans="1:31" ht="15.75" thickBot="1">
+    <row r="493" spans="1:31" ht="15" thickBot="1">
       <c r="A493" s="38"/>
       <c r="B493" s="35"/>
       <c r="C493" s="35"/>
@@ -19575,7 +19582,7 @@
       <c r="AD493" s="13"/>
       <c r="AE493" s="13"/>
     </row>
-    <row r="494" spans="1:31" ht="15.75" thickBot="1">
+    <row r="494" spans="1:31" ht="15" thickBot="1">
       <c r="A494" s="39"/>
       <c r="B494" s="40"/>
       <c r="C494" s="40"/>
@@ -19608,7 +19615,7 @@
       <c r="AD494" s="13"/>
       <c r="AE494" s="13"/>
     </row>
-    <row r="495" spans="1:31" ht="15.75" thickBot="1">
+    <row r="495" spans="1:31" ht="15" thickBot="1">
       <c r="A495" s="38"/>
       <c r="B495" s="35"/>
       <c r="C495" s="35"/>
@@ -19641,7 +19648,7 @@
       <c r="AD495" s="13"/>
       <c r="AE495" s="13"/>
     </row>
-    <row r="496" spans="1:31" ht="15.75" thickBot="1">
+    <row r="496" spans="1:31" ht="15" thickBot="1">
       <c r="A496" s="39"/>
       <c r="B496" s="40"/>
       <c r="C496" s="40"/>
@@ -19674,7 +19681,7 @@
       <c r="AD496" s="13"/>
       <c r="AE496" s="13"/>
     </row>
-    <row r="497" spans="1:31" ht="15.75" thickBot="1">
+    <row r="497" spans="1:31" ht="15" thickBot="1">
       <c r="A497" s="38"/>
       <c r="B497" s="35"/>
       <c r="C497" s="35"/>
@@ -19707,7 +19714,7 @@
       <c r="AD497" s="13"/>
       <c r="AE497" s="13"/>
     </row>
-    <row r="498" spans="1:31" ht="15.75" thickBot="1">
+    <row r="498" spans="1:31" ht="15" thickBot="1">
       <c r="A498" s="39"/>
       <c r="B498" s="40"/>
       <c r="C498" s="40"/>
@@ -19740,7 +19747,7 @@
       <c r="AD498" s="13"/>
       <c r="AE498" s="13"/>
     </row>
-    <row r="499" spans="1:31" ht="15.75" thickBot="1">
+    <row r="499" spans="1:31" ht="15" thickBot="1">
       <c r="A499" s="38"/>
       <c r="B499" s="35"/>
       <c r="C499" s="35"/>
@@ -19773,7 +19780,7 @@
       <c r="AD499" s="13"/>
       <c r="AE499" s="13"/>
     </row>
-    <row r="500" spans="1:31" ht="15.75" thickBot="1">
+    <row r="500" spans="1:31" ht="15" thickBot="1">
       <c r="A500" s="39"/>
       <c r="B500" s="40"/>
       <c r="C500" s="40"/>
@@ -19806,7 +19813,7 @@
       <c r="AD500" s="13"/>
       <c r="AE500" s="13"/>
     </row>
-    <row r="501" spans="1:31" ht="15.75" thickBot="1">
+    <row r="501" spans="1:31" ht="15" thickBot="1">
       <c r="A501" s="38"/>
       <c r="B501" s="35"/>
       <c r="C501" s="35"/>
@@ -19839,7 +19846,7 @@
       <c r="AD501" s="13"/>
       <c r="AE501" s="13"/>
     </row>
-    <row r="502" spans="1:31" ht="15.75" thickBot="1">
+    <row r="502" spans="1:31" ht="15" thickBot="1">
       <c r="A502" s="39"/>
       <c r="B502" s="40"/>
       <c r="C502" s="40"/>
@@ -19872,7 +19879,7 @@
       <c r="AD502" s="13"/>
       <c r="AE502" s="13"/>
     </row>
-    <row r="503" spans="1:31" ht="15.75" thickBot="1">
+    <row r="503" spans="1:31" ht="15" thickBot="1">
       <c r="A503" s="38"/>
       <c r="B503" s="35"/>
       <c r="C503" s="35"/>
@@ -19905,7 +19912,7 @@
       <c r="AD503" s="13"/>
       <c r="AE503" s="13"/>
     </row>
-    <row r="504" spans="1:31" ht="15.75" thickBot="1">
+    <row r="504" spans="1:31" ht="15" thickBot="1">
       <c r="A504" s="39"/>
       <c r="B504" s="40"/>
       <c r="C504" s="40"/>
@@ -19938,7 +19945,7 @@
       <c r="AD504" s="13"/>
       <c r="AE504" s="13"/>
     </row>
-    <row r="505" spans="1:31" ht="15.75" thickBot="1">
+    <row r="505" spans="1:31" ht="15" thickBot="1">
       <c r="A505" s="38"/>
       <c r="B505" s="35"/>
       <c r="C505" s="35"/>
@@ -19971,7 +19978,7 @@
       <c r="AD505" s="13"/>
       <c r="AE505" s="13"/>
     </row>
-    <row r="506" spans="1:31" ht="15.75" thickBot="1">
+    <row r="506" spans="1:31" ht="15" thickBot="1">
       <c r="A506" s="39"/>
       <c r="B506" s="40"/>
       <c r="C506" s="40"/>
@@ -20004,7 +20011,7 @@
       <c r="AD506" s="13"/>
       <c r="AE506" s="13"/>
     </row>
-    <row r="507" spans="1:31" ht="15.75" thickBot="1">
+    <row r="507" spans="1:31" ht="15" thickBot="1">
       <c r="A507" s="38"/>
       <c r="B507" s="35"/>
       <c r="C507" s="35"/>
@@ -20037,7 +20044,7 @@
       <c r="AD507" s="13"/>
       <c r="AE507" s="13"/>
     </row>
-    <row r="508" spans="1:31" ht="15.75" thickBot="1">
+    <row r="508" spans="1:31" ht="15" thickBot="1">
       <c r="A508" s="39"/>
       <c r="B508" s="40"/>
       <c r="C508" s="40"/>
@@ -20070,7 +20077,7 @@
       <c r="AD508" s="13"/>
       <c r="AE508" s="13"/>
     </row>
-    <row r="509" spans="1:31" ht="15.75" thickBot="1">
+    <row r="509" spans="1:31" ht="15" thickBot="1">
       <c r="A509" s="38"/>
       <c r="B509" s="35"/>
       <c r="C509" s="35"/>
@@ -20103,7 +20110,7 @@
       <c r="AD509" s="13"/>
       <c r="AE509" s="13"/>
     </row>
-    <row r="510" spans="1:31" ht="15.75" thickBot="1">
+    <row r="510" spans="1:31" ht="15" thickBot="1">
       <c r="A510" s="39"/>
       <c r="B510" s="40"/>
       <c r="C510" s="40"/>
@@ -20136,7 +20143,7 @@
       <c r="AD510" s="13"/>
       <c r="AE510" s="13"/>
     </row>
-    <row r="511" spans="1:31" ht="15.75" thickBot="1">
+    <row r="511" spans="1:31" ht="15" thickBot="1">
       <c r="A511" s="38"/>
       <c r="B511" s="35"/>
       <c r="C511" s="35"/>
@@ -20169,7 +20176,7 @@
       <c r="AD511" s="13"/>
       <c r="AE511" s="13"/>
     </row>
-    <row r="512" spans="1:31" ht="15.75" thickBot="1">
+    <row r="512" spans="1:31" ht="15" thickBot="1">
       <c r="A512" s="39"/>
       <c r="B512" s="40"/>
       <c r="C512" s="40"/>
@@ -20202,7 +20209,7 @@
       <c r="AD512" s="13"/>
       <c r="AE512" s="13"/>
     </row>
-    <row r="513" spans="1:31" ht="15.75" thickBot="1">
+    <row r="513" spans="1:31" ht="15" thickBot="1">
       <c r="A513" s="38"/>
       <c r="B513" s="35"/>
       <c r="C513" s="35"/>
@@ -20235,7 +20242,7 @@
       <c r="AD513" s="13"/>
       <c r="AE513" s="13"/>
     </row>
-    <row r="514" spans="1:31" ht="15.75" thickBot="1">
+    <row r="514" spans="1:31" ht="15" thickBot="1">
       <c r="A514" s="39"/>
       <c r="B514" s="40"/>
       <c r="C514" s="40"/>
@@ -20268,7 +20275,7 @@
       <c r="AD514" s="13"/>
       <c r="AE514" s="13"/>
     </row>
-    <row r="515" spans="1:31" ht="15.75" thickBot="1">
+    <row r="515" spans="1:31" ht="15" thickBot="1">
       <c r="A515" s="38"/>
       <c r="B515" s="35"/>
       <c r="C515" s="35"/>
@@ -20301,7 +20308,7 @@
       <c r="AD515" s="13"/>
       <c r="AE515" s="13"/>
     </row>
-    <row r="516" spans="1:31" ht="15.75" thickBot="1">
+    <row r="516" spans="1:31" ht="15" thickBot="1">
       <c r="A516" s="39"/>
       <c r="B516" s="40"/>
       <c r="C516" s="40"/>
@@ -20334,7 +20341,7 @@
       <c r="AD516" s="13"/>
       <c r="AE516" s="13"/>
     </row>
-    <row r="517" spans="1:31" ht="15.75" thickBot="1">
+    <row r="517" spans="1:31" ht="15" thickBot="1">
       <c r="A517" s="38"/>
       <c r="B517" s="35"/>
       <c r="C517" s="35"/>
@@ -20367,7 +20374,7 @@
       <c r="AD517" s="13"/>
       <c r="AE517" s="13"/>
     </row>
-    <row r="518" spans="1:31" ht="15.75" thickBot="1">
+    <row r="518" spans="1:31" ht="15" thickBot="1">
       <c r="A518" s="39"/>
       <c r="B518" s="40"/>
       <c r="C518" s="40"/>
@@ -20400,7 +20407,7 @@
       <c r="AD518" s="13"/>
       <c r="AE518" s="13"/>
     </row>
-    <row r="519" spans="1:31" ht="15.75" thickBot="1">
+    <row r="519" spans="1:31" ht="15" thickBot="1">
       <c r="A519" s="38"/>
       <c r="B519" s="35"/>
       <c r="C519" s="35"/>
@@ -20433,7 +20440,7 @@
       <c r="AD519" s="13"/>
       <c r="AE519" s="13"/>
     </row>
-    <row r="520" spans="1:31" ht="15.75" thickBot="1">
+    <row r="520" spans="1:31" ht="15" thickBot="1">
       <c r="A520" s="39"/>
       <c r="B520" s="40"/>
       <c r="C520" s="40"/>
@@ -20466,7 +20473,7 @@
       <c r="AD520" s="13"/>
       <c r="AE520" s="13"/>
     </row>
-    <row r="521" spans="1:31" ht="15.75" thickBot="1">
+    <row r="521" spans="1:31" ht="15" thickBot="1">
       <c r="A521" s="38"/>
       <c r="B521" s="35"/>
       <c r="C521" s="35"/>
@@ -20499,7 +20506,7 @@
       <c r="AD521" s="13"/>
       <c r="AE521" s="13"/>
     </row>
-    <row r="522" spans="1:31" ht="15.75" thickBot="1">
+    <row r="522" spans="1:31" ht="15" thickBot="1">
       <c r="A522" s="39"/>
       <c r="B522" s="40"/>
       <c r="C522" s="40"/>
@@ -20532,7 +20539,7 @@
       <c r="AD522" s="13"/>
       <c r="AE522" s="13"/>
     </row>
-    <row r="523" spans="1:31" ht="15.75" thickBot="1">
+    <row r="523" spans="1:31" ht="15" thickBot="1">
       <c r="A523" s="38"/>
       <c r="B523" s="35"/>
       <c r="C523" s="35"/>
@@ -20565,7 +20572,7 @@
       <c r="AD523" s="13"/>
       <c r="AE523" s="13"/>
     </row>
-    <row r="524" spans="1:31" ht="15.75" thickBot="1">
+    <row r="524" spans="1:31" ht="15" thickBot="1">
       <c r="A524" s="39"/>
       <c r="B524" s="40"/>
       <c r="C524" s="40"/>
@@ -20598,7 +20605,7 @@
       <c r="AD524" s="13"/>
       <c r="AE524" s="13"/>
     </row>
-    <row r="525" spans="1:31" ht="15.75" thickBot="1">
+    <row r="525" spans="1:31" ht="15" thickBot="1">
       <c r="A525" s="38"/>
       <c r="B525" s="35"/>
       <c r="C525" s="35"/>
@@ -20631,7 +20638,7 @@
       <c r="AD525" s="13"/>
       <c r="AE525" s="13"/>
     </row>
-    <row r="526" spans="1:31" ht="15.75" thickBot="1">
+    <row r="526" spans="1:31" ht="15" thickBot="1">
       <c r="A526" s="39"/>
       <c r="B526" s="40"/>
       <c r="C526" s="40"/>
@@ -20664,7 +20671,7 @@
       <c r="AD526" s="13"/>
       <c r="AE526" s="13"/>
     </row>
-    <row r="527" spans="1:31" ht="15.75" thickBot="1">
+    <row r="527" spans="1:31" ht="15" thickBot="1">
       <c r="A527" s="38"/>
       <c r="B527" s="35"/>
       <c r="C527" s="35"/>
@@ -20697,7 +20704,7 @@
       <c r="AD527" s="13"/>
       <c r="AE527" s="13"/>
     </row>
-    <row r="528" spans="1:31" ht="15.75" thickBot="1">
+    <row r="528" spans="1:31" ht="15" thickBot="1">
       <c r="A528" s="39"/>
       <c r="B528" s="40"/>
       <c r="C528" s="40"/>
@@ -20730,7 +20737,7 @@
       <c r="AD528" s="13"/>
       <c r="AE528" s="13"/>
     </row>
-    <row r="529" spans="1:31" ht="15.75" thickBot="1">
+    <row r="529" spans="1:31" ht="15" thickBot="1">
       <c r="A529" s="38"/>
       <c r="B529" s="35"/>
       <c r="C529" s="35"/>
@@ -20763,7 +20770,7 @@
       <c r="AD529" s="13"/>
       <c r="AE529" s="13"/>
     </row>
-    <row r="530" spans="1:31" ht="15.75" thickBot="1">
+    <row r="530" spans="1:31" ht="15" thickBot="1">
       <c r="A530" s="39"/>
       <c r="B530" s="40"/>
       <c r="C530" s="40"/>
@@ -20796,7 +20803,7 @@
       <c r="AD530" s="13"/>
       <c r="AE530" s="13"/>
     </row>
-    <row r="531" spans="1:31" ht="15.75" thickBot="1">
+    <row r="531" spans="1:31" ht="15" thickBot="1">
       <c r="A531" s="38"/>
       <c r="B531" s="35"/>
       <c r="C531" s="35"/>
@@ -20829,7 +20836,7 @@
       <c r="AD531" s="13"/>
       <c r="AE531" s="13"/>
     </row>
-    <row r="532" spans="1:31" ht="15.75" thickBot="1">
+    <row r="532" spans="1:31" ht="15" thickBot="1">
       <c r="A532" s="39"/>
       <c r="B532" s="40"/>
       <c r="C532" s="40"/>
@@ -20862,7 +20869,7 @@
       <c r="AD532" s="13"/>
       <c r="AE532" s="13"/>
     </row>
-    <row r="533" spans="1:31" ht="15.75" thickBot="1">
+    <row r="533" spans="1:31" ht="15" thickBot="1">
       <c r="A533" s="38"/>
       <c r="B533" s="35"/>
       <c r="C533" s="35"/>
@@ -20895,7 +20902,7 @@
       <c r="AD533" s="13"/>
       <c r="AE533" s="13"/>
     </row>
-    <row r="534" spans="1:31" ht="15.75" thickBot="1">
+    <row r="534" spans="1:31" ht="15" thickBot="1">
       <c r="A534" s="39"/>
       <c r="B534" s="40"/>
       <c r="C534" s="40"/>
@@ -20928,7 +20935,7 @@
       <c r="AD534" s="13"/>
       <c r="AE534" s="13"/>
     </row>
-    <row r="535" spans="1:31" ht="15.75" thickBot="1">
+    <row r="535" spans="1:31" ht="15" thickBot="1">
       <c r="A535" s="38"/>
       <c r="B535" s="35"/>
       <c r="C535" s="35"/>
@@ -20961,7 +20968,7 @@
       <c r="AD535" s="13"/>
       <c r="AE535" s="13"/>
     </row>
-    <row r="536" spans="1:31" ht="15.75" thickBot="1">
+    <row r="536" spans="1:31" ht="15" thickBot="1">
       <c r="A536" s="39"/>
       <c r="B536" s="40"/>
       <c r="C536" s="40"/>
@@ -20994,7 +21001,7 @@
       <c r="AD536" s="13"/>
       <c r="AE536" s="13"/>
     </row>
-    <row r="537" spans="1:31" ht="15.75" thickBot="1">
+    <row r="537" spans="1:31" ht="15" thickBot="1">
       <c r="A537" s="38"/>
       <c r="B537" s="35"/>
       <c r="C537" s="35"/>
@@ -21027,7 +21034,7 @@
       <c r="AD537" s="13"/>
       <c r="AE537" s="13"/>
     </row>
-    <row r="538" spans="1:31" ht="15.75" thickBot="1">
+    <row r="538" spans="1:31" ht="15" thickBot="1">
       <c r="A538" s="39"/>
       <c r="B538" s="40"/>
       <c r="C538" s="40"/>
@@ -21060,7 +21067,7 @@
       <c r="AD538" s="13"/>
       <c r="AE538" s="13"/>
     </row>
-    <row r="539" spans="1:31" ht="15.75" thickBot="1">
+    <row r="539" spans="1:31" ht="15" thickBot="1">
       <c r="A539" s="38"/>
       <c r="B539" s="35"/>
       <c r="C539" s="35"/>
@@ -21093,7 +21100,7 @@
       <c r="AD539" s="13"/>
       <c r="AE539" s="13"/>
     </row>
-    <row r="540" spans="1:31" ht="15.75" thickBot="1">
+    <row r="540" spans="1:31" ht="15" thickBot="1">
       <c r="A540" s="39"/>
       <c r="B540" s="40"/>
       <c r="C540" s="40"/>
@@ -21126,7 +21133,7 @@
       <c r="AD540" s="13"/>
       <c r="AE540" s="13"/>
     </row>
-    <row r="541" spans="1:31" ht="15.75" thickBot="1">
+    <row r="541" spans="1:31" ht="15" thickBot="1">
       <c r="A541" s="38"/>
       <c r="B541" s="35"/>
       <c r="C541" s="35"/>
@@ -21159,7 +21166,7 @@
       <c r="AD541" s="13"/>
       <c r="AE541" s="13"/>
     </row>
-    <row r="542" spans="1:31" ht="15.75" thickBot="1">
+    <row r="542" spans="1:31" ht="15" thickBot="1">
       <c r="A542" s="39"/>
       <c r="B542" s="40"/>
       <c r="C542" s="40"/>
@@ -21192,7 +21199,7 @@
       <c r="AD542" s="13"/>
       <c r="AE542" s="13"/>
     </row>
-    <row r="543" spans="1:31" ht="15.75" thickBot="1">
+    <row r="543" spans="1:31" ht="15" thickBot="1">
       <c r="A543" s="38"/>
       <c r="B543" s="35"/>
       <c r="C543" s="35"/>
@@ -21225,7 +21232,7 @@
       <c r="AD543" s="13"/>
       <c r="AE543" s="13"/>
     </row>
-    <row r="544" spans="1:31" ht="15.75" thickBot="1">
+    <row r="544" spans="1:31" ht="15" thickBot="1">
       <c r="A544" s="39"/>
       <c r="B544" s="40"/>
       <c r="C544" s="40"/>
@@ -21258,7 +21265,7 @@
       <c r="AD544" s="13"/>
       <c r="AE544" s="13"/>
     </row>
-    <row r="545" spans="1:31" ht="15.75" thickBot="1">
+    <row r="545" spans="1:31" ht="15" thickBot="1">
       <c r="A545" s="38"/>
       <c r="B545" s="35"/>
       <c r="C545" s="35"/>
@@ -21291,7 +21298,7 @@
       <c r="AD545" s="13"/>
       <c r="AE545" s="13"/>
     </row>
-    <row r="546" spans="1:31" ht="15.75" thickBot="1">
+    <row r="546" spans="1:31" ht="15" thickBot="1">
       <c r="A546" s="39"/>
       <c r="B546" s="40"/>
       <c r="C546" s="40"/>
@@ -21324,7 +21331,7 @@
       <c r="AD546" s="13"/>
       <c r="AE546" s="13"/>
     </row>
-    <row r="547" spans="1:31" ht="15.75" thickBot="1">
+    <row r="547" spans="1:31" ht="15" thickBot="1">
       <c r="A547" s="38"/>
       <c r="B547" s="35"/>
       <c r="C547" s="35"/>
@@ -21357,7 +21364,7 @@
       <c r="AD547" s="13"/>
       <c r="AE547" s="13"/>
     </row>
-    <row r="548" spans="1:31" ht="15.75" thickBot="1">
+    <row r="548" spans="1:31" ht="15" thickBot="1">
       <c r="A548" s="39"/>
       <c r="B548" s="40"/>
       <c r="C548" s="40"/>
@@ -21390,7 +21397,7 @@
       <c r="AD548" s="13"/>
       <c r="AE548" s="13"/>
     </row>
-    <row r="549" spans="1:31" ht="15.75" thickBot="1">
+    <row r="549" spans="1:31" ht="15" thickBot="1">
       <c r="A549" s="38"/>
       <c r="B549" s="35"/>
       <c r="C549" s="35"/>
@@ -21423,7 +21430,7 @@
       <c r="AD549" s="13"/>
       <c r="AE549" s="13"/>
     </row>
-    <row r="550" spans="1:31" ht="15.75" thickBot="1">
+    <row r="550" spans="1:31" ht="15" thickBot="1">
       <c r="A550" s="39"/>
       <c r="B550" s="40"/>
       <c r="C550" s="40"/>
@@ -21456,7 +21463,7 @@
       <c r="AD550" s="13"/>
       <c r="AE550" s="13"/>
     </row>
-    <row r="551" spans="1:31" ht="15.75" thickBot="1">
+    <row r="551" spans="1:31" ht="15" thickBot="1">
       <c r="A551" s="38"/>
       <c r="B551" s="35"/>
       <c r="C551" s="35"/>
@@ -21489,7 +21496,7 @@
       <c r="AD551" s="13"/>
       <c r="AE551" s="13"/>
     </row>
-    <row r="552" spans="1:31" ht="15.75" thickBot="1">
+    <row r="552" spans="1:31" ht="15" thickBot="1">
       <c r="A552" s="39"/>
       <c r="B552" s="40"/>
       <c r="C552" s="40"/>
@@ -21522,7 +21529,7 @@
       <c r="AD552" s="13"/>
       <c r="AE552" s="13"/>
     </row>
-    <row r="553" spans="1:31" ht="15.75" thickBot="1">
+    <row r="553" spans="1:31" ht="15" thickBot="1">
       <c r="A553" s="38"/>
       <c r="B553" s="35"/>
       <c r="C553" s="35"/>
@@ -21555,7 +21562,7 @@
       <c r="AD553" s="13"/>
       <c r="AE553" s="13"/>
     </row>
-    <row r="554" spans="1:31" ht="15.75" thickBot="1">
+    <row r="554" spans="1:31" ht="15" thickBot="1">
       <c r="A554" s="39"/>
       <c r="B554" s="40"/>
       <c r="C554" s="40"/>
@@ -21588,7 +21595,7 @@
       <c r="AD554" s="13"/>
       <c r="AE554" s="13"/>
     </row>
-    <row r="555" spans="1:31" ht="15.75" thickBot="1">
+    <row r="555" spans="1:31" ht="15" thickBot="1">
       <c r="A555" s="38"/>
       <c r="B555" s="35"/>
       <c r="C555" s="35"/>
@@ -21621,7 +21628,7 @@
       <c r="AD555" s="13"/>
       <c r="AE555" s="13"/>
     </row>
-    <row r="556" spans="1:31" ht="15.75" thickBot="1">
+    <row r="556" spans="1:31" ht="15" thickBot="1">
       <c r="A556" s="39"/>
       <c r="B556" s="40"/>
       <c r="C556" s="40"/>
@@ -21654,7 +21661,7 @@
       <c r="AD556" s="13"/>
       <c r="AE556" s="13"/>
     </row>
-    <row r="557" spans="1:31" ht="15.75" thickBot="1">
+    <row r="557" spans="1:31" ht="15" thickBot="1">
       <c r="A557" s="38"/>
       <c r="B557" s="35"/>
       <c r="C557" s="35"/>
@@ -21687,7 +21694,7 @@
       <c r="AD557" s="13"/>
       <c r="AE557" s="13"/>
     </row>
-    <row r="558" spans="1:31" ht="15.75" thickBot="1">
+    <row r="558" spans="1:31" ht="15" thickBot="1">
       <c r="A558" s="39"/>
       <c r="B558" s="40"/>
       <c r="C558" s="40"/>
@@ -21720,7 +21727,7 @@
       <c r="AD558" s="13"/>
       <c r="AE558" s="13"/>
     </row>
-    <row r="559" spans="1:31" ht="15.75" thickBot="1">
+    <row r="559" spans="1:31" ht="15" thickBot="1">
       <c r="A559" s="38"/>
       <c r="B559" s="35"/>
       <c r="C559" s="35"/>
@@ -21753,7 +21760,7 @@
       <c r="AD559" s="13"/>
       <c r="AE559" s="13"/>
     </row>
-    <row r="560" spans="1:31" ht="15.75" thickBot="1">
+    <row r="560" spans="1:31" ht="15" thickBot="1">
       <c r="A560" s="39"/>
       <c r="B560" s="40"/>
       <c r="C560" s="40"/>
@@ -21786,7 +21793,7 @@
       <c r="AD560" s="13"/>
       <c r="AE560" s="13"/>
     </row>
-    <row r="561" spans="1:31" ht="15.75" thickBot="1">
+    <row r="561" spans="1:31" ht="15" thickBot="1">
       <c r="A561" s="38"/>
       <c r="B561" s="35"/>
       <c r="C561" s="35"/>
@@ -21819,7 +21826,7 @@
       <c r="AD561" s="13"/>
       <c r="AE561" s="13"/>
     </row>
-    <row r="562" spans="1:31" ht="15.75" thickBot="1">
+    <row r="562" spans="1:31" ht="15" thickBot="1">
       <c r="A562" s="39"/>
       <c r="B562" s="40"/>
       <c r="C562" s="40"/>
@@ -21852,7 +21859,7 @@
       <c r="AD562" s="13"/>
       <c r="AE562" s="13"/>
     </row>
-    <row r="563" spans="1:31" ht="15.75" thickBot="1">
+    <row r="563" spans="1:31" ht="15" thickBot="1">
       <c r="A563" s="38"/>
       <c r="B563" s="35"/>
       <c r="C563" s="35"/>
@@ -21885,7 +21892,7 @@
       <c r="AD563" s="13"/>
       <c r="AE563" s="13"/>
     </row>
-    <row r="564" spans="1:31" ht="15.75" thickBot="1">
+    <row r="564" spans="1:31" ht="15" thickBot="1">
       <c r="A564" s="39"/>
       <c r="B564" s="40"/>
       <c r="C564" s="40"/>
@@ -21918,7 +21925,7 @@
       <c r="AD564" s="13"/>
       <c r="AE564" s="13"/>
     </row>
-    <row r="565" spans="1:31" ht="15.75" thickBot="1">
+    <row r="565" spans="1:31" ht="15" thickBot="1">
       <c r="A565" s="38"/>
       <c r="B565" s="35"/>
       <c r="C565" s="35"/>
@@ -21951,7 +21958,7 @@
       <c r="AD565" s="13"/>
       <c r="AE565" s="13"/>
     </row>
-    <row r="566" spans="1:31" ht="15.75" thickBot="1">
+    <row r="566" spans="1:31" ht="15" thickBot="1">
       <c r="A566" s="39"/>
       <c r="B566" s="40"/>
       <c r="C566" s="40"/>
@@ -21984,7 +21991,7 @@
       <c r="AD566" s="13"/>
       <c r="AE566" s="13"/>
     </row>
-    <row r="567" spans="1:31" ht="15.75" thickBot="1">
+    <row r="567" spans="1:31" ht="15" thickBot="1">
       <c r="A567" s="38"/>
       <c r="B567" s="35"/>
       <c r="C567" s="35"/>
@@ -22017,7 +22024,7 @@
       <c r="AD567" s="13"/>
       <c r="AE567" s="13"/>
     </row>
-    <row r="568" spans="1:31" ht="15.75" thickBot="1">
+    <row r="568" spans="1:31" ht="15" thickBot="1">
       <c r="A568" s="39"/>
       <c r="B568" s="40"/>
       <c r="C568" s="40"/>
@@ -22050,7 +22057,7 @@
       <c r="AD568" s="13"/>
       <c r="AE568" s="13"/>
     </row>
-    <row r="569" spans="1:31" ht="15.75" thickBot="1">
+    <row r="569" spans="1:31" ht="15" thickBot="1">
       <c r="A569" s="38"/>
       <c r="B569" s="35"/>
       <c r="C569" s="35"/>
@@ -22083,7 +22090,7 @@
       <c r="AD569" s="13"/>
       <c r="AE569" s="13"/>
     </row>
-    <row r="570" spans="1:31" ht="15.75" thickBot="1">
+    <row r="570" spans="1:31" ht="15" thickBot="1">
       <c r="A570" s="39"/>
       <c r="B570" s="40"/>
       <c r="C570" s="40"/>
@@ -22116,7 +22123,7 @@
       <c r="AD570" s="13"/>
       <c r="AE570" s="13"/>
     </row>
-    <row r="571" spans="1:31" ht="15.75" thickBot="1">
+    <row r="571" spans="1:31" ht="15" thickBot="1">
       <c r="A571" s="38"/>
       <c r="B571" s="35"/>
       <c r="C571" s="35"/>
@@ -22149,7 +22156,7 @@
       <c r="AD571" s="13"/>
       <c r="AE571" s="13"/>
     </row>
-    <row r="572" spans="1:31" ht="15.75" thickBot="1">
+    <row r="572" spans="1:31" ht="15" thickBot="1">
       <c r="A572" s="39"/>
       <c r="B572" s="40"/>
       <c r="C572" s="40"/>
@@ -22182,7 +22189,7 @@
       <c r="AD572" s="13"/>
       <c r="AE572" s="13"/>
     </row>
-    <row r="573" spans="1:31" ht="15.75" thickBot="1">
+    <row r="573" spans="1:31" ht="15" thickBot="1">
       <c r="A573" s="38"/>
       <c r="B573" s="35"/>
       <c r="C573" s="35"/>
@@ -22215,7 +22222,7 @@
       <c r="AD573" s="13"/>
       <c r="AE573" s="13"/>
     </row>
-    <row r="574" spans="1:31" ht="15.75" thickBot="1">
+    <row r="574" spans="1:31" ht="15" thickBot="1">
       <c r="A574" s="39"/>
       <c r="B574" s="40"/>
       <c r="C574" s="40"/>
@@ -22248,7 +22255,7 @@
       <c r="AD574" s="13"/>
       <c r="AE574" s="13"/>
     </row>
-    <row r="575" spans="1:31" ht="15.75" thickBot="1">
+    <row r="575" spans="1:31" ht="15" thickBot="1">
       <c r="A575" s="38"/>
       <c r="B575" s="35"/>
       <c r="C575" s="35"/>
@@ -22281,7 +22288,7 @@
       <c r="AD575" s="13"/>
       <c r="AE575" s="13"/>
     </row>
-    <row r="576" spans="1:31" ht="15.75" thickBot="1">
+    <row r="576" spans="1:31" ht="15" thickBot="1">
       <c r="A576" s="39"/>
       <c r="B576" s="40"/>
       <c r="C576" s="40"/>
@@ -22314,7 +22321,7 @@
       <c r="AD576" s="13"/>
       <c r="AE576" s="13"/>
     </row>
-    <row r="577" spans="1:31" ht="15.75" thickBot="1">
+    <row r="577" spans="1:31" ht="15" thickBot="1">
       <c r="A577" s="38"/>
       <c r="B577" s="35"/>
       <c r="C577" s="35"/>
@@ -22347,7 +22354,7 @@
       <c r="AD577" s="13"/>
       <c r="AE577" s="13"/>
     </row>
-    <row r="578" spans="1:31" ht="15.75" thickBot="1">
+    <row r="578" spans="1:31" ht="15" thickBot="1">
       <c r="A578" s="39"/>
       <c r="B578" s="40"/>
       <c r="C578" s="40"/>
@@ -22380,7 +22387,7 @@
       <c r="AD578" s="13"/>
       <c r="AE578" s="13"/>
     </row>
-    <row r="579" spans="1:31" ht="15.75" thickBot="1">
+    <row r="579" spans="1:31" ht="15" thickBot="1">
       <c r="A579" s="38"/>
       <c r="B579" s="35"/>
       <c r="C579" s="35"/>
@@ -22413,7 +22420,7 @@
       <c r="AD579" s="13"/>
       <c r="AE579" s="13"/>
     </row>
-    <row r="580" spans="1:31" ht="15.75" thickBot="1">
+    <row r="580" spans="1:31" ht="15" thickBot="1">
       <c r="A580" s="39"/>
       <c r="B580" s="40"/>
       <c r="C580" s="40"/>
@@ -22446,7 +22453,7 @@
       <c r="AD580" s="13"/>
       <c r="AE580" s="13"/>
     </row>
-    <row r="581" spans="1:31" ht="15.75" thickBot="1">
+    <row r="581" spans="1:31" ht="15" thickBot="1">
       <c r="A581" s="38"/>
       <c r="B581" s="35"/>
       <c r="C581" s="35"/>
@@ -22479,7 +22486,7 @@
       <c r="AD581" s="13"/>
       <c r="AE581" s="13"/>
     </row>
-    <row r="582" spans="1:31" ht="15.75" thickBot="1">
+    <row r="582" spans="1:31" ht="15" thickBot="1">
       <c r="A582" s="39"/>
       <c r="B582" s="40"/>
       <c r="C582" s="40"/>
@@ -22512,7 +22519,7 @@
       <c r="AD582" s="13"/>
       <c r="AE582" s="13"/>
     </row>
-    <row r="583" spans="1:31" ht="15.75" thickBot="1">
+    <row r="583" spans="1:31" ht="15" thickBot="1">
       <c r="A583" s="38"/>
       <c r="B583" s="35"/>
       <c r="C583" s="35"/>
@@ -22545,7 +22552,7 @@
       <c r="AD583" s="13"/>
       <c r="AE583" s="13"/>
     </row>
-    <row r="584" spans="1:31" ht="15.75" thickBot="1">
+    <row r="584" spans="1:31" ht="15" thickBot="1">
       <c r="A584" s="39"/>
       <c r="B584" s="40"/>
       <c r="C584" s="40"/>
@@ -22578,7 +22585,7 @@
       <c r="AD584" s="13"/>
       <c r="AE584" s="13"/>
     </row>
-    <row r="585" spans="1:31" ht="15.75" thickBot="1">
+    <row r="585" spans="1:31" ht="15" thickBot="1">
       <c r="A585" s="38"/>
       <c r="B585" s="35"/>
       <c r="C585" s="35"/>
@@ -22611,7 +22618,7 @@
       <c r="AD585" s="13"/>
       <c r="AE585" s="13"/>
     </row>
-    <row r="586" spans="1:31" ht="15.75" thickBot="1">
+    <row r="586" spans="1:31" ht="15" thickBot="1">
       <c r="A586" s="39"/>
       <c r="B586" s="40"/>
       <c r="C586" s="40"/>
@@ -22644,7 +22651,7 @@
       <c r="AD586" s="13"/>
       <c r="AE586" s="13"/>
     </row>
-    <row r="587" spans="1:31" ht="15.75" thickBot="1">
+    <row r="587" spans="1:31" ht="15" thickBot="1">
       <c r="A587" s="38"/>
       <c r="B587" s="35"/>
       <c r="C587" s="35"/>
@@ -22677,7 +22684,7 @@
       <c r="AD587" s="13"/>
       <c r="AE587" s="13"/>
     </row>
-    <row r="588" spans="1:31" ht="15.75" thickBot="1">
+    <row r="588" spans="1:31" ht="15" thickBot="1">
       <c r="A588" s="39"/>
       <c r="B588" s="40"/>
       <c r="C588" s="40"/>
@@ -22710,7 +22717,7 @@
       <c r="AD588" s="13"/>
       <c r="AE588" s="13"/>
     </row>
-    <row r="589" spans="1:31" ht="15.75" thickBot="1">
+    <row r="589" spans="1:31" ht="15" thickBot="1">
       <c r="A589" s="38"/>
       <c r="B589" s="35"/>
       <c r="C589" s="35"/>
@@ -22743,7 +22750,7 @@
       <c r="AD589" s="13"/>
       <c r="AE589" s="13"/>
     </row>
-    <row r="590" spans="1:31" ht="15.75" thickBot="1">
+    <row r="590" spans="1:31" ht="15" thickBot="1">
       <c r="A590" s="39"/>
       <c r="B590" s="40"/>
       <c r="C590" s="40"/>
@@ -22776,7 +22783,7 @@
       <c r="AD590" s="13"/>
       <c r="AE590" s="13"/>
     </row>
-    <row r="591" spans="1:31" ht="15.75" thickBot="1">
+    <row r="591" spans="1:31" ht="15" thickBot="1">
       <c r="A591" s="38"/>
       <c r="B591" s="35"/>
       <c r="C591" s="35"/>
@@ -22809,7 +22816,7 @@
       <c r="AD591" s="13"/>
       <c r="AE591" s="13"/>
     </row>
-    <row r="592" spans="1:31" ht="15.75" thickBot="1">
+    <row r="592" spans="1:31" ht="15" thickBot="1">
       <c r="A592" s="39"/>
       <c r="B592" s="40"/>
       <c r="C592" s="40"/>
@@ -22842,7 +22849,7 @@
       <c r="AD592" s="13"/>
       <c r="AE592" s="13"/>
     </row>
-    <row r="593" spans="1:31" ht="15.75" thickBot="1">
+    <row r="593" spans="1:31" ht="15" thickBot="1">
       <c r="A593" s="38"/>
       <c r="B593" s="35"/>
       <c r="C593" s="35"/>
@@ -22875,7 +22882,7 @@
       <c r="AD593" s="13"/>
       <c r="AE593" s="13"/>
     </row>
-    <row r="594" spans="1:31" ht="15.75" thickBot="1">
+    <row r="594" spans="1:31" ht="15" thickBot="1">
       <c r="A594" s="39"/>
       <c r="B594" s="40"/>
       <c r="C594" s="40"/>
@@ -22908,7 +22915,7 @@
       <c r="AD594" s="13"/>
       <c r="AE594" s="13"/>
     </row>
-    <row r="595" spans="1:31" ht="15.75" thickBot="1">
+    <row r="595" spans="1:31" ht="15" thickBot="1">
       <c r="A595" s="38"/>
       <c r="B595" s="35"/>
       <c r="C595" s="35"/>
@@ -22941,7 +22948,7 @@
       <c r="AD595" s="13"/>
       <c r="AE595" s="13"/>
     </row>
-    <row r="596" spans="1:31" ht="15.75" thickBot="1">
+    <row r="596" spans="1:31" ht="15" thickBot="1">
       <c r="A596" s="39"/>
       <c r="B596" s="40"/>
       <c r="C596" s="40"/>
@@ -22974,7 +22981,7 @@
       <c r="AD596" s="13"/>
       <c r="AE596" s="13"/>
     </row>
-    <row r="597" spans="1:31" ht="15.75" thickBot="1">
+    <row r="597" spans="1:31" ht="15" thickBot="1">
       <c r="A597" s="38"/>
       <c r="B597" s="35"/>
       <c r="C597" s="35"/>
@@ -23007,7 +23014,7 @@
       <c r="AD597" s="13"/>
       <c r="AE597" s="13"/>
     </row>
-    <row r="598" spans="1:31" ht="15.75" thickBot="1">
+    <row r="598" spans="1:31" ht="15" thickBot="1">
       <c r="A598" s="39"/>
       <c r="B598" s="40"/>
       <c r="C598" s="40"/>
@@ -23040,7 +23047,7 @@
       <c r="AD598" s="13"/>
       <c r="AE598" s="13"/>
     </row>
-    <row r="599" spans="1:31" ht="15.75" thickBot="1">
+    <row r="599" spans="1:31" ht="15" thickBot="1">
       <c r="A599" s="38"/>
       <c r="B599" s="35"/>
       <c r="C599" s="35"/>
@@ -23073,7 +23080,7 @@
       <c r="AD599" s="13"/>
       <c r="AE599" s="13"/>
     </row>
-    <row r="600" spans="1:31" ht="15.75" thickBot="1">
+    <row r="600" spans="1:31" ht="15" thickBot="1">
       <c r="A600" s="39"/>
       <c r="B600" s="40"/>
       <c r="C600" s="40"/>
@@ -23106,7 +23113,7 @@
       <c r="AD600" s="13"/>
       <c r="AE600" s="13"/>
     </row>
-    <row r="601" spans="1:31" ht="15.75" thickBot="1">
+    <row r="601" spans="1:31" ht="15" thickBot="1">
       <c r="A601" s="38"/>
       <c r="B601" s="35"/>
       <c r="C601" s="35"/>
@@ -23139,7 +23146,7 @@
       <c r="AD601" s="13"/>
       <c r="AE601" s="13"/>
     </row>
-    <row r="602" spans="1:31" ht="15.75" thickBot="1">
+    <row r="602" spans="1:31" ht="15" thickBot="1">
       <c r="A602" s="39"/>
       <c r="B602" s="40"/>
       <c r="C602" s="40"/>
@@ -23172,7 +23179,7 @@
       <c r="AD602" s="13"/>
       <c r="AE602" s="13"/>
     </row>
-    <row r="603" spans="1:31" ht="15.75" thickBot="1">
+    <row r="603" spans="1:31" ht="15" thickBot="1">
       <c r="A603" s="38"/>
       <c r="B603" s="35"/>
       <c r="C603" s="35"/>
@@ -23205,7 +23212,7 @@
       <c r="AD603" s="13"/>
       <c r="AE603" s="13"/>
     </row>
-    <row r="604" spans="1:31" ht="15.75" thickBot="1">
+    <row r="604" spans="1:31" ht="15" thickBot="1">
       <c r="A604" s="39"/>
       <c r="B604" s="40"/>
       <c r="C604" s="40"/>
@@ -23238,7 +23245,7 @@
       <c r="AD604" s="13"/>
       <c r="AE604" s="13"/>
     </row>
-    <row r="605" spans="1:31" ht="15.75" thickBot="1">
+    <row r="605" spans="1:31" ht="15" thickBot="1">
       <c r="A605" s="38"/>
       <c r="B605" s="35"/>
       <c r="C605" s="35"/>
@@ -23271,7 +23278,7 @@
       <c r="AD605" s="13"/>
       <c r="AE605" s="13"/>
     </row>
-    <row r="606" spans="1:31" ht="15.75" thickBot="1">
+    <row r="606" spans="1:31" ht="15" thickBot="1">
       <c r="A606" s="39"/>
       <c r="B606" s="40"/>
       <c r="C606" s="40"/>
@@ -23304,7 +23311,7 @@
       <c r="AD606" s="13"/>
       <c r="AE606" s="13"/>
     </row>
-    <row r="607" spans="1:31" ht="15.75" thickBot="1">
+    <row r="607" spans="1:31" ht="15" thickBot="1">
       <c r="A607" s="38"/>
       <c r="B607" s="35"/>
       <c r="C607" s="35"/>
@@ -23337,7 +23344,7 @@
       <c r="AD607" s="13"/>
       <c r="AE607" s="13"/>
     </row>
-    <row r="608" spans="1:31" ht="15.75" thickBot="1">
+    <row r="608" spans="1:31" ht="15" thickBot="1">
       <c r="A608" s="39"/>
       <c r="B608" s="40"/>
       <c r="C608" s="40"/>
@@ -23370,7 +23377,7 @@
       <c r="AD608" s="13"/>
       <c r="AE608" s="13"/>
     </row>
-    <row r="609" spans="1:31" ht="15.75" thickBot="1">
+    <row r="609" spans="1:31" ht="15" thickBot="1">
       <c r="A609" s="38"/>
       <c r="B609" s="35"/>
       <c r="C609" s="35"/>
@@ -23403,7 +23410,7 @@
       <c r="AD609" s="13"/>
       <c r="AE609" s="13"/>
     </row>
-    <row r="610" spans="1:31" ht="15.75" thickBot="1">
+    <row r="610" spans="1:31" ht="15" thickBot="1">
       <c r="A610" s="39"/>
       <c r="B610" s="40"/>
       <c r="C610" s="40"/>
@@ -23436,7 +23443,7 @@
       <c r="AD610" s="13"/>
       <c r="AE610" s="13"/>
     </row>
-    <row r="611" spans="1:31" ht="15.75" thickBot="1">
+    <row r="611" spans="1:31" ht="15" thickBot="1">
       <c r="A611" s="38"/>
       <c r="B611" s="35"/>
       <c r="C611" s="35"/>
@@ -23469,7 +23476,7 @@
       <c r="AD611" s="13"/>
       <c r="AE611" s="13"/>
     </row>
-    <row r="612" spans="1:31" ht="15.75" thickBot="1">
+    <row r="612" spans="1:31" ht="15" thickBot="1">
       <c r="A612" s="39"/>
       <c r="B612" s="40"/>
       <c r="C612" s="40"/>
@@ -23502,7 +23509,7 @@
       <c r="AD612" s="13"/>
       <c r="AE612" s="13"/>
     </row>
-    <row r="613" spans="1:31" ht="15.75" thickBot="1">
+    <row r="613" spans="1:31" ht="15" thickBot="1">
       <c r="A613" s="38"/>
       <c r="B613" s="35"/>
       <c r="C613" s="35"/>
@@ -23535,7 +23542,7 @@
       <c r="AD613" s="13"/>
       <c r="AE613" s="13"/>
     </row>
-    <row r="614" spans="1:31" ht="15.75" thickBot="1">
+    <row r="614" spans="1:31" ht="15" thickBot="1">
       <c r="A614" s="39"/>
       <c r="B614" s="40"/>
       <c r="C614" s="40"/>
@@ -23568,7 +23575,7 @@
       <c r="AD614" s="13"/>
       <c r="AE614" s="13"/>
     </row>
-    <row r="615" spans="1:31" ht="15.75" thickBot="1">
+    <row r="615" spans="1:31" ht="15" thickBot="1">
       <c r="A615" s="38"/>
       <c r="B615" s="35"/>
       <c r="C615" s="35"/>
@@ -23601,7 +23608,7 @@
       <c r="AD615" s="13"/>
       <c r="AE615" s="13"/>
     </row>
-    <row r="616" spans="1:31" ht="15.75" thickBot="1">
+    <row r="616" spans="1:31" ht="15" thickBot="1">
       <c r="A616" s="39"/>
       <c r="B616" s="40"/>
       <c r="C616" s="40"/>
@@ -23634,7 +23641,7 @@
       <c r="AD616" s="13"/>
       <c r="AE616" s="13"/>
     </row>
-    <row r="617" spans="1:31" ht="15.75" thickBot="1">
+    <row r="617" spans="1:31" ht="15" thickBot="1">
       <c r="A617" s="38"/>
       <c r="B617" s="35"/>
       <c r="C617" s="35"/>
@@ -23667,7 +23674,7 @@
       <c r="AD617" s="13"/>
       <c r="AE617" s="13"/>
     </row>
-    <row r="618" spans="1:31" ht="15.75" thickBot="1">
+    <row r="618" spans="1:31" ht="15" thickBot="1">
       <c r="A618" s="39"/>
       <c r="B618" s="40"/>
       <c r="C618" s="40"/>
@@ -23700,7 +23707,7 @@
       <c r="AD618" s="13"/>
       <c r="AE618" s="13"/>
     </row>
-    <row r="619" spans="1:31" ht="15.75" thickBot="1">
+    <row r="619" spans="1:31" ht="15" thickBot="1">
       <c r="A619" s="38"/>
       <c r="B619" s="35"/>
       <c r="C619" s="35"/>
@@ -23733,7 +23740,7 @@
       <c r="AD619" s="13"/>
       <c r="AE619" s="13"/>
     </row>
-    <row r="620" spans="1:31" ht="15.75" thickBot="1">
+    <row r="620" spans="1:31" ht="15" thickBot="1">
       <c r="A620" s="39"/>
       <c r="B620" s="40"/>
       <c r="C620" s="40"/>
@@ -23766,7 +23773,7 @@
       <c r="AD620" s="13"/>
       <c r="AE620" s="13"/>
     </row>
-    <row r="621" spans="1:31" ht="15.75" thickBot="1">
+    <row r="621" spans="1:31" ht="15" thickBot="1">
       <c r="A621" s="38"/>
       <c r="B621" s="35"/>
       <c r="C621" s="35"/>
@@ -23799,7 +23806,7 @@
       <c r="AD621" s="13"/>
       <c r="AE621" s="13"/>
     </row>
-    <row r="622" spans="1:31" ht="15.75" thickBot="1">
+    <row r="622" spans="1:31" ht="15" thickBot="1">
       <c r="A622" s="39"/>
       <c r="B622" s="40"/>
       <c r="C622" s="40"/>
@@ -23832,7 +23839,7 @@
       <c r="AD622" s="13"/>
       <c r="AE622" s="13"/>
     </row>
-    <row r="623" spans="1:31" ht="15.75" thickBot="1">
+    <row r="623" spans="1:31" ht="15" thickBot="1">
       <c r="A623" s="38"/>
       <c r="B623" s="35"/>
       <c r="C623" s="35"/>
@@ -23865,7 +23872,7 @@
       <c r="AD623" s="13"/>
       <c r="AE623" s="13"/>
     </row>
-    <row r="624" spans="1:31" ht="15.75" thickBot="1">
+    <row r="624" spans="1:31" ht="15" thickBot="1">
       <c r="A624" s="39"/>
       <c r="B624" s="40"/>
       <c r="C624" s="40"/>
@@ -23898,7 +23905,7 @@
       <c r="AD624" s="13"/>
       <c r="AE624" s="13"/>
     </row>
-    <row r="625" spans="1:31" ht="15.75" thickBot="1">
+    <row r="625" spans="1:31" ht="15" thickBot="1">
       <c r="A625" s="38"/>
       <c r="B625" s="35"/>
       <c r="C625" s="35"/>
@@ -23931,7 +23938,7 @@
       <c r="AD625" s="13"/>
       <c r="AE625" s="13"/>
     </row>
-    <row r="626" spans="1:31" ht="15.75" thickBot="1">
+    <row r="626" spans="1:31" ht="15" thickBot="1">
       <c r="A626" s="39"/>
       <c r="B626" s="40"/>
       <c r="C626" s="40"/>
@@ -23964,7 +23971,7 @@
       <c r="AD626" s="13"/>
       <c r="AE626" s="13"/>
     </row>
-    <row r="627" spans="1:31" ht="15.75" thickBot="1">
+    <row r="627" spans="1:31" ht="15" thickBot="1">
       <c r="A627" s="38"/>
       <c r="B627" s="35"/>
       <c r="C627" s="35"/>
@@ -23997,7 +24004,7 @@
       <c r="AD627" s="13"/>
       <c r="AE627" s="13"/>
     </row>
-    <row r="628" spans="1:31" ht="15.75" thickBot="1">
+    <row r="628" spans="1:31" ht="15" thickBot="1">
       <c r="A628" s="39"/>
       <c r="B628" s="40"/>
       <c r="C628" s="40"/>
@@ -24030,7 +24037,7 @@
       <c r="AD628" s="13"/>
       <c r="AE628" s="13"/>
     </row>
-    <row r="629" spans="1:31" ht="15.75" thickBot="1">
+    <row r="629" spans="1:31" ht="15" thickBot="1">
       <c r="A629" s="38"/>
       <c r="B629" s="35"/>
       <c r="C629" s="35"/>
@@ -24063,7 +24070,7 @@
       <c r="AD629" s="13"/>
       <c r="AE629" s="13"/>
     </row>
-    <row r="630" spans="1:31" ht="15.75" thickBot="1">
+    <row r="630" spans="1:31" ht="15" thickBot="1">
       <c r="A630" s="39"/>
       <c r="B630" s="40"/>
       <c r="C630" s="40"/>
@@ -24096,7 +24103,7 @@
       <c r="AD630" s="13"/>
       <c r="AE630" s="13"/>
     </row>
-    <row r="631" spans="1:31" ht="15.75" thickBot="1">
+    <row r="631" spans="1:31" ht="15" thickBot="1">
       <c r="A631" s="38"/>
       <c r="B631" s="35"/>
       <c r="C631" s="35"/>
@@ -24129,7 +24136,7 @@
       <c r="AD631" s="13"/>
       <c r="AE631" s="13"/>
     </row>
-    <row r="632" spans="1:31" ht="15.75" thickBot="1">
+    <row r="632" spans="1:31" ht="15" thickBot="1">
       <c r="A632" s="39"/>
       <c r="B632" s="40"/>
       <c r="C632" s="40"/>
@@ -24162,7 +24169,7 @@
       <c r="AD632" s="13"/>
       <c r="AE632" s="13"/>
     </row>
-    <row r="633" spans="1:31" ht="15.75" thickBot="1">
+    <row r="633" spans="1:31" ht="15" thickBot="1">
       <c r="A633" s="38"/>
       <c r="B633" s="35"/>
       <c r="C633" s="35"/>
@@ -24195,7 +24202,7 @@
       <c r="AD633" s="13"/>
       <c r="AE633" s="13"/>
     </row>
-    <row r="634" spans="1:31" ht="15.75" thickBot="1">
+    <row r="634" spans="1:31" ht="15" thickBot="1">
       <c r="A634" s="39"/>
       <c r="B634" s="40"/>
       <c r="C634" s="40"/>
@@ -24228,7 +24235,7 @@
       <c r="AD634" s="13"/>
       <c r="AE634" s="13"/>
     </row>
-    <row r="635" spans="1:31" ht="15.75" thickBot="1">
+    <row r="635" spans="1:31" ht="15" thickBot="1">
       <c r="A635" s="38"/>
       <c r="B635" s="35"/>
       <c r="C635" s="35"/>
@@ -24261,7 +24268,7 @@
       <c r="AD635" s="13"/>
       <c r="AE635" s="13"/>
     </row>
-    <row r="636" spans="1:31" ht="15.75" thickBot="1">
+    <row r="636" spans="1:31" ht="15" thickBot="1">
       <c r="A636" s="39"/>
       <c r="B636" s="40"/>
       <c r="C636" s="40"/>
@@ -24294,7 +24301,7 @@
       <c r="AD636" s="13"/>
       <c r="AE636" s="13"/>
     </row>
-    <row r="637" spans="1:31" ht="15.75" thickBot="1">
+    <row r="637" spans="1:31" ht="15" thickBot="1">
       <c r="A637" s="38"/>
       <c r="B637" s="35"/>
       <c r="C637" s="35"/>
@@ -24327,7 +24334,7 @@
       <c r="AD637" s="13"/>
       <c r="AE637" s="13"/>
     </row>
-    <row r="638" spans="1:31" ht="15.75" thickBot="1">
+    <row r="638" spans="1:31" ht="15" thickBot="1">
       <c r="A638" s="39"/>
       <c r="B638" s="40"/>
       <c r="C638" s="40"/>
@@ -24360,7 +24367,7 @@
       <c r="AD638" s="13"/>
       <c r="AE638" s="13"/>
     </row>
-    <row r="639" spans="1:31" ht="15.75" thickBot="1">
+    <row r="639" spans="1:31" ht="15" thickBot="1">
       <c r="A639" s="38"/>
       <c r="B639" s="35"/>
       <c r="C639" s="35"/>
@@ -24393,7 +24400,7 @@
       <c r="AD639" s="13"/>
       <c r="AE639" s="13"/>
     </row>
-    <row r="640" spans="1:31" ht="15.75" thickBot="1">
+    <row r="640" spans="1:31" ht="15" thickBot="1">
       <c r="A640" s="39"/>
       <c r="B640" s="40"/>
       <c r="C640" s="40"/>
@@ -24426,7 +24433,7 @@
       <c r="AD640" s="13"/>
       <c r="AE640" s="13"/>
     </row>
-    <row r="641" spans="1:31" ht="15.75" thickBot="1">
+    <row r="641" spans="1:31" ht="15" thickBot="1">
       <c r="A641" s="38"/>
       <c r="B641" s="35"/>
       <c r="C641" s="35"/>
@@ -24459,7 +24466,7 @@
       <c r="AD641" s="13"/>
       <c r="AE641" s="13"/>
     </row>
-    <row r="642" spans="1:31" ht="15.75" thickBot="1">
+    <row r="642" spans="1:31" ht="15" thickBot="1">
       <c r="A642" s="39"/>
       <c r="B642" s="40"/>
       <c r="C642" s="40"/>
@@ -24492,7 +24499,7 @@
       <c r="AD642" s="13"/>
       <c r="AE642" s="13"/>
     </row>
-    <row r="643" spans="1:31" ht="15.75" thickBot="1">
+    <row r="643" spans="1:31" ht="15" thickBot="1">
       <c r="A643" s="38"/>
       <c r="B643" s="35"/>
       <c r="C643" s="35"/>
@@ -24525,7 +24532,7 @@
       <c r="AD643" s="13"/>
       <c r="AE643" s="13"/>
     </row>
-    <row r="644" spans="1:31" ht="15.75" thickBot="1">
+    <row r="644" spans="1:31" ht="15" thickBot="1">
       <c r="A644" s="39"/>
       <c r="B644" s="40"/>
       <c r="C644" s="40"/>
@@ -24558,7 +24565,7 @@
       <c r="AD644" s="13"/>
       <c r="AE644" s="13"/>
     </row>
-    <row r="645" spans="1:31" ht="15.75" thickBot="1">
+    <row r="645" spans="1:31" ht="15" thickBot="1">
       <c r="A645" s="38"/>
       <c r="B645" s="35"/>
       <c r="C645" s="35"/>
@@ -24591,7 +24598,7 @@
       <c r="AD645" s="13"/>
       <c r="AE645" s="13"/>
     </row>
-    <row r="646" spans="1:31" ht="15.75" thickBot="1">
+    <row r="646" spans="1:31" ht="15" thickBot="1">
       <c r="A646" s="39"/>
       <c r="B646" s="40"/>
       <c r="C646" s="40"/>
@@ -24624,7 +24631,7 @@
       <c r="AD646" s="13"/>
       <c r="AE646" s="13"/>
     </row>
-    <row r="647" spans="1:31" ht="15.75" thickBot="1">
+    <row r="647" spans="1:31" ht="15" thickBot="1">
       <c r="A647" s="38"/>
       <c r="B647" s="35"/>
       <c r="C647" s="35"/>
@@ -24657,7 +24664,7 @@
       <c r="AD647" s="13"/>
       <c r="AE647" s="13"/>
     </row>
-    <row r="648" spans="1:31" ht="15.75" thickBot="1">
+    <row r="648" spans="1:31" ht="15" thickBot="1">
       <c r="A648" s="39"/>
       <c r="B648" s="40"/>
       <c r="C648" s="40"/>
@@ -24690,7 +24697,7 @@
       <c r="AD648" s="13"/>
       <c r="AE648" s="13"/>
     </row>
-    <row r="649" spans="1:31" ht="15.75" thickBot="1">
+    <row r="649" spans="1:31" ht="15" thickBot="1">
       <c r="A649" s="38"/>
       <c r="B649" s="35"/>
       <c r="C649" s="35"/>
@@ -24723,7 +24730,7 @@
       <c r="AD649" s="13"/>
       <c r="AE649" s="13"/>
     </row>
-    <row r="650" spans="1:31" ht="15.75" thickBot="1">
+    <row r="650" spans="1:31" ht="15" thickBot="1">
       <c r="A650" s="39"/>
       <c r="B650" s="40"/>
       <c r="C650" s="40"/>
@@ -24756,7 +24763,7 @@
       <c r="AD650" s="13"/>
       <c r="AE650" s="13"/>
     </row>
-    <row r="651" spans="1:31" ht="15.75" thickBot="1">
+    <row r="651" spans="1:31" ht="15" thickBot="1">
       <c r="A651" s="38"/>
       <c r="B651" s="35"/>
       <c r="C651" s="35"/>
@@ -24789,7 +24796,7 @@
       <c r="AD651" s="13"/>
       <c r="AE651" s="13"/>
     </row>
-    <row r="652" spans="1:31" ht="15.75" thickBot="1">
+    <row r="652" spans="1:31" ht="15" thickBot="1">
       <c r="A652" s="39"/>
       <c r="B652" s="40"/>
       <c r="C652" s="40"/>
@@ -24822,7 +24829,7 @@
       <c r="AD652" s="13"/>
       <c r="AE652" s="13"/>
     </row>
-    <row r="653" spans="1:31" ht="15.75" thickBot="1">
+    <row r="653" spans="1:31" ht="15" thickBot="1">
       <c r="A653" s="38"/>
       <c r="B653" s="35"/>
       <c r="C653" s="35"/>
@@ -24855,7 +24862,7 @@
       <c r="AD653" s="13"/>
       <c r="AE653" s="13"/>
     </row>
-    <row r="654" spans="1:31" ht="15.75" thickBot="1">
+    <row r="654" spans="1:31" ht="15" thickBot="1">
       <c r="A654" s="39"/>
       <c r="B654" s="40"/>
       <c r="C654" s="40"/>
@@ -24888,7 +24895,7 @@
       <c r="AD654" s="13"/>
       <c r="AE654" s="13"/>
     </row>
-    <row r="655" spans="1:31" ht="15.75" thickBot="1">
+    <row r="655" spans="1:31" ht="15" thickBot="1">
       <c r="A655" s="38"/>
       <c r="B655" s="35"/>
       <c r="C655" s="35"/>
@@ -24921,7 +24928,7 @@
       <c r="AD655" s="13"/>
       <c r="AE655" s="13"/>
     </row>
-    <row r="656" spans="1:31" ht="15.75" thickBot="1">
+    <row r="656" spans="1:31" ht="15" thickBot="1">
       <c r="A656" s="39"/>
       <c r="B656" s="40"/>
       <c r="C656" s="40"/>
@@ -24954,7 +24961,7 @@
       <c r="AD656" s="13"/>
       <c r="AE656" s="13"/>
     </row>
-    <row r="657" spans="1:31" ht="15.75" thickBot="1">
+    <row r="657" spans="1:31" ht="15" thickBot="1">
       <c r="A657" s="38"/>
       <c r="B657" s="35"/>
       <c r="C657" s="35"/>
@@ -24987,7 +24994,7 @@
       <c r="AD657" s="13"/>
       <c r="AE657" s="13"/>
     </row>
-    <row r="658" spans="1:31" ht="15.75" thickBot="1">
+    <row r="658" spans="1:31" ht="15" thickBot="1">
       <c r="A658" s="39"/>
       <c r="B658" s="40"/>
       <c r="C658" s="40"/>
@@ -25020,7 +25027,7 @@
       <c r="AD658" s="13"/>
       <c r="AE658" s="13"/>
     </row>
-    <row r="659" spans="1:31" ht="15.75" thickBot="1">
+    <row r="659" spans="1:31" ht="15" thickBot="1">
       <c r="A659" s="38"/>
       <c r="B659" s="35"/>
       <c r="C659" s="35"/>
@@ -25053,7 +25060,7 @@
       <c r="AD659" s="13"/>
       <c r="AE659" s="13"/>
     </row>
-    <row r="660" spans="1:31" ht="15.75" thickBot="1">
+    <row r="660" spans="1:31" ht="15" thickBot="1">
       <c r="A660" s="39"/>
       <c r="B660" s="40"/>
       <c r="C660" s="40"/>
@@ -25086,7 +25093,7 @@
       <c r="AD660" s="13"/>
       <c r="AE660" s="13"/>
     </row>
-    <row r="661" spans="1:31" ht="15.75" thickBot="1">
+    <row r="661" spans="1:31" ht="15" thickBot="1">
       <c r="A661" s="38"/>
       <c r="B661" s="35"/>
       <c r="C661" s="35"/>
@@ -25119,7 +25126,7 @@
       <c r="AD661" s="13"/>
       <c r="AE661" s="13"/>
     </row>
-    <row r="662" spans="1:31" ht="15.75" thickBot="1">
+    <row r="662" spans="1:31" ht="15" thickBot="1">
       <c r="A662" s="39"/>
       <c r="B662" s="40"/>
       <c r="C662" s="40"/>
@@ -25152,7 +25159,7 @@
       <c r="AD662" s="13"/>
       <c r="AE662" s="13"/>
     </row>
-    <row r="663" spans="1:31" ht="15.75" thickBot="1">
+    <row r="663" spans="1:31" ht="15" thickBot="1">
       <c r="A663" s="38"/>
       <c r="B663" s="35"/>
       <c r="C663" s="35"/>
@@ -25185,7 +25192,7 @@
       <c r="AD663" s="13"/>
       <c r="AE663" s="13"/>
     </row>
-    <row r="664" spans="1:31" ht="15.75" thickBot="1">
+    <row r="664" spans="1:31" ht="15" thickBot="1">
       <c r="A664" s="39"/>
       <c r="B664" s="40"/>
       <c r="C664" s="40"/>
@@ -25218,7 +25225,7 @@
       <c r="AD664" s="13"/>
       <c r="AE664" s="13"/>
     </row>
-    <row r="665" spans="1:31" ht="15.75" thickBot="1">
+    <row r="665" spans="1:31" ht="15" thickBot="1">
       <c r="A665" s="38"/>
       <c r="B665" s="35"/>
       <c r="C665" s="35"/>
@@ -25251,7 +25258,7 @@
       <c r="AD665" s="13"/>
       <c r="AE665" s="13"/>
     </row>
-    <row r="666" spans="1:31" ht="15.75" thickBot="1">
+    <row r="666" spans="1:31" ht="15" thickBot="1">
       <c r="A666" s="39"/>
       <c r="B666" s="40"/>
       <c r="C666" s="40"/>
@@ -25284,7 +25291,7 @@
       <c r="AD666" s="13"/>
       <c r="AE666" s="13"/>
     </row>
-    <row r="667" spans="1:31" ht="15.75" thickBot="1">
+    <row r="667" spans="1:31" ht="15" thickBot="1">
       <c r="A667" s="38"/>
       <c r="B667" s="35"/>
       <c r="C667" s="35"/>
@@ -25317,7 +25324,7 @@
       <c r="AD667" s="13"/>
       <c r="AE667" s="13"/>
     </row>
-    <row r="668" spans="1:31" ht="15.75" thickBot="1">
+    <row r="668" spans="1:31" ht="15" thickBot="1">
       <c r="A668" s="39"/>
       <c r="B668" s="40"/>
       <c r="C668" s="40"/>
@@ -25350,7 +25357,7 @@
       <c r="AD668" s="13"/>
       <c r="AE668" s="13"/>
     </row>
-    <row r="669" spans="1:31" ht="15.75" thickBot="1">
+    <row r="669" spans="1:31" ht="15" thickBot="1">
       <c r="A669" s="38"/>
       <c r="B669" s="35"/>
       <c r="C669" s="35"/>
@@ -25383,7 +25390,7 @@
       <c r="AD669" s="13"/>
       <c r="AE669" s="13"/>
     </row>
-    <row r="670" spans="1:31" ht="15.75" thickBot="1">
+    <row r="670" spans="1:31" ht="15" thickBot="1">
       <c r="A670" s="39"/>
       <c r="B670" s="40"/>
       <c r="C670" s="40"/>
@@ -25416,7 +25423,7 @@
       <c r="AD670" s="13"/>
       <c r="AE670" s="13"/>
     </row>
-    <row r="671" spans="1:31" ht="15.75" thickBot="1">
+    <row r="671" spans="1:31" ht="15" thickBot="1">
       <c r="A671" s="38"/>
       <c r="B671" s="35"/>
       <c r="C671" s="35"/>
@@ -25449,7 +25456,7 @@
       <c r="AD671" s="13"/>
       <c r="AE671" s="13"/>
     </row>
-    <row r="672" spans="1:31" ht="15.75" thickBot="1">
+    <row r="672" spans="1:31" ht="15" thickBot="1">
       <c r="A672" s="39"/>
       <c r="B672" s="40"/>
       <c r="C672" s="40"/>
@@ -25482,7 +25489,7 @@
       <c r="AD672" s="13"/>
       <c r="AE672" s="13"/>
     </row>
-    <row r="673" spans="1:31" ht="15.75" thickBot="1">
+    <row r="673" spans="1:31" ht="15" thickBot="1">
       <c r="A673" s="38"/>
       <c r="B673" s="35"/>
       <c r="C673" s="35"/>
@@ -25515,7 +25522,7 @@
       <c r="AD673" s="13"/>
       <c r="AE673" s="13"/>
     </row>
-    <row r="674" spans="1:31" ht="15.75" thickBot="1">
+    <row r="674" spans="1:31" ht="15" thickBot="1">
       <c r="A674" s="39"/>
       <c r="B674" s="40"/>
       <c r="C674" s="40"/>
@@ -25548,7 +25555,7 @@
       <c r="AD674" s="13"/>
       <c r="AE674" s="13"/>
     </row>
-    <row r="675" spans="1:31" ht="15.75" thickBot="1">
+    <row r="675" spans="1:31" ht="15" thickBot="1">
       <c r="A675" s="38"/>
       <c r="B675" s="35"/>
       <c r="C675" s="35"/>
@@ -25581,7 +25588,7 @@
       <c r="AD675" s="13"/>
       <c r="AE675" s="13"/>
     </row>
-    <row r="676" spans="1:31" ht="15.75" thickBot="1">
+    <row r="676" spans="1:31" ht="15" thickBot="1">
       <c r="A676" s="39"/>
       <c r="B676" s="40"/>
       <c r="C676" s="40"/>
@@ -25614,7 +25621,7 @@
       <c r="AD676" s="13"/>
       <c r="AE676" s="13"/>
     </row>
-    <row r="677" spans="1:31" ht="15.75" thickBot="1">
+    <row r="677" spans="1:31" ht="15" thickBot="1">
       <c r="A677" s="38"/>
       <c r="B677" s="35"/>
       <c r="C677" s="35"/>
@@ -25647,7 +25654,7 @@
       <c r="AD677" s="13"/>
       <c r="AE677" s="13"/>
     </row>
-    <row r="678" spans="1:31" ht="15.75" thickBot="1">
+    <row r="678" spans="1:31" ht="15" thickBot="1">
       <c r="A678" s="39"/>
       <c r="B678" s="40"/>
       <c r="C678" s="40"/>
@@ -25680,7 +25687,7 @@
       <c r="AD678" s="13"/>
       <c r="AE678" s="13"/>
     </row>
-    <row r="679" spans="1:31" ht="15.75" thickBot="1">
+    <row r="679" spans="1:31" ht="15" thickBot="1">
       <c r="A679" s="38"/>
       <c r="B679" s="35"/>
       <c r="C679" s="35"/>
@@ -25713,7 +25720,7 @@
       <c r="AD679" s="13"/>
       <c r="AE679" s="13"/>
     </row>
-    <row r="680" spans="1:31" ht="15.75" thickBot="1">
+    <row r="680" spans="1:31" ht="15" thickBot="1">
       <c r="A680" s="39"/>
       <c r="B680" s="40"/>
       <c r="C680" s="40"/>
@@ -25746,7 +25753,7 @@
       <c r="AD680" s="13"/>
       <c r="AE680" s="13"/>
     </row>
-    <row r="681" spans="1:31" ht="15.75" thickBot="1">
+    <row r="681" spans="1:31" ht="15" thickBot="1">
       <c r="A681" s="38"/>
       <c r="B681" s="35"/>
       <c r="C681" s="35"/>
@@ -25779,7 +25786,7 @@
       <c r="AD681" s="13"/>
       <c r="AE681" s="13"/>
     </row>
-    <row r="682" spans="1:31" ht="15.75" thickBot="1">
+    <row r="682" spans="1:31" ht="15" thickBot="1">
       <c r="A682" s="39"/>
       <c r="B682" s="40"/>
       <c r="C682" s="40"/>
@@ -25812,7 +25819,7 @@
       <c r="AD682" s="13"/>
       <c r="AE682" s="13"/>
     </row>
-    <row r="683" spans="1:31" ht="15.75" thickBot="1">
+    <row r="683" spans="1:31" ht="15" thickBot="1">
       <c r="A683" s="38"/>
       <c r="B683" s="35"/>
       <c r="C683" s="35"/>
@@ -25845,7 +25852,7 @@
       <c r="AD683" s="13"/>
       <c r="AE683" s="13"/>
     </row>
-    <row r="684" spans="1:31" ht="15.75" thickBot="1">
+    <row r="684" spans="1:31" ht="15" thickBot="1">
       <c r="A684" s="39"/>
       <c r="B684" s="40"/>
       <c r="C684" s="40"/>
@@ -25878,7 +25885,7 @@
       <c r="AD684" s="13"/>
       <c r="AE684" s="13"/>
     </row>
-    <row r="685" spans="1:31" ht="15.75" thickBot="1">
+    <row r="685" spans="1:31" ht="15" thickBot="1">
       <c r="A685" s="38"/>
       <c r="B685" s="35"/>
       <c r="C685" s="35"/>
@@ -25911,7 +25918,7 @@
       <c r="AD685" s="13"/>
       <c r="AE685" s="13"/>
     </row>
-    <row r="686" spans="1:31" ht="15.75" thickBot="1">
+    <row r="686" spans="1:31" ht="15" thickBot="1">
       <c r="A686" s="39"/>
       <c r="B686" s="40"/>
       <c r="C686" s="40"/>
@@ -25944,7 +25951,7 @@
       <c r="AD686" s="13"/>
       <c r="AE686" s="13"/>
     </row>
-    <row r="687" spans="1:31" ht="15.75" thickBot="1">
+    <row r="687" spans="1:31" ht="15" thickBot="1">
       <c r="A687" s="38"/>
       <c r="B687" s="35"/>
       <c r="C687" s="35"/>
@@ -25977,7 +25984,7 @@
       <c r="AD687" s="13"/>
       <c r="AE687" s="13"/>
     </row>
-    <row r="688" spans="1:31" ht="15.75" thickBot="1">
+    <row r="688" spans="1:31" ht="15" thickBot="1">
       <c r="A688" s="39"/>
       <c r="B688" s="40"/>
       <c r="C688" s="40"/>
@@ -26010,7 +26017,7 @@
       <c r="AD688" s="13"/>
       <c r="AE688" s="13"/>
     </row>
-    <row r="689" spans="1:31" ht="15.75" thickBot="1">
+    <row r="689" spans="1:31" ht="15" thickBot="1">
       <c r="A689" s="38"/>
       <c r="B689" s="35"/>
       <c r="C689" s="35"/>
@@ -26043,7 +26050,7 @@
       <c r="AD689" s="13"/>
       <c r="AE689" s="13"/>
     </row>
-    <row r="690" spans="1:31" ht="15.75" thickBot="1">
+    <row r="690" spans="1:31" ht="15" thickBot="1">
       <c r="A690" s="39"/>
       <c r="B690" s="40"/>
       <c r="C690" s="40"/>
@@ -26076,7 +26083,7 @@
       <c r="AD690" s="13"/>
       <c r="AE690" s="13"/>
     </row>
-    <row r="691" spans="1:31" ht="15.75" thickBot="1">
+    <row r="691" spans="1:31" ht="15" thickBot="1">
       <c r="A691" s="38"/>
       <c r="B691" s="35"/>
       <c r="C691" s="35"/>
@@ -26109,7 +26116,7 @@
       <c r="AD691" s="13"/>
       <c r="AE691" s="13"/>
     </row>
-    <row r="692" spans="1:31" ht="15.75" thickBot="1">
+    <row r="692" spans="1:31" ht="15" thickBot="1">
       <c r="A692" s="39"/>
       <c r="B692" s="40"/>
       <c r="C692" s="40"/>
@@ -26142,7 +26149,7 @@
       <c r="AD692" s="13"/>
       <c r="AE692" s="13"/>
     </row>
-    <row r="693" spans="1:31" ht="15.75" thickBot="1">
+    <row r="693" spans="1:31" ht="15" thickBot="1">
       <c r="A693" s="38"/>
       <c r="B693" s="35"/>
       <c r="C693" s="35"/>
@@ -26175,7 +26182,7 @@
       <c r="AD693" s="13"/>
       <c r="AE693" s="13"/>
     </row>
-    <row r="694" spans="1:31" ht="15.75" thickBot="1">
+    <row r="694" spans="1:31" ht="15" thickBot="1">
       <c r="A694" s="39"/>
       <c r="B694" s="40"/>
       <c r="C694" s="40"/>
@@ -26208,7 +26215,7 @@
       <c r="AD694" s="13"/>
       <c r="AE694" s="13"/>
     </row>
-    <row r="695" spans="1:31" ht="15.75" thickBot="1">
+    <row r="695" spans="1:31" ht="15" thickBot="1">
       <c r="A695" s="38"/>
       <c r="B695" s="35"/>
       <c r="C695" s="35"/>
@@ -26241,7 +26248,7 @@
       <c r="AD695" s="13"/>
       <c r="AE695" s="13"/>
     </row>
-    <row r="696" spans="1:31" ht="15.75" thickBot="1">
+    <row r="696" spans="1:31" ht="15" thickBot="1">
       <c r="A696" s="39"/>
       <c r="B696" s="40"/>
       <c r="C696" s="40"/>
@@ -26274,7 +26281,7 @@
       <c r="AD696" s="13"/>
       <c r="AE696" s="13"/>
     </row>
-    <row r="697" spans="1:31" ht="15.75" thickBot="1">
+    <row r="697" spans="1:31" ht="15" thickBot="1">
       <c r="A697" s="38"/>
       <c r="B697" s="35"/>
       <c r="C697" s="35"/>
@@ -26307,7 +26314,7 @@
       <c r="AD697" s="13"/>
       <c r="AE697" s="13"/>
     </row>
-    <row r="698" spans="1:31" ht="15.75" thickBot="1">
+    <row r="698" spans="1:31" ht="15" thickBot="1">
       <c r="A698" s="39"/>
       <c r="B698" s="40"/>
       <c r="C698" s="40"/>
@@ -26340,7 +26347,7 @@
       <c r="AD698" s="13"/>
       <c r="AE698" s="13"/>
     </row>
-    <row r="699" spans="1:31" ht="15.75" thickBot="1">
+    <row r="699" spans="1:31" ht="15" thickBot="1">
       <c r="A699" s="38"/>
       <c r="B699" s="35"/>
       <c r="C699" s="35"/>
@@ -26373,7 +26380,7 @@
       <c r="AD699" s="13"/>
       <c r="AE699" s="13"/>
     </row>
-    <row r="700" spans="1:31" ht="15.75" thickBot="1">
+    <row r="700" spans="1:31" ht="15" thickBot="1">
       <c r="A700" s="39"/>
       <c r="B700" s="40"/>
       <c r="C700" s="40"/>
@@ -26406,7 +26413,7 @@
       <c r="AD700" s="13"/>
       <c r="AE700" s="13"/>
     </row>
-    <row r="701" spans="1:31" ht="15.75" thickBot="1">
+    <row r="701" spans="1:31" ht="15" thickBot="1">
       <c r="A701" s="38"/>
       <c r="B701" s="35"/>
       <c r="C701" s="35"/>
@@ -26439,7 +26446,7 @@
       <c r="AD701" s="13"/>
       <c r="AE701" s="13"/>
     </row>
-    <row r="702" spans="1:31" ht="15.75" thickBot="1">
+    <row r="702" spans="1:31" ht="15" thickBot="1">
       <c r="A702" s="39"/>
       <c r="B702" s="40"/>
       <c r="C702" s="40"/>
@@ -26472,7 +26479,7 @@
       <c r="AD702" s="13"/>
       <c r="AE702" s="13"/>
     </row>
-    <row r="703" spans="1:31" ht="15.75" thickBot="1">
+    <row r="703" spans="1:31" ht="15" thickBot="1">
       <c r="A703" s="38"/>
       <c r="B703" s="35"/>
       <c r="C703" s="35"/>
@@ -26505,7 +26512,7 @@
       <c r="AD703" s="13"/>
       <c r="AE703" s="13"/>
     </row>
-    <row r="704" spans="1:31" ht="15.75" thickBot="1">
+    <row r="704" spans="1:31" ht="15" thickBot="1">
       <c r="A704" s="39"/>
       <c r="B704" s="40"/>
       <c r="C704" s="40"/>
@@ -26538,7 +26545,7 @@
       <c r="AD704" s="13"/>
       <c r="AE704" s="13"/>
     </row>
-    <row r="705" spans="1:31" ht="15.75" thickBot="1">
+    <row r="705" spans="1:31" ht="15" thickBot="1">
       <c r="A705" s="38"/>
       <c r="B705" s="35"/>
       <c r="C705" s="35"/>
@@ -26571,7 +26578,7 @@
       <c r="AD705" s="13"/>
       <c r="AE705" s="13"/>
     </row>
-    <row r="706" spans="1:31" ht="15.75" thickBot="1">
+    <row r="706" spans="1:31" ht="15" thickBot="1">
       <c r="A706" s="39"/>
       <c r="B706" s="40"/>
       <c r="C706" s="40"/>
@@ -26604,7 +26611,7 @@
       <c r="AD706" s="13"/>
       <c r="AE706" s="13"/>
     </row>
-    <row r="707" spans="1:31" ht="15.75" thickBot="1">
+    <row r="707" spans="1:31" ht="15" thickBot="1">
       <c r="A707" s="38"/>
       <c r="B707" s="35"/>
       <c r="C707" s="35"/>
@@ -26637,7 +26644,7 @@
       <c r="AD707" s="13"/>
       <c r="AE707" s="13"/>
     </row>
-    <row r="708" spans="1:31" ht="15.75" thickBot="1">
+    <row r="708" spans="1:31" ht="15" thickBot="1">
       <c r="A708" s="39"/>
       <c r="B708" s="40"/>
       <c r="C708" s="40"/>
@@ -26670,7 +26677,7 @@
       <c r="AD708" s="13"/>
       <c r="AE708" s="13"/>
     </row>
-    <row r="709" spans="1:31" ht="15.75" thickBot="1">
+    <row r="709" spans="1:31" ht="15" thickBot="1">
       <c r="A709" s="38"/>
       <c r="B709" s="35"/>
       <c r="C709" s="35"/>
@@ -26703,7 +26710,7 @@
       <c r="AD709" s="13"/>
       <c r="AE709" s="13"/>
     </row>
-    <row r="710" spans="1:31" ht="15.75" thickBot="1">
+    <row r="710" spans="1:31" ht="15" thickBot="1">
       <c r="A710" s="39"/>
       <c r="B710" s="40"/>
       <c r="C710" s="40"/>
@@ -26736,7 +26743,7 @@
       <c r="AD710" s="13"/>
       <c r="AE710" s="13"/>
     </row>
-    <row r="711" spans="1:31" ht="15.75" thickBot="1">
+    <row r="711" spans="1:31" ht="15" thickBot="1">
       <c r="A711" s="38"/>
       <c r="B711" s="35"/>
       <c r="C711" s="35"/>
@@ -26769,7 +26776,7 @@
       <c r="AD711" s="13"/>
       <c r="AE711" s="13"/>
     </row>
-    <row r="712" spans="1:31" ht="15.75" thickBot="1">
+    <row r="712" spans="1:31" ht="15" thickBot="1">
       <c r="A712" s="39"/>
       <c r="B712" s="40"/>
       <c r="C712" s="40"/>
@@ -26802,7 +26809,7 @@
       <c r="AD712" s="13"/>
       <c r="AE712" s="13"/>
     </row>
-    <row r="713" spans="1:31" ht="15.75" thickBot="1">
+    <row r="713" spans="1:31" ht="15" thickBot="1">
       <c r="A713" s="38"/>
       <c r="B713" s="35"/>
       <c r="C713" s="35"/>
@@ -26835,7 +26842,7 @@
       <c r="AD713" s="13"/>
       <c r="AE713" s="13"/>
     </row>
-    <row r="714" spans="1:31" ht="15.75" thickBot="1">
+    <row r="714" spans="1:31" ht="15" thickBot="1">
       <c r="A714" s="39"/>
       <c r="B714" s="40"/>
       <c r="C714" s="40"/>
@@ -26868,7 +26875,7 @@
       <c r="AD714" s="13"/>
       <c r="AE714" s="13"/>
     </row>
-    <row r="715" spans="1:31" ht="15.75" thickBot="1">
+    <row r="715" spans="1:31" ht="15" thickBot="1">
       <c r="A715" s="38"/>
       <c r="B715" s="35"/>
       <c r="C715" s="35"/>
@@ -26901,7 +26908,7 @@
       <c r="AD715" s="13"/>
       <c r="AE715" s="13"/>
     </row>
-    <row r="716" spans="1:31" ht="15.75" thickBot="1">
+    <row r="716" spans="1:31" ht="15" thickBot="1">
       <c r="A716" s="39"/>
       <c r="B716" s="40"/>
       <c r="C716" s="40"/>
@@ -26934,7 +26941,7 @@
       <c r="AD716" s="13"/>
       <c r="AE716" s="13"/>
     </row>
-    <row r="717" spans="1:31" ht="15.75" thickBot="1">
+    <row r="717" spans="1:31" ht="15" thickBot="1">
       <c r="A717" s="38"/>
       <c r="B717" s="35"/>
       <c r="C717" s="35"/>
@@ -26967,7 +26974,7 @@
       <c r="AD717" s="13"/>
       <c r="AE717" s="13"/>
     </row>
-    <row r="718" spans="1:31" ht="15.75" thickBot="1">
+    <row r="718" spans="1:31" ht="15" thickBot="1">
       <c r="A718" s="39"/>
       <c r="B718" s="40"/>
       <c r="C718" s="40"/>
@@ -27000,7 +27007,7 @@
       <c r="AD718" s="13"/>
       <c r="AE718" s="13"/>
     </row>
-    <row r="719" spans="1:31" ht="15.75" thickBot="1">
+    <row r="719" spans="1:31" ht="15" thickBot="1">
       <c r="A719" s="38"/>
       <c r="B719" s="35"/>
       <c r="C719" s="35"/>
@@ -27033,7 +27040,7 @@
       <c r="AD719" s="13"/>
       <c r="AE719" s="13"/>
     </row>
-    <row r="720" spans="1:31" ht="15.75" thickBot="1">
+    <row r="720" spans="1:31" ht="15" thickBot="1">
       <c r="A720" s="39"/>
       <c r="B720" s="40"/>
       <c r="C720" s="40"/>
@@ -27066,7 +27073,7 @@
       <c r="AD720" s="13"/>
       <c r="AE720" s="13"/>
     </row>
-    <row r="721" spans="1:31" ht="15.75" thickBot="1">
+    <row r="721" spans="1:31" ht="15" thickBot="1">
       <c r="A721" s="38"/>
       <c r="B721" s="35"/>
       <c r="C721" s="35"/>
@@ -27099,7 +27106,7 @@
       <c r="AD721" s="13"/>
       <c r="AE721" s="13"/>
     </row>
-    <row r="722" spans="1:31" ht="15.75" thickBot="1">
+    <row r="722" spans="1:31" ht="15" thickBot="1">
       <c r="A722" s="39"/>
       <c r="B722" s="40"/>
       <c r="C722" s="40"/>
@@ -27132,7 +27139,7 @@
       <c r="AD722" s="13"/>
       <c r="AE722" s="13"/>
     </row>
-    <row r="723" spans="1:31" ht="15.75" thickBot="1">
+    <row r="723" spans="1:31" ht="15" thickBot="1">
       <c r="A723" s="38"/>
       <c r="B723" s="35"/>
       <c r="C723" s="35"/>
@@ -27165,7 +27172,7 @@
       <c r="AD723" s="13"/>
       <c r="AE723" s="13"/>
     </row>
-    <row r="724" spans="1:31" ht="15.75" thickBot="1">
+    <row r="724" spans="1:31" ht="15" thickBot="1">
       <c r="A724" s="39"/>
       <c r="B724" s="40"/>
       <c r="C724" s="40"/>
@@ -27198,7 +27205,7 @@
       <c r="AD724" s="13"/>
       <c r="AE724" s="13"/>
     </row>
-    <row r="725" spans="1:31" ht="15.75" thickBot="1">
+    <row r="725" spans="1:31" ht="15" thickBot="1">
       <c r="A725" s="38"/>
       <c r="B725" s="35"/>
       <c r="C725" s="35"/>
@@ -27231,7 +27238,7 @@
       <c r="AD725" s="13"/>
       <c r="AE725" s="13"/>
     </row>
-    <row r="726" spans="1:31" ht="15.75" thickBot="1">
+    <row r="726" spans="1:31" ht="15" thickBot="1">
       <c r="A726" s="39"/>
       <c r="B726" s="40"/>
       <c r="C726" s="40"/>
@@ -27264,7 +27271,7 @@
       <c r="AD726" s="13"/>
       <c r="AE726" s="13"/>
     </row>
-    <row r="727" spans="1:31" ht="15.75" thickBot="1">
+    <row r="727" spans="1:31" ht="15" thickBot="1">
       <c r="A727" s="38"/>
       <c r="B727" s="35"/>
       <c r="C727" s="35"/>
@@ -27297,7 +27304,7 @@
       <c r="AD727" s="13"/>
       <c r="AE727" s="13"/>
     </row>
-    <row r="728" spans="1:31" ht="15.75" thickBot="1">
+    <row r="728" spans="1:31" ht="15" thickBot="1">
       <c r="A728" s="39"/>
       <c r="B728" s="40"/>
       <c r="C728" s="40"/>
@@ -27330,7 +27337,7 @@
       <c r="AD728" s="13"/>
       <c r="AE728" s="13"/>
     </row>
-    <row r="729" spans="1:31" ht="15.75" thickBot="1">
+    <row r="729" spans="1:31" ht="15" thickBot="1">
       <c r="A729" s="38"/>
       <c r="B729" s="35"/>
       <c r="C729" s="35"/>
@@ -27363,7 +27370,7 @@
       <c r="AD729" s="13"/>
       <c r="AE729" s="13"/>
     </row>
-    <row r="730" spans="1:31" ht="15.75" thickBot="1">
+    <row r="730" spans="1:31" ht="15" thickBot="1">
       <c r="A730" s="39"/>
       <c r="B730" s="40"/>
       <c r="C730" s="40"/>
@@ -27396,7 +27403,7 @@
       <c r="AD730" s="13"/>
       <c r="AE730" s="13"/>
     </row>
-    <row r="731" spans="1:31" ht="15.75" thickBot="1">
+    <row r="731" spans="1:31" ht="15" thickBot="1">
       <c r="A731" s="38"/>
       <c r="B731" s="35"/>
       <c r="C731" s="35"/>
@@ -27429,7 +27436,7 @@
       <c r="AD731" s="13"/>
       <c r="AE731" s="13"/>
     </row>
-    <row r="732" spans="1:31" ht="15.75" thickBot="1">
+    <row r="732" spans="1:31" ht="15" thickBot="1">
       <c r="A732" s="39"/>
       <c r="B732" s="40"/>
       <c r="C732" s="40"/>
@@ -27462,7 +27469,7 @@
       <c r="AD732" s="13"/>
       <c r="AE732" s="13"/>
     </row>
-    <row r="733" spans="1:31" ht="15.75" thickBot="1">
+    <row r="733" spans="1:31" ht="15" thickBot="1">
       <c r="A733" s="38"/>
       <c r="B733" s="35"/>
       <c r="C733" s="35"/>
@@ -27495,7 +27502,7 @@
       <c r="AD733" s="13"/>
       <c r="AE733" s="13"/>
     </row>
-    <row r="734" spans="1:31" ht="15.75" thickBot="1">
+    <row r="734" spans="1:31" ht="15" thickBot="1">
       <c r="A734" s="39"/>
       <c r="B734" s="40"/>
       <c r="C734" s="40"/>
@@ -27528,7 +27535,7 @@
       <c r="AD734" s="13"/>
       <c r="AE734" s="13"/>
     </row>
-    <row r="735" spans="1:31" ht="15.75" thickBot="1">
+    <row r="735" spans="1:31" ht="15" thickBot="1">
       <c r="A735" s="38"/>
       <c r="B735" s="35"/>
       <c r="C735" s="35"/>
@@ -27561,7 +27568,7 @@
       <c r="AD735" s="13"/>
       <c r="AE735" s="13"/>
     </row>
-    <row r="736" spans="1:31" ht="15.75" thickBot="1">
+    <row r="736" spans="1:31" ht="15" thickBot="1">
       <c r="A736" s="39"/>
       <c r="B736" s="40"/>
       <c r="C736" s="40"/>
@@ -27594,7 +27601,7 @@
       <c r="AD736" s="13"/>
       <c r="AE736" s="13"/>
     </row>
-    <row r="737" spans="1:31" ht="15.75" thickBot="1">
+    <row r="737" spans="1:31" ht="15" thickBot="1">
       <c r="A737" s="38"/>
       <c r="B737" s="35"/>
       <c r="C737" s="35"/>
@@ -27627,7 +27634,7 @@
       <c r="AD737" s="13"/>
       <c r="AE737" s="13"/>
     </row>
-    <row r="738" spans="1:31" ht="15.75" thickBot="1">
+    <row r="738" spans="1:31" ht="15" thickBot="1">
       <c r="A738" s="39"/>
       <c r="B738" s="40"/>
       <c r="C738" s="40"/>
@@ -27660,7 +27667,7 @@
       <c r="AD738" s="13"/>
       <c r="AE738" s="13"/>
     </row>
-    <row r="739" spans="1:31" ht="15.75" thickBot="1">
+    <row r="739" spans="1:31" ht="15" thickBot="1">
       <c r="A739" s="38"/>
       <c r="B739" s="35"/>
       <c r="C739" s="35"/>
@@ -27693,7 +27700,7 @@
       <c r="AD739" s="13"/>
       <c r="AE739" s="13"/>
     </row>
-    <row r="740" spans="1:31" ht="15.75" thickBot="1">
+    <row r="740" spans="1:31" ht="15" thickBot="1">
       <c r="A740" s="39"/>
       <c r="B740" s="40"/>
       <c r="C740" s="40"/>
@@ -27726,7 +27733,7 @@
       <c r="AD740" s="13"/>
       <c r="AE740" s="13"/>
     </row>
-    <row r="741" spans="1:31" ht="15.75" thickBot="1">
+    <row r="741" spans="1:31" ht="15" thickBot="1">
       <c r="A741" s="38"/>
       <c r="B741" s="35"/>
       <c r="C741" s="35"/>
@@ -27759,7 +27766,7 @@
       <c r="AD741" s="13"/>
       <c r="AE741" s="13"/>
     </row>
-    <row r="742" spans="1:31" ht="15.75" thickBot="1">
+    <row r="742" spans="1:31" ht="15" thickBot="1">
       <c r="A742" s="39"/>
       <c r="B742" s="40"/>
       <c r="C742" s="40"/>
@@ -27792,7 +27799,7 @@
       <c r="AD742" s="13"/>
       <c r="AE742" s="13"/>
     </row>
-    <row r="743" spans="1:31" ht="15.75" thickBot="1">
+    <row r="743" spans="1:31" ht="15" thickBot="1">
       <c r="A743" s="38"/>
       <c r="B743" s="35"/>
       <c r="C743" s="35"/>
@@ -27825,7 +27832,7 @@
       <c r="AD743" s="13"/>
       <c r="AE743" s="13"/>
     </row>
-    <row r="744" spans="1:31" ht="15.75" thickBot="1">
+    <row r="744" spans="1:31" ht="15" thickBot="1">
       <c r="A744" s="39"/>
       <c r="B744" s="40"/>
       <c r="C744" s="40"/>
@@ -27858,7 +27865,7 @@
       <c r="AD744" s="13"/>
       <c r="AE744" s="13"/>
     </row>
-    <row r="745" spans="1:31" ht="15.75" thickBot="1">
+    <row r="745" spans="1:31" ht="15" thickBot="1">
       <c r="A745" s="38"/>
       <c r="B745" s="35"/>
       <c r="C745" s="35"/>
@@ -27891,7 +27898,7 @@
       <c r="AD745" s="13"/>
       <c r="AE745" s="13"/>
     </row>
-    <row r="746" spans="1:31" ht="15.75" thickBot="1">
+    <row r="746" spans="1:31" ht="15" thickBot="1">
       <c r="A746" s="39"/>
       <c r="B746" s="40"/>
       <c r="C746" s="40"/>
@@ -27924,7 +27931,7 @@
       <c r="AD746" s="13"/>
       <c r="AE746" s="13"/>
     </row>
-    <row r="747" spans="1:31" ht="15.75" thickBot="1">
+    <row r="747" spans="1:31" ht="15" thickBot="1">
       <c r="A747" s="38"/>
       <c r="B747" s="35"/>
       <c r="C747" s="35"/>
@@ -27957,7 +27964,7 @@
       <c r="AD747" s="13"/>
       <c r="AE747" s="13"/>
     </row>
-    <row r="748" spans="1:31" ht="15.75" thickBot="1">
+    <row r="748" spans="1:31" ht="15" thickBot="1">
       <c r="A748" s="39"/>
       <c r="B748" s="40"/>
       <c r="C748" s="40"/>
@@ -27990,7 +27997,7 @@
       <c r="AD748" s="13"/>
       <c r="AE748" s="13"/>
     </row>
-    <row r="749" spans="1:31" ht="15.75" thickBot="1">
+    <row r="749" spans="1:31" ht="15" thickBot="1">
       <c r="A749" s="38"/>
       <c r="B749" s="35"/>
       <c r="C749" s="35"/>
@@ -28023,7 +28030,7 @@
       <c r="AD749" s="13"/>
       <c r="AE749" s="13"/>
     </row>
-    <row r="750" spans="1:31" ht="15.75" thickBot="1">
+    <row r="750" spans="1:31" ht="15" thickBot="1">
       <c r="A750" s="39"/>
       <c r="B750" s="40"/>
       <c r="C750" s="40"/>
@@ -28056,7 +28063,7 @@
       <c r="AD750" s="13"/>
       <c r="AE750" s="13"/>
     </row>
-    <row r="751" spans="1:31" ht="15.75" thickBot="1">
+    <row r="751" spans="1:31" ht="15" thickBot="1">
       <c r="A751" s="38"/>
       <c r="B751" s="35"/>
       <c r="C751" s="35"/>
@@ -28089,7 +28096,7 @@
       <c r="AD751" s="13"/>
       <c r="AE751" s="13"/>
     </row>
-    <row r="752" spans="1:31" ht="15.75" thickBot="1">
+    <row r="752" spans="1:31" ht="15" thickBot="1">
       <c r="A752" s="39"/>
       <c r="B752" s="40"/>
       <c r="C752" s="40"/>
@@ -28122,7 +28129,7 @@
       <c r="AD752" s="13"/>
       <c r="AE752" s="13"/>
     </row>
-    <row r="753" spans="1:31" ht="15.75" thickBot="1">
+    <row r="753" spans="1:31" ht="15" thickBot="1">
       <c r="A753" s="38"/>
       <c r="B753" s="35"/>
       <c r="C753" s="35"/>
@@ -28155,7 +28162,7 @@
       <c r="AD753" s="13"/>
       <c r="AE753" s="13"/>
     </row>
-    <row r="754" spans="1:31" ht="15.75" thickBot="1">
+    <row r="754" spans="1:31" ht="15" thickBot="1">
       <c r="A754" s="39"/>
       <c r="B754" s="40"/>
       <c r="C754" s="40"/>
@@ -28188,7 +28195,7 @@
       <c r="AD754" s="13"/>
       <c r="AE754" s="13"/>
     </row>
-    <row r="755" spans="1:31" ht="15.75" thickBot="1">
+    <row r="755" spans="1:31" ht="15" thickBot="1">
       <c r="A755" s="38"/>
       <c r="B755" s="35"/>
       <c r="C755" s="35"/>
@@ -28221,7 +28228,7 @@
       <c r="AD755" s="13"/>
       <c r="AE755" s="13"/>
     </row>
-    <row r="756" spans="1:31" ht="15.75" thickBot="1">
+    <row r="756" spans="1:31" ht="15" thickBot="1">
       <c r="A756" s="39"/>
       <c r="B756" s="40"/>
       <c r="C756" s="40"/>
@@ -28254,7 +28261,7 @@
       <c r="AD756" s="13"/>
       <c r="AE756" s="13"/>
     </row>
-    <row r="757" spans="1:31" ht="15.75" thickBot="1">
+    <row r="757" spans="1:31" ht="15" thickBot="1">
       <c r="A757" s="38"/>
       <c r="B757" s="35"/>
       <c r="C757" s="35"/>
@@ -28287,7 +28294,7 @@
       <c r="AD757" s="13"/>
       <c r="AE757" s="13"/>
     </row>
-    <row r="758" spans="1:31" ht="15.75" thickBot="1">
+    <row r="758" spans="1:31" ht="15" thickBot="1">
       <c r="A758" s="39"/>
       <c r="B758" s="40"/>
       <c r="C758" s="40"/>
@@ -28320,7 +28327,7 @@
       <c r="AD758" s="13"/>
       <c r="AE758" s="13"/>
     </row>
-    <row r="759" spans="1:31" ht="15.75" thickBot="1">
+    <row r="759" spans="1:31" ht="15" thickBot="1">
       <c r="A759" s="38"/>
       <c r="B759" s="35"/>
       <c r="C759" s="35"/>
@@ -28353,7 +28360,7 @@
       <c r="AD759" s="13"/>
       <c r="AE759" s="13"/>
     </row>
-    <row r="760" spans="1:31" ht="15.75" thickBot="1">
+    <row r="760" spans="1:31" ht="15" thickBot="1">
       <c r="A760" s="39"/>
       <c r="B760" s="40"/>
       <c r="C760" s="40"/>
@@ -28386,7 +28393,7 @@
       <c r="AD760" s="13"/>
       <c r="AE760" s="13"/>
     </row>
-    <row r="761" spans="1:31" ht="15.75" thickBot="1">
+    <row r="761" spans="1:31" ht="15" thickBot="1">
       <c r="A761" s="38"/>
       <c r="B761" s="35"/>
       <c r="C761" s="35"/>
@@ -28419,7 +28426,7 @@
       <c r="AD761" s="13"/>
       <c r="AE761" s="13"/>
     </row>
-    <row r="762" spans="1:31" ht="15.75" thickBot="1">
+    <row r="762" spans="1:31" ht="15" thickBot="1">
       <c r="A762" s="39"/>
       <c r="B762" s="40"/>
       <c r="C762" s="40"/>
@@ -28452,7 +28459,7 @@
       <c r="AD762" s="13"/>
       <c r="AE762" s="13"/>
     </row>
-    <row r="763" spans="1:31" ht="15.75" thickBot="1">
+    <row r="763" spans="1:31" ht="15" thickBot="1">
       <c r="A763" s="38"/>
       <c r="B763" s="35"/>
       <c r="C763" s="35"/>
@@ -28485,7 +28492,7 @@
       <c r="AD763" s="13"/>
       <c r="AE763" s="13"/>
     </row>
-    <row r="764" spans="1:31" ht="15.75" thickBot="1">
+    <row r="764" spans="1:31" ht="15" thickBot="1">
       <c r="A764" s="39"/>
       <c r="B764" s="40"/>
       <c r="C764" s="40"/>
@@ -28518,7 +28525,7 @@
       <c r="AD764" s="13"/>
       <c r="AE764" s="13"/>
     </row>
-    <row r="765" spans="1:31" ht="15.75" thickBot="1">
+    <row r="765" spans="1:31" ht="15" thickBot="1">
       <c r="A765" s="38"/>
       <c r="B765" s="35"/>
       <c r="C765" s="35"/>
@@ -28551,7 +28558,7 @@
       <c r="AD765" s="13"/>
       <c r="AE765" s="13"/>
     </row>
-    <row r="766" spans="1:31" ht="15.75" thickBot="1">
+    <row r="766" spans="1:31" ht="15" thickBot="1">
       <c r="A766" s="39"/>
       <c r="B766" s="40"/>
       <c r="C766" s="40"/>
@@ -28584,7 +28591,7 @@
       <c r="AD766" s="13"/>
       <c r="AE766" s="13"/>
     </row>
-    <row r="767" spans="1:31" ht="15.75" thickBot="1">
+    <row r="767" spans="1:31" ht="15" thickBot="1">
       <c r="A767" s="38"/>
       <c r="B767" s="35"/>
       <c r="C767" s="35"/>
@@ -28617,7 +28624,7 @@
       <c r="AD767" s="13"/>
       <c r="AE767" s="13"/>
     </row>
-    <row r="768" spans="1:31" ht="15.75" thickBot="1">
+    <row r="768" spans="1:31" ht="15" thickBot="1">
       <c r="A768" s="39"/>
       <c r="B768" s="40"/>
       <c r="C768" s="40"/>
@@ -28650,7 +28657,7 @@
       <c r="AD768" s="13"/>
       <c r="AE768" s="13"/>
     </row>
-    <row r="769" spans="1:31" ht="15.75" thickBot="1">
+    <row r="769" spans="1:31" ht="15" thickBot="1">
       <c r="A769" s="38"/>
       <c r="B769" s="35"/>
       <c r="C769" s="35"/>
@@ -28683,7 +28690,7 @@
       <c r="AD769" s="13"/>
       <c r="AE769" s="13"/>
     </row>
-    <row r="770" spans="1:31" ht="15.75" thickBot="1">
+    <row r="770" spans="1:31" ht="15" thickBot="1">
       <c r="A770" s="39"/>
       <c r="B770" s="40"/>
       <c r="C770" s="40"/>
@@ -28716,7 +28723,7 @@
       <c r="AD770" s="13"/>
       <c r="AE770" s="13"/>
     </row>
-    <row r="771" spans="1:31" ht="15.75" thickBot="1">
+    <row r="771" spans="1:31" ht="15" thickBot="1">
       <c r="A771" s="38"/>
       <c r="B771" s="35"/>
       <c r="C771" s="35"/>
@@ -28749,7 +28756,7 @@
       <c r="AD771" s="13"/>
       <c r="AE771" s="13"/>
     </row>
-    <row r="772" spans="1:31" ht="15.75" thickBot="1">
+    <row r="772" spans="1:31" ht="15" thickBot="1">
       <c r="A772" s="39"/>
       <c r="B772" s="40"/>
       <c r="C772" s="40"/>
@@ -28782,7 +28789,7 @@
       <c r="AD772" s="13"/>
       <c r="AE772" s="13"/>
     </row>
-    <row r="773" spans="1:31" ht="15.75" thickBot="1">
+    <row r="773" spans="1:31" ht="15" thickBot="1">
       <c r="A773" s="38"/>
       <c r="B773" s="35"/>
       <c r="C773" s="35"/>
@@ -28815,7 +28822,7 @@
       <c r="AD773" s="13"/>
       <c r="AE773" s="13"/>
     </row>
-    <row r="774" spans="1:31" ht="15.75" thickBot="1">
+    <row r="774" spans="1:31" ht="15" thickBot="1">
       <c r="A774" s="39"/>
       <c r="B774" s="40"/>
       <c r="C774" s="40"/>
@@ -28848,7 +28855,7 @@
       <c r="AD774" s="13"/>
       <c r="AE774" s="13"/>
     </row>
-    <row r="775" spans="1:31" ht="15.75" thickBot="1">
+    <row r="775" spans="1:31" ht="15" thickBot="1">
       <c r="A775" s="38"/>
       <c r="B775" s="35"/>
       <c r="C775" s="35"/>
@@ -28881,7 +28888,7 @@
       <c r="AD775" s="13"/>
       <c r="AE775" s="13"/>
     </row>
-    <row r="776" spans="1:31" ht="15.75" thickBot="1">
+    <row r="776" spans="1:31" ht="15" thickBot="1">
       <c r="A776" s="39"/>
       <c r="B776" s="40"/>
       <c r="C776" s="40"/>
@@ -28914,7 +28921,7 @@
       <c r="AD776" s="13"/>
       <c r="AE776" s="13"/>
     </row>
-    <row r="777" spans="1:31" ht="15.75" thickBot="1">
+    <row r="777" spans="1:31" ht="15" thickBot="1">
       <c r="A777" s="38"/>
       <c r="B777" s="35"/>
       <c r="C777" s="35"/>
@@ -28947,7 +28954,7 @@
       <c r="AD777" s="13"/>
       <c r="AE777" s="13"/>
     </row>
-    <row r="778" spans="1:31" ht="15.75" thickBot="1">
+    <row r="778" spans="1:31" ht="15" thickBot="1">
       <c r="A778" s="39"/>
       <c r="B778" s="40"/>
       <c r="C778" s="40"/>
@@ -28980,7 +28987,7 @@
       <c r="AD778" s="13"/>
       <c r="AE778" s="13"/>
     </row>
-    <row r="779" spans="1:31" ht="15.75" thickBot="1">
+    <row r="779" spans="1:31" ht="15" thickBot="1">
       <c r="A779" s="38"/>
       <c r="B779" s="35"/>
       <c r="C779" s="35"/>
@@ -29013,7 +29020,7 @@
       <c r="AD779" s="13"/>
       <c r="AE779" s="13"/>
     </row>
-    <row r="780" spans="1:31" ht="15.75" thickBot="1">
+    <row r="780" spans="1:31" ht="15" thickBot="1">
       <c r="A780" s="39"/>
       <c r="B780" s="40"/>
       <c r="C780" s="40"/>
@@ -29046,7 +29053,7 @@
       <c r="AD780" s="13"/>
       <c r="AE780" s="13"/>
     </row>
-    <row r="781" spans="1:31" ht="15.75" thickBot="1">
+    <row r="781" spans="1:31" ht="15" thickBot="1">
       <c r="A781" s="38"/>
       <c r="B781" s="35"/>
       <c r="C781" s="35"/>
@@ -29079,7 +29086,7 @@
       <c r="AD781" s="13"/>
       <c r="AE781" s="13"/>
     </row>
-    <row r="782" spans="1:31" ht="15.75" thickBot="1">
+    <row r="782" spans="1:31" ht="15" thickBot="1">
       <c r="A782" s="39"/>
       <c r="B782" s="40"/>
       <c r="C782" s="40"/>
@@ -29112,7 +29119,7 @@
       <c r="AD782" s="13"/>
       <c r="AE782" s="13"/>
     </row>
-    <row r="783" spans="1:31" ht="15.75" thickBot="1">
+    <row r="783" spans="1:31" ht="15" thickBot="1">
       <c r="A783" s="38"/>
       <c r="B783" s="35"/>
       <c r="C783" s="35"/>
@@ -29145,7 +29152,7 @@
       <c r="AD783" s="13"/>
       <c r="AE783" s="13"/>
     </row>
-    <row r="784" spans="1:31" ht="15.75" thickBot="1">
+    <row r="784" spans="1:31" ht="15" thickBot="1">
       <c r="A784" s="39"/>
       <c r="B784" s="40"/>
       <c r="C784" s="40"/>
@@ -29178,7 +29185,7 @@
       <c r="AD784" s="13"/>
       <c r="AE784" s="13"/>
     </row>
-    <row r="785" spans="1:31" ht="15.75" thickBot="1">
+    <row r="785" spans="1:31" ht="15" thickBot="1">
       <c r="A785" s="38"/>
       <c r="B785" s="35"/>
       <c r="C785" s="35"/>
@@ -29211,7 +29218,7 @@
       <c r="AD785" s="13"/>
       <c r="AE785" s="13"/>
     </row>
-    <row r="786" spans="1:31" ht="15.75" thickBot="1">
+    <row r="786" spans="1:31" ht="15" thickBot="1">
       <c r="A786" s="39"/>
       <c r="B786" s="40"/>
       <c r="C786" s="40"/>
@@ -29244,7 +29251,7 @@
       <c r="AD786" s="13"/>
       <c r="AE786" s="13"/>
     </row>
-    <row r="787" spans="1:31" ht="15.75" thickBot="1">
+    <row r="787" spans="1:31" ht="15" thickBot="1">
       <c r="A787" s="38"/>
       <c r="B787" s="35"/>
       <c r="C787" s="35"/>
@@ -29277,7 +29284,7 @@
       <c r="AD787" s="13"/>
       <c r="AE787" s="13"/>
     </row>
-    <row r="788" spans="1:31" ht="15.75" thickBot="1">
+    <row r="788" spans="1:31" ht="15" thickBot="1">
       <c r="A788" s="39"/>
       <c r="B788" s="40"/>
       <c r="C788" s="40"/>
@@ -29310,7 +29317,7 @@
       <c r="AD788" s="13"/>
       <c r="AE788" s="13"/>
     </row>
-    <row r="789" spans="1:31" ht="15.75" thickBot="1">
+    <row r="789" spans="1:31" ht="15" thickBot="1">
       <c r="A789" s="38"/>
       <c r="B789" s="35"/>
       <c r="C789" s="35"/>
@@ -29343,7 +29350,7 @@
       <c r="AD789" s="13"/>
       <c r="AE789" s="13"/>
     </row>
-    <row r="790" spans="1:31" ht="15.75" thickBot="1">
+    <row r="790" spans="1:31" ht="15" thickBot="1">
       <c r="A790" s="39"/>
       <c r="B790" s="40"/>
       <c r="C790" s="40"/>
@@ -29376,7 +29383,7 @@
       <c r="AD790" s="13"/>
       <c r="AE790" s="13"/>
     </row>
-    <row r="791" spans="1:31" ht="15.75" thickBot="1">
+    <row r="791" spans="1:31" ht="15" thickBot="1">
       <c r="A791" s="38"/>
       <c r="B791" s="35"/>
       <c r="C791" s="35"/>
@@ -29409,7 +29416,7 @@
       <c r="AD791" s="13"/>
       <c r="AE791" s="13"/>
     </row>
-    <row r="792" spans="1:31" ht="15.75" thickBot="1">
+    <row r="792" spans="1:31" ht="15" thickBot="1">
       <c r="A792" s="39"/>
       <c r="B792" s="40"/>
       <c r="C792" s="40"/>
@@ -29442,7 +29449,7 @@
       <c r="AD792" s="13"/>
       <c r="AE792" s="13"/>
     </row>
-    <row r="793" spans="1:31" ht="15.75" thickBot="1">
+    <row r="793" spans="1:31" ht="15" thickBot="1">
       <c r="A793" s="38"/>
       <c r="B793" s="35"/>
       <c r="C793" s="35"/>
@@ -29475,7 +29482,7 @@
       <c r="AD793" s="13"/>
       <c r="AE793" s="13"/>
     </row>
-    <row r="794" spans="1:31" ht="15.75" thickBot="1">
+    <row r="794" spans="1:31" ht="15" thickBot="1">
       <c r="A794" s="39"/>
       <c r="B794" s="40"/>
       <c r="C794" s="40"/>
@@ -29508,7 +29515,7 @@
       <c r="AD794" s="13"/>
       <c r="AE794" s="13"/>
     </row>
-    <row r="795" spans="1:31" ht="15.75" thickBot="1">
+    <row r="795" spans="1:31" ht="15" thickBot="1">
       <c r="A795" s="38"/>
       <c r="B795" s="35"/>
       <c r="C795" s="35"/>
@@ -29541,7 +29548,7 @@
       <c r="AD795" s="13"/>
       <c r="AE795" s="13"/>
     </row>
-    <row r="796" spans="1:31" ht="15.75" thickBot="1">
+    <row r="796" spans="1:31" ht="15" thickBot="1">
       <c r="A796" s="39"/>
       <c r="B796" s="40"/>
       <c r="C796" s="40"/>
@@ -29574,7 +29581,7 @@
       <c r="AD796" s="13"/>
       <c r="AE796" s="13"/>
     </row>
-    <row r="797" spans="1:31" ht="15.75" thickBot="1">
+    <row r="797" spans="1:31" ht="15" thickBot="1">
       <c r="A797" s="38"/>
       <c r="B797" s="35"/>
       <c r="C797" s="35"/>
@@ -29607,7 +29614,7 @@
       <c r="AD797" s="13"/>
       <c r="AE797" s="13"/>
     </row>
-    <row r="798" spans="1:31" ht="15.75" thickBot="1">
+    <row r="798" spans="1:31" ht="15" thickBot="1">
       <c r="A798" s="39"/>
       <c r="B798" s="40"/>
       <c r="C798" s="40"/>
@@ -29640,7 +29647,7 @@
       <c r="AD798" s="13"/>
       <c r="AE798" s="13"/>
     </row>
-    <row r="799" spans="1:31" ht="15.75" thickBot="1">
+    <row r="799" spans="1:31" ht="15" thickBot="1">
       <c r="A799" s="38"/>
       <c r="B799" s="35"/>
       <c r="C799" s="35"/>
@@ -29673,7 +29680,7 @@
       <c r="AD799" s="13"/>
       <c r="AE799" s="13"/>
     </row>
-    <row r="800" spans="1:31" ht="15.75" thickBot="1">
+    <row r="800" spans="1:31" ht="15" thickBot="1">
       <c r="A800" s="39"/>
       <c r="B800" s="40"/>
       <c r="C800" s="40"/>
@@ -29706,7 +29713,7 @@
       <c r="AD800" s="13"/>
       <c r="AE800" s="13"/>
     </row>
-    <row r="801" spans="1:31" ht="15.75" thickBot="1">
+    <row r="801" spans="1:31" ht="15" thickBot="1">
       <c r="A801" s="38"/>
       <c r="B801" s="35"/>
       <c r="C801" s="35"/>
@@ -29739,7 +29746,7 @@
       <c r="AD801" s="13"/>
       <c r="AE801" s="13"/>
     </row>
-    <row r="802" spans="1:31" ht="15.75" thickBot="1">
+    <row r="802" spans="1:31" ht="15" thickBot="1">
       <c r="A802" s="39"/>
       <c r="B802" s="40"/>
       <c r="C802" s="40"/>
@@ -29772,7 +29779,7 @@
       <c r="AD802" s="13"/>
       <c r="AE802" s="13"/>
     </row>
-    <row r="803" spans="1:31" ht="15.75" thickBot="1">
+    <row r="803" spans="1:31" ht="15" thickBot="1">
       <c r="A803" s="38"/>
       <c r="B803" s="35"/>
       <c r="C803" s="35"/>
@@ -29805,7 +29812,7 @@
       <c r="AD803" s="13"/>
       <c r="AE803" s="13"/>
     </row>
-    <row r="804" spans="1:31" ht="15.75" thickBot="1">
+    <row r="804" spans="1:31" ht="15" thickBot="1">
       <c r="A804" s="39"/>
       <c r="B804" s="40"/>
       <c r="C804" s="40"/>
@@ -29838,7 +29845,7 @@
       <c r="AD804" s="13"/>
       <c r="AE804" s="13"/>
     </row>
-    <row r="805" spans="1:31" ht="15.75" thickBot="1">
+    <row r="805" spans="1:31" ht="15" thickBot="1">
       <c r="A805" s="38"/>
       <c r="B805" s="35"/>
       <c r="C805" s="35"/>
@@ -29871,7 +29878,7 @@
       <c r="AD805" s="13"/>
       <c r="AE805" s="13"/>
     </row>
-    <row r="806" spans="1:31" ht="15.75" thickBot="1">
+    <row r="806" spans="1:31" ht="15" thickBot="1">
       <c r="A806" s="39"/>
       <c r="B806" s="40"/>
       <c r="C806" s="40"/>
@@ -29904,7 +29911,7 @@
       <c r="AD806" s="13"/>
       <c r="AE806" s="13"/>
     </row>
-    <row r="807" spans="1:31" ht="15.75" thickBot="1">
+    <row r="807" spans="1:31" ht="15" thickBot="1">
       <c r="A807" s="38"/>
       <c r="B807" s="35"/>
       <c r="C807" s="35"/>
@@ -29937,7 +29944,7 @@
       <c r="AD807" s="13"/>
       <c r="AE807" s="13"/>
     </row>
-    <row r="808" spans="1:31" ht="15.75" thickBot="1">
+    <row r="808" spans="1:31" ht="15" thickBot="1">
       <c r="A808" s="39"/>
       <c r="B808" s="40"/>
       <c r="C808" s="40"/>
@@ -29970,7 +29977,7 @@
       <c r="AD808" s="13"/>
       <c r="AE808" s="13"/>
     </row>
-    <row r="809" spans="1:31" ht="15.75" thickBot="1">
+    <row r="809" spans="1:31" ht="15" thickBot="1">
       <c r="A809" s="38"/>
       <c r="B809" s="35"/>
       <c r="C809" s="35"/>
@@ -30003,7 +30010,7 @@
       <c r="AD809" s="13"/>
       <c r="AE809" s="13"/>
     </row>
-    <row r="810" spans="1:31" ht="15.75" thickBot="1">
+    <row r="810" spans="1:31" ht="15" thickBot="1">
       <c r="A810" s="39"/>
       <c r="B810" s="40"/>
       <c r="C810" s="40"/>
@@ -30036,7 +30043,7 @@
       <c r="AD810" s="13"/>
       <c r="AE810" s="13"/>
     </row>
-    <row r="811" spans="1:31" ht="15.75" thickBot="1">
+    <row r="811" spans="1:31" ht="15" thickBot="1">
       <c r="A811" s="38"/>
       <c r="B811" s="35"/>
       <c r="C811" s="35"/>
@@ -30069,7 +30076,7 @@
       <c r="AD811" s="13"/>
       <c r="AE811" s="13"/>
     </row>
-    <row r="812" spans="1:31" ht="15.75" thickBot="1">
+    <row r="812" spans="1:31" ht="15" thickBot="1">
       <c r="A812" s="39"/>
       <c r="B812" s="40"/>
       <c r="C812" s="40"/>
@@ -30102,7 +30109,7 @@
       <c r="AD812" s="13"/>
       <c r="AE812" s="13"/>
     </row>
-    <row r="813" spans="1:31" ht="15.75" thickBot="1">
+    <row r="813" spans="1:31" ht="15" thickBot="1">
       <c r="A813" s="38"/>
       <c r="B813" s="35"/>
       <c r="C813" s="35"/>
@@ -30135,7 +30142,7 @@
       <c r="AD813" s="13"/>
       <c r="AE813" s="13"/>
     </row>
-    <row r="814" spans="1:31" ht="15.75" thickBot="1">
+    <row r="814" spans="1:31" ht="15" thickBot="1">
       <c r="A814" s="39"/>
       <c r="B814" s="40"/>
       <c r="C814" s="40"/>
@@ -30168,7 +30175,7 @@
       <c r="AD814" s="13"/>
       <c r="AE814" s="13"/>
     </row>
-    <row r="815" spans="1:31" ht="15.75" thickBot="1">
+    <row r="815" spans="1:31" ht="15" thickBot="1">
       <c r="A815" s="38"/>
       <c r="B815" s="35"/>
       <c r="C815" s="35"/>
@@ -30201,7 +30208,7 @@
       <c r="AD815" s="13"/>
       <c r="AE815" s="13"/>
     </row>
-    <row r="816" spans="1:31" ht="15.75" thickBot="1">
+    <row r="816" spans="1:31" ht="15" thickBot="1">
       <c r="A816" s="39"/>
       <c r="B816" s="40"/>
       <c r="C816" s="40"/>
@@ -30234,7 +30241,7 @@
       <c r="AD816" s="13"/>
       <c r="AE816" s="13"/>
     </row>
-    <row r="817" spans="1:31" ht="15.75" thickBot="1">
+    <row r="817" spans="1:31" ht="15" thickBot="1">
       <c r="A817" s="38"/>
       <c r="B817" s="35"/>
       <c r="C817" s="35"/>
@@ -30267,7 +30274,7 @@
       <c r="AD817" s="13"/>
       <c r="AE817" s="13"/>
     </row>
-    <row r="818" spans="1:31" ht="15.75" thickBot="1">
+    <row r="818" spans="1:31" ht="15" thickBot="1">
       <c r="A818" s="39"/>
       <c r="B818" s="40"/>
       <c r="C818" s="40"/>
@@ -30300,7 +30307,7 @@
       <c r="AD818" s="13"/>
       <c r="AE818" s="13"/>
     </row>
-    <row r="819" spans="1:31" ht="15.75" thickBot="1">
+    <row r="819" spans="1:31" ht="15" thickBot="1">
       <c r="A819" s="38"/>
       <c r="B819" s="35"/>
       <c r="C819" s="35"/>
@@ -30333,7 +30340,7 @@
       <c r="AD819" s="13"/>
       <c r="AE819" s="13"/>
     </row>
-    <row r="820" spans="1:31" ht="15.75" thickBot="1">
+    <row r="820" spans="1:31" ht="15" thickBot="1">
       <c r="A820" s="39"/>
       <c r="B820" s="40"/>
       <c r="C820" s="40"/>
@@ -30366,7 +30373,7 @@
       <c r="AD820" s="13"/>
       <c r="AE820" s="13"/>
     </row>
-    <row r="821" spans="1:31" ht="15.75" thickBot="1">
+    <row r="821" spans="1:31" ht="15" thickBot="1">
       <c r="A821" s="38"/>
       <c r="B821" s="35"/>
       <c r="C821" s="35"/>
@@ -30399,7 +30406,7 @@
       <c r="AD821" s="13"/>
       <c r="AE821" s="13"/>
     </row>
-    <row r="822" spans="1:31" ht="15.75" thickBot="1">
+    <row r="822" spans="1:31" ht="15" thickBot="1">
       <c r="A822" s="39"/>
       <c r="B822" s="40"/>
       <c r="C822" s="40"/>
@@ -30432,7 +30439,7 @@
       <c r="AD822" s="13"/>
       <c r="AE822" s="13"/>
     </row>
-    <row r="823" spans="1:31" ht="15.75" thickBot="1">
+    <row r="823" spans="1:31" ht="15" thickBot="1">
       <c r="A823" s="38"/>
       <c r="B823" s="35"/>
       <c r="C823" s="35"/>
@@ -30465,7 +30472,7 @@
       <c r="AD823" s="13"/>
       <c r="AE823" s="13"/>
     </row>
-    <row r="824" spans="1:31" ht="15.75" thickBot="1">
+    <row r="824" spans="1:31" ht="15" thickBot="1">
       <c r="A824" s="39"/>
       <c r="B824" s="40"/>
       <c r="C824" s="40"/>
@@ -30498,7 +30505,7 @@
       <c r="AD824" s="13"/>
       <c r="AE824" s="13"/>
     </row>
-    <row r="825" spans="1:31" ht="15.75" thickBot="1">
+    <row r="825" spans="1:31" ht="15" thickBot="1">
       <c r="A825" s="38"/>
       <c r="B825" s="35"/>
       <c r="C825" s="35"/>
@@ -30531,7 +30538,7 @@
       <c r="AD825" s="13"/>
       <c r="AE825" s="13"/>
     </row>
-    <row r="826" spans="1:31" ht="15.75" thickBot="1">
+    <row r="826" spans="1:31" ht="15" thickBot="1">
       <c r="A826" s="39"/>
       <c r="B826" s="40"/>
       <c r="C826" s="40"/>
@@ -30564,7 +30571,7 @@
       <c r="AD826" s="13"/>
       <c r="AE826" s="13"/>
     </row>
-    <row r="827" spans="1:31" ht="15.75" thickBot="1">
+    <row r="827" spans="1:31" ht="15" thickBot="1">
       <c r="A827" s="38"/>
       <c r="B827" s="35"/>
       <c r="C827" s="35"/>
@@ -30597,7 +30604,7 @@
       <c r="AD827" s="13"/>
       <c r="AE827" s="13"/>
     </row>
-    <row r="828" spans="1:31" ht="15.75" thickBot="1">
+    <row r="828" spans="1:31" ht="15" thickBot="1">
       <c r="A828" s="39"/>
       <c r="B828" s="40"/>
       <c r="C828" s="40"/>
@@ -30630,7 +30637,7 @@
       <c r="AD828" s="13"/>
       <c r="AE828" s="13"/>
     </row>
-    <row r="829" spans="1:31" ht="15.75" thickBot="1">
+    <row r="829" spans="1:31" ht="15" thickBot="1">
       <c r="A829" s="38"/>
       <c r="B829" s="35"/>
       <c r="C829" s="35"/>
@@ -30663,7 +30670,7 @@
       <c r="AD829" s="13"/>
       <c r="AE829" s="13"/>
     </row>
-    <row r="830" spans="1:31" ht="15.75" thickBot="1">
+    <row r="830" spans="1:31" ht="15" thickBot="1">
       <c r="A830" s="39"/>
       <c r="B830" s="40"/>
       <c r="C830" s="40"/>
@@ -30696,7 +30703,7 @@
       <c r="AD830" s="13"/>
       <c r="AE830" s="13"/>
     </row>
-    <row r="831" spans="1:31" ht="15.75" thickBot="1">
+    <row r="831" spans="1:31" ht="15" thickBot="1">
       <c r="A831" s="38"/>
       <c r="B831" s="35"/>
       <c r="C831" s="35"/>
@@ -30729,7 +30736,7 @@
       <c r="AD831" s="13"/>
       <c r="AE831" s="13"/>
     </row>
-    <row r="832" spans="1:31" ht="15.75" thickBot="1">
+    <row r="832" spans="1:31" ht="15" thickBot="1">
       <c r="A832" s="39"/>
       <c r="B832" s="40"/>
       <c r="C832" s="40"/>
@@ -30762,7 +30769,7 @@
       <c r="AD832" s="13"/>
       <c r="AE832" s="13"/>
     </row>
-    <row r="833" spans="1:31" ht="15.75" thickBot="1">
+    <row r="833" spans="1:31" ht="15" thickBot="1">
       <c r="A833" s="38"/>
       <c r="B833" s="35"/>
       <c r="C833" s="35"/>
@@ -30795,7 +30802,7 @@
       <c r="AD833" s="13"/>
       <c r="AE833" s="13"/>
     </row>
-    <row r="834" spans="1:31" ht="15.75" thickBot="1">
+    <row r="834" spans="1:31" ht="15" thickBot="1">
       <c r="A834" s="39"/>
       <c r="B834" s="40"/>
       <c r="C834" s="40"/>
@@ -30828,7 +30835,7 @@
       <c r="AD834" s="13"/>
       <c r="AE834" s="13"/>
     </row>
-    <row r="835" spans="1:31" ht="15.75" thickBot="1">
+    <row r="835" spans="1:31" ht="15" thickBot="1">
       <c r="A835" s="38"/>
       <c r="B835" s="35"/>
       <c r="C835" s="35"/>
@@ -30861,7 +30868,7 @@
       <c r="AD835" s="13"/>
       <c r="AE835" s="13"/>
     </row>
-    <row r="836" spans="1:31" ht="15.75" thickBot="1">
+    <row r="836" spans="1:31" ht="15" thickBot="1">
       <c r="A836" s="39"/>
       <c r="B836" s="40"/>
       <c r="C836" s="40"/>
@@ -30894,7 +30901,7 @@
       <c r="AD836" s="13"/>
       <c r="AE836" s="13"/>
     </row>
-    <row r="837" spans="1:31" ht="15.75" thickBot="1">
+    <row r="837" spans="1:31" ht="15" thickBot="1">
       <c r="A837" s="38"/>
       <c r="B837" s="35"/>
       <c r="C837" s="35"/>
@@ -30927,7 +30934,7 @@
       <c r="AD837" s="13"/>
       <c r="AE837" s="13"/>
     </row>
-    <row r="838" spans="1:31" ht="15.75" thickBot="1">
+    <row r="838" spans="1:31" ht="15" thickBot="1">
       <c r="A838" s="39"/>
       <c r="B838" s="40"/>
       <c r="C838" s="40"/>
@@ -30960,7 +30967,7 @@
       <c r="AD838" s="13"/>
       <c r="AE838" s="13"/>
     </row>
-    <row r="839" spans="1:31" ht="15.75" thickBot="1">
+    <row r="839" spans="1:31" ht="15" thickBot="1">
       <c r="A839" s="38"/>
       <c r="B839" s="35"/>
       <c r="C839" s="35"/>
@@ -30993,7 +31000,7 @@
       <c r="AD839" s="13"/>
       <c r="AE839" s="13"/>
     </row>
-    <row r="840" spans="1:31" ht="15.75" thickBot="1">
+    <row r="840" spans="1:31" ht="15" thickBot="1">
       <c r="A840" s="39"/>
       <c r="B840" s="40"/>
       <c r="C840" s="40"/>
@@ -31026,7 +31033,7 @@
       <c r="AD840" s="13"/>
       <c r="AE840" s="13"/>
     </row>
-    <row r="841" spans="1:31" ht="15.75" thickBot="1">
+    <row r="841" spans="1:31" ht="15" thickBot="1">
       <c r="A841" s="38"/>
       <c r="B841" s="35"/>
       <c r="C841" s="35"/>
@@ -31059,7 +31066,7 @@
       <c r="AD841" s="13"/>
       <c r="AE841" s="13"/>
     </row>
-    <row r="842" spans="1:31" ht="15.75" thickBot="1">
+    <row r="842" spans="1:31" ht="15" thickBot="1">
       <c r="A842" s="39"/>
       <c r="B842" s="40"/>
       <c r="C842" s="40"/>
@@ -31092,7 +31099,7 @@
       <c r="AD842" s="13"/>
       <c r="AE842" s="13"/>
     </row>
-    <row r="843" spans="1:31" ht="15.75" thickBot="1">
+    <row r="843" spans="1:31" ht="15" thickBot="1">
       <c r="A843" s="38"/>
       <c r="B843" s="35"/>
       <c r="C843" s="35"/>
@@ -31125,7 +31132,7 @@
       <c r="AD843" s="13"/>
       <c r="AE843" s="13"/>
     </row>
-    <row r="844" spans="1:31" ht="15.75" thickBot="1">
+    <row r="844" spans="1:31" ht="15" thickBot="1">
       <c r="A844" s="39"/>
       <c r="B844" s="40"/>
       <c r="C844" s="40"/>
@@ -31158,7 +31165,7 @@
       <c r="AD844" s="13"/>
       <c r="AE844" s="13"/>
     </row>
-    <row r="845" spans="1:31" ht="15.75" thickBot="1">
+    <row r="845" spans="1:31" ht="15" thickBot="1">
       <c r="A845" s="38"/>
       <c r="B845" s="35"/>
       <c r="C845" s="35"/>
@@ -31191,7 +31198,7 @@
       <c r="AD845" s="13"/>
       <c r="AE845" s="13"/>
     </row>
-    <row r="846" spans="1:31" ht="15.75" thickBot="1">
+    <row r="846" spans="1:31" ht="15" thickBot="1">
       <c r="A846" s="39"/>
       <c r="B846" s="40"/>
       <c r="C846" s="40"/>
@@ -31224,7 +31231,7 @@
       <c r="AD846" s="13"/>
       <c r="AE846" s="13"/>
     </row>
-    <row r="847" spans="1:31" ht="15.75" thickBot="1">
+    <row r="847" spans="1:31" ht="15" thickBot="1">
       <c r="A847" s="38"/>
       <c r="B847" s="35"/>
       <c r="C847" s="35"/>
@@ -31257,7 +31264,7 @@
       <c r="AD847" s="13"/>
       <c r="AE847" s="13"/>
     </row>
-    <row r="848" spans="1:31" ht="15.75" thickBot="1">
+    <row r="848" spans="1:31" ht="15" thickBot="1">
       <c r="A848" s="39"/>
       <c r="B848" s="40"/>
       <c r="C848" s="40"/>
@@ -31290,7 +31297,7 @@
       <c r="AD848" s="13"/>
       <c r="AE848" s="13"/>
     </row>
-    <row r="849" spans="1:31" ht="15.75" thickBot="1">
+    <row r="849" spans="1:31" ht="15" thickBot="1">
       <c r="A849" s="38"/>
       <c r="B849" s="35"/>
       <c r="C849" s="35"/>
@@ -31323,7 +31330,7 @@
       <c r="AD849" s="13"/>
       <c r="AE849" s="13"/>
     </row>
-    <row r="850" spans="1:31" ht="15.75" thickBot="1">
+    <row r="850" spans="1:31" ht="15" thickBot="1">
       <c r="A850" s="39"/>
       <c r="B850" s="40"/>
       <c r="C850" s="40"/>
@@ -31356,7 +31363,7 @@
       <c r="AD850" s="13"/>
       <c r="AE850" s="13"/>
     </row>
-    <row r="851" spans="1:31" ht="15.75" thickBot="1">
+    <row r="851" spans="1:31" ht="15" thickBot="1">
       <c r="A851" s="38"/>
       <c r="B851" s="35"/>
       <c r="C851" s="35"/>
@@ -31389,7 +31396,7 @@
       <c r="AD851" s="13"/>
       <c r="AE851" s="13"/>
     </row>
-    <row r="852" spans="1:31" ht="15.75" thickBot="1">
+    <row r="852" spans="1:31" ht="15" thickBot="1">
       <c r="A852" s="39"/>
       <c r="B852" s="40"/>
       <c r="C852" s="40"/>
@@ -31422,7 +31429,7 @@
       <c r="AD852" s="13"/>
       <c r="AE852" s="13"/>
     </row>
-    <row r="853" spans="1:31" ht="15.75" thickBot="1">
+    <row r="853" spans="1:31" ht="15" thickBot="1">
       <c r="A853" s="38"/>
       <c r="B853" s="35"/>
       <c r="C853" s="35"/>
@@ -31455,7 +31462,7 @@
       <c r="AD853" s="13"/>
       <c r="AE853" s="13"/>
     </row>
-    <row r="854" spans="1:31" ht="15.75" thickBot="1">
+    <row r="854" spans="1:31" ht="15" thickBot="1">
       <c r="A854" s="39"/>
       <c r="B854" s="40"/>
       <c r="C854" s="40"/>
@@ -31488,7 +31495,7 @@
       <c r="AD854" s="13"/>
       <c r="AE854" s="13"/>
     </row>
-    <row r="855" spans="1:31" ht="15.75" thickBot="1">
+    <row r="855" spans="1:31" ht="15" thickBot="1">
       <c r="A855" s="38"/>
       <c r="B855" s="35"/>
       <c r="C855" s="35"/>
@@ -31521,7 +31528,7 @@
       <c r="AD855" s="13"/>
       <c r="AE855" s="13"/>
     </row>
-    <row r="856" spans="1:31" ht="15.75" thickBot="1">
+    <row r="856" spans="1:31" ht="15" thickBot="1">
       <c r="A856" s="39"/>
       <c r="B856" s="40"/>
       <c r="C856" s="40"/>
@@ -31554,7 +31561,7 @@
       <c r="AD856" s="13"/>
       <c r="AE856" s="13"/>
     </row>
-    <row r="857" spans="1:31" ht="15.75" thickBot="1">
+    <row r="857" spans="1:31" ht="15" thickBot="1">
       <c r="A857" s="38"/>
       <c r="B857" s="35"/>
       <c r="C857" s="35"/>
@@ -31587,7 +31594,7 @@
       <c r="AD857" s="13"/>
       <c r="AE857" s="13"/>
     </row>
-    <row r="858" spans="1:31" ht="15.75" thickBot="1">
+    <row r="858" spans="1:31" ht="15" thickBot="1">
       <c r="A858" s="39"/>
       <c r="B858" s="40"/>
       <c r="C858" s="40"/>
@@ -31620,7 +31627,7 @@
       <c r="AD858" s="13"/>
       <c r="AE858" s="13"/>
     </row>
-    <row r="859" spans="1:31" ht="15.75" thickBot="1">
+    <row r="859" spans="1:31" ht="15" thickBot="1">
       <c r="A859" s="38"/>
       <c r="B859" s="35"/>
       <c r="C859" s="35"/>
@@ -31653,7 +31660,7 @@
       <c r="AD859" s="13"/>
       <c r="AE859" s="13"/>
     </row>
-    <row r="860" spans="1:31" ht="15.75" thickBot="1">
+    <row r="860" spans="1:31" ht="15" thickBot="1">
       <c r="A860" s="39"/>
       <c r="B860" s="40"/>
       <c r="C860" s="40"/>
@@ -31686,7 +31693,7 @@
       <c r="AD860" s="13"/>
       <c r="AE860" s="13"/>
     </row>
-    <row r="861" spans="1:31" ht="15.75" thickBot="1">
+    <row r="861" spans="1:31" ht="15" thickBot="1">
       <c r="A861" s="38"/>
       <c r="B861" s="35"/>
       <c r="C861" s="35"/>
@@ -31719,7 +31726,7 @@
       <c r="AD861" s="13"/>
       <c r="AE861" s="13"/>
     </row>
-    <row r="862" spans="1:31" ht="15.75" thickBot="1">
+    <row r="862" spans="1:31" ht="15" thickBot="1">
       <c r="A862" s="39"/>
       <c r="B862" s="40"/>
       <c r="C862" s="40"/>
@@ -31752,7 +31759,7 @@
       <c r="AD862" s="13"/>
       <c r="AE862" s="13"/>
     </row>
-    <row r="863" spans="1:31" ht="15.75" thickBot="1">
+    <row r="863" spans="1:31" ht="15" thickBot="1">
       <c r="A863" s="38"/>
       <c r="B863" s="35"/>
       <c r="C863" s="35"/>
@@ -31785,7 +31792,7 @@
       <c r="AD863" s="13"/>
       <c r="AE863" s="13"/>
     </row>
-    <row r="864" spans="1:31" ht="15.75" thickBot="1">
+    <row r="864" spans="1:31" ht="15" thickBot="1">
       <c r="A864" s="39"/>
       <c r="B864" s="40"/>
       <c r="C864" s="40"/>
@@ -31818,7 +31825,7 @@
       <c r="AD864" s="13"/>
       <c r="AE864" s="13"/>
     </row>
-    <row r="865" spans="1:31" ht="15.75" thickBot="1">
+    <row r="865" spans="1:31" ht="15" thickBot="1">
       <c r="A865" s="38"/>
       <c r="B865" s="35"/>
       <c r="C865" s="35"/>
@@ -31851,7 +31858,7 @@
       <c r="AD865" s="13"/>
       <c r="AE865" s="13"/>
     </row>
-    <row r="866" spans="1:31" ht="15.75" thickBot="1">
+    <row r="866" spans="1:31" ht="15" thickBot="1">
       <c r="A866" s="39"/>
       <c r="B866" s="40"/>
       <c r="C866" s="40"/>
@@ -31884,7 +31891,7 @@
       <c r="AD866" s="13"/>
       <c r="AE866" s="13"/>
     </row>
-    <row r="867" spans="1:31" ht="15.75" thickBot="1">
+    <row r="867" spans="1:31" ht="15" thickBot="1">
       <c r="A867" s="38"/>
       <c r="B867" s="35"/>
       <c r="C867" s="35"/>
@@ -31917,7 +31924,7 @@
       <c r="AD867" s="13"/>
       <c r="AE867" s="13"/>
     </row>
-    <row r="868" spans="1:31" ht="15.75" thickBot="1">
+    <row r="868" spans="1:31" ht="15" thickBot="1">
       <c r="A868" s="39"/>
       <c r="B868" s="40"/>
       <c r="C868" s="40"/>
@@ -31950,7 +31957,7 @@
       <c r="AD868" s="13"/>
       <c r="AE868" s="13"/>
     </row>
-    <row r="869" spans="1:31" ht="15.75" thickBot="1">
+    <row r="869" spans="1:31" ht="15" thickBot="1">
       <c r="A869" s="38"/>
       <c r="B869" s="35"/>
       <c r="C869" s="35"/>
@@ -31983,7 +31990,7 @@
       <c r="AD869" s="13"/>
       <c r="AE869" s="13"/>
     </row>
-    <row r="870" spans="1:31" ht="15.75" thickBot="1">
+    <row r="870" spans="1:31" ht="15" thickBot="1">
       <c r="A870" s="39"/>
       <c r="B870" s="40"/>
       <c r="C870" s="40"/>
@@ -32016,7 +32023,7 @@
       <c r="AD870" s="13"/>
       <c r="AE870" s="13"/>
     </row>
-    <row r="871" spans="1:31" ht="15.75" thickBot="1">
+    <row r="871" spans="1:31" ht="15" thickBot="1">
       <c r="A871" s="38"/>
       <c r="B871" s="35"/>
       <c r="C871" s="35"/>
@@ -32049,7 +32056,7 @@
       <c r="AD871" s="13"/>
       <c r="AE871" s="13"/>
     </row>
-    <row r="872" spans="1:31" ht="15.75" thickBot="1">
+    <row r="872" spans="1:31" ht="15" thickBot="1">
       <c r="A872" s="39"/>
       <c r="B872" s="40"/>
       <c r="C872" s="40"/>
@@ -32082,7 +32089,7 @@
       <c r="AD872" s="13"/>
       <c r="AE872" s="13"/>
     </row>
-    <row r="873" spans="1:31" ht="15.75" thickBot="1">
+    <row r="873" spans="1:31" ht="15" thickBot="1">
       <c r="A873" s="38"/>
       <c r="B873" s="35"/>
       <c r="C873" s="35"/>
@@ -32115,7 +32122,7 @@
       <c r="AD873" s="13"/>
       <c r="AE873" s="13"/>
     </row>
-    <row r="874" spans="1:31" ht="15.75" thickBot="1">
+    <row r="874" spans="1:31" ht="15" thickBot="1">
       <c r="A874" s="39"/>
       <c r="B874" s="40"/>
       <c r="C874" s="40"/>
@@ -32148,7 +32155,7 @@
       <c r="AD874" s="13"/>
       <c r="AE874" s="13"/>
     </row>
-    <row r="875" spans="1:31" ht="15.75" thickBot="1">
+    <row r="875" spans="1:31" ht="15" thickBot="1">
       <c r="A875" s="38"/>
       <c r="B875" s="35"/>
       <c r="C875" s="35"/>
@@ -32181,7 +32188,7 @@
       <c r="AD875" s="13"/>
       <c r="AE875" s="13"/>
     </row>
-    <row r="876" spans="1:31" ht="15.75" thickBot="1">
+    <row r="876" spans="1:31" ht="15" thickBot="1">
       <c r="A876" s="39"/>
       <c r="B876" s="40"/>
       <c r="C876" s="40"/>
@@ -32214,7 +32221,7 @@
       <c r="AD876" s="13"/>
       <c r="AE876" s="13"/>
     </row>
-    <row r="877" spans="1:31" ht="15.75" thickBot="1">
+    <row r="877" spans="1:31" ht="15" thickBot="1">
       <c r="A877" s="38"/>
       <c r="B877" s="35"/>
       <c r="C877" s="35"/>
@@ -32247,7 +32254,7 @@
       <c r="AD877" s="13"/>
       <c r="AE877" s="13"/>
     </row>
-    <row r="878" spans="1:31" ht="15.75" thickBot="1">
+    <row r="878" spans="1:31" ht="15" thickBot="1">
       <c r="A878" s="39"/>
       <c r="B878" s="40"/>
       <c r="C878" s="40"/>
@@ -32280,7 +32287,7 @@
       <c r="AD878" s="13"/>
       <c r="AE878" s="13"/>
     </row>
-    <row r="879" spans="1:31" ht="15.75" thickBot="1">
+    <row r="879" spans="1:31" ht="15" thickBot="1">
       <c r="A879" s="38"/>
       <c r="B879" s="35"/>
       <c r="C879" s="35"/>
@@ -32313,7 +32320,7 @@
       <c r="AD879" s="13"/>
       <c r="AE879" s="13"/>
     </row>
-    <row r="880" spans="1:31" ht="15.75" thickBot="1">
+    <row r="880" spans="1:31" ht="15" thickBot="1">
       <c r="A880" s="39"/>
       <c r="B880" s="40"/>
       <c r="C880" s="40"/>
@@ -32346,7 +32353,7 @@
       <c r="AD880" s="13"/>
       <c r="AE880" s="13"/>
     </row>
-    <row r="881" spans="1:31" ht="15.75" thickBot="1">
+    <row r="881" spans="1:31" ht="15" thickBot="1">
       <c r="A881" s="38"/>
       <c r="B881" s="35"/>
       <c r="C881" s="35"/>
@@ -32379,7 +32386,7 @@
       <c r="AD881" s="13"/>
       <c r="AE881" s="13"/>
     </row>
-    <row r="882" spans="1:31" ht="15.75" thickBot="1">
+    <row r="882" spans="1:31" ht="15" thickBot="1">
       <c r="A882" s="39"/>
       <c r="B882" s="40"/>
       <c r="C882" s="40"/>
@@ -32412,7 +32419,7 @@
       <c r="AD882" s="13"/>
       <c r="AE882" s="13"/>
     </row>
-    <row r="883" spans="1:31" ht="15.75" thickBot="1">
+    <row r="883" spans="1:31" ht="15" thickBot="1">
       <c r="A883" s="38"/>
       <c r="B883" s="35"/>
       <c r="C883" s="35"/>
@@ -32445,7 +32452,7 @@
       <c r="AD883" s="13"/>
       <c r="AE883" s="13"/>
     </row>
-    <row r="884" spans="1:31" ht="15.75" thickBot="1">
+    <row r="884" spans="1:31" ht="15" thickBot="1">
       <c r="A884" s="39"/>
       <c r="B884" s="40"/>
       <c r="C884" s="40"/>
@@ -32478,7 +32485,7 @@
       <c r="AD884" s="13"/>
       <c r="AE884" s="13"/>
     </row>
-    <row r="885" spans="1:31" ht="15.75" thickBot="1">
+    <row r="885" spans="1:31" ht="15" thickBot="1">
       <c r="A885" s="38"/>
       <c r="B885" s="35"/>
       <c r="C885" s="35"/>
@@ -32511,7 +32518,7 @@
       <c r="AD885" s="13"/>
       <c r="AE885" s="13"/>
     </row>
-    <row r="886" spans="1:31" ht="15.75" thickBot="1">
+    <row r="886" spans="1:31" ht="15" thickBot="1">
       <c r="A886" s="39"/>
       <c r="B886" s="40"/>
       <c r="C886" s="40"/>
@@ -32544,7 +32551,7 @@
       <c r="AD886" s="13"/>
       <c r="AE886" s="13"/>
     </row>
-    <row r="887" spans="1:31" ht="15.75" thickBot="1">
+    <row r="887" spans="1:31" ht="15" thickBot="1">
       <c r="A887" s="38"/>
       <c r="B887" s="35"/>
       <c r="C887" s="35"/>
@@ -32577,7 +32584,7 @@
       <c r="AD887" s="13"/>
       <c r="AE887" s="13"/>
     </row>
-    <row r="888" spans="1:31" ht="15.75" thickBot="1">
+    <row r="888" spans="1:31" ht="15" thickBot="1">
       <c r="A888" s="39"/>
       <c r="B888" s="40"/>
       <c r="C888" s="40"/>
@@ -32610,7 +32617,7 @@
       <c r="AD888" s="13"/>
       <c r="AE888" s="13"/>
     </row>
-    <row r="889" spans="1:31" ht="15.75" thickBot="1">
+    <row r="889" spans="1:31" ht="15" thickBot="1">
       <c r="A889" s="38"/>
       <c r="B889" s="35"/>
       <c r="C889" s="35"/>
@@ -32643,7 +32650,7 @@
       <c r="AD889" s="13"/>
       <c r="AE889" s="13"/>
     </row>
-    <row r="890" spans="1:31" ht="15.75" thickBot="1">
+    <row r="890" spans="1:31" ht="15" thickBot="1">
       <c r="A890" s="39"/>
       <c r="B890" s="40"/>
       <c r="C890" s="40"/>
@@ -32676,7 +32683,7 @@
       <c r="AD890" s="13"/>
       <c r="AE890" s="13"/>
     </row>
-    <row r="891" spans="1:31" ht="15.75" thickBot="1">
+    <row r="891" spans="1:31" ht="15" thickBot="1">
       <c r="A891" s="38"/>
       <c r="B891" s="35"/>
       <c r="C891" s="35"/>
@@ -32709,7 +32716,7 @@
       <c r="AD891" s="13"/>
       <c r="AE891" s="13"/>
     </row>
-    <row r="892" spans="1:31" ht="15.75" thickBot="1">
+    <row r="892" spans="1:31" ht="15" thickBot="1">
       <c r="A892" s="39"/>
       <c r="B892" s="40"/>
       <c r="C892" s="40"/>
@@ -32742,7 +32749,7 @@
       <c r="AD892" s="13"/>
       <c r="AE892" s="13"/>
     </row>
-    <row r="893" spans="1:31" ht="15.75" thickBot="1">
+    <row r="893" spans="1:31" ht="15" thickBot="1">
       <c r="A893" s="38"/>
       <c r="B893" s="35"/>
       <c r="C893" s="35"/>
@@ -32775,7 +32782,7 @@
       <c r="AD893" s="13"/>
       <c r="AE893" s="13"/>
     </row>
-    <row r="894" spans="1:31" ht="15.75" thickBot="1">
+    <row r="894" spans="1:31" ht="15" thickBot="1">
       <c r="A894" s="39"/>
       <c r="B894" s="40"/>
       <c r="C894" s="40"/>
@@ -32808,7 +32815,7 @@
       <c r="AD894" s="13"/>
       <c r="AE894" s="13"/>
     </row>
-    <row r="895" spans="1:31" ht="15.75" thickBot="1">
+    <row r="895" spans="1:31" ht="15" thickBot="1">
       <c r="A895" s="38"/>
       <c r="B895" s="35"/>
       <c r="C895" s="35"/>
@@ -32841,7 +32848,7 @@
       <c r="AD895" s="13"/>
       <c r="AE895" s="13"/>
     </row>
-    <row r="896" spans="1:31" ht="15.75" thickBot="1">
+    <row r="896" spans="1:31" ht="15" thickBot="1">
       <c r="A896" s="39"/>
       <c r="B896" s="40"/>
       <c r="C896" s="40"/>
@@ -32874,7 +32881,7 @@
       <c r="AD896" s="13"/>
       <c r="AE896" s="13"/>
     </row>
-    <row r="897" spans="1:31" ht="15.75" thickBot="1">
+    <row r="897" spans="1:31" ht="15" thickBot="1">
       <c r="A897" s="38"/>
       <c r="B897" s="35"/>
       <c r="C897" s="35"/>
@@ -32907,7 +32914,7 @@
       <c r="AD897" s="13"/>
       <c r="AE897" s="13"/>
     </row>
-    <row r="898" spans="1:31" ht="15.75" thickBot="1">
+    <row r="898" spans="1:31" ht="15" thickBot="1">
       <c r="A898" s="39"/>
       <c r="B898" s="40"/>
       <c r="C898" s="40"/>
@@ -32940,7 +32947,7 @@
       <c r="AD898" s="13"/>
       <c r="AE898" s="13"/>
     </row>
-    <row r="899" spans="1:31" ht="15.75" thickBot="1">
+    <row r="899" spans="1:31" ht="15" thickBot="1">
       <c r="A899" s="38"/>
       <c r="B899" s="35"/>
       <c r="C899" s="35"/>
@@ -32973,7 +32980,7 @@
       <c r="AD899" s="13"/>
       <c r="AE899" s="13"/>
     </row>
-    <row r="900" spans="1:31" ht="15.75" thickBot="1">
+    <row r="900" spans="1:31" ht="15" thickBot="1">
       <c r="A900" s="39"/>
       <c r="B900" s="40"/>
       <c r="C900" s="40"/>
@@ -33006,7 +33013,7 @@
       <c r="AD900" s="13"/>
       <c r="AE900" s="13"/>
     </row>
-    <row r="901" spans="1:31" ht="15.75" thickBot="1">
+    <row r="901" spans="1:31" ht="15" thickBot="1">
       <c r="A901" s="38"/>
       <c r="B901" s="35"/>
       <c r="C901" s="35"/>
@@ -33039,7 +33046,7 @@
       <c r="AD901" s="13"/>
       <c r="AE901" s="13"/>
     </row>
-    <row r="902" spans="1:31" ht="15.75" thickBot="1">
+    <row r="902" spans="1:31" ht="15" thickBot="1">
       <c r="A902" s="39"/>
       <c r="B902" s="40"/>
       <c r="C902" s="40"/>
@@ -33072,7 +33079,7 @@
       <c r="AD902" s="13"/>
       <c r="AE902" s="13"/>
     </row>
-    <row r="903" spans="1:31" ht="15.75" thickBot="1">
+    <row r="903" spans="1:31" ht="15" thickBot="1">
       <c r="A903" s="38"/>
       <c r="B903" s="35"/>
       <c r="C903" s="35"/>
@@ -33105,7 +33112,7 @@
       <c r="AD903" s="13"/>
       <c r="AE903" s="13"/>
     </row>
-    <row r="904" spans="1:31" ht="15.75" thickBot="1">
+    <row r="904" spans="1:31" ht="15" thickBot="1">
       <c r="A904" s="39"/>
       <c r="B904" s="40"/>
       <c r="C904" s="40"/>
@@ -33138,7 +33145,7 @@
       <c r="AD904" s="13"/>
       <c r="AE904" s="13"/>
     </row>
-    <row r="905" spans="1:31" ht="15.75" thickBot="1">
+    <row r="905" spans="1:31" ht="15" thickBot="1">
       <c r="A905" s="38"/>
       <c r="B905" s="35"/>
       <c r="C905" s="35"/>
@@ -33171,7 +33178,7 @@
       <c r="AD905" s="13"/>
       <c r="AE905" s="13"/>
     </row>
-    <row r="906" spans="1:31" ht="15.75" thickBot="1">
+    <row r="906" spans="1:31" ht="15" thickBot="1">
       <c r="A906" s="39"/>
       <c r="B906" s="40"/>
       <c r="C906" s="40"/>
@@ -33204,7 +33211,7 @@
       <c r="AD906" s="13"/>
       <c r="AE906" s="13"/>
     </row>
-    <row r="907" spans="1:31" ht="15.75" thickBot="1">
+    <row r="907" spans="1:31" ht="15" thickBot="1">
       <c r="A907" s="38"/>
       <c r="B907" s="35"/>
       <c r="C907" s="35"/>
@@ -33237,7 +33244,7 @@
       <c r="AD907" s="13"/>
       <c r="AE907" s="13"/>
     </row>
-    <row r="908" spans="1:31" ht="15.75" thickBot="1">
+    <row r="908" spans="1:31" ht="15" thickBot="1">
       <c r="A908" s="39"/>
       <c r="B908" s="40"/>
       <c r="C908" s="40"/>
@@ -33270,7 +33277,7 @@
       <c r="AD908" s="13"/>
       <c r="AE908" s="13"/>
     </row>
-    <row r="909" spans="1:31" ht="15.75" thickBot="1">
+    <row r="909" spans="1:31" ht="15" thickBot="1">
       <c r="A909" s="38"/>
       <c r="B909" s="35"/>
       <c r="C909" s="35"/>
@@ -33303,7 +33310,7 @@
       <c r="AD909" s="13"/>
       <c r="AE909" s="13"/>
     </row>
-    <row r="910" spans="1:31" ht="15.75" thickBot="1">
+    <row r="910" spans="1:31" ht="15" thickBot="1">
       <c r="A910" s="39"/>
       <c r="B910" s="40"/>
       <c r="C910" s="40"/>
@@ -33336,7 +33343,7 @@
       <c r="AD910" s="13"/>
       <c r="AE910" s="13"/>
     </row>
-    <row r="911" spans="1:31" ht="15.75" thickBot="1">
+    <row r="911" spans="1:31" ht="15" thickBot="1">
       <c r="A911" s="38"/>
       <c r="B911" s="35"/>
       <c r="C911" s="35"/>
@@ -33369,7 +33376,7 @@
       <c r="AD911" s="13"/>
       <c r="AE911" s="13"/>
     </row>
-    <row r="912" spans="1:31" ht="15.75" thickBot="1">
+    <row r="912" spans="1:31" ht="15" thickBot="1">
       <c r="A912" s="39"/>
       <c r="B912" s="40"/>
       <c r="C912" s="40"/>
@@ -33402,7 +33409,7 @@
       <c r="AD912" s="13"/>
       <c r="AE912" s="13"/>
     </row>
-    <row r="913" spans="1:31" ht="15.75" thickBot="1">
+    <row r="913" spans="1:31" ht="15" thickBot="1">
       <c r="A913" s="38"/>
       <c r="B913" s="35"/>
       <c r="C913" s="35"/>
@@ -33435,7 +33442,7 @@
       <c r="AD913" s="13"/>
       <c r="AE913" s="13"/>
     </row>
-    <row r="914" spans="1:31" ht="15.75" thickBot="1">
+    <row r="914" spans="1:31" ht="15" thickBot="1">
       <c r="A914" s="39"/>
       <c r="B914" s="40"/>
       <c r="C914" s="40"/>
@@ -33468,7 +33475,7 @@
       <c r="AD914" s="13"/>
       <c r="AE914" s="13"/>
     </row>
-    <row r="915" spans="1:31" ht="15.75" thickBot="1">
+    <row r="915" spans="1:31" ht="15" thickBot="1">
       <c r="A915" s="38"/>
       <c r="B915" s="35"/>
       <c r="C915" s="35"/>
@@ -33501,7 +33508,7 @@
       <c r="AD915" s="13"/>
       <c r="AE915" s="13"/>
     </row>
-    <row r="916" spans="1:31" ht="15.75" thickBot="1">
+    <row r="916" spans="1:31" ht="15" thickBot="1">
       <c r="A916" s="39"/>
       <c r="B916" s="40"/>
       <c r="C916" s="40"/>
@@ -33534,7 +33541,7 @@
       <c r="AD916" s="13"/>
       <c r="AE916" s="13"/>
     </row>
-    <row r="917" spans="1:31" ht="15.75" thickBot="1">
+    <row r="917" spans="1:31" ht="15" thickBot="1">
       <c r="A917" s="38"/>
       <c r="B917" s="35"/>
       <c r="C917" s="35"/>
@@ -33567,7 +33574,7 @@
       <c r="AD917" s="13"/>
       <c r="AE917" s="13"/>
     </row>
-    <row r="918" spans="1:31" ht="15.75" thickBot="1">
+    <row r="918" spans="1:31" ht="15" thickBot="1">
       <c r="A918" s="39"/>
       <c r="B918" s="40"/>
       <c r="C918" s="40"/>
@@ -33600,7 +33607,7 @@
       <c r="AD918" s="13"/>
       <c r="AE918" s="13"/>
     </row>
-    <row r="919" spans="1:31" ht="15.75" thickBot="1">
+    <row r="919" spans="1:31" ht="15" thickBot="1">
       <c r="A919" s="38"/>
       <c r="B919" s="35"/>
       <c r="C919" s="35"/>
@@ -33633,7 +33640,7 @@
       <c r="AD919" s="13"/>
       <c r="AE919" s="13"/>
     </row>
-    <row r="920" spans="1:31" ht="15.75" thickBot="1">
+    <row r="920" spans="1:31" ht="15" thickBot="1">
       <c r="A920" s="39"/>
       <c r="B920" s="40"/>
       <c r="C920" s="40"/>
@@ -33666,7 +33673,7 @@
       <c r="AD920" s="13"/>
       <c r="AE920" s="13"/>
     </row>
-    <row r="921" spans="1:31" ht="15.75" thickBot="1">
+    <row r="921" spans="1:31" ht="15" thickBot="1">
       <c r="A921" s="38"/>
       <c r="B921" s="35"/>
       <c r="C921" s="35"/>
@@ -33699,7 +33706,7 @@
       <c r="AD921" s="13"/>
       <c r="AE921" s="13"/>
     </row>
-    <row r="922" spans="1:31" ht="15.75" thickBot="1">
+    <row r="922" spans="1:31" ht="15" thickBot="1">
       <c r="A922" s="39"/>
       <c r="B922" s="40"/>
       <c r="C922" s="40"/>
@@ -33732,7 +33739,7 @@
       <c r="AD922" s="13"/>
       <c r="AE922" s="13"/>
     </row>
-    <row r="923" spans="1:31" ht="15.75" thickBot="1">
+    <row r="923" spans="1:31" ht="15" thickBot="1">
       <c r="A923" s="38"/>
       <c r="B923" s="35"/>
       <c r="C923" s="35"/>
@@ -33765,7 +33772,7 @@
       <c r="AD923" s="13"/>
       <c r="AE923" s="13"/>
     </row>
-    <row r="924" spans="1:31" ht="15.75" thickBot="1">
+    <row r="924" spans="1:31" ht="15" thickBot="1">
       <c r="A924" s="39"/>
       <c r="B924" s="40"/>
       <c r="C924" s="40"/>
@@ -33798,7 +33805,7 @@
       <c r="AD924" s="13"/>
       <c r="AE924" s="13"/>
     </row>
-    <row r="925" spans="1:31" ht="15.75" thickBot="1">
+    <row r="925" spans="1:31" ht="15" thickBot="1">
       <c r="A925" s="38"/>
       <c r="B925" s="35"/>
       <c r="C925" s="35"/>
@@ -33831,7 +33838,7 @@
       <c r="AD925" s="13"/>
       <c r="AE925" s="13"/>
     </row>
-    <row r="926" spans="1:31" ht="15.75" thickBot="1">
+    <row r="926" spans="1:31" ht="15" thickBot="1">
       <c r="A926" s="39"/>
       <c r="B926" s="40"/>
       <c r="C926" s="40"/>
@@ -33864,7 +33871,7 @@
       <c r="AD926" s="13"/>
       <c r="AE926" s="13"/>
     </row>
-    <row r="927" spans="1:31" ht="15.75" thickBot="1">
+    <row r="927" spans="1:31" ht="15" thickBot="1">
       <c r="A927" s="38"/>
       <c r="B927" s="35"/>
       <c r="C927" s="35"/>
@@ -33897,7 +33904,7 @@
       <c r="AD927" s="13"/>
       <c r="AE927" s="13"/>
     </row>
-    <row r="928" spans="1:31" ht="15.75" thickBot="1">
+    <row r="928" spans="1:31" ht="15" thickBot="1">
       <c r="A928" s="39"/>
       <c r="B928" s="40"/>
       <c r="C928" s="40"/>
@@ -33930,7 +33937,7 @@
       <c r="AD928" s="13"/>
       <c r="AE928" s="13"/>
     </row>
-    <row r="929" spans="1:31" ht="15.75" thickBot="1">
+    <row r="929" spans="1:31" ht="15" thickBot="1">
       <c r="A929" s="38"/>
       <c r="B929" s="35"/>
       <c r="C929" s="35"/>
@@ -33963,7 +33970,7 @@
       <c r="AD929" s="13"/>
       <c r="AE929" s="13"/>
     </row>
-    <row r="930" spans="1:31" ht="15.75" thickBot="1">
+    <row r="930" spans="1:31" ht="15" thickBot="1">
       <c r="A930" s="39"/>
       <c r="B930" s="40"/>
       <c r="C930" s="40"/>
@@ -33996,7 +34003,7 @@
       <c r="AD930" s="13"/>
       <c r="AE930" s="13"/>
     </row>
-    <row r="931" spans="1:31" ht="15.75" thickBot="1">
+    <row r="931" spans="1:31" ht="15" thickBot="1">
       <c r="A931" s="38"/>
       <c r="B931" s="35"/>
       <c r="C931" s="35"/>
@@ -34029,7 +34036,7 @@
       <c r="AD931" s="13"/>
       <c r="AE931" s="13"/>
     </row>
-    <row r="932" spans="1:31" ht="15.75" thickBot="1">
+    <row r="932" spans="1:31" ht="15" thickBot="1">
       <c r="A932" s="39"/>
       <c r="B932" s="40"/>
       <c r="C932" s="40"/>
@@ -34062,7 +34069,7 @@
       <c r="AD932" s="13"/>
       <c r="AE932" s="13"/>
     </row>
-    <row r="933" spans="1:31" ht="15.75" thickBot="1">
+    <row r="933" spans="1:31" ht="15" thickBot="1">
       <c r="A933" s="38"/>
       <c r="B933" s="35"/>
       <c r="C933" s="35"/>
@@ -34095,7 +34102,7 @@
       <c r="AD933" s="13"/>
       <c r="AE933" s="13"/>
     </row>
-    <row r="934" spans="1:31" ht="15.75" thickBot="1">
+    <row r="934" spans="1:31" ht="15" thickBot="1">
       <c r="A934" s="39"/>
       <c r="B934" s="40"/>
       <c r="C934" s="40"/>
@@ -34128,7 +34135,7 @@
       <c r="AD934" s="13"/>
       <c r="AE934" s="13"/>
     </row>
-    <row r="935" spans="1:31" ht="15.75" thickBot="1">
+    <row r="935" spans="1:31" ht="15" thickBot="1">
       <c r="A935" s="38"/>
       <c r="B935" s="35"/>
       <c r="C935" s="35"/>
@@ -34161,7 +34168,7 @@
       <c r="AD935" s="13"/>
       <c r="AE935" s="13"/>
     </row>
-    <row r="936" spans="1:31" ht="15.75" thickBot="1">
+    <row r="936" spans="1:31" ht="15" thickBot="1">
       <c r="A936" s="39"/>
       <c r="B936" s="40"/>
       <c r="C936" s="40"/>
@@ -34194,7 +34201,7 @@
       <c r="AD936" s="13"/>
       <c r="AE936" s="13"/>
     </row>
-    <row r="937" spans="1:31" ht="15.75" thickBot="1">
+    <row r="937" spans="1:31" ht="15" thickBot="1">
       <c r="A937" s="38"/>
       <c r="B937" s="35"/>
       <c r="C937" s="35"/>
@@ -34227,7 +34234,7 @@
       <c r="AD937" s="13"/>
       <c r="AE937" s="13"/>
     </row>
-    <row r="938" spans="1:31" ht="15.75" thickBot="1">
+    <row r="938" spans="1:31" ht="15" thickBot="1">
       <c r="A938" s="39"/>
       <c r="B938" s="40"/>
       <c r="C938" s="40"/>
@@ -34260,7 +34267,7 @@
       <c r="AD938" s="13"/>
       <c r="AE938" s="13"/>
     </row>
-    <row r="939" spans="1:31" ht="15.75" thickBot="1">
+    <row r="939" spans="1:31" ht="15" thickBot="1">
       <c r="A939" s="38"/>
       <c r="B939" s="35"/>
       <c r="C939" s="35"/>
@@ -34293,7 +34300,7 @@
       <c r="AD939" s="13"/>
       <c r="AE939" s="13"/>
     </row>
-    <row r="940" spans="1:31" ht="15.75" thickBot="1">
+    <row r="940" spans="1:31" ht="15" thickBot="1">
       <c r="A940" s="39"/>
       <c r="B940" s="40"/>
       <c r="C940" s="40"/>
@@ -34326,7 +34333,7 @@
       <c r="AD940" s="13"/>
       <c r="AE940" s="13"/>
     </row>
-    <row r="941" spans="1:31" ht="15.75" thickBot="1">
+    <row r="941" spans="1:31" ht="15" thickBot="1">
       <c r="A941" s="38"/>
       <c r="B941" s="35"/>
       <c r="C941" s="35"/>
@@ -34359,7 +34366,7 @@
       <c r="AD941" s="13"/>
       <c r="AE941" s="13"/>
     </row>
-    <row r="942" spans="1:31" ht="15.75" thickBot="1">
+    <row r="942" spans="1:31" ht="15" thickBot="1">
       <c r="A942" s="39"/>
       <c r="B942" s="40"/>
       <c r="C942" s="40"/>
@@ -34392,7 +34399,7 @@
       <c r="AD942" s="13"/>
       <c r="AE942" s="13"/>
     </row>
-    <row r="943" spans="1:31" ht="15.75" thickBot="1">
+    <row r="943" spans="1:31" ht="15" thickBot="1">
       <c r="A943" s="38"/>
       <c r="B943" s="35"/>
       <c r="C943" s="35"/>
@@ -34425,7 +34432,7 @@
       <c r="AD943" s="13"/>
       <c r="AE943" s="13"/>
     </row>
-    <row r="944" spans="1:31" ht="15.75" thickBot="1">
+    <row r="944" spans="1:31" ht="15" thickBot="1">
       <c r="A944" s="39"/>
       <c r="B944" s="40"/>
       <c r="C944" s="40"/>
@@ -34458,7 +34465,7 @@
       <c r="AD944" s="13"/>
       <c r="AE944" s="13"/>
     </row>
-    <row r="945" spans="1:31" ht="15.75" thickBot="1">
+    <row r="945" spans="1:31" ht="15" thickBot="1">
       <c r="A945" s="38"/>
       <c r="B945" s="35"/>
       <c r="C945" s="35"/>
@@ -34491,7 +34498,7 @@
       <c r="AD945" s="13"/>
       <c r="AE945" s="13"/>
     </row>
-    <row r="946" spans="1:31" ht="15.75" thickBot="1">
+    <row r="946" spans="1:31" ht="15" thickBot="1">
       <c r="A946" s="39"/>
       <c r="B946" s="40"/>
       <c r="C946" s="40"/>
@@ -34524,7 +34531,7 @@
       <c r="AD946" s="13"/>
       <c r="AE946" s="13"/>
     </row>
-    <row r="947" spans="1:31" ht="15.75" thickBot="1">
+    <row r="947" spans="1:31" ht="15" thickBot="1">
       <c r="A947" s="38"/>
       <c r="B947" s="35"/>
       <c r="C947" s="35"/>
@@ -34557,7 +34564,7 @@
       <c r="AD947" s="13"/>
       <c r="AE947" s="13"/>
     </row>
-    <row r="948" spans="1:31" ht="15.75" thickBot="1">
+    <row r="948" spans="1:31" ht="15" thickBot="1">
       <c r="A948" s="39"/>
       <c r="B948" s="40"/>
       <c r="C948" s="40"/>
@@ -34590,7 +34597,7 @@
       <c r="AD948" s="13"/>
       <c r="AE948" s="13"/>
     </row>
-    <row r="949" spans="1:31" ht="15.75" thickBot="1">
+    <row r="949" spans="1:31" ht="15" thickBot="1">
       <c r="A949" s="38"/>
       <c r="B949" s="35"/>
       <c r="C949" s="35"/>
@@ -34623,7 +34630,7 @@
       <c r="AD949" s="13"/>
       <c r="AE949" s="13"/>
     </row>
-    <row r="950" spans="1:31" ht="15.75" thickBot="1">
+    <row r="950" spans="1:31" ht="15" thickBot="1">
       <c r="A950" s="39"/>
       <c r="B950" s="40"/>
       <c r="C950" s="40"/>
@@ -34656,7 +34663,7 @@
       <c r="AD950" s="13"/>
       <c r="AE950" s="13"/>
     </row>
-    <row r="951" spans="1:31" ht="15.75" thickBot="1">
+    <row r="951" spans="1:31" ht="15" thickBot="1">
       <c r="A951" s="38"/>
       <c r="B951" s="35"/>
       <c r="C951" s="35"/>
@@ -34689,7 +34696,7 @@
       <c r="AD951" s="13"/>
       <c r="AE951" s="13"/>
     </row>
-    <row r="952" spans="1:31" ht="15.75" thickBot="1">
+    <row r="952" spans="1:31" ht="15" thickBot="1">
       <c r="A952" s="39"/>
       <c r="B952" s="40"/>
       <c r="C952" s="40"/>
@@ -34722,7 +34729,7 @@
       <c r="AD952" s="13"/>
       <c r="AE952" s="13"/>
     </row>
-    <row r="953" spans="1:31" ht="15.75" thickBot="1">
+    <row r="953" spans="1:31" ht="15" thickBot="1">
       <c r="A953" s="38"/>
       <c r="B953" s="35"/>
       <c r="C953" s="35"/>
@@ -34755,7 +34762,7 @@
       <c r="AD953" s="13"/>
       <c r="AE953" s="13"/>
     </row>
-    <row r="954" spans="1:31" ht="15.75" thickBot="1">
+    <row r="954" spans="1:31" ht="15" thickBot="1">
       <c r="A954" s="39"/>
       <c r="B954" s="40"/>
       <c r="C954" s="40"/>
@@ -34788,7 +34795,7 @@
       <c r="AD954" s="13"/>
       <c r="AE954" s="13"/>
     </row>
-    <row r="955" spans="1:31" ht="15.75" thickBot="1">
+    <row r="955" spans="1:31" ht="15" thickBot="1">
       <c r="A955" s="38"/>
       <c r="B955" s="35"/>
       <c r="C955" s="35"/>
@@ -34821,7 +34828,7 @@
       <c r="AD955" s="13"/>
       <c r="AE955" s="13"/>
     </row>
-    <row r="956" spans="1:31" ht="15.75" thickBot="1">
+    <row r="956" spans="1:31" ht="15" thickBot="1">
       <c r="A956" s="39"/>
       <c r="B956" s="40"/>
       <c r="C956" s="40"/>
@@ -34854,7 +34861,7 @@
       <c r="AD956" s="13"/>
       <c r="AE956" s="13"/>
     </row>
-    <row r="957" spans="1:31" ht="15.75" thickBot="1">
+    <row r="957" spans="1:31" ht="15" thickBot="1">
       <c r="A957" s="38"/>
       <c r="B957" s="35"/>
       <c r="C957" s="35"/>
@@ -34887,7 +34894,7 @@
       <c r="AD957" s="13"/>
       <c r="AE957" s="13"/>
     </row>
-    <row r="958" spans="1:31" ht="15.75" thickBot="1">
+    <row r="958" spans="1:31" ht="15" thickBot="1">
       <c r="A958" s="39"/>
       <c r="B958" s="40"/>
       <c r="C958" s="40"/>
@@ -34920,7 +34927,7 @@
       <c r="AD958" s="13"/>
       <c r="AE958" s="13"/>
     </row>
-    <row r="959" spans="1:31" ht="15.75" thickBot="1">
+    <row r="959" spans="1:31" ht="15" thickBot="1">
       <c r="A959" s="38"/>
       <c r="B959" s="35"/>
       <c r="C959" s="35"/>
@@ -34953,7 +34960,7 @@
       <c r="AD959" s="13"/>
       <c r="AE959" s="13"/>
     </row>
-    <row r="960" spans="1:31" ht="15.75" thickBot="1">
+    <row r="960" spans="1:31" ht="15" thickBot="1">
       <c r="A960" s="39"/>
       <c r="B960" s="40"/>
       <c r="C960" s="40"/>
@@ -34986,7 +34993,7 @@
       <c r="AD960" s="13"/>
       <c r="AE960" s="13"/>
     </row>
-    <row r="961" spans="1:31" ht="15.75" thickBot="1">
+    <row r="961" spans="1:31" ht="15" thickBot="1">
       <c r="A961" s="38"/>
       <c r="B961" s="35"/>
       <c r="C961" s="35"/>
@@ -35019,7 +35026,7 @@
       <c r="AD961" s="13"/>
       <c r="AE961" s="13"/>
     </row>
-    <row r="962" spans="1:31" ht="15.75" thickBot="1">
+    <row r="962" spans="1:31" ht="15" thickBot="1">
       <c r="A962" s="39"/>
       <c r="B962" s="40"/>
       <c r="C962" s="40"/>
@@ -35052,7 +35059,7 @@
       <c r="AD962" s="13"/>
       <c r="AE962" s="13"/>
     </row>
-    <row r="963" spans="1:31" ht="15.75" thickBot="1">
+    <row r="963" spans="1:31" ht="15" thickBot="1">
       <c r="A963" s="38"/>
       <c r="B963" s="35"/>
       <c r="C963" s="35"/>
@@ -35085,7 +35092,7 @@
       <c r="AD963" s="13"/>
       <c r="AE963" s="13"/>
     </row>
-    <row r="964" spans="1:31" ht="15.75" thickBot="1">
+    <row r="964" spans="1:31" ht="15" thickBot="1">
       <c r="A964" s="39"/>
       <c r="B964" s="40"/>
       <c r="C964" s="40"/>
@@ -35118,7 +35125,7 @@
       <c r="AD964" s="13"/>
       <c r="AE964" s="13"/>
     </row>
-    <row r="965" spans="1:31" ht="15.75" thickBot="1">
+    <row r="965" spans="1:31" ht="15" thickBot="1">
       <c r="A965" s="38"/>
       <c r="B965" s="35"/>
       <c r="C965" s="35"/>
@@ -35151,7 +35158,7 @@
       <c r="AD965" s="13"/>
       <c r="AE965" s="13"/>
     </row>
-    <row r="966" spans="1:31" ht="15.75" thickBot="1">
+    <row r="966" spans="1:31" ht="15" thickBot="1">
       <c r="A966" s="39"/>
       <c r="B966" s="40"/>
       <c r="C966" s="40"/>
@@ -35184,7 +35191,7 @@
       <c r="AD966" s="13"/>
       <c r="AE966" s="13"/>
     </row>
-    <row r="967" spans="1:31" ht="15.75" thickBot="1">
+    <row r="967" spans="1:31" ht="15" thickBot="1">
       <c r="A967" s="38"/>
       <c r="B967" s="35"/>
       <c r="C967" s="35"/>
@@ -35217,7 +35224,7 @@
       <c r="AD967" s="13"/>
       <c r="AE967" s="13"/>
     </row>
-    <row r="968" spans="1:31" ht="15.75" thickBot="1">
+    <row r="968" spans="1:31" ht="15" thickBot="1">
       <c r="A968" s="39"/>
       <c r="B968" s="40"/>
       <c r="C968" s="40"/>
@@ -35250,7 +35257,7 @@
       <c r="AD968" s="13"/>
       <c r="AE968" s="13"/>
     </row>
-    <row r="969" spans="1:31" ht="15.75" thickBot="1">
+    <row r="969" spans="1:31" ht="15" thickBot="1">
       <c r="A969" s="38"/>
       <c r="B969" s="35"/>
       <c r="C969" s="35"/>
@@ -35283,7 +35290,7 @@
       <c r="AD969" s="13"/>
       <c r="AE969" s="13"/>
     </row>
-    <row r="970" spans="1:31" ht="15.75" thickBot="1">
+    <row r="970" spans="1:31" ht="15" thickBot="1">
       <c r="A970" s="39"/>
       <c r="B970" s="40"/>
       <c r="C970" s="40"/>
@@ -35316,7 +35323,7 @@
       <c r="AD970" s="13"/>
       <c r="AE970" s="13"/>
     </row>
-    <row r="971" spans="1:31" ht="15.75" thickBot="1">
+    <row r="971" spans="1:31" ht="15" thickBot="1">
       <c r="A971" s="38"/>
       <c r="B971" s="35"/>
       <c r="C971" s="35"/>
@@ -35349,7 +35356,7 @@
       <c r="AD971" s="13"/>
       <c r="AE971" s="13"/>
     </row>
-    <row r="972" spans="1:31" ht="15.75" thickBot="1">
+    <row r="972" spans="1:31" ht="15" thickBot="1">
       <c r="A972" s="39"/>
       <c r="B972" s="40"/>
       <c r="C972" s="40"/>
@@ -35382,7 +35389,7 @@
       <c r="AD972" s="13"/>
       <c r="AE972" s="13"/>
     </row>
-    <row r="973" spans="1:31" ht="15.75" thickBot="1">
+    <row r="973" spans="1:31" ht="15" thickBot="1">
       <c r="A973" s="38"/>
       <c r="B973" s="35"/>
       <c r="C973" s="35"/>
@@ -35415,7 +35422,7 @@
       <c r="AD973" s="13"/>
       <c r="AE973" s="13"/>
     </row>
-    <row r="974" spans="1:31" ht="15.75" thickBot="1">
+    <row r="974" spans="1:31" ht="15" thickBot="1">
       <c r="A974" s="39"/>
       <c r="B974" s="40"/>
       <c r="C974" s="40"/>
@@ -35448,7 +35455,7 @@
       <c r="AD974" s="13"/>
       <c r="AE974" s="13"/>
     </row>
-    <row r="975" spans="1:31" ht="15.75" thickBot="1">
+    <row r="975" spans="1:31" ht="15" thickBot="1">
       <c r="A975" s="38"/>
       <c r="B975" s="35"/>
       <c r="C975" s="35"/>
@@ -35481,7 +35488,7 @@
       <c r="AD975" s="13"/>
       <c r="AE975" s="13"/>
     </row>
-    <row r="976" spans="1:31" ht="15.75" thickBot="1">
+    <row r="976" spans="1:31" ht="15" thickBot="1">
       <c r="A976" s="39"/>
       <c r="B976" s="40"/>
       <c r="C976" s="40"/>
@@ -35514,7 +35521,7 @@
       <c r="AD976" s="13"/>
       <c r="AE976" s="13"/>
     </row>
-    <row r="977" spans="1:31" ht="15.75" thickBot="1">
+    <row r="977" spans="1:31" ht="15" thickBot="1">
       <c r="A977" s="38"/>
       <c r="B977" s="35"/>
       <c r="C977" s="35"/>
@@ -35547,7 +35554,7 @@
       <c r="AD977" s="13"/>
       <c r="AE977" s="13"/>
     </row>
-    <row r="978" spans="1:31" ht="15.75" thickBot="1">
+    <row r="978" spans="1:31" ht="15" thickBot="1">
       <c r="A978" s="39"/>
       <c r="B978" s="40"/>
       <c r="C978" s="40"/>
@@ -35580,7 +35587,7 @@
       <c r="AD978" s="13"/>
       <c r="AE978" s="13"/>
     </row>
-    <row r="979" spans="1:31" ht="15.75" thickBot="1">
+    <row r="979" spans="1:31" ht="15" thickBot="1">
       <c r="A979" s="38"/>
       <c r="B979" s="35"/>
       <c r="C979" s="35"/>
@@ -35613,7 +35620,7 @@
       <c r="AD979" s="13"/>
       <c r="AE979" s="13"/>
     </row>
-    <row r="980" spans="1:31" ht="15.75" thickBot="1">
+    <row r="980" spans="1:31" ht="15" thickBot="1">
       <c r="A980" s="39"/>
       <c r="B980" s="40"/>
       <c r="C980" s="40"/>
@@ -35646,7 +35653,7 @@
       <c r="AD980" s="13"/>
       <c r="AE980" s="13"/>
     </row>
-    <row r="981" spans="1:31" ht="15.75" thickBot="1">
+    <row r="981" spans="1:31" ht="15" thickBot="1">
       <c r="A981" s="38"/>
       <c r="B981" s="35"/>
       <c r="C981" s="35"/>
@@ -35679,7 +35686,7 @@
       <c r="AD981" s="13"/>
       <c r="AE981" s="13"/>
     </row>
-    <row r="982" spans="1:31" ht="15.75" thickBot="1">
+    <row r="982" spans="1:31" ht="15" thickBot="1">
       <c r="A982" s="39"/>
       <c r="B982" s="40"/>
       <c r="C982" s="40"/>
@@ -35712,7 +35719,7 @@
       <c r="AD982" s="13"/>
       <c r="AE982" s="13"/>
     </row>
-    <row r="983" spans="1:31" ht="15.75" thickBot="1">
+    <row r="983" spans="1:31" ht="15" thickBot="1">
       <c r="A983" s="38"/>
       <c r="B983" s="35"/>
       <c r="C983" s="35"/>
@@ -35745,7 +35752,7 @@
       <c r="AD983" s="13"/>
       <c r="AE983" s="13"/>
     </row>
-    <row r="984" spans="1:31" ht="15.75" thickBot="1">
+    <row r="984" spans="1:31" ht="15" thickBot="1">
       <c r="A984" s="39"/>
       <c r="B984" s="40"/>
       <c r="C984" s="40"/>
@@ -35778,7 +35785,7 @@
       <c r="AD984" s="13"/>
       <c r="AE984" s="13"/>
     </row>
-    <row r="985" spans="1:31" ht="15.75" thickBot="1">
+    <row r="985" spans="1:31" ht="15" thickBot="1">
       <c r="A985" s="38"/>
       <c r="B985" s="35"/>
       <c r="C985" s="35"/>
@@ -35811,7 +35818,7 @@
       <c r="AD985" s="13"/>
       <c r="AE985" s="13"/>
     </row>
-    <row r="986" spans="1:31" ht="15.75" thickBot="1">
+    <row r="986" spans="1:31" ht="15" thickBot="1">
       <c r="A986" s="39"/>
       <c r="B986" s="40"/>
       <c r="C986" s="40"/>
@@ -35844,7 +35851,7 @@
       <c r="AD986" s="13"/>
       <c r="AE986" s="13"/>
     </row>
-    <row r="987" spans="1:31" ht="15.75" thickBot="1">
+    <row r="987" spans="1:31" ht="15" thickBot="1">
       <c r="A987" s="38"/>
       <c r="B987" s="35"/>
       <c r="C987" s="35"/>
@@ -35877,7 +35884,7 @@
       <c r="AD987" s="13"/>
       <c r="AE987" s="13"/>
     </row>
-    <row r="988" spans="1:31" ht="15.75" thickBot="1">
+    <row r="988" spans="1:31" ht="15" thickBot="1">
       <c r="A988" s="39"/>
       <c r="B988" s="40"/>
       <c r="C988" s="40"/>
@@ -35910,7 +35917,7 @@
       <c r="AD988" s="13"/>
       <c r="AE988" s="13"/>
     </row>
-    <row r="989" spans="1:31" ht="15.75" thickBot="1">
+    <row r="989" spans="1:31" ht="15" thickBot="1">
       <c r="A989" s="38"/>
       <c r="B989" s="35"/>
       <c r="C989" s="35"/>
@@ -35943,7 +35950,7 @@
       <c r="AD989" s="13"/>
       <c r="AE989" s="13"/>
     </row>
-    <row r="990" spans="1:31" ht="15.75" thickBot="1">
+    <row r="990" spans="1:31" ht="15" thickBot="1">
       <c r="A990" s="39"/>
       <c r="B990" s="40"/>
       <c r="C990" s="40"/>
@@ -35976,7 +35983,7 @@
       <c r="AD990" s="13"/>
       <c r="AE990" s="13"/>
     </row>
-    <row r="991" spans="1:31" ht="15.75" thickBot="1">
+    <row r="991" spans="1:31" ht="15" thickBot="1">
       <c r="A991" s="38"/>
       <c r="B991" s="35"/>
       <c r="C991" s="35"/>
@@ -36009,7 +36016,7 @@
       <c r="AD991" s="13"/>
       <c r="AE991" s="13"/>
     </row>
-    <row r="992" spans="1:31" ht="15.75" thickBot="1">
+    <row r="992" spans="1:31" ht="15" thickBot="1">
       <c r="A992" s="39"/>
       <c r="B992" s="40"/>
       <c r="C992" s="40"/>
@@ -36042,7 +36049,7 @@
       <c r="AD992" s="13"/>
       <c r="AE992" s="13"/>
     </row>
-    <row r="993" spans="1:31" ht="15.75" thickBot="1">
+    <row r="993" spans="1:31" ht="15" thickBot="1">
       <c r="A993" s="38"/>
       <c r="B993" s="35"/>
       <c r="C993" s="35"/>
@@ -36075,7 +36082,7 @@
       <c r="AD993" s="13"/>
       <c r="AE993" s="13"/>
     </row>
-    <row r="994" spans="1:31" ht="15.75" thickBot="1">
+    <row r="994" spans="1:31" ht="15" thickBot="1">
       <c r="A994" s="39"/>
       <c r="B994" s="40"/>
       <c r="C994" s="40"/>
@@ -36108,7 +36115,7 @@
       <c r="AD994" s="13"/>
       <c r="AE994" s="13"/>
     </row>
-    <row r="995" spans="1:31" ht="15.75" thickBot="1">
+    <row r="995" spans="1:31" ht="15" thickBot="1">
       <c r="A995" s="38"/>
       <c r="B995" s="35"/>
       <c r="C995" s="35"/>
@@ -36141,7 +36148,7 @@
       <c r="AD995" s="13"/>
       <c r="AE995" s="13"/>
     </row>
-    <row r="996" spans="1:31" ht="15.75" thickBot="1">
+    <row r="996" spans="1:31" ht="15" thickBot="1">
       <c r="A996" s="39"/>
       <c r="B996" s="40"/>
       <c r="C996" s="40"/>
@@ -36174,7 +36181,7 @@
       <c r="AD996" s="13"/>
       <c r="AE996" s="13"/>
     </row>
-    <row r="997" spans="1:31" ht="15.75" thickBot="1">
+    <row r="997" spans="1:31" ht="15" thickBot="1">
       <c r="A997" s="38"/>
       <c r="B997" s="35"/>
       <c r="C997" s="35"/>
@@ -36207,7 +36214,7 @@
       <c r="AD997" s="13"/>
       <c r="AE997" s="13"/>
     </row>
-    <row r="998" spans="1:31" ht="15.75" thickBot="1">
+    <row r="998" spans="1:31" ht="15" thickBot="1">
       <c r="A998" s="39"/>
       <c r="B998" s="40"/>
       <c r="C998" s="40"/>
@@ -36240,7 +36247,7 @@
       <c r="AD998" s="13"/>
       <c r="AE998" s="13"/>
     </row>
-    <row r="999" spans="1:31" ht="15.75" thickBot="1">
+    <row r="999" spans="1:31" ht="15" thickBot="1">
       <c r="A999" s="38"/>
       <c r="B999" s="35"/>
       <c r="C999" s="35"/>
@@ -36273,7 +36280,7 @@
       <c r="AD999" s="13"/>
       <c r="AE999" s="13"/>
     </row>
-    <row r="1000" spans="1:31" ht="15.75" thickBot="1">
+    <row r="1000" spans="1:31" ht="15" thickBot="1">
       <c r="A1000" s="39"/>
       <c r="B1000" s="40"/>
       <c r="C1000" s="40"/>
@@ -36306,7 +36313,7 @@
       <c r="AD1000" s="13"/>
       <c r="AE1000" s="13"/>
     </row>
-    <row r="1001" spans="1:31" ht="15.75" thickBot="1">
+    <row r="1001" spans="1:31" ht="15" thickBot="1">
       <c r="A1001" s="38"/>
       <c r="B1001" s="35"/>
       <c r="C1001" s="35"/>
@@ -36339,7 +36346,7 @@
       <c r="AD1001" s="13"/>
       <c r="AE1001" s="13"/>
     </row>
-    <row r="1002" spans="1:31" ht="15.75" thickBot="1">
+    <row r="1002" spans="1:31" ht="15" thickBot="1">
       <c r="A1002" s="39"/>
       <c r="B1002" s="40"/>
       <c r="C1002" s="40"/>
@@ -36372,7 +36379,7 @@
       <c r="AD1002" s="13"/>
       <c r="AE1002" s="13"/>
     </row>
-    <row r="1003" spans="1:31" ht="15.75" thickBot="1">
+    <row r="1003" spans="1:31" ht="15" thickBot="1">
       <c r="A1003" s="38"/>
       <c r="B1003" s="35"/>
       <c r="C1003" s="35"/>
@@ -36405,7 +36412,7 @@
       <c r="AD1003" s="13"/>
       <c r="AE1003" s="13"/>
     </row>
-    <row r="1004" spans="1:31" ht="15.75" thickBot="1">
+    <row r="1004" spans="1:31" ht="15" thickBot="1">
       <c r="A1004" s="39"/>
       <c r="B1004" s="40"/>
       <c r="C1004" s="40"/>
@@ -36438,7 +36445,7 @@
       <c r="AD1004" s="13"/>
       <c r="AE1004" s="13"/>
     </row>
-    <row r="1005" spans="1:31" ht="15.75" thickBot="1">
+    <row r="1005" spans="1:31" ht="15" thickBot="1">
       <c r="A1005" s="38"/>
       <c r="B1005" s="35"/>
       <c r="C1005" s="35"/>
@@ -36471,7 +36478,7 @@
       <c r="AD1005" s="13"/>
       <c r="AE1005" s="13"/>
     </row>
-    <row r="1006" spans="1:31" ht="15.75" thickBot="1">
+    <row r="1006" spans="1:31" ht="15" thickBot="1">
       <c r="A1006" s="39"/>
       <c r="B1006" s="40"/>
       <c r="C1006" s="40"/>
@@ -36504,7 +36511,7 @@
       <c r="AD1006" s="13"/>
       <c r="AE1006" s="13"/>
     </row>
-    <row r="1007" spans="1:31" ht="15.75" thickBot="1">
+    <row r="1007" spans="1:31" ht="15" thickBot="1">
       <c r="A1007" s="38"/>
       <c r="B1007" s="35"/>
       <c r="C1007" s="35"/>
@@ -36537,7 +36544,7 @@
       <c r="AD1007" s="13"/>
       <c r="AE1007" s="13"/>
     </row>
-    <row r="1008" spans="1:31" ht="15.75" thickBot="1">
+    <row r="1008" spans="1:31" ht="15" thickBot="1">
       <c r="A1008" s="39"/>
       <c r="B1008" s="40"/>
       <c r="C1008" s="40"/>
@@ -36570,7 +36577,7 @@
       <c r="AD1008" s="13"/>
       <c r="AE1008" s="13"/>
     </row>
-    <row r="1009" spans="1:31" ht="15.75" thickBot="1">
+    <row r="1009" spans="1:31" ht="15" thickBot="1">
       <c r="A1009" s="41"/>
       <c r="B1009" s="42"/>
       <c r="C1009" s="42"/>

--- a/resultado_notificacao.xlsx
+++ b/resultado_notificacao.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno.manzatto\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B978A9-C54C-4B92-9847-75B7A2EE2B43}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A802499F-B636-4894-B3E3-5B9FB1A31CC1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6060" xr2:uid="{49FAAD74-2E73-4D71-9BB1-839EA0047892}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="101">
   <si>
     <t>LARCO COMERCIAL</t>
   </si>
@@ -309,15 +309,6 @@
     <t>CIA ULTRAGAZ S/A</t>
   </si>
   <si>
-    <t>out./25</t>
-  </si>
-  <si>
-    <t>ago./25</t>
-  </si>
-  <si>
-    <t>set./25</t>
-  </si>
-  <si>
     <t>Omissão de NFE de saída - Anidro</t>
   </si>
   <si>
@@ -340,21 +331,6 @@
   </si>
   <si>
     <t>RM PETROLEO LTDA</t>
-  </si>
-  <si>
-    <t>jun./25</t>
-  </si>
-  <si>
-    <t>mai./25</t>
-  </si>
-  <si>
-    <t>mar./25</t>
-  </si>
-  <si>
-    <t>jul./25</t>
-  </si>
-  <si>
-    <t>dez./25</t>
   </si>
 </sst>
 </file>
@@ -1245,11 +1221,11 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="3" fillId="5" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1568,8 +1544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55370B4A-8FBA-4146-9AAA-D8FB8A58FF65}">
   <dimension ref="A1:AE1009"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:L104"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1677,8 +1653,8 @@
       <c r="J2" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="73" t="s">
-        <v>104</v>
+      <c r="K2" s="74">
+        <v>45809</v>
       </c>
       <c r="L2" s="46" t="s">
         <v>3</v>
@@ -1734,8 +1710,8 @@
       <c r="J3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="53" t="s">
-        <v>93</v>
+      <c r="K3" s="18">
+        <v>45931</v>
       </c>
       <c r="L3" s="14" t="s">
         <v>3</v>
@@ -1791,8 +1767,8 @@
       <c r="J4" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="53" t="s">
-        <v>105</v>
+      <c r="K4" s="18">
+        <v>45778</v>
       </c>
       <c r="L4" s="6" t="s">
         <v>3</v>
@@ -1848,8 +1824,8 @@
       <c r="J5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="53" t="s">
-        <v>105</v>
+      <c r="K5" s="18">
+        <v>45778</v>
       </c>
       <c r="L5" s="14" t="s">
         <v>8</v>
@@ -1905,8 +1881,8 @@
       <c r="J6" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="53" t="s">
-        <v>104</v>
+      <c r="K6" s="18">
+        <v>45809</v>
       </c>
       <c r="L6" s="6" t="s">
         <v>8</v>
@@ -1962,8 +1938,8 @@
       <c r="J7" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="K7" s="53" t="s">
-        <v>104</v>
+      <c r="K7" s="18">
+        <v>45809</v>
       </c>
       <c r="L7" s="14" t="s">
         <v>8</v>
@@ -2019,8 +1995,8 @@
       <c r="J8" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="K8" s="53" t="s">
-        <v>106</v>
+      <c r="K8" s="18">
+        <v>45717</v>
       </c>
       <c r="L8" s="6" t="s">
         <v>8</v>
@@ -2076,8 +2052,8 @@
       <c r="J9" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="K9" s="53" t="s">
-        <v>106</v>
+      <c r="K9" s="18">
+        <v>45717</v>
       </c>
       <c r="L9" s="14" t="s">
         <v>8</v>
@@ -2133,8 +2109,8 @@
       <c r="J10" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="K10" s="53" t="s">
-        <v>104</v>
+      <c r="K10" s="18">
+        <v>45809</v>
       </c>
       <c r="L10" s="6" t="s">
         <v>8</v>
@@ -2190,8 +2166,8 @@
       <c r="J11" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="K11" s="53" t="s">
-        <v>104</v>
+      <c r="K11" s="18">
+        <v>45809</v>
       </c>
       <c r="L11" s="14" t="s">
         <v>8</v>
@@ -2247,8 +2223,8 @@
       <c r="J12" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="53" t="s">
-        <v>105</v>
+      <c r="K12" s="18">
+        <v>45778</v>
       </c>
       <c r="L12" s="6" t="s">
         <v>8</v>
@@ -2304,8 +2280,8 @@
       <c r="J13" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="K13" s="53" t="s">
-        <v>104</v>
+      <c r="K13" s="18">
+        <v>45809</v>
       </c>
       <c r="L13" s="14" t="s">
         <v>8</v>
@@ -2361,8 +2337,8 @@
       <c r="J14" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="K14" s="53" t="s">
-        <v>104</v>
+      <c r="K14" s="18">
+        <v>45809</v>
       </c>
       <c r="L14" s="6" t="s">
         <v>8</v>
@@ -2418,8 +2394,8 @@
       <c r="J15" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="K15" s="53" t="s">
-        <v>104</v>
+      <c r="K15" s="18">
+        <v>45809</v>
       </c>
       <c r="L15" s="14" t="s">
         <v>8</v>
@@ -2475,8 +2451,8 @@
       <c r="J16" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="K16" s="53" t="s">
-        <v>93</v>
+      <c r="K16" s="18">
+        <v>45931</v>
       </c>
       <c r="L16" s="6" t="s">
         <v>8</v>
@@ -2589,8 +2565,8 @@
       <c r="J18" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="K18" s="53" t="s">
-        <v>104</v>
+      <c r="K18" s="18">
+        <v>45809</v>
       </c>
       <c r="L18" s="6" t="s">
         <v>8</v>
@@ -2646,8 +2622,8 @@
       <c r="J19" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="K19" s="53" t="s">
-        <v>104</v>
+      <c r="K19" s="18">
+        <v>45809</v>
       </c>
       <c r="L19" s="14" t="s">
         <v>8</v>
@@ -2703,8 +2679,8 @@
       <c r="J20" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="K20" s="53" t="s">
-        <v>94</v>
+      <c r="K20" s="18">
+        <v>45870</v>
       </c>
       <c r="L20" s="6" t="s">
         <v>8</v>
@@ -2760,8 +2736,8 @@
       <c r="J21" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="K21" s="53" t="s">
-        <v>104</v>
+      <c r="K21" s="18">
+        <v>45809</v>
       </c>
       <c r="L21" s="14" t="s">
         <v>8</v>
@@ -2874,8 +2850,8 @@
       <c r="J23" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="K23" s="53" t="s">
-        <v>94</v>
+      <c r="K23" s="18">
+        <v>45870</v>
       </c>
       <c r="L23" s="14" t="s">
         <v>78</v>
@@ -2988,8 +2964,8 @@
       <c r="J25" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="K25" s="53" t="s">
-        <v>104</v>
+      <c r="K25" s="18">
+        <v>45809</v>
       </c>
       <c r="L25" s="14" t="s">
         <v>78</v>
@@ -3045,8 +3021,8 @@
       <c r="J26" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="K26" s="53" t="s">
-        <v>104</v>
+      <c r="K26" s="18">
+        <v>45809</v>
       </c>
       <c r="L26" s="6" t="s">
         <v>78</v>
@@ -3275,8 +3251,8 @@
       <c r="J30" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="K30" s="53" t="s">
-        <v>107</v>
+      <c r="K30" s="18">
+        <v>45839</v>
       </c>
       <c r="L30" s="6" t="s">
         <v>79</v>
@@ -3332,8 +3308,8 @@
       <c r="J31" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="K31" s="53" t="s">
-        <v>104</v>
+      <c r="K31" s="18">
+        <v>45809</v>
       </c>
       <c r="L31" s="14" t="s">
         <v>8</v>
@@ -3389,8 +3365,8 @@
       <c r="J32" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="K32" s="53" t="s">
-        <v>94</v>
+      <c r="K32" s="18">
+        <v>45870</v>
       </c>
       <c r="L32" s="6" t="s">
         <v>8</v>
@@ -3446,8 +3422,8 @@
       <c r="J33" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="K33" s="53" t="s">
-        <v>94</v>
+      <c r="K33" s="18">
+        <v>45870</v>
       </c>
       <c r="L33" s="14" t="s">
         <v>8</v>
@@ -3503,8 +3479,8 @@
       <c r="J34" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="K34" s="53" t="s">
-        <v>105</v>
+      <c r="K34" s="18">
+        <v>45778</v>
       </c>
       <c r="L34" s="6" t="s">
         <v>8</v>
@@ -3560,8 +3536,8 @@
       <c r="J35" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="K35" s="53" t="s">
-        <v>105</v>
+      <c r="K35" s="18">
+        <v>45778</v>
       </c>
       <c r="L35" s="14" t="s">
         <v>8</v>
@@ -3790,8 +3766,8 @@
       <c r="J39" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="K39" s="53" t="s">
-        <v>94</v>
+      <c r="K39" s="18">
+        <v>45870</v>
       </c>
       <c r="L39" s="14" t="s">
         <v>79</v>
@@ -3847,8 +3823,8 @@
       <c r="J40" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="K40" s="53" t="s">
-        <v>95</v>
+      <c r="K40" s="18">
+        <v>45901</v>
       </c>
       <c r="L40" s="6" t="s">
         <v>8</v>
@@ -3904,8 +3880,8 @@
       <c r="J41" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="K41" s="53" t="s">
-        <v>94</v>
+      <c r="K41" s="18">
+        <v>45870</v>
       </c>
       <c r="L41" s="14" t="s">
         <v>8</v>
@@ -4871,8 +4847,8 @@
       <c r="J58" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="K58" s="53" t="s">
-        <v>108</v>
+      <c r="K58" s="18">
+        <v>45992</v>
       </c>
       <c r="L58" s="6" t="s">
         <v>8</v>
@@ -4928,8 +4904,8 @@
       <c r="J59" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="K59" s="53" t="s">
-        <v>108</v>
+      <c r="K59" s="18">
+        <v>45992</v>
       </c>
       <c r="L59" s="14" t="s">
         <v>78</v>
@@ -5555,8 +5531,8 @@
       <c r="J70" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="K70" s="53" t="s">
-        <v>108</v>
+      <c r="K70" s="18">
+        <v>45992</v>
       </c>
       <c r="L70" s="6" t="s">
         <v>79</v>
@@ -5894,7 +5870,7 @@
       <c r="I76" s="59">
         <v>2759722.06</v>
       </c>
-      <c r="J76" s="74" t="s">
+      <c r="J76" s="73" t="s">
         <v>4</v>
       </c>
       <c r="K76" s="53" t="s">
@@ -6129,7 +6105,7 @@
         <v>5</v>
       </c>
       <c r="L80" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="M80" s="11"/>
       <c r="N80" s="12"/>
@@ -6156,7 +6132,7 @@
         <v>2913444000143</v>
       </c>
       <c r="B81" s="14" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>1</v>
@@ -6213,7 +6189,7 @@
         <v>858886000451</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>1</v>
@@ -6384,7 +6360,7 @@
         <v>3237583003930</v>
       </c>
       <c r="B85" s="14" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C85" s="32" t="s">
         <v>57</v>
@@ -6471,7 +6447,7 @@
         <v>5</v>
       </c>
       <c r="L86" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="M86" s="11"/>
       <c r="N86" s="12"/>
@@ -6528,7 +6504,7 @@
         <v>5</v>
       </c>
       <c r="L87" s="66" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="M87" s="17"/>
       <c r="N87" s="12"/>
@@ -6555,7 +6531,7 @@
         <v>48700586000638</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C88" s="26" t="s">
         <v>35</v>
@@ -6612,7 +6588,7 @@
         <v>33453598026866</v>
       </c>
       <c r="B89" s="14" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C89" s="24" t="s">
         <v>35</v>
@@ -6840,7 +6816,7 @@
         <v>44297367000275</v>
       </c>
       <c r="B93" s="14" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C93" s="32" t="s">
         <v>57</v>
@@ -7011,7 +6987,7 @@
         <v>33453598045143</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C96" s="31" t="s">
         <v>57</v>
@@ -7125,7 +7101,7 @@
         <v>44297367000780</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C98" s="31" t="s">
         <v>57</v>
@@ -7155,7 +7131,7 @@
         <v>5</v>
       </c>
       <c r="L98" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="M98" s="11"/>
       <c r="N98" s="12"/>
@@ -7182,7 +7158,7 @@
         <v>4414127000108</v>
       </c>
       <c r="B99" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C99" s="32" t="s">
         <v>57</v>
@@ -7212,7 +7188,7 @@
         <v>5</v>
       </c>
       <c r="L99" s="66" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="M99" s="17"/>
       <c r="N99" s="12"/>
@@ -7269,7 +7245,7 @@
         <v>5</v>
       </c>
       <c r="L100" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="M100" s="11"/>
       <c r="N100" s="12"/>
@@ -7326,7 +7302,7 @@
         <v>5</v>
       </c>
       <c r="L101" s="66" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="M101" s="17"/>
       <c r="N101" s="12"/>
@@ -7383,7 +7359,7 @@
         <v>5</v>
       </c>
       <c r="L102" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="M102" s="11"/>
       <c r="N102" s="12"/>
@@ -7440,7 +7416,7 @@
         <v>5</v>
       </c>
       <c r="L103" s="66" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="M103" s="17"/>
       <c r="N103" s="12"/>
@@ -7497,7 +7473,7 @@
         <v>5</v>
       </c>
       <c r="L104" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="M104" s="11"/>
       <c r="N104" s="12"/>
